--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19347200</v>
+        <v>20462900</v>
       </c>
       <c r="E8" s="3">
-        <v>21562300</v>
+        <v>23888900</v>
       </c>
       <c r="F8" s="3">
-        <v>17372700</v>
+        <v>18872600</v>
       </c>
       <c r="G8" s="3">
-        <v>19345800</v>
+        <v>21033300</v>
       </c>
       <c r="H8" s="3">
-        <v>15032200</v>
+        <v>16946500</v>
       </c>
       <c r="I8" s="3">
+        <v>18871200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>14663400</v>
+      </c>
+      <c r="K8" s="3">
         <v>17546300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>14366400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>16349600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12428800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>13832100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10939000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11548800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>8751100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16461300</v>
+        <v>17308800</v>
       </c>
       <c r="E9" s="3">
-        <v>18387800</v>
+        <v>20530100</v>
       </c>
       <c r="F9" s="3">
-        <v>14763700</v>
+        <v>16057400</v>
       </c>
       <c r="G9" s="3">
-        <v>16595000</v>
+        <v>17936700</v>
       </c>
       <c r="H9" s="3">
-        <v>12720800</v>
+        <v>14401500</v>
       </c>
       <c r="I9" s="3">
+        <v>16187900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12408700</v>
+      </c>
+      <c r="K9" s="3">
         <v>15176900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>12334900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>14218500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>10502000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11955000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>18670800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>19852900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>14923400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2886000</v>
+        <v>3154100</v>
       </c>
       <c r="E10" s="3">
-        <v>3174500</v>
+        <v>3358800</v>
       </c>
       <c r="F10" s="3">
-        <v>2609000</v>
+        <v>2815200</v>
       </c>
       <c r="G10" s="3">
-        <v>2750800</v>
+        <v>3096600</v>
       </c>
       <c r="H10" s="3">
-        <v>2311400</v>
+        <v>2545000</v>
       </c>
       <c r="I10" s="3">
+        <v>2683300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2254700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2369400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2031400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2131100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1926800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1877100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-7731900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-8304100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-6172300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>510900</v>
+        <v>547300</v>
       </c>
       <c r="E12" s="3">
-        <v>531000</v>
+        <v>499200</v>
       </c>
       <c r="F12" s="3">
-        <v>529700</v>
+        <v>498300</v>
       </c>
       <c r="G12" s="3">
-        <v>499300</v>
+        <v>518000</v>
       </c>
       <c r="H12" s="3">
-        <v>490900</v>
+        <v>516700</v>
       </c>
       <c r="I12" s="3">
+        <v>487000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>478900</v>
+      </c>
+      <c r="K12" s="3">
         <v>395500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>342700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>302600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>257500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>226400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>184500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>168700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>175700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>-543700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21000</v>
+        <v>39500</v>
       </c>
       <c r="E15" s="3">
-        <v>21200</v>
+        <v>66000</v>
       </c>
       <c r="F15" s="3">
-        <v>63700</v>
+        <v>20500</v>
       </c>
       <c r="G15" s="3">
-        <v>65000</v>
+        <v>20700</v>
       </c>
       <c r="H15" s="3">
-        <v>65500</v>
+        <v>62100</v>
       </c>
       <c r="I15" s="3">
+        <v>63400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K15" s="3">
         <v>64600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>64000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>66700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>66300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>65700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>63900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>65100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18633700</v>
+        <v>20138100</v>
       </c>
       <c r="E17" s="3">
-        <v>21237100</v>
+        <v>23814800</v>
       </c>
       <c r="F17" s="3">
-        <v>17196900</v>
+        <v>18176500</v>
       </c>
       <c r="G17" s="3">
-        <v>19480500</v>
+        <v>20716000</v>
       </c>
       <c r="H17" s="3">
-        <v>15125500</v>
+        <v>16775000</v>
       </c>
       <c r="I17" s="3">
+        <v>19002600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>14754400</v>
+      </c>
+      <c r="K17" s="3">
         <v>17694700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14365700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16586500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12354200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>13891900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10842800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>11598000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8785200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>713600</v>
+        <v>324800</v>
       </c>
       <c r="E18" s="3">
-        <v>325200</v>
+        <v>74100</v>
       </c>
       <c r="F18" s="3">
-        <v>175900</v>
+        <v>696100</v>
       </c>
       <c r="G18" s="3">
-        <v>-134700</v>
+        <v>317200</v>
       </c>
       <c r="H18" s="3">
-        <v>-93400</v>
+        <v>171500</v>
       </c>
       <c r="I18" s="3">
+        <v>-131400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-91100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-148400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-236900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>74600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-59800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>96200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-49200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-34100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-524400</v>
+        <v>-102100</v>
       </c>
       <c r="E20" s="3">
-        <v>-161700</v>
+        <v>521100</v>
       </c>
       <c r="F20" s="3">
-        <v>929900</v>
+        <v>-511500</v>
       </c>
       <c r="G20" s="3">
-        <v>-535600</v>
+        <v>-157700</v>
       </c>
       <c r="H20" s="3">
-        <v>548100</v>
+        <v>907100</v>
       </c>
       <c r="I20" s="3">
+        <v>-522400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>534700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-120500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>265800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>95700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>120500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>42100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-113100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>192900</v>
+        <v>419400</v>
       </c>
       <c r="E21" s="3">
-        <v>118600</v>
+        <v>598500</v>
       </c>
       <c r="F21" s="3">
-        <v>1345800</v>
+        <v>188200</v>
       </c>
       <c r="G21" s="3">
-        <v>-652600</v>
+        <v>115700</v>
       </c>
       <c r="H21" s="3">
-        <v>488100</v>
+        <v>1312800</v>
       </c>
       <c r="I21" s="3">
+        <v>-636600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>476100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-259600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>437800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-31900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>117300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-15000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>219700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-158100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23400</v>
+        <v>29000</v>
       </c>
       <c r="E22" s="3">
-        <v>22200</v>
+        <v>30800</v>
       </c>
       <c r="F22" s="3">
-        <v>26900</v>
+        <v>22800</v>
       </c>
       <c r="G22" s="3">
-        <v>20800</v>
+        <v>21700</v>
       </c>
       <c r="H22" s="3">
-        <v>34600</v>
+        <v>26200</v>
       </c>
       <c r="I22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K22" s="3">
         <v>34400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>32800</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>42000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>30900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>27600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>9200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>165800</v>
+        <v>193700</v>
       </c>
       <c r="E23" s="3">
-        <v>141300</v>
+        <v>564500</v>
       </c>
       <c r="F23" s="3">
-        <v>1078900</v>
+        <v>161700</v>
       </c>
       <c r="G23" s="3">
-        <v>-691100</v>
+        <v>137800</v>
       </c>
       <c r="H23" s="3">
-        <v>420200</v>
+        <v>1052400</v>
       </c>
       <c r="I23" s="3">
+        <v>-674100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>409900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-303300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>233600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-141200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>153100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-48600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>53600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-171500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-70600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>86800</v>
+        <v>45700</v>
       </c>
       <c r="E24" s="3">
-        <v>63000</v>
+        <v>67100</v>
       </c>
       <c r="F24" s="3">
-        <v>40100</v>
+        <v>84700</v>
       </c>
       <c r="G24" s="3">
-        <v>8700</v>
+        <v>61400</v>
       </c>
       <c r="H24" s="3">
-        <v>7400</v>
+        <v>39100</v>
       </c>
       <c r="I24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K24" s="3">
         <v>23400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>21700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>13000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>14600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>79000</v>
+        <v>148000</v>
       </c>
       <c r="E26" s="3">
-        <v>78300</v>
+        <v>497400</v>
       </c>
       <c r="F26" s="3">
-        <v>1038700</v>
+        <v>77100</v>
       </c>
       <c r="G26" s="3">
-        <v>-699800</v>
+        <v>76400</v>
       </c>
       <c r="H26" s="3">
-        <v>412800</v>
+        <v>1013300</v>
       </c>
       <c r="I26" s="3">
+        <v>-682700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>402600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-326700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>212000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-143100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>145200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-46200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>40500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-186100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-70900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>87800</v>
+        <v>150200</v>
       </c>
       <c r="E27" s="3">
-        <v>88800</v>
+        <v>508600</v>
       </c>
       <c r="F27" s="3">
-        <v>1050100</v>
+        <v>85700</v>
       </c>
       <c r="G27" s="3">
-        <v>-689400</v>
+        <v>86600</v>
       </c>
       <c r="H27" s="3">
-        <v>430500</v>
+        <v>1024400</v>
       </c>
       <c r="I27" s="3">
+        <v>-672500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>420000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-317400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>218800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-134900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>150500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-42600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>43500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-183400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,25 +1689,31 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1607,19 +1728,25 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-31100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-8700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-67100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-66100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>524400</v>
+        <v>102100</v>
       </c>
       <c r="E32" s="3">
-        <v>161700</v>
+        <v>-521100</v>
       </c>
       <c r="F32" s="3">
-        <v>-929900</v>
+        <v>511500</v>
       </c>
       <c r="G32" s="3">
-        <v>535600</v>
+        <v>157700</v>
       </c>
       <c r="H32" s="3">
-        <v>-548100</v>
+        <v>-907100</v>
       </c>
       <c r="I32" s="3">
+        <v>522400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-534700</v>
+      </c>
+      <c r="K32" s="3">
         <v>120500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-265800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-95700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-120500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-42100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>113100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>87800</v>
+        <v>150200</v>
       </c>
       <c r="E33" s="3">
-        <v>88800</v>
+        <v>508600</v>
       </c>
       <c r="F33" s="3">
-        <v>1050100</v>
+        <v>85700</v>
       </c>
       <c r="G33" s="3">
-        <v>-689400</v>
+        <v>86600</v>
       </c>
       <c r="H33" s="3">
-        <v>430500</v>
+        <v>1024400</v>
       </c>
       <c r="I33" s="3">
+        <v>-672500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>420000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-317400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>218800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-134900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>150500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-73700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>34800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-250600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>87800</v>
+        <v>150200</v>
       </c>
       <c r="E35" s="3">
-        <v>88800</v>
+        <v>508600</v>
       </c>
       <c r="F35" s="3">
-        <v>1050100</v>
+        <v>85700</v>
       </c>
       <c r="G35" s="3">
-        <v>-689400</v>
+        <v>86600</v>
       </c>
       <c r="H35" s="3">
-        <v>430500</v>
+        <v>1024400</v>
       </c>
       <c r="I35" s="3">
+        <v>-672500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>420000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-317400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>218800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-134900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>150500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-73700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>34800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-250600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4609200</v>
+        <v>6092400</v>
       </c>
       <c r="E41" s="3">
-        <v>4703100</v>
+        <v>5174500</v>
       </c>
       <c r="F41" s="3">
-        <v>4886000</v>
+        <v>4496200</v>
       </c>
       <c r="G41" s="3">
-        <v>4916000</v>
+        <v>4587700</v>
       </c>
       <c r="H41" s="3">
-        <v>4878000</v>
+        <v>4766200</v>
       </c>
       <c r="I41" s="3">
+        <v>4795400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4758300</v>
+      </c>
+      <c r="K41" s="3">
         <v>5055400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5051100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3812400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3207200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4134000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3435700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2263900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3611700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3510400</v>
+        <v>4109900</v>
       </c>
       <c r="E42" s="3">
-        <v>3524200</v>
+        <v>3443400</v>
       </c>
       <c r="F42" s="3">
-        <v>605700</v>
+        <v>3424300</v>
       </c>
       <c r="G42" s="3">
-        <v>292100</v>
+        <v>3437700</v>
       </c>
       <c r="H42" s="3">
-        <v>742100</v>
+        <v>590800</v>
       </c>
       <c r="I42" s="3">
+        <v>284900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>723900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1829700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1713700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1274500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2383300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1890700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3089800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>2623300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1793200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2329500</v>
+        <v>1510500</v>
       </c>
       <c r="E43" s="3">
-        <v>1974900</v>
+        <v>1676200</v>
       </c>
       <c r="F43" s="3">
-        <v>1524000</v>
+        <v>2272300</v>
       </c>
       <c r="G43" s="3">
-        <v>2433800</v>
+        <v>1926500</v>
       </c>
       <c r="H43" s="3">
-        <v>2407300</v>
+        <v>1486600</v>
       </c>
       <c r="I43" s="3">
+        <v>2374100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2348300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3701700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2819300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4850500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5597400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>6769800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>5409200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4288500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>4025000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6925100</v>
+        <v>7079800</v>
       </c>
       <c r="E44" s="3">
-        <v>6531300</v>
+        <v>8108200</v>
       </c>
       <c r="F44" s="3">
-        <v>5486100</v>
+        <v>6755200</v>
       </c>
       <c r="G44" s="3">
-        <v>6317400</v>
+        <v>6371100</v>
       </c>
       <c r="H44" s="3">
-        <v>5718400</v>
+        <v>5351500</v>
       </c>
       <c r="I44" s="3">
+        <v>6162500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5578100</v>
+      </c>
+      <c r="K44" s="3">
         <v>6227400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5188800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>6188800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5388800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>4622900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3906300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4204300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3287100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1221300</v>
+        <v>1438900</v>
       </c>
       <c r="E45" s="3">
-        <v>1554000</v>
+        <v>1065400</v>
       </c>
       <c r="F45" s="3">
-        <v>1138500</v>
+        <v>1191300</v>
       </c>
       <c r="G45" s="3">
-        <v>1085400</v>
+        <v>1515800</v>
       </c>
       <c r="H45" s="3">
-        <v>1970100</v>
+        <v>1110600</v>
       </c>
       <c r="I45" s="3">
+        <v>1058800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1921800</v>
+      </c>
+      <c r="K45" s="3">
         <v>2095000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1439700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>945200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1774000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2015800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1285200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3842100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>840300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18595500</v>
+        <v>20231500</v>
       </c>
       <c r="E46" s="3">
-        <v>18287500</v>
+        <v>19467700</v>
       </c>
       <c r="F46" s="3">
-        <v>13640400</v>
+        <v>18139300</v>
       </c>
       <c r="G46" s="3">
-        <v>15044700</v>
+        <v>17838800</v>
       </c>
       <c r="H46" s="3">
-        <v>15716000</v>
+        <v>13305700</v>
       </c>
       <c r="I46" s="3">
+        <v>14675600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>15330400</v>
+      </c>
+      <c r="K46" s="3">
         <v>18909200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>16212600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>17071400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>18350700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>19433200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>17126200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>15551100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>13557200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7788600</v>
+        <v>8055200</v>
       </c>
       <c r="E47" s="3">
-        <v>7911100</v>
+        <v>7976700</v>
       </c>
       <c r="F47" s="3">
-        <v>7612700</v>
+        <v>7597600</v>
       </c>
       <c r="G47" s="3">
-        <v>6780600</v>
+        <v>7717000</v>
       </c>
       <c r="H47" s="3">
-        <v>7190200</v>
+        <v>7425900</v>
       </c>
       <c r="I47" s="3">
+        <v>6614300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7013800</v>
+      </c>
+      <c r="K47" s="3">
         <v>5555200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4438500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4241400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2881600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2652400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3265500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3299200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3258900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4865600</v>
+        <v>4506400</v>
       </c>
       <c r="E48" s="3">
-        <v>4514700</v>
+        <v>4913200</v>
       </c>
       <c r="F48" s="3">
-        <v>4547700</v>
+        <v>4746300</v>
       </c>
       <c r="G48" s="3">
-        <v>3965300</v>
+        <v>4403900</v>
       </c>
       <c r="H48" s="3">
-        <v>3533000</v>
+        <v>4436200</v>
       </c>
       <c r="I48" s="3">
+        <v>3868000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3446300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2997300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2456000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2340500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1904000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1599700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1382600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1311100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1280900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3078100</v>
+        <v>2944300</v>
       </c>
       <c r="E49" s="3">
-        <v>3058000</v>
+        <v>3029500</v>
       </c>
       <c r="F49" s="3">
-        <v>3048600</v>
+        <v>3002500</v>
       </c>
       <c r="G49" s="3">
-        <v>3175400</v>
+        <v>2983000</v>
       </c>
       <c r="H49" s="3">
-        <v>3154100</v>
+        <v>2973800</v>
       </c>
       <c r="I49" s="3">
+        <v>3097500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3076700</v>
+      </c>
+      <c r="K49" s="3">
         <v>2868200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2862900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3026700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3021300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2440200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2475700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2513800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2566700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>944200</v>
+        <v>1449400</v>
       </c>
       <c r="E52" s="3">
-        <v>1451800</v>
+        <v>963900</v>
       </c>
       <c r="F52" s="3">
-        <v>1902500</v>
+        <v>921000</v>
       </c>
       <c r="G52" s="3">
-        <v>1045000</v>
+        <v>1416200</v>
       </c>
       <c r="H52" s="3">
-        <v>1045300</v>
+        <v>1855900</v>
       </c>
       <c r="I52" s="3">
+        <v>1019400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1019700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1040600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>618800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>635500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>620000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>687900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>580500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1665500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35272000</v>
+        <v>37186800</v>
       </c>
       <c r="E54" s="3">
-        <v>35223100</v>
+        <v>36350900</v>
       </c>
       <c r="F54" s="3">
-        <v>30751900</v>
+        <v>34406600</v>
       </c>
       <c r="G54" s="3">
-        <v>30011000</v>
+        <v>34358900</v>
       </c>
       <c r="H54" s="3">
-        <v>30638600</v>
+        <v>29997500</v>
       </c>
       <c r="I54" s="3">
+        <v>29274700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>29887000</v>
+      </c>
+      <c r="K54" s="3">
         <v>31370400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>26588900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>27315600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>26777600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>26813400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>24830500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>23323100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>20972500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12444800</v>
+        <v>10882000</v>
       </c>
       <c r="E57" s="3">
-        <v>13454100</v>
+        <v>12700900</v>
       </c>
       <c r="F57" s="3">
-        <v>10261800</v>
+        <v>12139500</v>
       </c>
       <c r="G57" s="3">
-        <v>11507200</v>
+        <v>13124100</v>
       </c>
       <c r="H57" s="3">
-        <v>11232600</v>
+        <v>10010100</v>
       </c>
       <c r="I57" s="3">
+        <v>11224900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10957000</v>
+      </c>
+      <c r="K57" s="3">
         <v>12582100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8938300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11032500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>10032000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10014300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6362200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6695000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6031800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1203900</v>
       </c>
       <c r="E58" s="3">
-        <v>19700</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>268200</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>652100</v>
+        <v>19200</v>
       </c>
       <c r="H58" s="3">
-        <v>1374000</v>
+        <v>261700</v>
       </c>
       <c r="I58" s="3">
+        <v>636100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1340300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1701400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1939000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1912200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1825900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1807800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2944100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1615600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6605400</v>
+        <v>7032200</v>
       </c>
       <c r="E59" s="3">
-        <v>6624900</v>
+        <v>6895900</v>
       </c>
       <c r="F59" s="3">
-        <v>5962000</v>
+        <v>6443400</v>
       </c>
       <c r="G59" s="3">
-        <v>5182000</v>
+        <v>6462300</v>
       </c>
       <c r="H59" s="3">
-        <v>4854100</v>
+        <v>5815700</v>
       </c>
       <c r="I59" s="3">
+        <v>5054900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4735000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4852800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4456200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4604900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4511800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4433200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6832000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6921700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19050200</v>
+        <v>19118200</v>
       </c>
       <c r="E60" s="3">
-        <v>20098700</v>
+        <v>19596800</v>
       </c>
       <c r="F60" s="3">
-        <v>16492000</v>
+        <v>18582900</v>
       </c>
       <c r="G60" s="3">
-        <v>17341300</v>
+        <v>19605600</v>
       </c>
       <c r="H60" s="3">
-        <v>17460600</v>
+        <v>16087400</v>
       </c>
       <c r="I60" s="3">
+        <v>16915800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>17032300</v>
+      </c>
+      <c r="K60" s="3">
         <v>19136300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>15333500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>17549600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>16369700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>16255400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>16138300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>15232400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>12899100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1461700</v>
+        <v>2397700</v>
       </c>
       <c r="E61" s="3">
-        <v>1420200</v>
+        <v>1406800</v>
       </c>
       <c r="F61" s="3">
-        <v>1390500</v>
+        <v>1425800</v>
       </c>
       <c r="G61" s="3">
-        <v>1416800</v>
+        <v>1385400</v>
       </c>
       <c r="H61" s="3">
-        <v>1419600</v>
+        <v>1356400</v>
       </c>
       <c r="I61" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1384800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1408600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1036900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1621000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2315500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2602100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1957100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1330600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1488500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1313500</v>
+        <v>1220800</v>
       </c>
       <c r="E62" s="3">
-        <v>1075500</v>
+        <v>1263900</v>
       </c>
       <c r="F62" s="3">
-        <v>858400</v>
+        <v>1281300</v>
       </c>
       <c r="G62" s="3">
-        <v>229600</v>
+        <v>1049100</v>
       </c>
       <c r="H62" s="3">
-        <v>262200</v>
+        <v>837300</v>
       </c>
       <c r="I62" s="3">
+        <v>224000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>255700</v>
+      </c>
+      <c r="K62" s="3">
         <v>295100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>326300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>370000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>400900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>438400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>471400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>765600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24382600</v>
+        <v>25389600</v>
       </c>
       <c r="E66" s="3">
-        <v>25202800</v>
+        <v>24894400</v>
       </c>
       <c r="F66" s="3">
-        <v>21192300</v>
+        <v>23784400</v>
       </c>
       <c r="G66" s="3">
-        <v>21435000</v>
+        <v>24584500</v>
       </c>
       <c r="H66" s="3">
-        <v>21462500</v>
+        <v>20672400</v>
       </c>
       <c r="I66" s="3">
+        <v>20909200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>20936000</v>
+      </c>
+      <c r="K66" s="3">
         <v>23011700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18812300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19592200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19135000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19340200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19650900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>18394100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>10</v>
+      <c r="E72" s="3">
+        <v>-1463100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="3">
-        <v>-3248100</v>
+      <c r="G72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>10</v>
+      <c r="I72" s="3">
+        <v>-3168400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K72" s="3">
-        <v>-3205500</v>
+      <c r="K72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="M72" s="3">
+        <v>-3205500</v>
+      </c>
+      <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P72" s="3">
         <v>-3104800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3159800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2968300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10889400</v>
+        <v>11797200</v>
       </c>
       <c r="E76" s="3">
-        <v>10020300</v>
+        <v>11456600</v>
       </c>
       <c r="F76" s="3">
-        <v>9559600</v>
+        <v>10622200</v>
       </c>
       <c r="G76" s="3">
-        <v>8575900</v>
+        <v>9774500</v>
       </c>
       <c r="H76" s="3">
-        <v>9176100</v>
+        <v>9325100</v>
       </c>
       <c r="I76" s="3">
+        <v>8365500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8951000</v>
+      </c>
+      <c r="K76" s="3">
         <v>8358800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7776600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7723400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7642600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7473100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5179500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4929000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5128500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>87800</v>
+        <v>150200</v>
       </c>
       <c r="E81" s="3">
-        <v>88800</v>
+        <v>508600</v>
       </c>
       <c r="F81" s="3">
-        <v>1050100</v>
+        <v>85700</v>
       </c>
       <c r="G81" s="3">
-        <v>-689400</v>
+        <v>86600</v>
       </c>
       <c r="H81" s="3">
-        <v>430500</v>
+        <v>1024400</v>
       </c>
       <c r="I81" s="3">
+        <v>-672500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>420000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-317400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>218800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-134900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>150500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-73700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>34800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-250600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>181100</v>
+        <v>-215900</v>
       </c>
       <c r="E89" s="3">
-        <v>2897200</v>
+        <v>500</v>
       </c>
       <c r="F89" s="3">
-        <v>476800</v>
+        <v>176600</v>
       </c>
       <c r="G89" s="3">
-        <v>864900</v>
+        <v>2826100</v>
       </c>
       <c r="H89" s="3">
-        <v>317500</v>
+        <v>465100</v>
       </c>
       <c r="I89" s="3">
+        <v>843700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>309700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2355000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-541300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>200500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>52300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2767300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>650300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-433900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1047900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-813600</v>
+        <v>-1147200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3017200</v>
+        <v>343200</v>
       </c>
       <c r="F94" s="3">
-        <v>-158300</v>
+        <v>-793600</v>
       </c>
       <c r="G94" s="3">
-        <v>-314000</v>
+        <v>-2943100</v>
       </c>
       <c r="H94" s="3">
-        <v>-373400</v>
+        <v>-154400</v>
       </c>
       <c r="I94" s="3">
+        <v>-306200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-364300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2919400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-135000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>624600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-620100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4568600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-980900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2206600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3057800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>357200</v>
+        <v>2111500</v>
       </c>
       <c r="E100" s="3">
-        <v>-64400</v>
+        <v>432200</v>
       </c>
       <c r="F100" s="3">
-        <v>-366700</v>
+        <v>348400</v>
       </c>
       <c r="G100" s="3">
-        <v>-562600</v>
+        <v>-62800</v>
       </c>
       <c r="H100" s="3">
-        <v>-429800</v>
+        <v>-357700</v>
       </c>
       <c r="I100" s="3">
+        <v>-548800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-419200</v>
+      </c>
+      <c r="K100" s="3">
         <v>692900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1909300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-564100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-229500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2462600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1161900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1772300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>115400</v>
+        <v>85300</v>
       </c>
       <c r="E101" s="3">
-        <v>59600</v>
+        <v>-54700</v>
       </c>
       <c r="F101" s="3">
-        <v>-60700</v>
+        <v>112600</v>
       </c>
       <c r="G101" s="3">
-        <v>-18700</v>
+        <v>58200</v>
       </c>
       <c r="H101" s="3">
-        <v>154200</v>
+        <v>-59200</v>
       </c>
       <c r="I101" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K101" s="3">
         <v>171000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-65200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-31600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-44300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-13900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-5300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>42400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-159900</v>
+        <v>833700</v>
       </c>
       <c r="E102" s="3">
-        <v>-124800</v>
+        <v>721200</v>
       </c>
       <c r="F102" s="3">
-        <v>-108900</v>
+        <v>-155900</v>
       </c>
       <c r="G102" s="3">
-        <v>-30300</v>
+        <v>-121700</v>
       </c>
       <c r="H102" s="3">
-        <v>-331500</v>
+        <v>-106200</v>
       </c>
       <c r="I102" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-323400</v>
+      </c>
+      <c r="K102" s="3">
         <v>299400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1167700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>605200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1085000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>515000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>825900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-736300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1679300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20462900</v>
+        <v>29199100</v>
       </c>
       <c r="E8" s="3">
-        <v>23888900</v>
+        <v>21233400</v>
       </c>
       <c r="F8" s="3">
-        <v>18872600</v>
+        <v>24788400</v>
       </c>
       <c r="G8" s="3">
-        <v>21033300</v>
+        <v>19583200</v>
       </c>
       <c r="H8" s="3">
-        <v>16946500</v>
+        <v>21825300</v>
       </c>
       <c r="I8" s="3">
-        <v>18871200</v>
+        <v>17584600</v>
       </c>
       <c r="J8" s="3">
+        <v>19581700</v>
+      </c>
+      <c r="K8" s="3">
         <v>14663400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17546300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14366400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16349600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12428800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13832100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10939000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11548800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8751100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17308800</v>
+        <v>25040300</v>
       </c>
       <c r="E9" s="3">
-        <v>20530100</v>
+        <v>17960600</v>
       </c>
       <c r="F9" s="3">
-        <v>16057400</v>
+        <v>21303200</v>
       </c>
       <c r="G9" s="3">
-        <v>17936700</v>
+        <v>16662000</v>
       </c>
       <c r="H9" s="3">
-        <v>14401500</v>
+        <v>18612000</v>
       </c>
       <c r="I9" s="3">
-        <v>16187900</v>
+        <v>14943800</v>
       </c>
       <c r="J9" s="3">
+        <v>16797400</v>
+      </c>
+      <c r="K9" s="3">
         <v>12408700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15176900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12334900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14218500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10502000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11955000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18670800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19852900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14923400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3154100</v>
+        <v>4158700</v>
       </c>
       <c r="E10" s="3">
-        <v>3358800</v>
+        <v>3272800</v>
       </c>
       <c r="F10" s="3">
-        <v>2815200</v>
+        <v>3485300</v>
       </c>
       <c r="G10" s="3">
-        <v>3096600</v>
+        <v>2921200</v>
       </c>
       <c r="H10" s="3">
-        <v>2545000</v>
+        <v>3213200</v>
       </c>
       <c r="I10" s="3">
-        <v>2683300</v>
+        <v>2640800</v>
       </c>
       <c r="J10" s="3">
+        <v>2784300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2254700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2369400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2031400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2131100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1926800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1877100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-7731900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-8304100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-6172300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>547300</v>
+        <v>519800</v>
       </c>
       <c r="E12" s="3">
-        <v>499200</v>
+        <v>567900</v>
       </c>
       <c r="F12" s="3">
-        <v>498300</v>
+        <v>518000</v>
       </c>
       <c r="G12" s="3">
-        <v>518000</v>
+        <v>517100</v>
       </c>
       <c r="H12" s="3">
-        <v>516700</v>
+        <v>537500</v>
       </c>
       <c r="I12" s="3">
-        <v>487000</v>
+        <v>536100</v>
       </c>
       <c r="J12" s="3">
+        <v>505400</v>
+      </c>
+      <c r="K12" s="3">
         <v>478900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>395500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>342700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>302600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>257500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>226400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>184500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>168700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>175700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-28400</v>
       </c>
       <c r="E14" s="3">
-        <v>-543700</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>-564200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>39500</v>
+        <v>43100</v>
       </c>
       <c r="E15" s="3">
-        <v>66000</v>
+        <v>40900</v>
       </c>
       <c r="F15" s="3">
-        <v>20500</v>
+        <v>68400</v>
       </c>
       <c r="G15" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="H15" s="3">
-        <v>62100</v>
+        <v>21500</v>
       </c>
       <c r="I15" s="3">
-        <v>63400</v>
+        <v>64400</v>
       </c>
       <c r="J15" s="3">
+        <v>65800</v>
+      </c>
+      <c r="K15" s="3">
         <v>63900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>64600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>64000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>66700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>66300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>65700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>63900</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>65100</v>
       </c>
       <c r="R15" s="3">
         <v>65100</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>65100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20138100</v>
+        <v>28466500</v>
       </c>
       <c r="E17" s="3">
-        <v>23814800</v>
+        <v>20896400</v>
       </c>
       <c r="F17" s="3">
-        <v>18176500</v>
+        <v>24711500</v>
       </c>
       <c r="G17" s="3">
-        <v>20716000</v>
+        <v>18861000</v>
       </c>
       <c r="H17" s="3">
-        <v>16775000</v>
+        <v>21496100</v>
       </c>
       <c r="I17" s="3">
-        <v>19002600</v>
+        <v>17406600</v>
       </c>
       <c r="J17" s="3">
+        <v>19718100</v>
+      </c>
+      <c r="K17" s="3">
         <v>14754400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17694700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14365700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16586500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12354200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13891900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10842800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11598000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8785200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>324800</v>
+        <v>732600</v>
       </c>
       <c r="E18" s="3">
-        <v>74100</v>
+        <v>337000</v>
       </c>
       <c r="F18" s="3">
-        <v>696100</v>
+        <v>76900</v>
       </c>
       <c r="G18" s="3">
-        <v>317200</v>
+        <v>722300</v>
       </c>
       <c r="H18" s="3">
-        <v>171500</v>
+        <v>329200</v>
       </c>
       <c r="I18" s="3">
-        <v>-131400</v>
+        <v>178000</v>
       </c>
       <c r="J18" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-91100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-148400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-236900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>74600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-59800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>96200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-49200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-34100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-102100</v>
+        <v>1813900</v>
       </c>
       <c r="E20" s="3">
-        <v>521100</v>
+        <v>-106000</v>
       </c>
       <c r="F20" s="3">
-        <v>-511500</v>
+        <v>540700</v>
       </c>
       <c r="G20" s="3">
-        <v>-157700</v>
+        <v>-530800</v>
       </c>
       <c r="H20" s="3">
-        <v>907100</v>
+        <v>-163700</v>
       </c>
       <c r="I20" s="3">
-        <v>-522400</v>
+        <v>941300</v>
       </c>
       <c r="J20" s="3">
+        <v>-542100</v>
+      </c>
+      <c r="K20" s="3">
         <v>534700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-120500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>265800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>95700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>120500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>42100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-113100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>419400</v>
+        <v>2554500</v>
       </c>
       <c r="E21" s="3">
-        <v>598500</v>
+        <v>435200</v>
       </c>
       <c r="F21" s="3">
-        <v>188200</v>
+        <v>621100</v>
       </c>
       <c r="G21" s="3">
-        <v>115700</v>
+        <v>195200</v>
       </c>
       <c r="H21" s="3">
-        <v>1312800</v>
+        <v>120000</v>
       </c>
       <c r="I21" s="3">
-        <v>-636600</v>
+        <v>1362200</v>
       </c>
       <c r="J21" s="3">
+        <v>-660600</v>
+      </c>
+      <c r="K21" s="3">
         <v>476100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-259600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>437800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-31900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>117300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-15000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>219700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-158100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29000</v>
+        <v>47100</v>
       </c>
       <c r="E22" s="3">
-        <v>30800</v>
+        <v>30100</v>
       </c>
       <c r="F22" s="3">
-        <v>22800</v>
+        <v>31900</v>
       </c>
       <c r="G22" s="3">
-        <v>21700</v>
+        <v>23700</v>
       </c>
       <c r="H22" s="3">
-        <v>26200</v>
+        <v>22500</v>
       </c>
       <c r="I22" s="3">
-        <v>20300</v>
+        <v>27200</v>
       </c>
       <c r="J22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K22" s="3">
         <v>33700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>32800</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>42000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>30900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>27600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>193700</v>
+        <v>2499300</v>
       </c>
       <c r="E23" s="3">
-        <v>564500</v>
+        <v>200900</v>
       </c>
       <c r="F23" s="3">
-        <v>161700</v>
+        <v>585700</v>
       </c>
       <c r="G23" s="3">
-        <v>137800</v>
+        <v>167800</v>
       </c>
       <c r="H23" s="3">
-        <v>1052400</v>
+        <v>143000</v>
       </c>
       <c r="I23" s="3">
-        <v>-674100</v>
+        <v>1092000</v>
       </c>
       <c r="J23" s="3">
+        <v>-699500</v>
+      </c>
+      <c r="K23" s="3">
         <v>409900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-303300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>233600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-141200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>153100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-48600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>53600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-171500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-70600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45700</v>
+        <v>115700</v>
       </c>
       <c r="E24" s="3">
-        <v>67100</v>
+        <v>47400</v>
       </c>
       <c r="F24" s="3">
-        <v>84700</v>
+        <v>69600</v>
       </c>
       <c r="G24" s="3">
-        <v>61400</v>
+        <v>87800</v>
       </c>
       <c r="H24" s="3">
-        <v>39100</v>
+        <v>63700</v>
       </c>
       <c r="I24" s="3">
-        <v>8500</v>
+        <v>40600</v>
       </c>
       <c r="J24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K24" s="3">
         <v>7200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>148000</v>
+        <v>2383700</v>
       </c>
       <c r="E26" s="3">
-        <v>497400</v>
+        <v>153500</v>
       </c>
       <c r="F26" s="3">
-        <v>77100</v>
+        <v>516100</v>
       </c>
       <c r="G26" s="3">
-        <v>76400</v>
+        <v>80000</v>
       </c>
       <c r="H26" s="3">
-        <v>1013300</v>
+        <v>79300</v>
       </c>
       <c r="I26" s="3">
-        <v>-682700</v>
+        <v>1051400</v>
       </c>
       <c r="J26" s="3">
+        <v>-708400</v>
+      </c>
+      <c r="K26" s="3">
         <v>402600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-326700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>212000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-143100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>145200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-46200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-186100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-70900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>150200</v>
+        <v>2388500</v>
       </c>
       <c r="E27" s="3">
-        <v>508600</v>
+        <v>155800</v>
       </c>
       <c r="F27" s="3">
-        <v>85700</v>
+        <v>527800</v>
       </c>
       <c r="G27" s="3">
-        <v>86600</v>
+        <v>88900</v>
       </c>
       <c r="H27" s="3">
-        <v>1024400</v>
+        <v>89900</v>
       </c>
       <c r="I27" s="3">
-        <v>-672500</v>
+        <v>1063000</v>
       </c>
       <c r="J27" s="3">
+        <v>-697800</v>
+      </c>
+      <c r="K27" s="3">
         <v>420000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-317400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>218800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-134900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>150500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-42600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>43500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-183400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1753,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1715,8 +1776,8 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1734,19 +1795,22 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-31100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-67100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-66100</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>102100</v>
+        <v>-1813900</v>
       </c>
       <c r="E32" s="3">
-        <v>-521100</v>
+        <v>106000</v>
       </c>
       <c r="F32" s="3">
-        <v>511500</v>
+        <v>-540700</v>
       </c>
       <c r="G32" s="3">
-        <v>157700</v>
+        <v>530800</v>
       </c>
       <c r="H32" s="3">
-        <v>-907100</v>
+        <v>163700</v>
       </c>
       <c r="I32" s="3">
-        <v>522400</v>
+        <v>-941300</v>
       </c>
       <c r="J32" s="3">
+        <v>542100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-534700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>120500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-265800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-95700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-120500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-42100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>113100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>150200</v>
+        <v>2388500</v>
       </c>
       <c r="E33" s="3">
-        <v>508600</v>
+        <v>155800</v>
       </c>
       <c r="F33" s="3">
-        <v>85700</v>
+        <v>527800</v>
       </c>
       <c r="G33" s="3">
-        <v>86600</v>
+        <v>88900</v>
       </c>
       <c r="H33" s="3">
-        <v>1024400</v>
+        <v>89900</v>
       </c>
       <c r="I33" s="3">
-        <v>-672500</v>
+        <v>1063000</v>
       </c>
       <c r="J33" s="3">
+        <v>-697800</v>
+      </c>
+      <c r="K33" s="3">
         <v>420000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-317400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>218800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-134900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>150500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-73700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-250600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>150200</v>
+        <v>2388500</v>
       </c>
       <c r="E35" s="3">
-        <v>508600</v>
+        <v>155800</v>
       </c>
       <c r="F35" s="3">
-        <v>85700</v>
+        <v>527800</v>
       </c>
       <c r="G35" s="3">
-        <v>86600</v>
+        <v>88900</v>
       </c>
       <c r="H35" s="3">
-        <v>1024400</v>
+        <v>89900</v>
       </c>
       <c r="I35" s="3">
-        <v>-672500</v>
+        <v>1063000</v>
       </c>
       <c r="J35" s="3">
+        <v>-697800</v>
+      </c>
+      <c r="K35" s="3">
         <v>420000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-317400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>218800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-134900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>150500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-73700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-250600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6092400</v>
+        <v>10394400</v>
       </c>
       <c r="E41" s="3">
-        <v>5174500</v>
+        <v>6321800</v>
       </c>
       <c r="F41" s="3">
-        <v>4496200</v>
+        <v>5369400</v>
       </c>
       <c r="G41" s="3">
-        <v>4587700</v>
+        <v>4665500</v>
       </c>
       <c r="H41" s="3">
-        <v>4766200</v>
+        <v>4760400</v>
       </c>
       <c r="I41" s="3">
-        <v>4795400</v>
+        <v>4945600</v>
       </c>
       <c r="J41" s="3">
+        <v>4975900</v>
+      </c>
+      <c r="K41" s="3">
         <v>4758300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5055400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5051100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3812400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3207200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4134000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3435700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2263900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3611700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4109900</v>
+        <v>7077100</v>
       </c>
       <c r="E42" s="3">
-        <v>3443400</v>
+        <v>4264600</v>
       </c>
       <c r="F42" s="3">
-        <v>3424300</v>
+        <v>3573100</v>
       </c>
       <c r="G42" s="3">
-        <v>3437700</v>
+        <v>3553200</v>
       </c>
       <c r="H42" s="3">
-        <v>590800</v>
+        <v>3567200</v>
       </c>
       <c r="I42" s="3">
-        <v>284900</v>
+        <v>613100</v>
       </c>
       <c r="J42" s="3">
+        <v>295600</v>
+      </c>
+      <c r="K42" s="3">
         <v>723900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1829700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1713700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1274500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2383300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1890700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3089800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2623300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1793200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1510500</v>
+        <v>1957500</v>
       </c>
       <c r="E43" s="3">
-        <v>1676200</v>
+        <v>1567400</v>
       </c>
       <c r="F43" s="3">
-        <v>2272300</v>
+        <v>1739300</v>
       </c>
       <c r="G43" s="3">
-        <v>1926500</v>
+        <v>2357900</v>
       </c>
       <c r="H43" s="3">
-        <v>1486600</v>
+        <v>1999000</v>
       </c>
       <c r="I43" s="3">
-        <v>2374100</v>
+        <v>1542600</v>
       </c>
       <c r="J43" s="3">
+        <v>2463500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2348300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3701700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2819300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4850500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5597400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6769800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5409200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4288500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4025000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7079800</v>
+        <v>7911700</v>
       </c>
       <c r="E44" s="3">
-        <v>8108200</v>
+        <v>7346400</v>
       </c>
       <c r="F44" s="3">
-        <v>6755200</v>
+        <v>8413500</v>
       </c>
       <c r="G44" s="3">
-        <v>6371100</v>
+        <v>7009600</v>
       </c>
       <c r="H44" s="3">
-        <v>5351500</v>
+        <v>6611000</v>
       </c>
       <c r="I44" s="3">
-        <v>6162500</v>
+        <v>5553000</v>
       </c>
       <c r="J44" s="3">
+        <v>6394500</v>
+      </c>
+      <c r="K44" s="3">
         <v>5578100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6227400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5188800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6188800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5388800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4622900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3906300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4204300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3287100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1438900</v>
+        <v>2500700</v>
       </c>
       <c r="E45" s="3">
-        <v>1065400</v>
+        <v>1493100</v>
       </c>
       <c r="F45" s="3">
-        <v>1191300</v>
+        <v>1105500</v>
       </c>
       <c r="G45" s="3">
-        <v>1515800</v>
+        <v>1236200</v>
       </c>
       <c r="H45" s="3">
-        <v>1110600</v>
+        <v>1572900</v>
       </c>
       <c r="I45" s="3">
-        <v>1058800</v>
+        <v>1152400</v>
       </c>
       <c r="J45" s="3">
+        <v>1098700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1921800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2095000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1439700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>945200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1774000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2015800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1285200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3842100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>840300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20231500</v>
+        <v>29841400</v>
       </c>
       <c r="E46" s="3">
-        <v>19467700</v>
+        <v>20993300</v>
       </c>
       <c r="F46" s="3">
-        <v>18139300</v>
+        <v>20200700</v>
       </c>
       <c r="G46" s="3">
-        <v>17838800</v>
+        <v>18822300</v>
       </c>
       <c r="H46" s="3">
-        <v>13305700</v>
+        <v>18510500</v>
       </c>
       <c r="I46" s="3">
-        <v>14675600</v>
+        <v>13806700</v>
       </c>
       <c r="J46" s="3">
+        <v>15228200</v>
+      </c>
+      <c r="K46" s="3">
         <v>15330400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18909200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16212600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17071400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18350700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19433200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17126200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15551100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13557200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8055200</v>
+        <v>10837100</v>
       </c>
       <c r="E47" s="3">
-        <v>7976700</v>
+        <v>8358500</v>
       </c>
       <c r="F47" s="3">
-        <v>7597600</v>
+        <v>8277100</v>
       </c>
       <c r="G47" s="3">
-        <v>7717000</v>
+        <v>7883600</v>
       </c>
       <c r="H47" s="3">
-        <v>7425900</v>
+        <v>8007600</v>
       </c>
       <c r="I47" s="3">
-        <v>6614300</v>
+        <v>7705500</v>
       </c>
       <c r="J47" s="3">
+        <v>6863300</v>
+      </c>
+      <c r="K47" s="3">
         <v>7013800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5555200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4438500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4241400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2881600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2652400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3265500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3299200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3258900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4506400</v>
+        <v>5395800</v>
       </c>
       <c r="E48" s="3">
-        <v>4913200</v>
+        <v>4676100</v>
       </c>
       <c r="F48" s="3">
-        <v>4746300</v>
+        <v>5098200</v>
       </c>
       <c r="G48" s="3">
-        <v>4403900</v>
+        <v>4925000</v>
       </c>
       <c r="H48" s="3">
-        <v>4436200</v>
+        <v>4569700</v>
       </c>
       <c r="I48" s="3">
-        <v>3868000</v>
+        <v>4603200</v>
       </c>
       <c r="J48" s="3">
+        <v>4013700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3446300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2997300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2456000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2340500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1904000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1599700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1382600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1311100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1280900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2944300</v>
+        <v>3570300</v>
       </c>
       <c r="E49" s="3">
-        <v>3029500</v>
+        <v>3055100</v>
       </c>
       <c r="F49" s="3">
-        <v>3002500</v>
+        <v>3143600</v>
       </c>
       <c r="G49" s="3">
-        <v>2983000</v>
+        <v>3115600</v>
       </c>
       <c r="H49" s="3">
-        <v>2973800</v>
+        <v>3095300</v>
       </c>
       <c r="I49" s="3">
-        <v>3097500</v>
+        <v>3085800</v>
       </c>
       <c r="J49" s="3">
+        <v>3214100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3076700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2868200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2862900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3026700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3021300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2440200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2475700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2513800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2566700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1449400</v>
+        <v>1546100</v>
       </c>
       <c r="E52" s="3">
-        <v>963900</v>
+        <v>1504000</v>
       </c>
       <c r="F52" s="3">
-        <v>921000</v>
+        <v>1000200</v>
       </c>
       <c r="G52" s="3">
-        <v>1416200</v>
+        <v>955700</v>
       </c>
       <c r="H52" s="3">
-        <v>1855900</v>
+        <v>1469500</v>
       </c>
       <c r="I52" s="3">
-        <v>1019400</v>
+        <v>1925700</v>
       </c>
       <c r="J52" s="3">
+        <v>1057800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1019700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1040600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>618800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>635500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>620000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>687900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>580500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1665500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37186800</v>
+        <v>51190700</v>
       </c>
       <c r="E54" s="3">
-        <v>36350900</v>
+        <v>38587000</v>
       </c>
       <c r="F54" s="3">
-        <v>34406600</v>
+        <v>37719700</v>
       </c>
       <c r="G54" s="3">
-        <v>34358900</v>
+        <v>35702200</v>
       </c>
       <c r="H54" s="3">
-        <v>29997500</v>
+        <v>35652700</v>
       </c>
       <c r="I54" s="3">
-        <v>29274700</v>
+        <v>31127000</v>
       </c>
       <c r="J54" s="3">
+        <v>30377000</v>
+      </c>
+      <c r="K54" s="3">
         <v>29887000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31370400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26588900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27315600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26777600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26813400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24830500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23323100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20972500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10882000</v>
+        <v>14724700</v>
       </c>
       <c r="E57" s="3">
-        <v>12700900</v>
+        <v>11291800</v>
       </c>
       <c r="F57" s="3">
-        <v>12139500</v>
+        <v>13179100</v>
       </c>
       <c r="G57" s="3">
-        <v>13124100</v>
+        <v>12596600</v>
       </c>
       <c r="H57" s="3">
-        <v>10010100</v>
+        <v>13618200</v>
       </c>
       <c r="I57" s="3">
-        <v>11224900</v>
+        <v>10387000</v>
       </c>
       <c r="J57" s="3">
+        <v>11647500</v>
+      </c>
+      <c r="K57" s="3">
         <v>10957000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12582100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8938300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11032500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10032000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10014300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6362200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6695000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6031800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1203900</v>
+        <v>1789400</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>1249200</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>261700</v>
+        <v>20000</v>
       </c>
       <c r="I58" s="3">
-        <v>636100</v>
+        <v>271500</v>
       </c>
       <c r="J58" s="3">
+        <v>660100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1340300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1701400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1939000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1912200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1825900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1807800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2944100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1615600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7032200</v>
+        <v>8458000</v>
       </c>
       <c r="E59" s="3">
-        <v>6895900</v>
+        <v>7297000</v>
       </c>
       <c r="F59" s="3">
-        <v>6443400</v>
+        <v>7155600</v>
       </c>
       <c r="G59" s="3">
-        <v>6462300</v>
+        <v>6686000</v>
       </c>
       <c r="H59" s="3">
-        <v>5815700</v>
+        <v>6705700</v>
       </c>
       <c r="I59" s="3">
-        <v>5054900</v>
+        <v>6034700</v>
       </c>
       <c r="J59" s="3">
+        <v>5245200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4735000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4852800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4456200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4604900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4511800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4433200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6832000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6921700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19118200</v>
+        <v>24972100</v>
       </c>
       <c r="E60" s="3">
-        <v>19596800</v>
+        <v>19838100</v>
       </c>
       <c r="F60" s="3">
-        <v>18582900</v>
+        <v>20334700</v>
       </c>
       <c r="G60" s="3">
-        <v>19605600</v>
+        <v>19282600</v>
       </c>
       <c r="H60" s="3">
-        <v>16087400</v>
+        <v>20343900</v>
       </c>
       <c r="I60" s="3">
-        <v>16915800</v>
+        <v>16693200</v>
       </c>
       <c r="J60" s="3">
+        <v>17552800</v>
+      </c>
+      <c r="K60" s="3">
         <v>17032300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19136300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15333500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17549600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16369700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16255400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16138300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15232400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12899100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2397700</v>
+        <v>1973700</v>
       </c>
       <c r="E61" s="3">
-        <v>1406800</v>
+        <v>2488000</v>
       </c>
       <c r="F61" s="3">
-        <v>1425800</v>
+        <v>1459800</v>
       </c>
       <c r="G61" s="3">
-        <v>1385400</v>
+        <v>1479500</v>
       </c>
       <c r="H61" s="3">
-        <v>1356400</v>
+        <v>1437500</v>
       </c>
       <c r="I61" s="3">
-        <v>1382000</v>
+        <v>1407500</v>
       </c>
       <c r="J61" s="3">
+        <v>1434100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1384800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1408600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1036900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1621000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2315500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2602100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1957100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1330600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1488500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1220800</v>
+        <v>1588600</v>
       </c>
       <c r="E62" s="3">
-        <v>1263900</v>
+        <v>1266800</v>
       </c>
       <c r="F62" s="3">
-        <v>1281300</v>
+        <v>1311500</v>
       </c>
       <c r="G62" s="3">
-        <v>1049100</v>
+        <v>1329500</v>
       </c>
       <c r="H62" s="3">
-        <v>837300</v>
+        <v>1088600</v>
       </c>
       <c r="I62" s="3">
-        <v>224000</v>
+        <v>868800</v>
       </c>
       <c r="J62" s="3">
+        <v>232400</v>
+      </c>
+      <c r="K62" s="3">
         <v>255700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>295100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>326300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>370000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>438400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>471400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>765600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25389600</v>
+        <v>31389200</v>
       </c>
       <c r="E66" s="3">
-        <v>24894400</v>
+        <v>26345600</v>
       </c>
       <c r="F66" s="3">
-        <v>23784400</v>
+        <v>25831700</v>
       </c>
       <c r="G66" s="3">
-        <v>24584500</v>
+        <v>24680000</v>
       </c>
       <c r="H66" s="3">
-        <v>20672400</v>
+        <v>25510200</v>
       </c>
       <c r="I66" s="3">
-        <v>20909200</v>
+        <v>21450800</v>
       </c>
       <c r="J66" s="3">
+        <v>21696500</v>
+      </c>
+      <c r="K66" s="3">
         <v>20936000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23011700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18812300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19592200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19135000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19340200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19650900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18394100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,10 +3783,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="3">
-        <v>-1463100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
+        <v>-1362400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1518200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
@@ -3620,11 +3794,11 @@
       <c r="H72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I72" s="3">
-        <v>-3168400</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-3287700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -3632,26 +3806,29 @@
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N72" s="3">
         <v>-3205500</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-3104800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3159800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2968300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11797200</v>
+        <v>19801500</v>
       </c>
       <c r="E76" s="3">
-        <v>11456600</v>
+        <v>12241400</v>
       </c>
       <c r="F76" s="3">
-        <v>10622200</v>
+        <v>11887900</v>
       </c>
       <c r="G76" s="3">
-        <v>9774500</v>
+        <v>11022200</v>
       </c>
       <c r="H76" s="3">
-        <v>9325100</v>
+        <v>10142500</v>
       </c>
       <c r="I76" s="3">
-        <v>8365500</v>
+        <v>9676200</v>
       </c>
       <c r="J76" s="3">
+        <v>8680500</v>
+      </c>
+      <c r="K76" s="3">
         <v>8951000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8358800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7776600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7723400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7642600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7473100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5179500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4929000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5128500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>150200</v>
+        <v>2388500</v>
       </c>
       <c r="E81" s="3">
-        <v>508600</v>
+        <v>155800</v>
       </c>
       <c r="F81" s="3">
-        <v>85700</v>
+        <v>527800</v>
       </c>
       <c r="G81" s="3">
-        <v>86600</v>
+        <v>88900</v>
       </c>
       <c r="H81" s="3">
-        <v>1024400</v>
+        <v>89900</v>
       </c>
       <c r="I81" s="3">
-        <v>-672500</v>
+        <v>1063000</v>
       </c>
       <c r="J81" s="3">
+        <v>-697800</v>
+      </c>
+      <c r="K81" s="3">
         <v>420000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-317400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>218800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-134900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>150500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-73700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-250600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-215900</v>
+        <v>3865700</v>
       </c>
       <c r="E89" s="3">
+        <v>-224000</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
-        <v>176600</v>
-      </c>
       <c r="G89" s="3">
-        <v>2826100</v>
+        <v>183300</v>
       </c>
       <c r="H89" s="3">
-        <v>465100</v>
+        <v>2932500</v>
       </c>
       <c r="I89" s="3">
-        <v>843700</v>
+        <v>482600</v>
       </c>
       <c r="J89" s="3">
+        <v>875500</v>
+      </c>
+      <c r="K89" s="3">
         <v>309700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2355000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-541300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>52300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2767300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>650300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-433900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1047900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1147200</v>
+        <v>-3396900</v>
       </c>
       <c r="E94" s="3">
-        <v>343200</v>
+        <v>-1190400</v>
       </c>
       <c r="F94" s="3">
-        <v>-793600</v>
+        <v>356200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2943100</v>
+        <v>-823500</v>
       </c>
       <c r="H94" s="3">
-        <v>-154400</v>
+        <v>-3054000</v>
       </c>
       <c r="I94" s="3">
-        <v>-306200</v>
+        <v>-160200</v>
       </c>
       <c r="J94" s="3">
+        <v>-317800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-364300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2919400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-135000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>624600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-620100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4568600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-980900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2206600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3057800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2111500</v>
+        <v>4132500</v>
       </c>
       <c r="E100" s="3">
-        <v>432200</v>
+        <v>2191000</v>
       </c>
       <c r="F100" s="3">
-        <v>348400</v>
+        <v>448500</v>
       </c>
       <c r="G100" s="3">
-        <v>-62800</v>
+        <v>361600</v>
       </c>
       <c r="H100" s="3">
-        <v>-357700</v>
+        <v>-65200</v>
       </c>
       <c r="I100" s="3">
-        <v>-548800</v>
+        <v>-371200</v>
       </c>
       <c r="J100" s="3">
+        <v>-569400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-419200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>692900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1909300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-564100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-229500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2462600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1161900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1772300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>85300</v>
+        <v>-8700</v>
       </c>
       <c r="E101" s="3">
-        <v>-54700</v>
+        <v>88500</v>
       </c>
       <c r="F101" s="3">
-        <v>112600</v>
+        <v>-56800</v>
       </c>
       <c r="G101" s="3">
-        <v>58200</v>
+        <v>116800</v>
       </c>
       <c r="H101" s="3">
-        <v>-59200</v>
+        <v>60400</v>
       </c>
       <c r="I101" s="3">
-        <v>-18300</v>
+        <v>-61500</v>
       </c>
       <c r="J101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="K101" s="3">
         <v>150400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>171000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-65200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-31600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-44300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-13900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>42400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>833700</v>
+        <v>4592500</v>
       </c>
       <c r="E102" s="3">
-        <v>721200</v>
+        <v>865100</v>
       </c>
       <c r="F102" s="3">
-        <v>-155900</v>
+        <v>748400</v>
       </c>
       <c r="G102" s="3">
-        <v>-121700</v>
+        <v>-161800</v>
       </c>
       <c r="H102" s="3">
-        <v>-106200</v>
+        <v>-126300</v>
       </c>
       <c r="I102" s="3">
-        <v>-29600</v>
+        <v>-110200</v>
       </c>
       <c r="J102" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-323400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>299400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1167700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>605200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1085000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>515000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>825900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-736300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1679300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29199100</v>
+        <v>26501500</v>
       </c>
       <c r="E8" s="3">
-        <v>21233400</v>
+        <v>30584300</v>
       </c>
       <c r="F8" s="3">
-        <v>24788400</v>
+        <v>22240700</v>
       </c>
       <c r="G8" s="3">
-        <v>19583200</v>
+        <v>25964500</v>
       </c>
       <c r="H8" s="3">
-        <v>21825300</v>
+        <v>20512300</v>
       </c>
       <c r="I8" s="3">
-        <v>17584600</v>
+        <v>22860700</v>
       </c>
       <c r="J8" s="3">
+        <v>18418900</v>
+      </c>
+      <c r="K8" s="3">
         <v>19581700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14663400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17546300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14366400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16349600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12428800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13832100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10939000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11548800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8751100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25040300</v>
+        <v>22425400</v>
       </c>
       <c r="E9" s="3">
-        <v>17960600</v>
+        <v>26228300</v>
       </c>
       <c r="F9" s="3">
-        <v>21303200</v>
+        <v>18812600</v>
       </c>
       <c r="G9" s="3">
-        <v>16662000</v>
+        <v>22313800</v>
       </c>
       <c r="H9" s="3">
-        <v>18612000</v>
+        <v>17452500</v>
       </c>
       <c r="I9" s="3">
-        <v>14943800</v>
+        <v>19495000</v>
       </c>
       <c r="J9" s="3">
+        <v>15652700</v>
+      </c>
+      <c r="K9" s="3">
         <v>16797400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12408700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15176900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12334900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14218500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10502000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11955000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18670800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19852900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14923400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4158700</v>
+        <v>4076100</v>
       </c>
       <c r="E10" s="3">
-        <v>3272800</v>
+        <v>4356000</v>
       </c>
       <c r="F10" s="3">
-        <v>3485300</v>
+        <v>3428100</v>
       </c>
       <c r="G10" s="3">
-        <v>2921200</v>
+        <v>3650600</v>
       </c>
       <c r="H10" s="3">
-        <v>3213200</v>
+        <v>3059800</v>
       </c>
       <c r="I10" s="3">
-        <v>2640800</v>
+        <v>3365700</v>
       </c>
       <c r="J10" s="3">
+        <v>2766100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2784300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2254700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2369400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2031400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2131100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1926800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1877100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-7731900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-8304100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-6172300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>519800</v>
+        <v>621000</v>
       </c>
       <c r="E12" s="3">
-        <v>567900</v>
+        <v>544400</v>
       </c>
       <c r="F12" s="3">
-        <v>518000</v>
+        <v>594900</v>
       </c>
       <c r="G12" s="3">
-        <v>517100</v>
+        <v>542600</v>
       </c>
       <c r="H12" s="3">
-        <v>537500</v>
+        <v>541600</v>
       </c>
       <c r="I12" s="3">
-        <v>536100</v>
+        <v>563000</v>
       </c>
       <c r="J12" s="3">
+        <v>561600</v>
+      </c>
+      <c r="K12" s="3">
         <v>505400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>478900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>395500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>342700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>302600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>257500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>226400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>184500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>168700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>175700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-28400</v>
+        <v>-52300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-29800</v>
       </c>
       <c r="F14" s="3">
-        <v>-564200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>-590900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>43100</v>
+        <v>51900</v>
       </c>
       <c r="E15" s="3">
-        <v>40900</v>
+        <v>45200</v>
       </c>
       <c r="F15" s="3">
-        <v>68400</v>
+        <v>42900</v>
       </c>
       <c r="G15" s="3">
-        <v>21200</v>
+        <v>71700</v>
       </c>
       <c r="H15" s="3">
-        <v>21500</v>
+        <v>22200</v>
       </c>
       <c r="I15" s="3">
-        <v>64400</v>
+        <v>22500</v>
       </c>
       <c r="J15" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K15" s="3">
         <v>65800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>63900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>64600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>64000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>66700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>66300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>65700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>63900</v>
-      </c>
-      <c r="R15" s="3">
-        <v>65100</v>
       </c>
       <c r="S15" s="3">
         <v>65100</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>65100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>28466500</v>
+        <v>25834700</v>
       </c>
       <c r="E17" s="3">
-        <v>20896400</v>
+        <v>29817000</v>
       </c>
       <c r="F17" s="3">
-        <v>24711500</v>
+        <v>21887700</v>
       </c>
       <c r="G17" s="3">
-        <v>18861000</v>
+        <v>25883900</v>
       </c>
       <c r="H17" s="3">
-        <v>21496100</v>
+        <v>19755800</v>
       </c>
       <c r="I17" s="3">
-        <v>17406600</v>
+        <v>22515900</v>
       </c>
       <c r="J17" s="3">
+        <v>18232400</v>
+      </c>
+      <c r="K17" s="3">
         <v>19718100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14754400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17694700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14365700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16586500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12354200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13891900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10842800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11598000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8785200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>732600</v>
+        <v>666800</v>
       </c>
       <c r="E18" s="3">
-        <v>337000</v>
+        <v>767300</v>
       </c>
       <c r="F18" s="3">
-        <v>76900</v>
+        <v>353000</v>
       </c>
       <c r="G18" s="3">
-        <v>722300</v>
+        <v>80500</v>
       </c>
       <c r="H18" s="3">
-        <v>329200</v>
+        <v>756500</v>
       </c>
       <c r="I18" s="3">
-        <v>178000</v>
+        <v>344800</v>
       </c>
       <c r="J18" s="3">
+        <v>186400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-136400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-91100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-148400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-236900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>74600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-59800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>96200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-49200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-34100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1813900</v>
+        <v>637400</v>
       </c>
       <c r="E20" s="3">
-        <v>-106000</v>
+        <v>1899900</v>
       </c>
       <c r="F20" s="3">
-        <v>540700</v>
+        <v>-111000</v>
       </c>
       <c r="G20" s="3">
-        <v>-530800</v>
+        <v>566400</v>
       </c>
       <c r="H20" s="3">
-        <v>-163700</v>
+        <v>-556000</v>
       </c>
       <c r="I20" s="3">
-        <v>941300</v>
+        <v>-171400</v>
       </c>
       <c r="J20" s="3">
+        <v>985900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-542100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>534700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-120500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>265800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>95700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>120500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>42100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-113100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2554500</v>
+        <v>1313300</v>
       </c>
       <c r="E21" s="3">
-        <v>435200</v>
+        <v>2675700</v>
       </c>
       <c r="F21" s="3">
-        <v>621100</v>
+        <v>455800</v>
       </c>
       <c r="G21" s="3">
-        <v>195200</v>
+        <v>650500</v>
       </c>
       <c r="H21" s="3">
-        <v>120000</v>
+        <v>204500</v>
       </c>
       <c r="I21" s="3">
-        <v>1362200</v>
+        <v>125700</v>
       </c>
       <c r="J21" s="3">
+        <v>1426900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-660600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>476100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-259600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>437800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-31900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>117300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>219700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-158100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47100</v>
+        <v>45300</v>
       </c>
       <c r="E22" s="3">
-        <v>30100</v>
+        <v>49300</v>
       </c>
       <c r="F22" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="G22" s="3">
-        <v>23700</v>
+        <v>33400</v>
       </c>
       <c r="H22" s="3">
-        <v>22500</v>
+        <v>24800</v>
       </c>
       <c r="I22" s="3">
-        <v>27200</v>
+        <v>23600</v>
       </c>
       <c r="J22" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K22" s="3">
         <v>21000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32800</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>42000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>30900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>27600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2499300</v>
+        <v>1258900</v>
       </c>
       <c r="E23" s="3">
-        <v>200900</v>
+        <v>2617900</v>
       </c>
       <c r="F23" s="3">
-        <v>585700</v>
+        <v>210500</v>
       </c>
       <c r="G23" s="3">
-        <v>167800</v>
+        <v>613500</v>
       </c>
       <c r="H23" s="3">
-        <v>143000</v>
+        <v>175800</v>
       </c>
       <c r="I23" s="3">
-        <v>1092000</v>
+        <v>149800</v>
       </c>
       <c r="J23" s="3">
+        <v>1143800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-699500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>409900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-303300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>233600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-141200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>153100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-48600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>53600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-171500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-70600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>115700</v>
+        <v>105000</v>
       </c>
       <c r="E24" s="3">
-        <v>47400</v>
+        <v>121200</v>
       </c>
       <c r="F24" s="3">
-        <v>69600</v>
+        <v>49700</v>
       </c>
       <c r="G24" s="3">
-        <v>87800</v>
+        <v>72900</v>
       </c>
       <c r="H24" s="3">
-        <v>63700</v>
+        <v>92000</v>
       </c>
       <c r="I24" s="3">
-        <v>40600</v>
+        <v>66800</v>
       </c>
       <c r="J24" s="3">
+        <v>42500</v>
+      </c>
+      <c r="K24" s="3">
         <v>8900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2383700</v>
+        <v>1153900</v>
       </c>
       <c r="E26" s="3">
-        <v>153500</v>
+        <v>2496700</v>
       </c>
       <c r="F26" s="3">
-        <v>516100</v>
+        <v>160800</v>
       </c>
       <c r="G26" s="3">
-        <v>80000</v>
+        <v>540600</v>
       </c>
       <c r="H26" s="3">
-        <v>79300</v>
+        <v>83800</v>
       </c>
       <c r="I26" s="3">
-        <v>1051400</v>
+        <v>83000</v>
       </c>
       <c r="J26" s="3">
+        <v>1101300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-708400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>402600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-326700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>212000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-143100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>145200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-186100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-70900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2388500</v>
+        <v>1150100</v>
       </c>
       <c r="E27" s="3">
-        <v>155800</v>
+        <v>2501900</v>
       </c>
       <c r="F27" s="3">
-        <v>527800</v>
+        <v>163200</v>
       </c>
       <c r="G27" s="3">
-        <v>88900</v>
+        <v>552800</v>
       </c>
       <c r="H27" s="3">
-        <v>89900</v>
+        <v>93100</v>
       </c>
       <c r="I27" s="3">
-        <v>1063000</v>
+        <v>94100</v>
       </c>
       <c r="J27" s="3">
+        <v>1113400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-697800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>420000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-317400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>218800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-134900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>150500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-183400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,28 +1814,31 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1798,19 +1859,22 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-8700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-67100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-66100</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1813900</v>
+        <v>-637400</v>
       </c>
       <c r="E32" s="3">
-        <v>106000</v>
+        <v>-1899900</v>
       </c>
       <c r="F32" s="3">
-        <v>-540700</v>
+        <v>111000</v>
       </c>
       <c r="G32" s="3">
-        <v>530800</v>
+        <v>-566400</v>
       </c>
       <c r="H32" s="3">
-        <v>163700</v>
+        <v>556000</v>
       </c>
       <c r="I32" s="3">
-        <v>-941300</v>
+        <v>171400</v>
       </c>
       <c r="J32" s="3">
+        <v>-985900</v>
+      </c>
+      <c r="K32" s="3">
         <v>542100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-534700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>120500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-265800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-95700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-120500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>113100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2388500</v>
+        <v>1150100</v>
       </c>
       <c r="E33" s="3">
-        <v>155800</v>
+        <v>2501900</v>
       </c>
       <c r="F33" s="3">
-        <v>527800</v>
+        <v>163200</v>
       </c>
       <c r="G33" s="3">
-        <v>88900</v>
+        <v>552800</v>
       </c>
       <c r="H33" s="3">
-        <v>89900</v>
+        <v>93100</v>
       </c>
       <c r="I33" s="3">
-        <v>1063000</v>
+        <v>94100</v>
       </c>
       <c r="J33" s="3">
+        <v>1113400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-697800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>420000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-317400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>218800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-134900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>150500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-73700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-250600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2388500</v>
+        <v>1150100</v>
       </c>
       <c r="E35" s="3">
-        <v>155800</v>
+        <v>2501900</v>
       </c>
       <c r="F35" s="3">
-        <v>527800</v>
+        <v>163200</v>
       </c>
       <c r="G35" s="3">
-        <v>88900</v>
+        <v>552800</v>
       </c>
       <c r="H35" s="3">
-        <v>89900</v>
+        <v>93100</v>
       </c>
       <c r="I35" s="3">
-        <v>1063000</v>
+        <v>94100</v>
       </c>
       <c r="J35" s="3">
+        <v>1113400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-697800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>420000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-317400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>218800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-134900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>150500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-73700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-250600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10394400</v>
+        <v>11121900</v>
       </c>
       <c r="E41" s="3">
-        <v>6321800</v>
+        <v>10887500</v>
       </c>
       <c r="F41" s="3">
-        <v>5369400</v>
+        <v>6621700</v>
       </c>
       <c r="G41" s="3">
-        <v>4665500</v>
+        <v>5624100</v>
       </c>
       <c r="H41" s="3">
-        <v>4760400</v>
+        <v>4886800</v>
       </c>
       <c r="I41" s="3">
-        <v>4945600</v>
+        <v>4986300</v>
       </c>
       <c r="J41" s="3">
+        <v>5180300</v>
+      </c>
+      <c r="K41" s="3">
         <v>4975900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4758300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5055400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5051100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3812400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3207200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4134000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3435700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2263900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3611700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7077100</v>
+        <v>7362900</v>
       </c>
       <c r="E42" s="3">
-        <v>4264600</v>
+        <v>7412900</v>
       </c>
       <c r="F42" s="3">
-        <v>3573100</v>
+        <v>4466900</v>
       </c>
       <c r="G42" s="3">
-        <v>3553200</v>
+        <v>3742600</v>
       </c>
       <c r="H42" s="3">
-        <v>3567200</v>
+        <v>3721800</v>
       </c>
       <c r="I42" s="3">
-        <v>613100</v>
+        <v>3736400</v>
       </c>
       <c r="J42" s="3">
+        <v>642100</v>
+      </c>
+      <c r="K42" s="3">
         <v>295600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>723900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1829700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1713700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1274500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2383300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1890700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3089800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2623300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1793200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1957500</v>
+        <v>2147000</v>
       </c>
       <c r="E43" s="3">
-        <v>1567400</v>
+        <v>2050400</v>
       </c>
       <c r="F43" s="3">
-        <v>1739300</v>
+        <v>1641800</v>
       </c>
       <c r="G43" s="3">
-        <v>2357900</v>
+        <v>1821800</v>
       </c>
       <c r="H43" s="3">
-        <v>1999000</v>
+        <v>2469700</v>
       </c>
       <c r="I43" s="3">
-        <v>1542600</v>
+        <v>2093800</v>
       </c>
       <c r="J43" s="3">
+        <v>1615800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2463500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2348300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3701700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2819300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4850500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5597400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6769800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5409200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4288500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4025000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7911700</v>
+        <v>8419200</v>
       </c>
       <c r="E44" s="3">
-        <v>7346400</v>
+        <v>8287000</v>
       </c>
       <c r="F44" s="3">
-        <v>8413500</v>
+        <v>7694900</v>
       </c>
       <c r="G44" s="3">
-        <v>7009600</v>
+        <v>8812600</v>
       </c>
       <c r="H44" s="3">
-        <v>6611000</v>
+        <v>7342100</v>
       </c>
       <c r="I44" s="3">
-        <v>5553000</v>
+        <v>6924600</v>
       </c>
       <c r="J44" s="3">
+        <v>5816500</v>
+      </c>
+      <c r="K44" s="3">
         <v>6394500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5578100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6227400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5188800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6188800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5388800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4622900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3906300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4204300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3287100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2500700</v>
+        <v>2524000</v>
       </c>
       <c r="E45" s="3">
-        <v>1493100</v>
+        <v>2619300</v>
       </c>
       <c r="F45" s="3">
-        <v>1105500</v>
+        <v>1563900</v>
       </c>
       <c r="G45" s="3">
-        <v>1236200</v>
+        <v>1158000</v>
       </c>
       <c r="H45" s="3">
-        <v>1572900</v>
+        <v>1294800</v>
       </c>
       <c r="I45" s="3">
-        <v>1152400</v>
+        <v>1647500</v>
       </c>
       <c r="J45" s="3">
+        <v>1207100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1098700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1921800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2095000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1439700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>945200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1774000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2015800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1285200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3842100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>840300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29841400</v>
+        <v>31575100</v>
       </c>
       <c r="E46" s="3">
-        <v>20993300</v>
+        <v>31257100</v>
       </c>
       <c r="F46" s="3">
-        <v>20200700</v>
+        <v>21989300</v>
       </c>
       <c r="G46" s="3">
-        <v>18822300</v>
+        <v>21159100</v>
       </c>
       <c r="H46" s="3">
-        <v>18510500</v>
+        <v>19715200</v>
       </c>
       <c r="I46" s="3">
-        <v>13806700</v>
+        <v>19388700</v>
       </c>
       <c r="J46" s="3">
+        <v>14461800</v>
+      </c>
+      <c r="K46" s="3">
         <v>15228200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15330400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18909200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16212600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17071400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18350700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19433200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17126200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15551100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13557200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10837100</v>
+        <v>12132800</v>
       </c>
       <c r="E47" s="3">
-        <v>8358500</v>
+        <v>11351300</v>
       </c>
       <c r="F47" s="3">
-        <v>8277100</v>
+        <v>8755000</v>
       </c>
       <c r="G47" s="3">
-        <v>7883600</v>
+        <v>8669800</v>
       </c>
       <c r="H47" s="3">
-        <v>8007600</v>
+        <v>8257700</v>
       </c>
       <c r="I47" s="3">
-        <v>7705500</v>
+        <v>8387500</v>
       </c>
       <c r="J47" s="3">
+        <v>8071100</v>
+      </c>
+      <c r="K47" s="3">
         <v>6863300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7013800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5555200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4438500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4241400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2881600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2652400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3265500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3299200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3258900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5395800</v>
+        <v>6481500</v>
       </c>
       <c r="E48" s="3">
-        <v>4676100</v>
+        <v>5651800</v>
       </c>
       <c r="F48" s="3">
-        <v>5098200</v>
+        <v>4897900</v>
       </c>
       <c r="G48" s="3">
-        <v>4925000</v>
+        <v>5340000</v>
       </c>
       <c r="H48" s="3">
-        <v>4569700</v>
+        <v>5158600</v>
       </c>
       <c r="I48" s="3">
-        <v>4603200</v>
+        <v>4786500</v>
       </c>
       <c r="J48" s="3">
+        <v>4821600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4013700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3446300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2997300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2456000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2340500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1904000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1599700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1382600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1311100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1280900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3570300</v>
+        <v>4366000</v>
       </c>
       <c r="E49" s="3">
-        <v>3055100</v>
+        <v>3739600</v>
       </c>
       <c r="F49" s="3">
-        <v>3143600</v>
+        <v>3200100</v>
       </c>
       <c r="G49" s="3">
-        <v>3115600</v>
+        <v>3292700</v>
       </c>
       <c r="H49" s="3">
-        <v>3095300</v>
+        <v>3263400</v>
       </c>
       <c r="I49" s="3">
-        <v>3085800</v>
+        <v>3242100</v>
       </c>
       <c r="J49" s="3">
+        <v>3232200</v>
+      </c>
+      <c r="K49" s="3">
         <v>3214100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3076700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2868200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2862900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3026700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3021300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2440200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2475700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2513800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2566700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1546100</v>
+        <v>2383200</v>
       </c>
       <c r="E52" s="3">
-        <v>1504000</v>
+        <v>1619500</v>
       </c>
       <c r="F52" s="3">
-        <v>1000200</v>
+        <v>1575300</v>
       </c>
       <c r="G52" s="3">
-        <v>955700</v>
+        <v>1047600</v>
       </c>
       <c r="H52" s="3">
-        <v>1469500</v>
+        <v>1001000</v>
       </c>
       <c r="I52" s="3">
-        <v>1925700</v>
+        <v>1539200</v>
       </c>
       <c r="J52" s="3">
+        <v>2017100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1057800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1019700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1040600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>618800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>635500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>620000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>687900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>580500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1665500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51190700</v>
+        <v>56938500</v>
       </c>
       <c r="E54" s="3">
-        <v>38587000</v>
+        <v>53619300</v>
       </c>
       <c r="F54" s="3">
-        <v>37719700</v>
+        <v>40417600</v>
       </c>
       <c r="G54" s="3">
-        <v>35702200</v>
+        <v>39509200</v>
       </c>
       <c r="H54" s="3">
-        <v>35652700</v>
+        <v>37396000</v>
       </c>
       <c r="I54" s="3">
-        <v>31127000</v>
+        <v>37344100</v>
       </c>
       <c r="J54" s="3">
+        <v>32603700</v>
+      </c>
+      <c r="K54" s="3">
         <v>30377000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29887000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31370400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26588900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27315600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26777600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26813400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24830500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23323100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20972500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14724700</v>
+        <v>16073300</v>
       </c>
       <c r="E57" s="3">
-        <v>11291800</v>
+        <v>15423300</v>
       </c>
       <c r="F57" s="3">
-        <v>13179100</v>
+        <v>11827500</v>
       </c>
       <c r="G57" s="3">
-        <v>12596600</v>
+        <v>13804300</v>
       </c>
       <c r="H57" s="3">
-        <v>13618200</v>
+        <v>13194200</v>
       </c>
       <c r="I57" s="3">
-        <v>10387000</v>
+        <v>14264300</v>
       </c>
       <c r="J57" s="3">
+        <v>10879800</v>
+      </c>
+      <c r="K57" s="3">
         <v>11647500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10957000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12582100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8938300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11032500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10032000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10014300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6362200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6695000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6031800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1789400</v>
+        <v>964800</v>
       </c>
       <c r="E58" s="3">
-        <v>1249200</v>
+        <v>1874300</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>1308500</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>271500</v>
+        <v>20900</v>
       </c>
       <c r="J58" s="3">
+        <v>284400</v>
+      </c>
+      <c r="K58" s="3">
         <v>660100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1340300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1701400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1939000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1912200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1825900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1807800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2944100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1615600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8458000</v>
+        <v>9217200</v>
       </c>
       <c r="E59" s="3">
-        <v>7297000</v>
+        <v>8859200</v>
       </c>
       <c r="F59" s="3">
-        <v>7155600</v>
+        <v>7643200</v>
       </c>
       <c r="G59" s="3">
-        <v>6686000</v>
+        <v>7495100</v>
       </c>
       <c r="H59" s="3">
-        <v>6705700</v>
+        <v>7003200</v>
       </c>
       <c r="I59" s="3">
-        <v>6034700</v>
+        <v>7023800</v>
       </c>
       <c r="J59" s="3">
+        <v>6321000</v>
+      </c>
+      <c r="K59" s="3">
         <v>5245200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4735000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4852800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4456200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4604900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4511800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4433200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6832000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6921700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24972100</v>
+        <v>26255200</v>
       </c>
       <c r="E60" s="3">
-        <v>19838100</v>
+        <v>26156800</v>
       </c>
       <c r="F60" s="3">
-        <v>20334700</v>
+        <v>20779200</v>
       </c>
       <c r="G60" s="3">
-        <v>19282600</v>
+        <v>21299400</v>
       </c>
       <c r="H60" s="3">
-        <v>20343900</v>
+        <v>20197400</v>
       </c>
       <c r="I60" s="3">
-        <v>16693200</v>
+        <v>21309000</v>
       </c>
       <c r="J60" s="3">
+        <v>17485200</v>
+      </c>
+      <c r="K60" s="3">
         <v>17552800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17032300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19136300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15333500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17549600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16369700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16255400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16138300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15232400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12899100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1973700</v>
+        <v>2006000</v>
       </c>
       <c r="E61" s="3">
-        <v>2488000</v>
+        <v>2067300</v>
       </c>
       <c r="F61" s="3">
-        <v>1459800</v>
+        <v>2606000</v>
       </c>
       <c r="G61" s="3">
-        <v>1479500</v>
+        <v>1529100</v>
       </c>
       <c r="H61" s="3">
-        <v>1437500</v>
+        <v>1549700</v>
       </c>
       <c r="I61" s="3">
-        <v>1407500</v>
+        <v>1505700</v>
       </c>
       <c r="J61" s="3">
+        <v>1474300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1434100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1384800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1408600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1036900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1621000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2315500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2602100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1957100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1330600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1488500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1588600</v>
+        <v>2044600</v>
       </c>
       <c r="E62" s="3">
-        <v>1266800</v>
+        <v>1663900</v>
       </c>
       <c r="F62" s="3">
-        <v>1311500</v>
+        <v>1326900</v>
       </c>
       <c r="G62" s="3">
-        <v>1329500</v>
+        <v>1373700</v>
       </c>
       <c r="H62" s="3">
-        <v>1088600</v>
+        <v>1392600</v>
       </c>
       <c r="I62" s="3">
-        <v>868800</v>
+        <v>1140300</v>
       </c>
       <c r="J62" s="3">
+        <v>910000</v>
+      </c>
+      <c r="K62" s="3">
         <v>232400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>255700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>295100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>326300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>370000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>400900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>438400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>471400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>765600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31389200</v>
+        <v>34035600</v>
       </c>
       <c r="E66" s="3">
-        <v>26345600</v>
+        <v>32878400</v>
       </c>
       <c r="F66" s="3">
-        <v>25831700</v>
+        <v>27595500</v>
       </c>
       <c r="G66" s="3">
-        <v>24680000</v>
+        <v>27057200</v>
       </c>
       <c r="H66" s="3">
-        <v>25510200</v>
+        <v>25850800</v>
       </c>
       <c r="I66" s="3">
-        <v>21450800</v>
+        <v>26720400</v>
       </c>
       <c r="J66" s="3">
+        <v>22468500</v>
+      </c>
+      <c r="K66" s="3">
         <v>21696500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20936000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23011700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18812300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19592200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19135000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19340200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19650900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18394100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,22 +3945,25 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="3">
-        <v>-1362400</v>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F72" s="3">
-        <v>-1518200</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
+        <v>-1427000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1590200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -3797,11 +3971,11 @@
       <c r="I72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3287700</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>10</v>
@@ -3809,26 +3983,29 @@
       <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" s="3">
         <v>-3205500</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R72" s="3">
         <v>-3104800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3159800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2968300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19801500</v>
+        <v>22903000</v>
       </c>
       <c r="E76" s="3">
-        <v>12241400</v>
+        <v>20740900</v>
       </c>
       <c r="F76" s="3">
-        <v>11887900</v>
+        <v>12822200</v>
       </c>
       <c r="G76" s="3">
-        <v>11022200</v>
+        <v>12451900</v>
       </c>
       <c r="H76" s="3">
-        <v>10142500</v>
+        <v>11545100</v>
       </c>
       <c r="I76" s="3">
-        <v>9676200</v>
+        <v>10623700</v>
       </c>
       <c r="J76" s="3">
+        <v>10135300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8680500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8951000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8358800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7776600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7723400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7642600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7473100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5179500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4929000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5128500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2388500</v>
+        <v>1150100</v>
       </c>
       <c r="E81" s="3">
-        <v>155800</v>
+        <v>2501900</v>
       </c>
       <c r="F81" s="3">
-        <v>527800</v>
+        <v>163200</v>
       </c>
       <c r="G81" s="3">
-        <v>88900</v>
+        <v>552800</v>
       </c>
       <c r="H81" s="3">
-        <v>89900</v>
+        <v>93100</v>
       </c>
       <c r="I81" s="3">
-        <v>1063000</v>
+        <v>94100</v>
       </c>
       <c r="J81" s="3">
+        <v>1113400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-697800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>420000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-317400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>218800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-134900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>150500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-73700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-250600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3865700</v>
+        <v>1864300</v>
       </c>
       <c r="E89" s="3">
-        <v>-224000</v>
+        <v>4049100</v>
       </c>
       <c r="F89" s="3">
-        <v>500</v>
+        <v>-234600</v>
       </c>
       <c r="G89" s="3">
-        <v>183300</v>
+        <v>600</v>
       </c>
       <c r="H89" s="3">
-        <v>2932500</v>
+        <v>192000</v>
       </c>
       <c r="I89" s="3">
-        <v>482600</v>
+        <v>3071600</v>
       </c>
       <c r="J89" s="3">
+        <v>505500</v>
+      </c>
+      <c r="K89" s="3">
         <v>875500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>309700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2355000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-541300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>52300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2767300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>650300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-433900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1047900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3396900</v>
+        <v>-1904400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1190400</v>
+        <v>-3558100</v>
       </c>
       <c r="F94" s="3">
-        <v>356200</v>
+        <v>-1246800</v>
       </c>
       <c r="G94" s="3">
-        <v>-823500</v>
+        <v>373100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3054000</v>
+        <v>-862600</v>
       </c>
       <c r="I94" s="3">
-        <v>-160200</v>
+        <v>-3198900</v>
       </c>
       <c r="J94" s="3">
+        <v>-167800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-317800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-364300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2919400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-135000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>624600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-620100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4568600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-980900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2206600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3057800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4132500</v>
+        <v>626400</v>
       </c>
       <c r="E100" s="3">
-        <v>2191000</v>
+        <v>4328500</v>
       </c>
       <c r="F100" s="3">
-        <v>448500</v>
+        <v>2294900</v>
       </c>
       <c r="G100" s="3">
-        <v>361600</v>
+        <v>469700</v>
       </c>
       <c r="H100" s="3">
-        <v>-65200</v>
+        <v>378700</v>
       </c>
       <c r="I100" s="3">
-        <v>-371200</v>
+        <v>-68300</v>
       </c>
       <c r="J100" s="3">
+        <v>-388800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-569400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-419200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>692900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1909300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-564100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-229500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2462600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1161900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1772300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8700</v>
+        <v>-404600</v>
       </c>
       <c r="E101" s="3">
-        <v>88500</v>
+        <v>-9100</v>
       </c>
       <c r="F101" s="3">
-        <v>-56800</v>
+        <v>92700</v>
       </c>
       <c r="G101" s="3">
-        <v>116800</v>
+        <v>-59500</v>
       </c>
       <c r="H101" s="3">
-        <v>60400</v>
+        <v>122400</v>
       </c>
       <c r="I101" s="3">
-        <v>-61500</v>
+        <v>63200</v>
       </c>
       <c r="J101" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-19000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>150400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>171000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-65200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-31600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-44300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>42400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4592500</v>
+        <v>181800</v>
       </c>
       <c r="E102" s="3">
-        <v>865100</v>
+        <v>4810400</v>
       </c>
       <c r="F102" s="3">
-        <v>748400</v>
+        <v>906200</v>
       </c>
       <c r="G102" s="3">
-        <v>-161800</v>
+        <v>783900</v>
       </c>
       <c r="H102" s="3">
-        <v>-126300</v>
+        <v>-169500</v>
       </c>
       <c r="I102" s="3">
-        <v>-110200</v>
+        <v>-132300</v>
       </c>
       <c r="J102" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-30700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-323400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>299400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1167700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>605200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1085000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>515000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>825900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-736300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1679300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26501500</v>
+        <v>26616500</v>
       </c>
       <c r="E8" s="3">
-        <v>30584300</v>
+        <v>30717000</v>
       </c>
       <c r="F8" s="3">
-        <v>22240700</v>
+        <v>22337200</v>
       </c>
       <c r="G8" s="3">
-        <v>25964500</v>
+        <v>26077100</v>
       </c>
       <c r="H8" s="3">
-        <v>20512300</v>
+        <v>20601300</v>
       </c>
       <c r="I8" s="3">
-        <v>22860700</v>
+        <v>22959900</v>
       </c>
       <c r="J8" s="3">
-        <v>18418900</v>
+        <v>18498800</v>
       </c>
       <c r="K8" s="3">
         <v>19581700</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22425400</v>
+        <v>22522700</v>
       </c>
       <c r="E9" s="3">
-        <v>26228300</v>
+        <v>26342100</v>
       </c>
       <c r="F9" s="3">
-        <v>18812600</v>
+        <v>18894300</v>
       </c>
       <c r="G9" s="3">
-        <v>22313800</v>
+        <v>22410700</v>
       </c>
       <c r="H9" s="3">
-        <v>17452500</v>
+        <v>17528200</v>
       </c>
       <c r="I9" s="3">
-        <v>19495000</v>
+        <v>19579600</v>
       </c>
       <c r="J9" s="3">
-        <v>15652700</v>
+        <v>15720700</v>
       </c>
       <c r="K9" s="3">
         <v>16797400</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4076100</v>
+        <v>4093700</v>
       </c>
       <c r="E10" s="3">
-        <v>4356000</v>
+        <v>4374900</v>
       </c>
       <c r="F10" s="3">
-        <v>3428100</v>
+        <v>3443000</v>
       </c>
       <c r="G10" s="3">
-        <v>3650600</v>
+        <v>3666400</v>
       </c>
       <c r="H10" s="3">
-        <v>3059800</v>
+        <v>3073000</v>
       </c>
       <c r="I10" s="3">
-        <v>3365700</v>
+        <v>3380300</v>
       </c>
       <c r="J10" s="3">
-        <v>2766100</v>
+        <v>2778100</v>
       </c>
       <c r="K10" s="3">
         <v>2784300</v>
@@ -942,25 +942,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>621000</v>
+        <v>623700</v>
       </c>
       <c r="E12" s="3">
-        <v>544400</v>
+        <v>546800</v>
       </c>
       <c r="F12" s="3">
-        <v>594900</v>
+        <v>597400</v>
       </c>
       <c r="G12" s="3">
-        <v>542600</v>
+        <v>544900</v>
       </c>
       <c r="H12" s="3">
-        <v>541600</v>
+        <v>544000</v>
       </c>
       <c r="I12" s="3">
-        <v>563000</v>
+        <v>565400</v>
       </c>
       <c r="J12" s="3">
-        <v>561600</v>
+        <v>564000</v>
       </c>
       <c r="K12" s="3">
         <v>505400</v>
@@ -1054,16 +1054,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-52300</v>
+        <v>-52600</v>
       </c>
       <c r="E14" s="3">
-        <v>-29800</v>
+        <v>-29900</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-590900</v>
+        <v>-593500</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1110,25 +1110,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>51900</v>
+        <v>52200</v>
       </c>
       <c r="E15" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="F15" s="3">
-        <v>42900</v>
+        <v>43100</v>
       </c>
       <c r="G15" s="3">
-        <v>71700</v>
+        <v>72000</v>
       </c>
       <c r="H15" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="I15" s="3">
-        <v>22500</v>
+        <v>22600</v>
       </c>
       <c r="J15" s="3">
-        <v>67500</v>
+        <v>67800</v>
       </c>
       <c r="K15" s="3">
         <v>65800</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25834700</v>
+        <v>25946800</v>
       </c>
       <c r="E17" s="3">
-        <v>29817000</v>
+        <v>29946400</v>
       </c>
       <c r="F17" s="3">
-        <v>21887700</v>
+        <v>21982700</v>
       </c>
       <c r="G17" s="3">
-        <v>25883900</v>
+        <v>25996200</v>
       </c>
       <c r="H17" s="3">
-        <v>19755800</v>
+        <v>19841500</v>
       </c>
       <c r="I17" s="3">
-        <v>22515900</v>
+        <v>22613600</v>
       </c>
       <c r="J17" s="3">
-        <v>18232400</v>
+        <v>18311500</v>
       </c>
       <c r="K17" s="3">
         <v>19718100</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>666800</v>
+        <v>669700</v>
       </c>
       <c r="E18" s="3">
-        <v>767300</v>
+        <v>770600</v>
       </c>
       <c r="F18" s="3">
-        <v>353000</v>
+        <v>354500</v>
       </c>
       <c r="G18" s="3">
-        <v>80500</v>
+        <v>80900</v>
       </c>
       <c r="H18" s="3">
-        <v>756500</v>
+        <v>759800</v>
       </c>
       <c r="I18" s="3">
-        <v>344800</v>
+        <v>346300</v>
       </c>
       <c r="J18" s="3">
-        <v>186400</v>
+        <v>187200</v>
       </c>
       <c r="K18" s="3">
         <v>-136400</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>637400</v>
+        <v>640200</v>
       </c>
       <c r="E20" s="3">
-        <v>1899900</v>
+        <v>1908200</v>
       </c>
       <c r="F20" s="3">
-        <v>-111000</v>
+        <v>-111500</v>
       </c>
       <c r="G20" s="3">
-        <v>566400</v>
+        <v>568800</v>
       </c>
       <c r="H20" s="3">
-        <v>-556000</v>
+        <v>-558400</v>
       </c>
       <c r="I20" s="3">
-        <v>-171400</v>
+        <v>-172200</v>
       </c>
       <c r="J20" s="3">
-        <v>985900</v>
+        <v>990200</v>
       </c>
       <c r="K20" s="3">
         <v>-542100</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1313300</v>
+        <v>1319000</v>
       </c>
       <c r="E21" s="3">
-        <v>2675700</v>
+        <v>2687300</v>
       </c>
       <c r="F21" s="3">
-        <v>455800</v>
+        <v>457800</v>
       </c>
       <c r="G21" s="3">
-        <v>650500</v>
+        <v>653300</v>
       </c>
       <c r="H21" s="3">
-        <v>204500</v>
+        <v>205400</v>
       </c>
       <c r="I21" s="3">
-        <v>125700</v>
+        <v>126300</v>
       </c>
       <c r="J21" s="3">
-        <v>1426900</v>
+        <v>1433100</v>
       </c>
       <c r="K21" s="3">
         <v>-660600</v>
@@ -1431,25 +1431,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45300</v>
+        <v>45500</v>
       </c>
       <c r="E22" s="3">
-        <v>49300</v>
+        <v>49500</v>
       </c>
       <c r="F22" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="G22" s="3">
-        <v>33400</v>
+        <v>33600</v>
       </c>
       <c r="H22" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="I22" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="J22" s="3">
-        <v>28500</v>
+        <v>28600</v>
       </c>
       <c r="K22" s="3">
         <v>21000</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1258900</v>
+        <v>1264400</v>
       </c>
       <c r="E23" s="3">
-        <v>2617900</v>
+        <v>2629300</v>
       </c>
       <c r="F23" s="3">
-        <v>210500</v>
+        <v>211400</v>
       </c>
       <c r="G23" s="3">
-        <v>613500</v>
+        <v>616200</v>
       </c>
       <c r="H23" s="3">
-        <v>175800</v>
+        <v>176500</v>
       </c>
       <c r="I23" s="3">
-        <v>149800</v>
+        <v>150400</v>
       </c>
       <c r="J23" s="3">
-        <v>1143800</v>
+        <v>1148800</v>
       </c>
       <c r="K23" s="3">
         <v>-699500</v>
@@ -1543,25 +1543,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>105000</v>
+        <v>105500</v>
       </c>
       <c r="E24" s="3">
-        <v>121200</v>
+        <v>121700</v>
       </c>
       <c r="F24" s="3">
-        <v>49700</v>
+        <v>49900</v>
       </c>
       <c r="G24" s="3">
-        <v>72900</v>
+        <v>73200</v>
       </c>
       <c r="H24" s="3">
-        <v>92000</v>
+        <v>92400</v>
       </c>
       <c r="I24" s="3">
-        <v>66800</v>
+        <v>67000</v>
       </c>
       <c r="J24" s="3">
-        <v>42500</v>
+        <v>42700</v>
       </c>
       <c r="K24" s="3">
         <v>8900</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1153900</v>
+        <v>1158900</v>
       </c>
       <c r="E26" s="3">
-        <v>2496700</v>
+        <v>2507600</v>
       </c>
       <c r="F26" s="3">
-        <v>160800</v>
+        <v>161500</v>
       </c>
       <c r="G26" s="3">
-        <v>540600</v>
+        <v>543000</v>
       </c>
       <c r="H26" s="3">
-        <v>83800</v>
+        <v>84100</v>
       </c>
       <c r="I26" s="3">
-        <v>83000</v>
+        <v>83400</v>
       </c>
       <c r="J26" s="3">
-        <v>1101300</v>
+        <v>1106100</v>
       </c>
       <c r="K26" s="3">
         <v>-708400</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1150100</v>
+        <v>1155100</v>
       </c>
       <c r="E27" s="3">
-        <v>2501900</v>
+        <v>2512700</v>
       </c>
       <c r="F27" s="3">
-        <v>163200</v>
+        <v>163900</v>
       </c>
       <c r="G27" s="3">
-        <v>552800</v>
+        <v>555200</v>
       </c>
       <c r="H27" s="3">
-        <v>93100</v>
+        <v>93500</v>
       </c>
       <c r="I27" s="3">
-        <v>94100</v>
+        <v>94500</v>
       </c>
       <c r="J27" s="3">
-        <v>1113400</v>
+        <v>1118200</v>
       </c>
       <c r="K27" s="3">
         <v>-697800</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-637400</v>
+        <v>-640200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1899900</v>
+        <v>-1908200</v>
       </c>
       <c r="F32" s="3">
-        <v>111000</v>
+        <v>111500</v>
       </c>
       <c r="G32" s="3">
-        <v>-566400</v>
+        <v>-568800</v>
       </c>
       <c r="H32" s="3">
-        <v>556000</v>
+        <v>558400</v>
       </c>
       <c r="I32" s="3">
-        <v>171400</v>
+        <v>172200</v>
       </c>
       <c r="J32" s="3">
-        <v>-985900</v>
+        <v>-990200</v>
       </c>
       <c r="K32" s="3">
         <v>542100</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1150100</v>
+        <v>1155100</v>
       </c>
       <c r="E33" s="3">
-        <v>2501900</v>
+        <v>2512700</v>
       </c>
       <c r="F33" s="3">
-        <v>163200</v>
+        <v>163900</v>
       </c>
       <c r="G33" s="3">
-        <v>552800</v>
+        <v>555200</v>
       </c>
       <c r="H33" s="3">
-        <v>93100</v>
+        <v>93500</v>
       </c>
       <c r="I33" s="3">
-        <v>94100</v>
+        <v>94500</v>
       </c>
       <c r="J33" s="3">
-        <v>1113400</v>
+        <v>1118200</v>
       </c>
       <c r="K33" s="3">
         <v>-697800</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1150100</v>
+        <v>1155100</v>
       </c>
       <c r="E35" s="3">
-        <v>2501900</v>
+        <v>2512700</v>
       </c>
       <c r="F35" s="3">
-        <v>163200</v>
+        <v>163900</v>
       </c>
       <c r="G35" s="3">
-        <v>552800</v>
+        <v>555200</v>
       </c>
       <c r="H35" s="3">
-        <v>93100</v>
+        <v>93500</v>
       </c>
       <c r="I35" s="3">
-        <v>94100</v>
+        <v>94500</v>
       </c>
       <c r="J35" s="3">
-        <v>1113400</v>
+        <v>1118200</v>
       </c>
       <c r="K35" s="3">
         <v>-697800</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11121900</v>
+        <v>11170200</v>
       </c>
       <c r="E41" s="3">
-        <v>10887500</v>
+        <v>10934800</v>
       </c>
       <c r="F41" s="3">
-        <v>6621700</v>
+        <v>6650400</v>
       </c>
       <c r="G41" s="3">
-        <v>5624100</v>
+        <v>5648500</v>
       </c>
       <c r="H41" s="3">
-        <v>4886800</v>
+        <v>4908000</v>
       </c>
       <c r="I41" s="3">
-        <v>4986300</v>
+        <v>5007900</v>
       </c>
       <c r="J41" s="3">
-        <v>5180300</v>
+        <v>5202700</v>
       </c>
       <c r="K41" s="3">
         <v>4975900</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7362900</v>
+        <v>7394900</v>
       </c>
       <c r="E42" s="3">
-        <v>7412900</v>
+        <v>7445000</v>
       </c>
       <c r="F42" s="3">
-        <v>4466900</v>
+        <v>4486300</v>
       </c>
       <c r="G42" s="3">
-        <v>3742600</v>
+        <v>3758800</v>
       </c>
       <c r="H42" s="3">
-        <v>3721800</v>
+        <v>3737900</v>
       </c>
       <c r="I42" s="3">
-        <v>3736400</v>
+        <v>3752600</v>
       </c>
       <c r="J42" s="3">
-        <v>642100</v>
+        <v>644900</v>
       </c>
       <c r="K42" s="3">
         <v>295600</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2147000</v>
+        <v>2156400</v>
       </c>
       <c r="E43" s="3">
-        <v>2050400</v>
+        <v>2059300</v>
       </c>
       <c r="F43" s="3">
-        <v>1641800</v>
+        <v>1648900</v>
       </c>
       <c r="G43" s="3">
-        <v>1821800</v>
+        <v>1829700</v>
       </c>
       <c r="H43" s="3">
-        <v>2469700</v>
+        <v>2480400</v>
       </c>
       <c r="I43" s="3">
-        <v>2093800</v>
+        <v>2102900</v>
       </c>
       <c r="J43" s="3">
-        <v>1615800</v>
+        <v>1622800</v>
       </c>
       <c r="K43" s="3">
         <v>2463500</v>
@@ -2488,25 +2488,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8419200</v>
+        <v>8455700</v>
       </c>
       <c r="E44" s="3">
-        <v>8287000</v>
+        <v>8323000</v>
       </c>
       <c r="F44" s="3">
-        <v>7694900</v>
+        <v>7728300</v>
       </c>
       <c r="G44" s="3">
-        <v>8812600</v>
+        <v>8850900</v>
       </c>
       <c r="H44" s="3">
-        <v>7342100</v>
+        <v>7374000</v>
       </c>
       <c r="I44" s="3">
-        <v>6924600</v>
+        <v>6954700</v>
       </c>
       <c r="J44" s="3">
-        <v>5816500</v>
+        <v>5841700</v>
       </c>
       <c r="K44" s="3">
         <v>6394500</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2524000</v>
+        <v>2535000</v>
       </c>
       <c r="E45" s="3">
-        <v>2619300</v>
+        <v>2630700</v>
       </c>
       <c r="F45" s="3">
-        <v>1563900</v>
+        <v>1570700</v>
       </c>
       <c r="G45" s="3">
-        <v>1158000</v>
+        <v>1163000</v>
       </c>
       <c r="H45" s="3">
-        <v>1294800</v>
+        <v>1300400</v>
       </c>
       <c r="I45" s="3">
-        <v>1647500</v>
+        <v>1654700</v>
       </c>
       <c r="J45" s="3">
-        <v>1207100</v>
+        <v>1212300</v>
       </c>
       <c r="K45" s="3">
         <v>1098700</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31575100</v>
+        <v>31712100</v>
       </c>
       <c r="E46" s="3">
-        <v>31257100</v>
+        <v>31392700</v>
       </c>
       <c r="F46" s="3">
-        <v>21989300</v>
+        <v>22084700</v>
       </c>
       <c r="G46" s="3">
-        <v>21159100</v>
+        <v>21250900</v>
       </c>
       <c r="H46" s="3">
-        <v>19715200</v>
+        <v>19800800</v>
       </c>
       <c r="I46" s="3">
-        <v>19388700</v>
+        <v>19472800</v>
       </c>
       <c r="J46" s="3">
-        <v>14461800</v>
+        <v>14524500</v>
       </c>
       <c r="K46" s="3">
         <v>15228200</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12132800</v>
+        <v>12185400</v>
       </c>
       <c r="E47" s="3">
-        <v>11351300</v>
+        <v>11400500</v>
       </c>
       <c r="F47" s="3">
-        <v>8755000</v>
+        <v>8793000</v>
       </c>
       <c r="G47" s="3">
-        <v>8669800</v>
+        <v>8707400</v>
       </c>
       <c r="H47" s="3">
-        <v>8257700</v>
+        <v>8293500</v>
       </c>
       <c r="I47" s="3">
-        <v>8387500</v>
+        <v>8423900</v>
       </c>
       <c r="J47" s="3">
-        <v>8071100</v>
+        <v>8106100</v>
       </c>
       <c r="K47" s="3">
         <v>6863300</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6481500</v>
+        <v>6509600</v>
       </c>
       <c r="E48" s="3">
-        <v>5651800</v>
+        <v>5676300</v>
       </c>
       <c r="F48" s="3">
-        <v>4897900</v>
+        <v>4919200</v>
       </c>
       <c r="G48" s="3">
-        <v>5340000</v>
+        <v>5363200</v>
       </c>
       <c r="H48" s="3">
-        <v>5158600</v>
+        <v>5181000</v>
       </c>
       <c r="I48" s="3">
-        <v>4786500</v>
+        <v>4807300</v>
       </c>
       <c r="J48" s="3">
-        <v>4821600</v>
+        <v>4842500</v>
       </c>
       <c r="K48" s="3">
         <v>4013700</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4366000</v>
+        <v>4384900</v>
       </c>
       <c r="E49" s="3">
-        <v>3739600</v>
+        <v>3755900</v>
       </c>
       <c r="F49" s="3">
-        <v>3200100</v>
+        <v>3214000</v>
       </c>
       <c r="G49" s="3">
-        <v>3292700</v>
+        <v>3307000</v>
       </c>
       <c r="H49" s="3">
-        <v>3263400</v>
+        <v>3277600</v>
       </c>
       <c r="I49" s="3">
-        <v>3242100</v>
+        <v>3256200</v>
       </c>
       <c r="J49" s="3">
-        <v>3232200</v>
+        <v>3246200</v>
       </c>
       <c r="K49" s="3">
         <v>3214100</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2383200</v>
+        <v>2393500</v>
       </c>
       <c r="E52" s="3">
-        <v>1619500</v>
+        <v>1626500</v>
       </c>
       <c r="F52" s="3">
-        <v>1575300</v>
+        <v>1582200</v>
       </c>
       <c r="G52" s="3">
-        <v>1047600</v>
+        <v>1052200</v>
       </c>
       <c r="H52" s="3">
-        <v>1001000</v>
+        <v>1005400</v>
       </c>
       <c r="I52" s="3">
-        <v>1539200</v>
+        <v>1545900</v>
       </c>
       <c r="J52" s="3">
-        <v>2017100</v>
+        <v>2025800</v>
       </c>
       <c r="K52" s="3">
         <v>1057800</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56938500</v>
+        <v>57185600</v>
       </c>
       <c r="E54" s="3">
-        <v>53619300</v>
+        <v>53852000</v>
       </c>
       <c r="F54" s="3">
-        <v>40417600</v>
+        <v>40593000</v>
       </c>
       <c r="G54" s="3">
-        <v>39509200</v>
+        <v>39680600</v>
       </c>
       <c r="H54" s="3">
-        <v>37396000</v>
+        <v>37558200</v>
       </c>
       <c r="I54" s="3">
-        <v>37344100</v>
+        <v>37506100</v>
       </c>
       <c r="J54" s="3">
-        <v>32603700</v>
+        <v>32745200</v>
       </c>
       <c r="K54" s="3">
         <v>30377000</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16073300</v>
+        <v>16143000</v>
       </c>
       <c r="E57" s="3">
-        <v>15423300</v>
+        <v>15490200</v>
       </c>
       <c r="F57" s="3">
-        <v>11827500</v>
+        <v>11878800</v>
       </c>
       <c r="G57" s="3">
-        <v>13804300</v>
+        <v>13864200</v>
       </c>
       <c r="H57" s="3">
-        <v>13194200</v>
+        <v>13251400</v>
       </c>
       <c r="I57" s="3">
-        <v>14264300</v>
+        <v>14326200</v>
       </c>
       <c r="J57" s="3">
-        <v>10879800</v>
+        <v>10927000</v>
       </c>
       <c r="K57" s="3">
         <v>11647500</v>
@@ -3204,13 +3204,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>964800</v>
+        <v>968900</v>
       </c>
       <c r="E58" s="3">
-        <v>1874300</v>
+        <v>1882400</v>
       </c>
       <c r="F58" s="3">
-        <v>1308500</v>
+        <v>1314200</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3219,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="J58" s="3">
-        <v>284400</v>
+        <v>285600</v>
       </c>
       <c r="K58" s="3">
         <v>660100</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9217200</v>
+        <v>9257200</v>
       </c>
       <c r="E59" s="3">
-        <v>8859200</v>
+        <v>8897700</v>
       </c>
       <c r="F59" s="3">
-        <v>7643200</v>
+        <v>7676400</v>
       </c>
       <c r="G59" s="3">
-        <v>7495100</v>
+        <v>7527600</v>
       </c>
       <c r="H59" s="3">
-        <v>7003200</v>
+        <v>7033600</v>
       </c>
       <c r="I59" s="3">
-        <v>7023800</v>
+        <v>7054300</v>
       </c>
       <c r="J59" s="3">
-        <v>6321000</v>
+        <v>6348400</v>
       </c>
       <c r="K59" s="3">
         <v>5245200</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>26255200</v>
+        <v>26369200</v>
       </c>
       <c r="E60" s="3">
-        <v>26156800</v>
+        <v>26270300</v>
       </c>
       <c r="F60" s="3">
-        <v>20779200</v>
+        <v>20869400</v>
       </c>
       <c r="G60" s="3">
-        <v>21299400</v>
+        <v>21391800</v>
       </c>
       <c r="H60" s="3">
-        <v>20197400</v>
+        <v>20285000</v>
       </c>
       <c r="I60" s="3">
-        <v>21309000</v>
+        <v>21401500</v>
       </c>
       <c r="J60" s="3">
-        <v>17485200</v>
+        <v>17561000</v>
       </c>
       <c r="K60" s="3">
         <v>17552800</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2006000</v>
+        <v>2014800</v>
       </c>
       <c r="E61" s="3">
-        <v>2067300</v>
+        <v>2076300</v>
       </c>
       <c r="F61" s="3">
-        <v>2606000</v>
+        <v>2617300</v>
       </c>
       <c r="G61" s="3">
-        <v>1529100</v>
+        <v>1535700</v>
       </c>
       <c r="H61" s="3">
-        <v>1549700</v>
+        <v>1556400</v>
       </c>
       <c r="I61" s="3">
-        <v>1505700</v>
+        <v>1512300</v>
       </c>
       <c r="J61" s="3">
-        <v>1474300</v>
+        <v>1480700</v>
       </c>
       <c r="K61" s="3">
         <v>1434100</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2044600</v>
+        <v>2053400</v>
       </c>
       <c r="E62" s="3">
-        <v>1663900</v>
+        <v>1671200</v>
       </c>
       <c r="F62" s="3">
-        <v>1326900</v>
+        <v>1332600</v>
       </c>
       <c r="G62" s="3">
-        <v>1373700</v>
+        <v>1379700</v>
       </c>
       <c r="H62" s="3">
-        <v>1392600</v>
+        <v>1398600</v>
       </c>
       <c r="I62" s="3">
-        <v>1140300</v>
+        <v>1145200</v>
       </c>
       <c r="J62" s="3">
-        <v>910000</v>
+        <v>914000</v>
       </c>
       <c r="K62" s="3">
         <v>232400</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34035600</v>
+        <v>34183300</v>
       </c>
       <c r="E66" s="3">
-        <v>32878400</v>
+        <v>33021100</v>
       </c>
       <c r="F66" s="3">
-        <v>27595500</v>
+        <v>27715200</v>
       </c>
       <c r="G66" s="3">
-        <v>27057200</v>
+        <v>27174600</v>
       </c>
       <c r="H66" s="3">
-        <v>25850800</v>
+        <v>25963000</v>
       </c>
       <c r="I66" s="3">
-        <v>26720400</v>
+        <v>26836400</v>
       </c>
       <c r="J66" s="3">
-        <v>22468500</v>
+        <v>22565900</v>
       </c>
       <c r="K66" s="3">
         <v>21696500</v>
@@ -3960,10 +3960,10 @@
         <v>10</v>
       </c>
       <c r="F72" s="3">
-        <v>-1427000</v>
+        <v>-1433200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1590200</v>
+        <v>-1597100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22903000</v>
+        <v>23002300</v>
       </c>
       <c r="E76" s="3">
-        <v>20740900</v>
+        <v>20830900</v>
       </c>
       <c r="F76" s="3">
-        <v>12822200</v>
+        <v>12877800</v>
       </c>
       <c r="G76" s="3">
-        <v>12451900</v>
+        <v>12506000</v>
       </c>
       <c r="H76" s="3">
-        <v>11545100</v>
+        <v>11595200</v>
       </c>
       <c r="I76" s="3">
-        <v>10623700</v>
+        <v>10669800</v>
       </c>
       <c r="J76" s="3">
-        <v>10135300</v>
+        <v>10179200</v>
       </c>
       <c r="K76" s="3">
         <v>8680500</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1150100</v>
+        <v>1155100</v>
       </c>
       <c r="E81" s="3">
-        <v>2501900</v>
+        <v>2512700</v>
       </c>
       <c r="F81" s="3">
-        <v>163200</v>
+        <v>163900</v>
       </c>
       <c r="G81" s="3">
-        <v>552800</v>
+        <v>555200</v>
       </c>
       <c r="H81" s="3">
-        <v>93100</v>
+        <v>93500</v>
       </c>
       <c r="I81" s="3">
-        <v>94100</v>
+        <v>94500</v>
       </c>
       <c r="J81" s="3">
-        <v>1113400</v>
+        <v>1118200</v>
       </c>
       <c r="K81" s="3">
         <v>-697800</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1864300</v>
+        <v>1872400</v>
       </c>
       <c r="E89" s="3">
-        <v>4049100</v>
+        <v>4066600</v>
       </c>
       <c r="F89" s="3">
-        <v>-234600</v>
+        <v>-235700</v>
       </c>
       <c r="G89" s="3">
         <v>600</v>
       </c>
       <c r="H89" s="3">
-        <v>192000</v>
+        <v>192800</v>
       </c>
       <c r="I89" s="3">
-        <v>3071600</v>
+        <v>3085000</v>
       </c>
       <c r="J89" s="3">
-        <v>505500</v>
+        <v>507700</v>
       </c>
       <c r="K89" s="3">
         <v>875500</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1904400</v>
+        <v>-1912600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3558100</v>
+        <v>-3573500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1246800</v>
+        <v>-1252200</v>
       </c>
       <c r="G94" s="3">
-        <v>373100</v>
+        <v>374700</v>
       </c>
       <c r="H94" s="3">
-        <v>-862600</v>
+        <v>-866300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3198900</v>
+        <v>-3212700</v>
       </c>
       <c r="J94" s="3">
-        <v>-167800</v>
+        <v>-168500</v>
       </c>
       <c r="K94" s="3">
         <v>-317800</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>626400</v>
+        <v>629100</v>
       </c>
       <c r="E100" s="3">
-        <v>4328500</v>
+        <v>4347300</v>
       </c>
       <c r="F100" s="3">
-        <v>2294900</v>
+        <v>2304900</v>
       </c>
       <c r="G100" s="3">
-        <v>469700</v>
+        <v>471800</v>
       </c>
       <c r="H100" s="3">
-        <v>378700</v>
+        <v>380400</v>
       </c>
       <c r="I100" s="3">
-        <v>-68300</v>
+        <v>-68600</v>
       </c>
       <c r="J100" s="3">
-        <v>-388800</v>
+        <v>-390500</v>
       </c>
       <c r="K100" s="3">
         <v>-569400</v>
@@ -5369,25 +5369,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-404600</v>
+        <v>-406400</v>
       </c>
       <c r="E101" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="F101" s="3">
-        <v>92700</v>
+        <v>93100</v>
       </c>
       <c r="G101" s="3">
-        <v>-59500</v>
+        <v>-59700</v>
       </c>
       <c r="H101" s="3">
-        <v>122400</v>
+        <v>122900</v>
       </c>
       <c r="I101" s="3">
-        <v>63200</v>
+        <v>63500</v>
       </c>
       <c r="J101" s="3">
-        <v>-64400</v>
+        <v>-64700</v>
       </c>
       <c r="K101" s="3">
         <v>-19000</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>181800</v>
+        <v>182500</v>
       </c>
       <c r="E102" s="3">
-        <v>4810400</v>
+        <v>4831200</v>
       </c>
       <c r="F102" s="3">
-        <v>906200</v>
+        <v>910100</v>
       </c>
       <c r="G102" s="3">
-        <v>783900</v>
+        <v>787300</v>
       </c>
       <c r="H102" s="3">
-        <v>-169500</v>
+        <v>-170200</v>
       </c>
       <c r="I102" s="3">
-        <v>-132300</v>
+        <v>-132900</v>
       </c>
       <c r="J102" s="3">
-        <v>-115400</v>
+        <v>-115900</v>
       </c>
       <c r="K102" s="3">
         <v>-30700</v>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26616500</v>
+        <v>31697500</v>
       </c>
       <c r="E8" s="3">
-        <v>30717000</v>
+        <v>34997400</v>
       </c>
       <c r="F8" s="3">
-        <v>22337200</v>
+        <v>27179200</v>
       </c>
       <c r="G8" s="3">
-        <v>26077100</v>
+        <v>31366500</v>
       </c>
       <c r="H8" s="3">
-        <v>20601300</v>
+        <v>22809500</v>
       </c>
       <c r="I8" s="3">
+        <v>26628400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>21036800</v>
+      </c>
+      <c r="K8" s="3">
         <v>22959900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>18498800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>19581700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>14663400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>17546300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>14366400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>16349600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12428800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>13832100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>10939000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>11548800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>8751100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22522700</v>
+        <v>27154200</v>
       </c>
       <c r="E9" s="3">
-        <v>26342100</v>
+        <v>30138900</v>
       </c>
       <c r="F9" s="3">
-        <v>18894300</v>
+        <v>22998900</v>
       </c>
       <c r="G9" s="3">
-        <v>22410700</v>
+        <v>26899000</v>
       </c>
       <c r="H9" s="3">
-        <v>17528200</v>
+        <v>19293700</v>
       </c>
       <c r="I9" s="3">
+        <v>22884500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>17898800</v>
+      </c>
+      <c r="K9" s="3">
         <v>19579600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>15720700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>16797400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>12408700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>15176900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>12334900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>14218500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>10502000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>11955000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>18670800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>19852900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>14923400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4093700</v>
+        <v>4543300</v>
       </c>
       <c r="E10" s="3">
-        <v>4374900</v>
+        <v>4858500</v>
       </c>
       <c r="F10" s="3">
-        <v>3443000</v>
+        <v>4180300</v>
       </c>
       <c r="G10" s="3">
-        <v>3666400</v>
+        <v>4467400</v>
       </c>
       <c r="H10" s="3">
-        <v>3073000</v>
+        <v>3515800</v>
       </c>
       <c r="I10" s="3">
+        <v>3744000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3138000</v>
+      </c>
+      <c r="K10" s="3">
         <v>3380300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2778100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2784300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2254700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2369400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2031400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2131100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1926800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1877100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-7731900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-8304100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-6172300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +961,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>623700</v>
+        <v>702700</v>
       </c>
       <c r="E12" s="3">
-        <v>546800</v>
+        <v>698700</v>
       </c>
       <c r="F12" s="3">
-        <v>597400</v>
+        <v>636800</v>
       </c>
       <c r="G12" s="3">
-        <v>544900</v>
+        <v>558300</v>
       </c>
       <c r="H12" s="3">
-        <v>544000</v>
+        <v>610100</v>
       </c>
       <c r="I12" s="3">
+        <v>556400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>555500</v>
+      </c>
+      <c r="K12" s="3">
         <v>565400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>564000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>505400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>478900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>395500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>342700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>302600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>257500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>226400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>184500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>168700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>175700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,120 +1081,138 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-52600</v>
+        <v>-12900</v>
       </c>
       <c r="E14" s="3">
-        <v>-29900</v>
+        <v>-173000</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-53700</v>
       </c>
       <c r="G14" s="3">
-        <v>-593500</v>
+        <v>-30500</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>-606100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>52200</v>
+        <v>56700</v>
       </c>
       <c r="E15" s="3">
-        <v>45400</v>
+        <v>58100</v>
       </c>
       <c r="F15" s="3">
-        <v>43100</v>
+        <v>53300</v>
       </c>
       <c r="G15" s="3">
-        <v>72000</v>
+        <v>46300</v>
       </c>
       <c r="H15" s="3">
-        <v>22300</v>
+        <v>44000</v>
       </c>
       <c r="I15" s="3">
+        <v>73500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K15" s="3">
         <v>22600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>67800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>65800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>63900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>64600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>64000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>66700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>66300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>65700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>63900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>65100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25946800</v>
+        <v>31438600</v>
       </c>
       <c r="E17" s="3">
-        <v>29946400</v>
+        <v>34904600</v>
       </c>
       <c r="F17" s="3">
-        <v>21982700</v>
+        <v>26495400</v>
       </c>
       <c r="G17" s="3">
-        <v>25996200</v>
+        <v>30579500</v>
       </c>
       <c r="H17" s="3">
-        <v>19841500</v>
+        <v>22447500</v>
       </c>
       <c r="I17" s="3">
+        <v>26545800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>20261000</v>
+      </c>
+      <c r="K17" s="3">
         <v>22613600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>18311500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>19718100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>14754400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>17694700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14365700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>16586500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12354200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>13891900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10842800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>11598000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>8785200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>669700</v>
+        <v>258900</v>
       </c>
       <c r="E18" s="3">
-        <v>770600</v>
+        <v>92800</v>
       </c>
       <c r="F18" s="3">
-        <v>354500</v>
+        <v>683900</v>
       </c>
       <c r="G18" s="3">
-        <v>80900</v>
+        <v>786900</v>
       </c>
       <c r="H18" s="3">
-        <v>759800</v>
+        <v>362000</v>
       </c>
       <c r="I18" s="3">
+        <v>82600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>775900</v>
+      </c>
+      <c r="K18" s="3">
         <v>346300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>187200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-136400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-91100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-148400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-236900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>74600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-59800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>96200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-49200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-34100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1378,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>640200</v>
+        <v>424400</v>
       </c>
       <c r="E20" s="3">
-        <v>1908200</v>
+        <v>3689800</v>
       </c>
       <c r="F20" s="3">
-        <v>-111500</v>
+        <v>653700</v>
       </c>
       <c r="G20" s="3">
-        <v>568800</v>
+        <v>1948500</v>
       </c>
       <c r="H20" s="3">
-        <v>-558400</v>
+        <v>-113800</v>
       </c>
       <c r="I20" s="3">
+        <v>580900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-570200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-172200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>990200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-542100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>534700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-120500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>265800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>95700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>120500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>42100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-113100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1319000</v>
+        <v>943500</v>
       </c>
       <c r="E21" s="3">
-        <v>2687300</v>
+        <v>3807300</v>
       </c>
       <c r="F21" s="3">
-        <v>457800</v>
+        <v>1346900</v>
       </c>
       <c r="G21" s="3">
-        <v>653300</v>
+        <v>2744100</v>
       </c>
       <c r="H21" s="3">
-        <v>205400</v>
+        <v>467500</v>
       </c>
       <c r="I21" s="3">
+        <v>667100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>209700</v>
+      </c>
+      <c r="K21" s="3">
         <v>126300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1433100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-660600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>476100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-259600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>437800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-31900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>117300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-15000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>219700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-158100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45500</v>
+        <v>40200</v>
       </c>
       <c r="E22" s="3">
-        <v>49500</v>
+        <v>46200</v>
       </c>
       <c r="F22" s="3">
-        <v>31600</v>
+        <v>46500</v>
       </c>
       <c r="G22" s="3">
-        <v>33600</v>
+        <v>50600</v>
       </c>
       <c r="H22" s="3">
-        <v>24900</v>
+        <v>32300</v>
       </c>
       <c r="I22" s="3">
+        <v>34300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K22" s="3">
         <v>23700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>28600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>21000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>33700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>34400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>32800</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>42000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>30900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>27600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>9200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1264400</v>
+        <v>643100</v>
       </c>
       <c r="E23" s="3">
-        <v>2629300</v>
+        <v>3736400</v>
       </c>
       <c r="F23" s="3">
-        <v>211400</v>
+        <v>1291100</v>
       </c>
       <c r="G23" s="3">
-        <v>616200</v>
+        <v>2684900</v>
       </c>
       <c r="H23" s="3">
-        <v>176500</v>
+        <v>215900</v>
       </c>
       <c r="I23" s="3">
+        <v>629200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>180300</v>
+      </c>
+      <c r="K23" s="3">
         <v>150400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1148800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-699500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>409900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-303300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>233600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-141200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>153100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-48600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>53600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-171500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-70600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>105500</v>
+        <v>74800</v>
       </c>
       <c r="E24" s="3">
-        <v>121700</v>
+        <v>-51800</v>
       </c>
       <c r="F24" s="3">
-        <v>49900</v>
+        <v>107700</v>
       </c>
       <c r="G24" s="3">
-        <v>73200</v>
+        <v>124300</v>
       </c>
       <c r="H24" s="3">
-        <v>92400</v>
+        <v>50900</v>
       </c>
       <c r="I24" s="3">
+        <v>74800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>94400</v>
+      </c>
+      <c r="K24" s="3">
         <v>67000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>42700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>8900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>23400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>21700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>13000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>14600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1158900</v>
+        <v>568300</v>
       </c>
       <c r="E26" s="3">
-        <v>2507600</v>
+        <v>3788200</v>
       </c>
       <c r="F26" s="3">
-        <v>161500</v>
+        <v>1183400</v>
       </c>
       <c r="G26" s="3">
-        <v>543000</v>
+        <v>2560600</v>
       </c>
       <c r="H26" s="3">
-        <v>84100</v>
+        <v>164900</v>
       </c>
       <c r="I26" s="3">
+        <v>554400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>85900</v>
+      </c>
+      <c r="K26" s="3">
         <v>83400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1106100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-708400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>402600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-326700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>212000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-143100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>145200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-46200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>40500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-186100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-70900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1155100</v>
+        <v>564300</v>
       </c>
       <c r="E27" s="3">
-        <v>2512700</v>
+        <v>3795000</v>
       </c>
       <c r="F27" s="3">
-        <v>163900</v>
+        <v>1179500</v>
       </c>
       <c r="G27" s="3">
-        <v>555200</v>
+        <v>2565800</v>
       </c>
       <c r="H27" s="3">
-        <v>93500</v>
+        <v>167400</v>
       </c>
       <c r="I27" s="3">
+        <v>566900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>95500</v>
+      </c>
+      <c r="K27" s="3">
         <v>94500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1118200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-697800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>420000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-317400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>218800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-134900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>150500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-42600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>43500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-183400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,19 +1983,25 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-31100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-8700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-67100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-66100</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-640200</v>
+        <v>-424400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1908200</v>
+        <v>-3689800</v>
       </c>
       <c r="F32" s="3">
-        <v>111500</v>
+        <v>-653700</v>
       </c>
       <c r="G32" s="3">
-        <v>-568800</v>
+        <v>-1948500</v>
       </c>
       <c r="H32" s="3">
-        <v>558400</v>
+        <v>113800</v>
       </c>
       <c r="I32" s="3">
+        <v>-580900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>570200</v>
+      </c>
+      <c r="K32" s="3">
         <v>172200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-990200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>542100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-534700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>120500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-265800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-95700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-120500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-42100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>113100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1155100</v>
+        <v>564300</v>
       </c>
       <c r="E33" s="3">
-        <v>2512700</v>
+        <v>3795000</v>
       </c>
       <c r="F33" s="3">
-        <v>163900</v>
+        <v>1179500</v>
       </c>
       <c r="G33" s="3">
-        <v>555200</v>
+        <v>2565800</v>
       </c>
       <c r="H33" s="3">
-        <v>93500</v>
+        <v>167400</v>
       </c>
       <c r="I33" s="3">
+        <v>566900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>95500</v>
+      </c>
+      <c r="K33" s="3">
         <v>94500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1118200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-697800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>420000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-317400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>218800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-134900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>150500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-73700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>34800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-250600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1155100</v>
+        <v>564300</v>
       </c>
       <c r="E35" s="3">
-        <v>2512700</v>
+        <v>3795000</v>
       </c>
       <c r="F35" s="3">
-        <v>163900</v>
+        <v>1179500</v>
       </c>
       <c r="G35" s="3">
-        <v>555200</v>
+        <v>2565800</v>
       </c>
       <c r="H35" s="3">
-        <v>93500</v>
+        <v>167400</v>
       </c>
       <c r="I35" s="3">
+        <v>566900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>95500</v>
+      </c>
+      <c r="K35" s="3">
         <v>94500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1118200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-697800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>420000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-317400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>218800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-134900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>150500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-73700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>34800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-250600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2485,568 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11170200</v>
+        <v>11140400</v>
       </c>
       <c r="E41" s="3">
-        <v>10934800</v>
+        <v>13430100</v>
       </c>
       <c r="F41" s="3">
-        <v>6650400</v>
+        <v>11406400</v>
       </c>
       <c r="G41" s="3">
-        <v>5648500</v>
+        <v>11165900</v>
       </c>
       <c r="H41" s="3">
-        <v>4908000</v>
+        <v>6791000</v>
       </c>
       <c r="I41" s="3">
+        <v>5767900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5011800</v>
+      </c>
+      <c r="K41" s="3">
         <v>5007900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5202700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4975900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4758300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5055400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5051100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3812400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3207200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4134000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3435700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2263900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3611700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7394900</v>
+        <v>9902000</v>
       </c>
       <c r="E42" s="3">
-        <v>7445000</v>
+        <v>9450600</v>
       </c>
       <c r="F42" s="3">
-        <v>4486300</v>
+        <v>7551200</v>
       </c>
       <c r="G42" s="3">
-        <v>3758800</v>
+        <v>7602400</v>
       </c>
       <c r="H42" s="3">
-        <v>3737900</v>
+        <v>4581200</v>
       </c>
       <c r="I42" s="3">
+        <v>3838300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3816900</v>
+      </c>
+      <c r="K42" s="3">
         <v>3752600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>644900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>295600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>723900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1829700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1713700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1274500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2383300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1890700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>3089800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2623300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1793200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2156400</v>
+        <v>2651000</v>
       </c>
       <c r="E43" s="3">
-        <v>2059300</v>
+        <v>2256300</v>
       </c>
       <c r="F43" s="3">
-        <v>1648900</v>
+        <v>2201900</v>
       </c>
       <c r="G43" s="3">
-        <v>1829700</v>
+        <v>2102800</v>
       </c>
       <c r="H43" s="3">
-        <v>2480400</v>
+        <v>1683700</v>
       </c>
       <c r="I43" s="3">
+        <v>1868400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2532900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2102900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1622800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2463500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2348300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3701700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2819300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4850500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5597400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>6769800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>5409200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>4288500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>4025000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8455700</v>
+        <v>9286400</v>
       </c>
       <c r="E44" s="3">
-        <v>8323000</v>
+        <v>9194100</v>
       </c>
       <c r="F44" s="3">
-        <v>7728300</v>
+        <v>8634500</v>
       </c>
       <c r="G44" s="3">
-        <v>8850900</v>
+        <v>8498900</v>
       </c>
       <c r="H44" s="3">
-        <v>7374000</v>
+        <v>7891700</v>
       </c>
       <c r="I44" s="3">
+        <v>9038000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7529900</v>
+      </c>
+      <c r="K44" s="3">
         <v>6954700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5841700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>6394500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5578100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>6227400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>5188800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>6188800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>5388800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>4622900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3906300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>4204300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>3287100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2535000</v>
+        <v>2524900</v>
       </c>
       <c r="E45" s="3">
-        <v>2630700</v>
+        <v>2300300</v>
       </c>
       <c r="F45" s="3">
-        <v>1570700</v>
+        <v>2588600</v>
       </c>
       <c r="G45" s="3">
-        <v>1163000</v>
+        <v>2686300</v>
       </c>
       <c r="H45" s="3">
-        <v>1300400</v>
+        <v>1603900</v>
       </c>
       <c r="I45" s="3">
+        <v>1187600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1327900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1654700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1212300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1098700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1921800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2095000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1439700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>945200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1774000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2015800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1285200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>3842100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>840300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31712100</v>
+        <v>35504700</v>
       </c>
       <c r="E46" s="3">
-        <v>31392700</v>
+        <v>36631300</v>
       </c>
       <c r="F46" s="3">
-        <v>22084700</v>
+        <v>32382600</v>
       </c>
       <c r="G46" s="3">
-        <v>21250900</v>
+        <v>32056400</v>
       </c>
       <c r="H46" s="3">
-        <v>19800800</v>
+        <v>22551600</v>
       </c>
       <c r="I46" s="3">
+        <v>21700100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>20219400</v>
+      </c>
+      <c r="K46" s="3">
         <v>19472800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>14524500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>15228200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>15330400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>18909200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>16212600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>17071400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>18350700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>19433200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>17126200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>15551100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>13557200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12185400</v>
+        <v>15047600</v>
       </c>
       <c r="E47" s="3">
-        <v>11400500</v>
+        <v>15224500</v>
       </c>
       <c r="F47" s="3">
-        <v>8793000</v>
+        <v>12443000</v>
       </c>
       <c r="G47" s="3">
-        <v>8707400</v>
+        <v>11641500</v>
       </c>
       <c r="H47" s="3">
-        <v>8293500</v>
+        <v>8978900</v>
       </c>
       <c r="I47" s="3">
+        <v>8891500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>8468800</v>
+      </c>
+      <c r="K47" s="3">
         <v>8423900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8106100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>6863300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7013800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5555200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4438500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4241400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2881600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2652400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>3265500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>3299200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>3258900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6509600</v>
+        <v>7130900</v>
       </c>
       <c r="E48" s="3">
-        <v>5676300</v>
+        <v>7174400</v>
       </c>
       <c r="F48" s="3">
-        <v>4919200</v>
+        <v>6647200</v>
       </c>
       <c r="G48" s="3">
-        <v>5363200</v>
+        <v>5796300</v>
       </c>
       <c r="H48" s="3">
-        <v>5181000</v>
+        <v>5023200</v>
       </c>
       <c r="I48" s="3">
+        <v>5476600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5290500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4807300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4842500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4013700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3446300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2997300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2456000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2340500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1904000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1599700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1382600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1311100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1280900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4384900</v>
+        <v>4637400</v>
       </c>
       <c r="E49" s="3">
-        <v>3755900</v>
+        <v>4445100</v>
       </c>
       <c r="F49" s="3">
-        <v>3214000</v>
+        <v>4477600</v>
       </c>
       <c r="G49" s="3">
-        <v>3307000</v>
+        <v>3835300</v>
       </c>
       <c r="H49" s="3">
-        <v>3277600</v>
+        <v>3281900</v>
       </c>
       <c r="I49" s="3">
+        <v>3376900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3346900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3256200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3246200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3214100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3076700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2868200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2862900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3026700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3021300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2440200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2475700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2513800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2566700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2393500</v>
+        <v>2423200</v>
       </c>
       <c r="E52" s="3">
-        <v>1626500</v>
+        <v>2405800</v>
       </c>
       <c r="F52" s="3">
-        <v>1582200</v>
+        <v>2444200</v>
       </c>
       <c r="G52" s="3">
-        <v>1052200</v>
+        <v>1660900</v>
       </c>
       <c r="H52" s="3">
-        <v>1005400</v>
+        <v>1615600</v>
       </c>
       <c r="I52" s="3">
+        <v>1074400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1026600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1545900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2025800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1057800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1019700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1040600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>618800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>635500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>620000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>687900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>580500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1665500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57185600</v>
+        <v>64744000</v>
       </c>
       <c r="E54" s="3">
-        <v>53852000</v>
+        <v>65881100</v>
       </c>
       <c r="F54" s="3">
-        <v>40593000</v>
+        <v>58394600</v>
       </c>
       <c r="G54" s="3">
-        <v>39680600</v>
+        <v>54990500</v>
       </c>
       <c r="H54" s="3">
-        <v>37558200</v>
+        <v>41451200</v>
       </c>
       <c r="I54" s="3">
+        <v>40519500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>38352300</v>
+      </c>
+      <c r="K54" s="3">
         <v>37506100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>32745200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>30377000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>29887000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>31370400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>26588900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>27315600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>26777600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>26813400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>24830500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>23323100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>20972500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3401,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16143000</v>
+        <v>15204700</v>
       </c>
       <c r="E57" s="3">
-        <v>15490200</v>
+        <v>16756100</v>
       </c>
       <c r="F57" s="3">
-        <v>11878800</v>
+        <v>16484300</v>
       </c>
       <c r="G57" s="3">
-        <v>13864200</v>
+        <v>15817700</v>
       </c>
       <c r="H57" s="3">
-        <v>13251400</v>
+        <v>12129900</v>
       </c>
       <c r="I57" s="3">
+        <v>14157300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>13531600</v>
+      </c>
+      <c r="K57" s="3">
         <v>14326200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>10927000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11647500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>10957000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>12582100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8938300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>11032500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>10032000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>10014300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>6362200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>6695000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>6031800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>968900</v>
+        <v>671300</v>
       </c>
       <c r="E58" s="3">
-        <v>1882400</v>
+        <v>508600</v>
       </c>
       <c r="F58" s="3">
-        <v>1314200</v>
+        <v>989400</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>1922200</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>1342000</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>21000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>285600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>660100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1340300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1701400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1939000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1912200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1825900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1807800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2944100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1615600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9257200</v>
+        <v>9434500</v>
       </c>
       <c r="E59" s="3">
-        <v>8897700</v>
+        <v>9883700</v>
       </c>
       <c r="F59" s="3">
-        <v>7676400</v>
+        <v>9452900</v>
       </c>
       <c r="G59" s="3">
-        <v>7527600</v>
+        <v>9085800</v>
       </c>
       <c r="H59" s="3">
-        <v>7033600</v>
+        <v>7838700</v>
       </c>
       <c r="I59" s="3">
+        <v>7686700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7182300</v>
+      </c>
+      <c r="K59" s="3">
         <v>7054300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6348400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5245200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4735000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4852800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4456200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4604900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4511800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4433200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>6832000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>6921700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>26369200</v>
+        <v>25310500</v>
       </c>
       <c r="E60" s="3">
-        <v>26270300</v>
+        <v>27148300</v>
       </c>
       <c r="F60" s="3">
-        <v>20869400</v>
+        <v>26926600</v>
       </c>
       <c r="G60" s="3">
-        <v>21391800</v>
+        <v>26825700</v>
       </c>
       <c r="H60" s="3">
-        <v>20285000</v>
+        <v>21310600</v>
       </c>
       <c r="I60" s="3">
+        <v>21844100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>20713900</v>
+      </c>
+      <c r="K60" s="3">
         <v>21401500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17561000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>17552800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>17032300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>19136300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15333500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>17549600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>16369700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>16255400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>16138300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>15232400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>12899100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2014800</v>
+        <v>1969300</v>
       </c>
       <c r="E61" s="3">
-        <v>2076300</v>
+        <v>1954900</v>
       </c>
       <c r="F61" s="3">
-        <v>2617300</v>
+        <v>2057300</v>
       </c>
       <c r="G61" s="3">
-        <v>1535700</v>
+        <v>2120200</v>
       </c>
       <c r="H61" s="3">
-        <v>1556400</v>
+        <v>2672700</v>
       </c>
       <c r="I61" s="3">
+        <v>1568200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1589300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1512300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1480700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1434100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1384800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1408600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1036900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1621000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2315500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2602100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1957100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1330600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1488500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2053400</v>
+        <v>2188400</v>
       </c>
       <c r="E62" s="3">
-        <v>1671200</v>
+        <v>2203100</v>
       </c>
       <c r="F62" s="3">
-        <v>1332600</v>
+        <v>2096800</v>
       </c>
       <c r="G62" s="3">
-        <v>1379700</v>
+        <v>1706500</v>
       </c>
       <c r="H62" s="3">
-        <v>1398600</v>
+        <v>1360800</v>
       </c>
       <c r="I62" s="3">
+        <v>1408900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1428200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1145200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>914000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>232400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>255700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>295100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>326300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>370000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>400900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>438400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>471400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>765600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34183300</v>
+        <v>35309200</v>
       </c>
       <c r="E66" s="3">
-        <v>33021100</v>
+        <v>36622500</v>
       </c>
       <c r="F66" s="3">
-        <v>27715200</v>
+        <v>34905900</v>
       </c>
       <c r="G66" s="3">
-        <v>27174600</v>
+        <v>33719200</v>
       </c>
       <c r="H66" s="3">
-        <v>25963000</v>
+        <v>28301100</v>
       </c>
       <c r="I66" s="3">
+        <v>27749100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>26511900</v>
+      </c>
+      <c r="K66" s="3">
         <v>26836400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>22565900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>21696500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>20936000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>23011700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>18812300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>19592200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19135000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>19340200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>19650900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>18394100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="3">
+        <v>6076900</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="3">
-        <v>-1433200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1597100</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>10</v>
+      <c r="H72" s="3">
+        <v>-1463500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1630900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K72" s="3">
-        <v>-3287700</v>
+      <c r="K72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>10</v>
+      <c r="M72" s="3">
+        <v>-3287700</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O72" s="3">
-        <v>-3205500</v>
+      <c r="O72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="Q72" s="3">
+        <v>-3205500</v>
+      </c>
+      <c r="R72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T72" s="3">
         <v>-3104800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3159800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2968300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23002300</v>
+        <v>29434700</v>
       </c>
       <c r="E76" s="3">
-        <v>20830900</v>
+        <v>29258600</v>
       </c>
       <c r="F76" s="3">
-        <v>12877800</v>
+        <v>23488600</v>
       </c>
       <c r="G76" s="3">
-        <v>12506000</v>
+        <v>21271300</v>
       </c>
       <c r="H76" s="3">
-        <v>11595200</v>
+        <v>13150100</v>
       </c>
       <c r="I76" s="3">
+        <v>12770300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>11840400</v>
+      </c>
+      <c r="K76" s="3">
         <v>10669800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10179200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8680500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8951000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8358800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7776600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7723400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7642600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7473100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5179500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4929000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5128500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1155100</v>
+        <v>564300</v>
       </c>
       <c r="E81" s="3">
-        <v>2512700</v>
+        <v>3795000</v>
       </c>
       <c r="F81" s="3">
-        <v>163900</v>
+        <v>1179500</v>
       </c>
       <c r="G81" s="3">
-        <v>555200</v>
+        <v>2565800</v>
       </c>
       <c r="H81" s="3">
-        <v>93500</v>
+        <v>167400</v>
       </c>
       <c r="I81" s="3">
+        <v>566900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>95500</v>
+      </c>
+      <c r="K81" s="3">
         <v>94500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1118200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-697800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>420000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-317400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>218800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-134900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>150500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-73700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>34800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-250600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1872400</v>
+        <v>-1171400</v>
       </c>
       <c r="E89" s="3">
-        <v>4066600</v>
+        <v>813400</v>
       </c>
       <c r="F89" s="3">
-        <v>-235700</v>
+        <v>1912000</v>
       </c>
       <c r="G89" s="3">
+        <v>4152600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-240600</v>
+      </c>
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
-        <v>192800</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>196900</v>
+      </c>
+      <c r="K89" s="3">
         <v>3085000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>507700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>875500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>309700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2355000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-541300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>200500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>52300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2767300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>650300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-433900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1047900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1912600</v>
+        <v>-1190600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3573500</v>
+        <v>-2138200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1252200</v>
+        <v>-1953100</v>
       </c>
       <c r="G94" s="3">
-        <v>374700</v>
+        <v>-3649100</v>
       </c>
       <c r="H94" s="3">
-        <v>-866300</v>
+        <v>-1278700</v>
       </c>
       <c r="I94" s="3">
+        <v>382600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-884600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3212700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-168500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-317800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-364300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2919400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-135000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>624600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-620100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-4568600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-980900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2206600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-3057800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5792,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>629100</v>
+        <v>-92300</v>
       </c>
       <c r="E100" s="3">
-        <v>4347300</v>
+        <v>3652600</v>
       </c>
       <c r="F100" s="3">
-        <v>2304900</v>
+        <v>642400</v>
       </c>
       <c r="G100" s="3">
-        <v>471800</v>
+        <v>4439200</v>
       </c>
       <c r="H100" s="3">
-        <v>380400</v>
+        <v>2353600</v>
       </c>
       <c r="I100" s="3">
+        <v>481700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>388400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-68600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-390500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-569400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-419200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>692900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1909300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-564100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-229500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2462600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1161900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1772300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-406400</v>
+        <v>92900</v>
       </c>
       <c r="E101" s="3">
-        <v>-9200</v>
+        <v>-463600</v>
       </c>
       <c r="F101" s="3">
-        <v>93100</v>
+        <v>-415000</v>
       </c>
       <c r="G101" s="3">
-        <v>-59700</v>
+        <v>-9400</v>
       </c>
       <c r="H101" s="3">
-        <v>122900</v>
+        <v>95100</v>
       </c>
       <c r="I101" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>125500</v>
+      </c>
+      <c r="K101" s="3">
         <v>63500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-64700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-19000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>150400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>171000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-65200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-31600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-44300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-13900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-5300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>42400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>182500</v>
+        <v>-2361500</v>
       </c>
       <c r="E102" s="3">
-        <v>4831200</v>
+        <v>1864200</v>
       </c>
       <c r="F102" s="3">
-        <v>910100</v>
+        <v>186400</v>
       </c>
       <c r="G102" s="3">
-        <v>787300</v>
+        <v>4933400</v>
       </c>
       <c r="H102" s="3">
-        <v>-170200</v>
+        <v>929300</v>
       </c>
       <c r="I102" s="3">
+        <v>803900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-173800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-132900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-115900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-30700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-323400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>299400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1167700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>605200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1085000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>515000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>825900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-736300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1679300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31697500</v>
+        <v>31285100</v>
       </c>
       <c r="E8" s="3">
-        <v>34997400</v>
+        <v>34542100</v>
       </c>
       <c r="F8" s="3">
-        <v>27179200</v>
+        <v>26825500</v>
       </c>
       <c r="G8" s="3">
-        <v>31366500</v>
+        <v>30958300</v>
       </c>
       <c r="H8" s="3">
-        <v>22809500</v>
+        <v>22512700</v>
       </c>
       <c r="I8" s="3">
-        <v>26628400</v>
+        <v>26281900</v>
       </c>
       <c r="J8" s="3">
-        <v>21036800</v>
+        <v>20763100</v>
       </c>
       <c r="K8" s="3">
         <v>22959900</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27154200</v>
+        <v>26800900</v>
       </c>
       <c r="E9" s="3">
-        <v>30138900</v>
+        <v>29746800</v>
       </c>
       <c r="F9" s="3">
-        <v>22998900</v>
+        <v>22699600</v>
       </c>
       <c r="G9" s="3">
-        <v>26899000</v>
+        <v>26549000</v>
       </c>
       <c r="H9" s="3">
-        <v>19293700</v>
+        <v>19042700</v>
       </c>
       <c r="I9" s="3">
-        <v>22884500</v>
+        <v>22586700</v>
       </c>
       <c r="J9" s="3">
-        <v>17898800</v>
+        <v>17665900</v>
       </c>
       <c r="K9" s="3">
         <v>19579600</v>
@@ -883,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4543300</v>
+        <v>4484200</v>
       </c>
       <c r="E10" s="3">
-        <v>4858500</v>
+        <v>4795300</v>
       </c>
       <c r="F10" s="3">
-        <v>4180300</v>
+        <v>4125900</v>
       </c>
       <c r="G10" s="3">
-        <v>4467400</v>
+        <v>4409300</v>
       </c>
       <c r="H10" s="3">
-        <v>3515800</v>
+        <v>3470000</v>
       </c>
       <c r="I10" s="3">
-        <v>3744000</v>
+        <v>3695200</v>
       </c>
       <c r="J10" s="3">
-        <v>3138000</v>
+        <v>3097200</v>
       </c>
       <c r="K10" s="3">
         <v>3380300</v>
@@ -969,25 +969,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>702700</v>
+        <v>693600</v>
       </c>
       <c r="E12" s="3">
-        <v>698700</v>
+        <v>689600</v>
       </c>
       <c r="F12" s="3">
-        <v>636800</v>
+        <v>628600</v>
       </c>
       <c r="G12" s="3">
-        <v>558300</v>
+        <v>551100</v>
       </c>
       <c r="H12" s="3">
-        <v>610100</v>
+        <v>602100</v>
       </c>
       <c r="I12" s="3">
-        <v>556400</v>
+        <v>549200</v>
       </c>
       <c r="J12" s="3">
-        <v>555500</v>
+        <v>548200</v>
       </c>
       <c r="K12" s="3">
         <v>565400</v>
@@ -1093,22 +1093,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-12900</v>
+        <v>-12700</v>
       </c>
       <c r="E14" s="3">
-        <v>-173000</v>
+        <v>-170800</v>
       </c>
       <c r="F14" s="3">
-        <v>-53700</v>
+        <v>-53000</v>
       </c>
       <c r="G14" s="3">
-        <v>-30500</v>
+        <v>-30100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-606100</v>
+        <v>-598200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1155,25 +1155,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>56700</v>
+        <v>55900</v>
       </c>
       <c r="E15" s="3">
-        <v>58100</v>
+        <v>57400</v>
       </c>
       <c r="F15" s="3">
-        <v>53300</v>
+        <v>52600</v>
       </c>
       <c r="G15" s="3">
-        <v>46300</v>
+        <v>45700</v>
       </c>
       <c r="H15" s="3">
-        <v>44000</v>
+        <v>43400</v>
       </c>
       <c r="I15" s="3">
-        <v>73500</v>
+        <v>72600</v>
       </c>
       <c r="J15" s="3">
-        <v>22800</v>
+        <v>22500</v>
       </c>
       <c r="K15" s="3">
         <v>22600</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31438600</v>
+        <v>31029500</v>
       </c>
       <c r="E17" s="3">
-        <v>34904600</v>
+        <v>34450400</v>
       </c>
       <c r="F17" s="3">
-        <v>26495400</v>
+        <v>26150600</v>
       </c>
       <c r="G17" s="3">
-        <v>30579500</v>
+        <v>30181600</v>
       </c>
       <c r="H17" s="3">
-        <v>22447500</v>
+        <v>22155400</v>
       </c>
       <c r="I17" s="3">
-        <v>26545800</v>
+        <v>26200400</v>
       </c>
       <c r="J17" s="3">
-        <v>20261000</v>
+        <v>19997300</v>
       </c>
       <c r="K17" s="3">
         <v>22613600</v>
@@ -1300,25 +1300,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>258900</v>
+        <v>255600</v>
       </c>
       <c r="E18" s="3">
-        <v>92800</v>
+        <v>91600</v>
       </c>
       <c r="F18" s="3">
-        <v>683900</v>
+        <v>675000</v>
       </c>
       <c r="G18" s="3">
-        <v>786900</v>
+        <v>776700</v>
       </c>
       <c r="H18" s="3">
-        <v>362000</v>
+        <v>357300</v>
       </c>
       <c r="I18" s="3">
-        <v>82600</v>
+        <v>81500</v>
       </c>
       <c r="J18" s="3">
-        <v>775900</v>
+        <v>765800</v>
       </c>
       <c r="K18" s="3">
         <v>346300</v>
@@ -1386,25 +1386,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>424400</v>
+        <v>418800</v>
       </c>
       <c r="E20" s="3">
-        <v>3689800</v>
+        <v>3641800</v>
       </c>
       <c r="F20" s="3">
-        <v>653700</v>
+        <v>645200</v>
       </c>
       <c r="G20" s="3">
-        <v>1948500</v>
+        <v>1923200</v>
       </c>
       <c r="H20" s="3">
-        <v>-113800</v>
+        <v>-112400</v>
       </c>
       <c r="I20" s="3">
-        <v>580900</v>
+        <v>573300</v>
       </c>
       <c r="J20" s="3">
-        <v>-570200</v>
+        <v>-562800</v>
       </c>
       <c r="K20" s="3">
         <v>-172200</v>
@@ -1448,25 +1448,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>943500</v>
+        <v>931300</v>
       </c>
       <c r="E21" s="3">
-        <v>3807300</v>
+        <v>3757800</v>
       </c>
       <c r="F21" s="3">
-        <v>1346900</v>
+        <v>1329400</v>
       </c>
       <c r="G21" s="3">
-        <v>2744100</v>
+        <v>2708400</v>
       </c>
       <c r="H21" s="3">
-        <v>467500</v>
+        <v>461400</v>
       </c>
       <c r="I21" s="3">
-        <v>667100</v>
+        <v>658500</v>
       </c>
       <c r="J21" s="3">
-        <v>209700</v>
+        <v>207000</v>
       </c>
       <c r="K21" s="3">
         <v>126300</v>
@@ -1510,25 +1510,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40200</v>
+        <v>39700</v>
       </c>
       <c r="E22" s="3">
-        <v>46200</v>
+        <v>45600</v>
       </c>
       <c r="F22" s="3">
-        <v>46500</v>
+        <v>45900</v>
       </c>
       <c r="G22" s="3">
-        <v>50600</v>
+        <v>49900</v>
       </c>
       <c r="H22" s="3">
-        <v>32300</v>
+        <v>31900</v>
       </c>
       <c r="I22" s="3">
-        <v>34300</v>
+        <v>33800</v>
       </c>
       <c r="J22" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="K22" s="3">
         <v>23700</v>
@@ -1572,25 +1572,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>643100</v>
+        <v>634700</v>
       </c>
       <c r="E23" s="3">
-        <v>3736400</v>
+        <v>3687800</v>
       </c>
       <c r="F23" s="3">
-        <v>1291100</v>
+        <v>1274300</v>
       </c>
       <c r="G23" s="3">
-        <v>2684900</v>
+        <v>2649900</v>
       </c>
       <c r="H23" s="3">
-        <v>215900</v>
+        <v>213100</v>
       </c>
       <c r="I23" s="3">
-        <v>629200</v>
+        <v>621000</v>
       </c>
       <c r="J23" s="3">
-        <v>180300</v>
+        <v>177900</v>
       </c>
       <c r="K23" s="3">
         <v>150400</v>
@@ -1634,25 +1634,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>74800</v>
+        <v>73800</v>
       </c>
       <c r="E24" s="3">
-        <v>-51800</v>
+        <v>-51100</v>
       </c>
       <c r="F24" s="3">
-        <v>107700</v>
+        <v>106300</v>
       </c>
       <c r="G24" s="3">
-        <v>124300</v>
+        <v>122700</v>
       </c>
       <c r="H24" s="3">
-        <v>50900</v>
+        <v>50300</v>
       </c>
       <c r="I24" s="3">
-        <v>74800</v>
+        <v>73800</v>
       </c>
       <c r="J24" s="3">
-        <v>94400</v>
+        <v>93100</v>
       </c>
       <c r="K24" s="3">
         <v>67000</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>568300</v>
+        <v>560900</v>
       </c>
       <c r="E26" s="3">
-        <v>3788200</v>
+        <v>3738900</v>
       </c>
       <c r="F26" s="3">
-        <v>1183400</v>
+        <v>1168000</v>
       </c>
       <c r="G26" s="3">
-        <v>2560600</v>
+        <v>2527300</v>
       </c>
       <c r="H26" s="3">
-        <v>164900</v>
+        <v>162800</v>
       </c>
       <c r="I26" s="3">
-        <v>554400</v>
+        <v>547200</v>
       </c>
       <c r="J26" s="3">
-        <v>85900</v>
+        <v>84800</v>
       </c>
       <c r="K26" s="3">
         <v>83400</v>
@@ -1820,25 +1820,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>564300</v>
+        <v>557000</v>
       </c>
       <c r="E27" s="3">
-        <v>3795000</v>
+        <v>3745600</v>
       </c>
       <c r="F27" s="3">
-        <v>1179500</v>
+        <v>1164100</v>
       </c>
       <c r="G27" s="3">
-        <v>2565800</v>
+        <v>2532400</v>
       </c>
       <c r="H27" s="3">
-        <v>167400</v>
+        <v>165200</v>
       </c>
       <c r="I27" s="3">
-        <v>566900</v>
+        <v>559600</v>
       </c>
       <c r="J27" s="3">
-        <v>95500</v>
+        <v>94300</v>
       </c>
       <c r="K27" s="3">
         <v>94500</v>
@@ -2130,25 +2130,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-424400</v>
+        <v>-418800</v>
       </c>
       <c r="E32" s="3">
-        <v>-3689800</v>
+        <v>-3641800</v>
       </c>
       <c r="F32" s="3">
-        <v>-653700</v>
+        <v>-645200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1948500</v>
+        <v>-1923200</v>
       </c>
       <c r="H32" s="3">
-        <v>113800</v>
+        <v>112400</v>
       </c>
       <c r="I32" s="3">
-        <v>-580900</v>
+        <v>-573300</v>
       </c>
       <c r="J32" s="3">
-        <v>570200</v>
+        <v>562800</v>
       </c>
       <c r="K32" s="3">
         <v>172200</v>
@@ -2192,25 +2192,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>564300</v>
+        <v>557000</v>
       </c>
       <c r="E33" s="3">
-        <v>3795000</v>
+        <v>3745600</v>
       </c>
       <c r="F33" s="3">
-        <v>1179500</v>
+        <v>1164100</v>
       </c>
       <c r="G33" s="3">
-        <v>2565800</v>
+        <v>2532400</v>
       </c>
       <c r="H33" s="3">
-        <v>167400</v>
+        <v>165200</v>
       </c>
       <c r="I33" s="3">
-        <v>566900</v>
+        <v>559600</v>
       </c>
       <c r="J33" s="3">
-        <v>95500</v>
+        <v>94300</v>
       </c>
       <c r="K33" s="3">
         <v>94500</v>
@@ -2316,25 +2316,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>564300</v>
+        <v>557000</v>
       </c>
       <c r="E35" s="3">
-        <v>3795000</v>
+        <v>3745600</v>
       </c>
       <c r="F35" s="3">
-        <v>1179500</v>
+        <v>1164100</v>
       </c>
       <c r="G35" s="3">
-        <v>2565800</v>
+        <v>2532400</v>
       </c>
       <c r="H35" s="3">
-        <v>167400</v>
+        <v>165200</v>
       </c>
       <c r="I35" s="3">
-        <v>566900</v>
+        <v>559600</v>
       </c>
       <c r="J35" s="3">
-        <v>95500</v>
+        <v>94300</v>
       </c>
       <c r="K35" s="3">
         <v>94500</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11140400</v>
+        <v>10995500</v>
       </c>
       <c r="E41" s="3">
-        <v>13430100</v>
+        <v>13255300</v>
       </c>
       <c r="F41" s="3">
-        <v>11406400</v>
+        <v>11257900</v>
       </c>
       <c r="G41" s="3">
-        <v>11165900</v>
+        <v>11020700</v>
       </c>
       <c r="H41" s="3">
-        <v>6791000</v>
+        <v>6702700</v>
       </c>
       <c r="I41" s="3">
-        <v>5767900</v>
+        <v>5692900</v>
       </c>
       <c r="J41" s="3">
-        <v>5011800</v>
+        <v>4946600</v>
       </c>
       <c r="K41" s="3">
         <v>5007900</v>
@@ -2555,25 +2555,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9902000</v>
+        <v>9773200</v>
       </c>
       <c r="E42" s="3">
-        <v>9450600</v>
+        <v>9327700</v>
       </c>
       <c r="F42" s="3">
-        <v>7551200</v>
+        <v>7453000</v>
       </c>
       <c r="G42" s="3">
-        <v>7602400</v>
+        <v>7503500</v>
       </c>
       <c r="H42" s="3">
-        <v>4581200</v>
+        <v>4521500</v>
       </c>
       <c r="I42" s="3">
-        <v>3838300</v>
+        <v>3788300</v>
       </c>
       <c r="J42" s="3">
-        <v>3816900</v>
+        <v>3767300</v>
       </c>
       <c r="K42" s="3">
         <v>3752600</v>
@@ -2617,25 +2617,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2651000</v>
+        <v>2616500</v>
       </c>
       <c r="E43" s="3">
-        <v>2256300</v>
+        <v>2226900</v>
       </c>
       <c r="F43" s="3">
-        <v>2201900</v>
+        <v>2173300</v>
       </c>
       <c r="G43" s="3">
-        <v>2102800</v>
+        <v>2075500</v>
       </c>
       <c r="H43" s="3">
-        <v>1683700</v>
+        <v>1661800</v>
       </c>
       <c r="I43" s="3">
-        <v>1868400</v>
+        <v>1844100</v>
       </c>
       <c r="J43" s="3">
-        <v>2532900</v>
+        <v>2499900</v>
       </c>
       <c r="K43" s="3">
         <v>2102900</v>
@@ -2679,25 +2679,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9286400</v>
+        <v>9165600</v>
       </c>
       <c r="E44" s="3">
-        <v>9194100</v>
+        <v>9074400</v>
       </c>
       <c r="F44" s="3">
-        <v>8634500</v>
+        <v>8522100</v>
       </c>
       <c r="G44" s="3">
-        <v>8498900</v>
+        <v>8388300</v>
       </c>
       <c r="H44" s="3">
-        <v>7891700</v>
+        <v>7789000</v>
       </c>
       <c r="I44" s="3">
-        <v>9038000</v>
+        <v>8920400</v>
       </c>
       <c r="J44" s="3">
-        <v>7529900</v>
+        <v>7431900</v>
       </c>
       <c r="K44" s="3">
         <v>6954700</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2524900</v>
+        <v>2492000</v>
       </c>
       <c r="E45" s="3">
-        <v>2300300</v>
+        <v>2270300</v>
       </c>
       <c r="F45" s="3">
-        <v>2588600</v>
+        <v>2554900</v>
       </c>
       <c r="G45" s="3">
-        <v>2686300</v>
+        <v>2651400</v>
       </c>
       <c r="H45" s="3">
-        <v>1603900</v>
+        <v>1583100</v>
       </c>
       <c r="I45" s="3">
-        <v>1187600</v>
+        <v>1172100</v>
       </c>
       <c r="J45" s="3">
-        <v>1327900</v>
+        <v>1310600</v>
       </c>
       <c r="K45" s="3">
         <v>1654700</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>35504700</v>
+        <v>35042700</v>
       </c>
       <c r="E46" s="3">
-        <v>36631300</v>
+        <v>36154700</v>
       </c>
       <c r="F46" s="3">
-        <v>32382600</v>
+        <v>31961200</v>
       </c>
       <c r="G46" s="3">
-        <v>32056400</v>
+        <v>31639300</v>
       </c>
       <c r="H46" s="3">
-        <v>22551600</v>
+        <v>22258100</v>
       </c>
       <c r="I46" s="3">
-        <v>21700100</v>
+        <v>21417800</v>
       </c>
       <c r="J46" s="3">
-        <v>20219400</v>
+        <v>19956300</v>
       </c>
       <c r="K46" s="3">
         <v>19472800</v>
@@ -2865,25 +2865,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15047600</v>
+        <v>14851800</v>
       </c>
       <c r="E47" s="3">
-        <v>15224500</v>
+        <v>15026400</v>
       </c>
       <c r="F47" s="3">
-        <v>12443000</v>
+        <v>12281100</v>
       </c>
       <c r="G47" s="3">
-        <v>11641500</v>
+        <v>11490100</v>
       </c>
       <c r="H47" s="3">
-        <v>8978900</v>
+        <v>8862100</v>
       </c>
       <c r="I47" s="3">
-        <v>8891500</v>
+        <v>8775800</v>
       </c>
       <c r="J47" s="3">
-        <v>8468800</v>
+        <v>8358600</v>
       </c>
       <c r="K47" s="3">
         <v>8423900</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7130900</v>
+        <v>7038200</v>
       </c>
       <c r="E48" s="3">
-        <v>7174400</v>
+        <v>7081100</v>
       </c>
       <c r="F48" s="3">
-        <v>6647200</v>
+        <v>6560700</v>
       </c>
       <c r="G48" s="3">
-        <v>5796300</v>
+        <v>5720900</v>
       </c>
       <c r="H48" s="3">
-        <v>5023200</v>
+        <v>4957800</v>
       </c>
       <c r="I48" s="3">
-        <v>5476600</v>
+        <v>5405300</v>
       </c>
       <c r="J48" s="3">
-        <v>5290500</v>
+        <v>5221700</v>
       </c>
       <c r="K48" s="3">
         <v>4807300</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4637400</v>
+        <v>4577100</v>
       </c>
       <c r="E49" s="3">
-        <v>4445100</v>
+        <v>4387200</v>
       </c>
       <c r="F49" s="3">
-        <v>4477600</v>
+        <v>4419400</v>
       </c>
       <c r="G49" s="3">
-        <v>3835300</v>
+        <v>3785400</v>
       </c>
       <c r="H49" s="3">
-        <v>3281900</v>
+        <v>3239200</v>
       </c>
       <c r="I49" s="3">
-        <v>3376900</v>
+        <v>3333000</v>
       </c>
       <c r="J49" s="3">
-        <v>3346900</v>
+        <v>3303300</v>
       </c>
       <c r="K49" s="3">
         <v>3256200</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2423200</v>
+        <v>2391700</v>
       </c>
       <c r="E52" s="3">
-        <v>2405800</v>
+        <v>2374500</v>
       </c>
       <c r="F52" s="3">
-        <v>2444200</v>
+        <v>2412300</v>
       </c>
       <c r="G52" s="3">
-        <v>1660900</v>
+        <v>1639300</v>
       </c>
       <c r="H52" s="3">
-        <v>1615600</v>
+        <v>1594600</v>
       </c>
       <c r="I52" s="3">
-        <v>1074400</v>
+        <v>1060400</v>
       </c>
       <c r="J52" s="3">
-        <v>1026600</v>
+        <v>1013300</v>
       </c>
       <c r="K52" s="3">
         <v>1545900</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64744000</v>
+        <v>63901500</v>
       </c>
       <c r="E54" s="3">
-        <v>65881100</v>
+        <v>65023900</v>
       </c>
       <c r="F54" s="3">
-        <v>58394600</v>
+        <v>57634700</v>
       </c>
       <c r="G54" s="3">
-        <v>54990500</v>
+        <v>54274900</v>
       </c>
       <c r="H54" s="3">
-        <v>41451200</v>
+        <v>40911800</v>
       </c>
       <c r="I54" s="3">
-        <v>40519500</v>
+        <v>39992300</v>
       </c>
       <c r="J54" s="3">
-        <v>38352300</v>
+        <v>37853200</v>
       </c>
       <c r="K54" s="3">
         <v>37506100</v>
@@ -3409,25 +3409,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15204700</v>
+        <v>15006900</v>
       </c>
       <c r="E57" s="3">
-        <v>16756100</v>
+        <v>16538000</v>
       </c>
       <c r="F57" s="3">
-        <v>16484300</v>
+        <v>16269800</v>
       </c>
       <c r="G57" s="3">
-        <v>15817700</v>
+        <v>15611900</v>
       </c>
       <c r="H57" s="3">
-        <v>12129900</v>
+        <v>11972100</v>
       </c>
       <c r="I57" s="3">
-        <v>14157300</v>
+        <v>13973100</v>
       </c>
       <c r="J57" s="3">
-        <v>13531600</v>
+        <v>13355500</v>
       </c>
       <c r="K57" s="3">
         <v>14326200</v>
@@ -3471,19 +3471,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>671300</v>
+        <v>662500</v>
       </c>
       <c r="E58" s="3">
-        <v>508600</v>
+        <v>502000</v>
       </c>
       <c r="F58" s="3">
-        <v>989400</v>
+        <v>976500</v>
       </c>
       <c r="G58" s="3">
-        <v>1922200</v>
+        <v>1897200</v>
       </c>
       <c r="H58" s="3">
-        <v>1342000</v>
+        <v>1324500</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9434500</v>
+        <v>9311800</v>
       </c>
       <c r="E59" s="3">
-        <v>9883700</v>
+        <v>9755100</v>
       </c>
       <c r="F59" s="3">
-        <v>9452900</v>
+        <v>9329900</v>
       </c>
       <c r="G59" s="3">
-        <v>9085800</v>
+        <v>8967600</v>
       </c>
       <c r="H59" s="3">
-        <v>7838700</v>
+        <v>7736700</v>
       </c>
       <c r="I59" s="3">
-        <v>7686700</v>
+        <v>7586700</v>
       </c>
       <c r="J59" s="3">
-        <v>7182300</v>
+        <v>7088800</v>
       </c>
       <c r="K59" s="3">
         <v>7054300</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25310500</v>
+        <v>24981200</v>
       </c>
       <c r="E60" s="3">
-        <v>27148300</v>
+        <v>26795100</v>
       </c>
       <c r="F60" s="3">
-        <v>26926600</v>
+        <v>26576300</v>
       </c>
       <c r="G60" s="3">
-        <v>26825700</v>
+        <v>26476600</v>
       </c>
       <c r="H60" s="3">
-        <v>21310600</v>
+        <v>21033300</v>
       </c>
       <c r="I60" s="3">
-        <v>21844100</v>
+        <v>21559800</v>
       </c>
       <c r="J60" s="3">
-        <v>20713900</v>
+        <v>20444300</v>
       </c>
       <c r="K60" s="3">
         <v>21401500</v>
@@ -3657,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1969300</v>
+        <v>1943600</v>
       </c>
       <c r="E61" s="3">
-        <v>1954900</v>
+        <v>1929500</v>
       </c>
       <c r="F61" s="3">
-        <v>2057300</v>
+        <v>2030600</v>
       </c>
       <c r="G61" s="3">
-        <v>2120200</v>
+        <v>2092600</v>
       </c>
       <c r="H61" s="3">
-        <v>2672700</v>
+        <v>2637900</v>
       </c>
       <c r="I61" s="3">
-        <v>1568200</v>
+        <v>1547800</v>
       </c>
       <c r="J61" s="3">
-        <v>1589300</v>
+        <v>1568600</v>
       </c>
       <c r="K61" s="3">
         <v>1512300</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2188400</v>
+        <v>2159900</v>
       </c>
       <c r="E62" s="3">
-        <v>2203100</v>
+        <v>2174400</v>
       </c>
       <c r="F62" s="3">
-        <v>2096800</v>
+        <v>2069600</v>
       </c>
       <c r="G62" s="3">
-        <v>1706500</v>
+        <v>1684300</v>
       </c>
       <c r="H62" s="3">
-        <v>1360800</v>
+        <v>1343100</v>
       </c>
       <c r="I62" s="3">
-        <v>1408900</v>
+        <v>1390500</v>
       </c>
       <c r="J62" s="3">
-        <v>1428200</v>
+        <v>1409600</v>
       </c>
       <c r="K62" s="3">
         <v>1145200</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35309200</v>
+        <v>34849800</v>
       </c>
       <c r="E66" s="3">
-        <v>36622500</v>
+        <v>36146000</v>
       </c>
       <c r="F66" s="3">
-        <v>34905900</v>
+        <v>34451800</v>
       </c>
       <c r="G66" s="3">
-        <v>33719200</v>
+        <v>33280400</v>
       </c>
       <c r="H66" s="3">
-        <v>28301100</v>
+        <v>27932900</v>
       </c>
       <c r="I66" s="3">
-        <v>27749100</v>
+        <v>27388100</v>
       </c>
       <c r="J66" s="3">
-        <v>26511900</v>
+        <v>26166900</v>
       </c>
       <c r="K66" s="3">
         <v>26836400</v>
@@ -4304,7 +4304,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="3">
-        <v>6076900</v>
+        <v>5997800</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
@@ -4313,10 +4313,10 @@
         <v>10</v>
       </c>
       <c r="H72" s="3">
-        <v>-1463500</v>
+        <v>-1444400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1630900</v>
+        <v>-1609600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29434700</v>
+        <v>29051700</v>
       </c>
       <c r="E76" s="3">
-        <v>29258600</v>
+        <v>28877900</v>
       </c>
       <c r="F76" s="3">
-        <v>23488600</v>
+        <v>23183000</v>
       </c>
       <c r="G76" s="3">
-        <v>21271300</v>
+        <v>20994500</v>
       </c>
       <c r="H76" s="3">
-        <v>13150100</v>
+        <v>12979000</v>
       </c>
       <c r="I76" s="3">
-        <v>12770300</v>
+        <v>12604200</v>
       </c>
       <c r="J76" s="3">
-        <v>11840400</v>
+        <v>11686300</v>
       </c>
       <c r="K76" s="3">
         <v>10669800</v>
@@ -4740,25 +4740,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>564300</v>
+        <v>557000</v>
       </c>
       <c r="E81" s="3">
-        <v>3795000</v>
+        <v>3745600</v>
       </c>
       <c r="F81" s="3">
-        <v>1179500</v>
+        <v>1164100</v>
       </c>
       <c r="G81" s="3">
-        <v>2565800</v>
+        <v>2532400</v>
       </c>
       <c r="H81" s="3">
-        <v>167400</v>
+        <v>165200</v>
       </c>
       <c r="I81" s="3">
-        <v>566900</v>
+        <v>559600</v>
       </c>
       <c r="J81" s="3">
-        <v>95500</v>
+        <v>94300</v>
       </c>
       <c r="K81" s="3">
         <v>94500</v>
@@ -5198,25 +5198,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1171400</v>
+        <v>-1156200</v>
       </c>
       <c r="E89" s="3">
-        <v>813400</v>
+        <v>802800</v>
       </c>
       <c r="F89" s="3">
-        <v>1912000</v>
+        <v>1887100</v>
       </c>
       <c r="G89" s="3">
-        <v>4152600</v>
+        <v>4098600</v>
       </c>
       <c r="H89" s="3">
-        <v>-240600</v>
+        <v>-237500</v>
       </c>
       <c r="I89" s="3">
         <v>600</v>
       </c>
       <c r="J89" s="3">
-        <v>196900</v>
+        <v>194300</v>
       </c>
       <c r="K89" s="3">
         <v>3085000</v>
@@ -5470,25 +5470,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1190600</v>
+        <v>-1175100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2138200</v>
+        <v>-2110400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1953100</v>
+        <v>-1927700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3649100</v>
+        <v>-3601600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1278700</v>
+        <v>-1262100</v>
       </c>
       <c r="I94" s="3">
-        <v>382600</v>
+        <v>377600</v>
       </c>
       <c r="J94" s="3">
-        <v>-884600</v>
+        <v>-873100</v>
       </c>
       <c r="K94" s="3">
         <v>-3212700</v>
@@ -5804,25 +5804,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-92300</v>
+        <v>-91100</v>
       </c>
       <c r="E100" s="3">
-        <v>3652600</v>
+        <v>3605100</v>
       </c>
       <c r="F100" s="3">
-        <v>642400</v>
+        <v>634100</v>
       </c>
       <c r="G100" s="3">
-        <v>4439200</v>
+        <v>4381400</v>
       </c>
       <c r="H100" s="3">
-        <v>2353600</v>
+        <v>2323000</v>
       </c>
       <c r="I100" s="3">
-        <v>481700</v>
+        <v>475500</v>
       </c>
       <c r="J100" s="3">
-        <v>388400</v>
+        <v>383300</v>
       </c>
       <c r="K100" s="3">
         <v>-68600</v>
@@ -5866,25 +5866,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>92900</v>
+        <v>91700</v>
       </c>
       <c r="E101" s="3">
-        <v>-463600</v>
+        <v>-457600</v>
       </c>
       <c r="F101" s="3">
-        <v>-415000</v>
+        <v>-409600</v>
       </c>
       <c r="G101" s="3">
-        <v>-9400</v>
+        <v>-9200</v>
       </c>
       <c r="H101" s="3">
-        <v>95100</v>
+        <v>93800</v>
       </c>
       <c r="I101" s="3">
-        <v>-61000</v>
+        <v>-60200</v>
       </c>
       <c r="J101" s="3">
-        <v>125500</v>
+        <v>123900</v>
       </c>
       <c r="K101" s="3">
         <v>63500</v>
@@ -5928,25 +5928,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2361500</v>
+        <v>-2330700</v>
       </c>
       <c r="E102" s="3">
-        <v>1864200</v>
+        <v>1839900</v>
       </c>
       <c r="F102" s="3">
-        <v>186400</v>
+        <v>184000</v>
       </c>
       <c r="G102" s="3">
-        <v>4933400</v>
+        <v>4869200</v>
       </c>
       <c r="H102" s="3">
-        <v>929300</v>
+        <v>917300</v>
       </c>
       <c r="I102" s="3">
-        <v>803900</v>
+        <v>793500</v>
       </c>
       <c r="J102" s="3">
-        <v>-173800</v>
+        <v>-171600</v>
       </c>
       <c r="K102" s="3">
         <v>-132900</v>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31285100</v>
+        <v>34241000</v>
       </c>
       <c r="E8" s="3">
-        <v>34542100</v>
+        <v>39735000</v>
       </c>
       <c r="F8" s="3">
-        <v>26825500</v>
+        <v>31809300</v>
       </c>
       <c r="G8" s="3">
-        <v>30958300</v>
+        <v>35120800</v>
       </c>
       <c r="H8" s="3">
-        <v>22512700</v>
+        <v>27275000</v>
       </c>
       <c r="I8" s="3">
+        <v>31477000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>22889900</v>
+      </c>
+      <c r="K8" s="3">
         <v>26281900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>20763100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>22959900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>18498800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>19581700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>14663400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>17546300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>14366400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>16349600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>12428800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>13832100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>10939000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>11548800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>8751100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26800900</v>
+        <v>29373100</v>
       </c>
       <c r="E9" s="3">
-        <v>29746800</v>
+        <v>34767400</v>
       </c>
       <c r="F9" s="3">
-        <v>22699600</v>
+        <v>27249900</v>
       </c>
       <c r="G9" s="3">
-        <v>26549000</v>
+        <v>30245200</v>
       </c>
       <c r="H9" s="3">
-        <v>19042700</v>
+        <v>23080000</v>
       </c>
       <c r="I9" s="3">
+        <v>26993900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>19361700</v>
+      </c>
+      <c r="K9" s="3">
         <v>22586700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>17665900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>19579600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>15720700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>16797400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>12408700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>15176900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>12334900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>14218500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>10502000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>11955000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>18670800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>19852900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>14923400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4484200</v>
+        <v>4867900</v>
       </c>
       <c r="E10" s="3">
-        <v>4795300</v>
+        <v>4967600</v>
       </c>
       <c r="F10" s="3">
-        <v>4125900</v>
+        <v>4559300</v>
       </c>
       <c r="G10" s="3">
-        <v>4409300</v>
+        <v>4875600</v>
       </c>
       <c r="H10" s="3">
-        <v>3470000</v>
+        <v>4195000</v>
       </c>
       <c r="I10" s="3">
+        <v>4483200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3528200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3695200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3097200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3380300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2778100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2784300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2254700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2369400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2031400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2131100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1926800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1877100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-7731900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-8304100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>-6172300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>693600</v>
+        <v>622800</v>
       </c>
       <c r="E12" s="3">
-        <v>689600</v>
+        <v>574100</v>
       </c>
       <c r="F12" s="3">
-        <v>628600</v>
+        <v>705200</v>
       </c>
       <c r="G12" s="3">
-        <v>551100</v>
+        <v>701200</v>
       </c>
       <c r="H12" s="3">
-        <v>602100</v>
+        <v>639100</v>
       </c>
       <c r="I12" s="3">
+        <v>560300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>612200</v>
+      </c>
+      <c r="K12" s="3">
         <v>549200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>548200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>565400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>564000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>505400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>478900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>395500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>342700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>302600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>257500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>226400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>184500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>168700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>175700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,132 +1121,150 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-12700</v>
+        <v>-90600</v>
       </c>
       <c r="E14" s="3">
-        <v>-170800</v>
+        <v>-13700</v>
       </c>
       <c r="F14" s="3">
-        <v>-53000</v>
+        <v>-13000</v>
       </c>
       <c r="G14" s="3">
-        <v>-30100</v>
+        <v>-173700</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-53900</v>
       </c>
       <c r="I14" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-598200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3100</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>55900</v>
+        <v>58800</v>
       </c>
       <c r="E15" s="3">
-        <v>57400</v>
+        <v>58100</v>
       </c>
       <c r="F15" s="3">
-        <v>52600</v>
+        <v>56900</v>
       </c>
       <c r="G15" s="3">
-        <v>45700</v>
+        <v>58400</v>
       </c>
       <c r="H15" s="3">
-        <v>43400</v>
+        <v>53500</v>
       </c>
       <c r="I15" s="3">
+        <v>46500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K15" s="3">
         <v>72600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>22500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>22600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>67800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>65800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>63900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>64600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>64000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>66700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>66300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>65700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>63900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>65100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31029500</v>
+        <v>33838200</v>
       </c>
       <c r="E17" s="3">
-        <v>34450400</v>
+        <v>39687900</v>
       </c>
       <c r="F17" s="3">
-        <v>26150600</v>
+        <v>31549400</v>
       </c>
       <c r="G17" s="3">
-        <v>30181600</v>
+        <v>35027700</v>
       </c>
       <c r="H17" s="3">
-        <v>22155400</v>
+        <v>26588800</v>
       </c>
       <c r="I17" s="3">
+        <v>30687300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>22526600</v>
+      </c>
+      <c r="K17" s="3">
         <v>26200400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>19997300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>22613600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>18311500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>19718100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14754400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>17694700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>14365700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>16586500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>12354200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>13891900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>10842800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>11598000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>8785200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>255600</v>
+        <v>402700</v>
       </c>
       <c r="E18" s="3">
-        <v>91600</v>
+        <v>47100</v>
       </c>
       <c r="F18" s="3">
-        <v>675000</v>
+        <v>259900</v>
       </c>
       <c r="G18" s="3">
-        <v>776700</v>
+        <v>93200</v>
       </c>
       <c r="H18" s="3">
-        <v>357300</v>
+        <v>686300</v>
       </c>
       <c r="I18" s="3">
+        <v>789700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>363300</v>
+      </c>
+      <c r="K18" s="3">
         <v>81500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>765800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>346300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>187200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-136400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-91100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-148400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-236900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>74600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-59800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>96200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-49200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-34100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1446,350 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>418800</v>
+        <v>-769100</v>
       </c>
       <c r="E20" s="3">
-        <v>3641800</v>
+        <v>153200</v>
       </c>
       <c r="F20" s="3">
-        <v>645200</v>
+        <v>425800</v>
       </c>
       <c r="G20" s="3">
-        <v>1923200</v>
+        <v>3702800</v>
       </c>
       <c r="H20" s="3">
-        <v>-112400</v>
+        <v>656000</v>
       </c>
       <c r="I20" s="3">
+        <v>1955400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-114200</v>
+      </c>
+      <c r="K20" s="3">
         <v>573300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-562800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-172200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>990200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-542100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>534700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-120500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>265800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>95700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>120500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>42100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-15000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-113100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>931300</v>
+        <v>-354500</v>
       </c>
       <c r="E21" s="3">
-        <v>3757800</v>
+        <v>167800</v>
       </c>
       <c r="F21" s="3">
-        <v>1329400</v>
+        <v>946900</v>
       </c>
       <c r="G21" s="3">
-        <v>2708400</v>
+        <v>3820800</v>
       </c>
       <c r="H21" s="3">
-        <v>461400</v>
+        <v>1351700</v>
       </c>
       <c r="I21" s="3">
+        <v>2753800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>469100</v>
+      </c>
+      <c r="K21" s="3">
         <v>658500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>207000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>126300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1433100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-660600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>476100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-259600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>437800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-31900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>117300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-15000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>219700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-158100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39700</v>
+        <v>43200</v>
       </c>
       <c r="E22" s="3">
-        <v>45600</v>
+        <v>36400</v>
       </c>
       <c r="F22" s="3">
-        <v>45900</v>
+        <v>40400</v>
       </c>
       <c r="G22" s="3">
-        <v>49900</v>
+        <v>46400</v>
       </c>
       <c r="H22" s="3">
-        <v>31900</v>
+        <v>46600</v>
       </c>
       <c r="I22" s="3">
+        <v>50800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K22" s="3">
         <v>33800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>25100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>23700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>28600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>21000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>33700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>34400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>32800</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>42000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>30900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>27600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>9200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>634700</v>
+        <v>-409600</v>
       </c>
       <c r="E23" s="3">
-        <v>3687800</v>
+        <v>163900</v>
       </c>
       <c r="F23" s="3">
-        <v>1274300</v>
+        <v>645300</v>
       </c>
       <c r="G23" s="3">
-        <v>2649900</v>
+        <v>3749600</v>
       </c>
       <c r="H23" s="3">
-        <v>213100</v>
+        <v>1295700</v>
       </c>
       <c r="I23" s="3">
+        <v>2694300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>216600</v>
+      </c>
+      <c r="K23" s="3">
         <v>621000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>177900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>150400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1148800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-699500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>409900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-303300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>233600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-141200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>153100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-48600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>53600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-171500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-70600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>89200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>75100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>108100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>124700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>51100</v>
+      </c>
+      <c r="K24" s="3">
         <v>73800</v>
       </c>
-      <c r="E24" s="3">
-        <v>-51100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>106300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>122700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>50300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>73800</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>93100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>67000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>42700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>7200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>23400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>21700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>7900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>13000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>14600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>560900</v>
+        <v>-511700</v>
       </c>
       <c r="E26" s="3">
-        <v>3738900</v>
+        <v>74800</v>
       </c>
       <c r="F26" s="3">
-        <v>1168000</v>
+        <v>570300</v>
       </c>
       <c r="G26" s="3">
-        <v>2527300</v>
+        <v>3801500</v>
       </c>
       <c r="H26" s="3">
-        <v>162800</v>
+        <v>1187600</v>
       </c>
       <c r="I26" s="3">
+        <v>2569600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>165500</v>
+      </c>
+      <c r="K26" s="3">
         <v>547200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>84800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>83400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1106100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-708400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>402600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-326700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>212000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-143100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>145200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-46200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>40500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-186100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-70900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>557000</v>
+        <v>-439400</v>
       </c>
       <c r="E27" s="3">
-        <v>3745600</v>
+        <v>124400</v>
       </c>
       <c r="F27" s="3">
-        <v>1164100</v>
+        <v>566300</v>
       </c>
       <c r="G27" s="3">
-        <v>2532400</v>
+        <v>3808400</v>
       </c>
       <c r="H27" s="3">
-        <v>165200</v>
+        <v>1183600</v>
       </c>
       <c r="I27" s="3">
+        <v>2574900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>168000</v>
+      </c>
+      <c r="K27" s="3">
         <v>559600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>94300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>94500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1118200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-697800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>420000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-317400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>218800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-134900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>150500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-42600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>43500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-183400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1989,19 +2111,25 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-31100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-8700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-67100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-66100</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-418800</v>
+        <v>769100</v>
       </c>
       <c r="E32" s="3">
-        <v>-3641800</v>
+        <v>-153200</v>
       </c>
       <c r="F32" s="3">
-        <v>-645200</v>
+        <v>-425800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1923200</v>
+        <v>-3702800</v>
       </c>
       <c r="H32" s="3">
-        <v>112400</v>
+        <v>-656000</v>
       </c>
       <c r="I32" s="3">
+        <v>-1955400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-573300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>562800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>172200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-990200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>542100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-534700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>120500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-265800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-95700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-120500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-42100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>15000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>113100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>557000</v>
+        <v>-439400</v>
       </c>
       <c r="E33" s="3">
-        <v>3745600</v>
+        <v>124400</v>
       </c>
       <c r="F33" s="3">
-        <v>1164100</v>
+        <v>566300</v>
       </c>
       <c r="G33" s="3">
-        <v>2532400</v>
+        <v>3808400</v>
       </c>
       <c r="H33" s="3">
-        <v>165200</v>
+        <v>1183600</v>
       </c>
       <c r="I33" s="3">
+        <v>2574900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>168000</v>
+      </c>
+      <c r="K33" s="3">
         <v>559600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>94300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>94500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1118200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-697800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>420000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-317400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>218800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-134900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>150500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-73700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>34800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-250600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>557000</v>
+        <v>-439400</v>
       </c>
       <c r="E35" s="3">
-        <v>3745600</v>
+        <v>124400</v>
       </c>
       <c r="F35" s="3">
-        <v>1164100</v>
+        <v>566300</v>
       </c>
       <c r="G35" s="3">
-        <v>2532400</v>
+        <v>3808400</v>
       </c>
       <c r="H35" s="3">
-        <v>165200</v>
+        <v>1183600</v>
       </c>
       <c r="I35" s="3">
+        <v>2574900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>168000</v>
+      </c>
+      <c r="K35" s="3">
         <v>559600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>94300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>94500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1118200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-697800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>420000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-317400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>218800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-134900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>150500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-73700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>34800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-250600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2659,622 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10995500</v>
+        <v>13776900</v>
       </c>
       <c r="E41" s="3">
-        <v>13255300</v>
+        <v>15240700</v>
       </c>
       <c r="F41" s="3">
-        <v>11257900</v>
+        <v>11179700</v>
       </c>
       <c r="G41" s="3">
-        <v>11020700</v>
+        <v>13477400</v>
       </c>
       <c r="H41" s="3">
-        <v>6702700</v>
+        <v>11446600</v>
       </c>
       <c r="I41" s="3">
+        <v>11205300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6815000</v>
+      </c>
+      <c r="K41" s="3">
         <v>5692900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4946600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5007900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5202700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4975900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4758300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5055400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5051100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3812400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3207200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4134000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3435700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2263900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3611700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9773200</v>
+        <v>16023400</v>
       </c>
       <c r="E42" s="3">
-        <v>9327700</v>
+        <v>11812800</v>
       </c>
       <c r="F42" s="3">
-        <v>7453000</v>
+        <v>9936900</v>
       </c>
       <c r="G42" s="3">
-        <v>7503500</v>
+        <v>9484000</v>
       </c>
       <c r="H42" s="3">
-        <v>4521500</v>
+        <v>7577900</v>
       </c>
       <c r="I42" s="3">
+        <v>7629200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4597300</v>
+      </c>
+      <c r="K42" s="3">
         <v>3788300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3767300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3752600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>644900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>295600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>723900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1829700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1713700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1274500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2383300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1890700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>3089800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>2623300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1793200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2616500</v>
+        <v>2711300</v>
       </c>
       <c r="E43" s="3">
-        <v>2226900</v>
+        <v>4043200</v>
       </c>
       <c r="F43" s="3">
-        <v>2173300</v>
+        <v>2660400</v>
       </c>
       <c r="G43" s="3">
-        <v>2075500</v>
+        <v>2264200</v>
       </c>
       <c r="H43" s="3">
-        <v>1661800</v>
+        <v>2209700</v>
       </c>
       <c r="I43" s="3">
+        <v>2110200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1689700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1844100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2499900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2102900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1622800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2463500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2348300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3701700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2819300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>4850500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>5597400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>6769800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>5409200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>4288500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>4025000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9165600</v>
+        <v>9400500</v>
       </c>
       <c r="E44" s="3">
-        <v>9074400</v>
+        <v>10296700</v>
       </c>
       <c r="F44" s="3">
-        <v>8522100</v>
+        <v>9319100</v>
       </c>
       <c r="G44" s="3">
-        <v>8388300</v>
+        <v>9226500</v>
       </c>
       <c r="H44" s="3">
-        <v>7789000</v>
+        <v>8664900</v>
       </c>
       <c r="I44" s="3">
+        <v>8528900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7919500</v>
+      </c>
+      <c r="K44" s="3">
         <v>8920400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>7431900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>6954700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5841700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>6394500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>5578100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>6227400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>5188800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>6188800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>5388800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>4622900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>3906300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>4204300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>3287100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2492000</v>
+        <v>3302600</v>
       </c>
       <c r="E45" s="3">
-        <v>2270300</v>
+        <v>3320500</v>
       </c>
       <c r="F45" s="3">
-        <v>2554900</v>
+        <v>2533800</v>
       </c>
       <c r="G45" s="3">
-        <v>2651400</v>
+        <v>2308400</v>
       </c>
       <c r="H45" s="3">
-        <v>1583100</v>
+        <v>2597700</v>
       </c>
       <c r="I45" s="3">
+        <v>2695800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1609600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1172100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1310600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1654700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1212300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1098700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1921800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2095000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1439700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>945200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1774000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2015800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1285200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>3842100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>840300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>35042700</v>
+        <v>45214700</v>
       </c>
       <c r="E46" s="3">
-        <v>36154700</v>
+        <v>44713900</v>
       </c>
       <c r="F46" s="3">
-        <v>31961200</v>
+        <v>35629900</v>
       </c>
       <c r="G46" s="3">
-        <v>31639300</v>
+        <v>36760500</v>
       </c>
       <c r="H46" s="3">
-        <v>22258100</v>
+        <v>32496700</v>
       </c>
       <c r="I46" s="3">
+        <v>32169400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>22631100</v>
+      </c>
+      <c r="K46" s="3">
         <v>21417800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>19956300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>19472800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>14524500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>15228200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>15330400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>18909200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>16212600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>17071400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>18350700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>19433200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>17126200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>15551100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>13557200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14851800</v>
+        <v>13938100</v>
       </c>
       <c r="E47" s="3">
-        <v>15026400</v>
+        <v>14523300</v>
       </c>
       <c r="F47" s="3">
-        <v>12281100</v>
+        <v>15100700</v>
       </c>
       <c r="G47" s="3">
-        <v>11490100</v>
+        <v>15278100</v>
       </c>
       <c r="H47" s="3">
-        <v>8862100</v>
+        <v>12486900</v>
       </c>
       <c r="I47" s="3">
+        <v>11682600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9010600</v>
+      </c>
+      <c r="K47" s="3">
         <v>8775800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8358600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>8423900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>8106100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>6863300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>7013800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>5555200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>4438500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>4241400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2881600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2652400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>3265500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>3299200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>3258900</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7038200</v>
+        <v>8207800</v>
       </c>
       <c r="E48" s="3">
-        <v>7081100</v>
+        <v>7833900</v>
       </c>
       <c r="F48" s="3">
-        <v>6560700</v>
+        <v>7156100</v>
       </c>
       <c r="G48" s="3">
-        <v>5720900</v>
+        <v>7199700</v>
       </c>
       <c r="H48" s="3">
-        <v>4957800</v>
+        <v>6670600</v>
       </c>
       <c r="I48" s="3">
+        <v>5816800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5040900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5405300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5221700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4807300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4842500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4013700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3446300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2997300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2456000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2340500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1904000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1599700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1382600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1311100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1280900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4577100</v>
+        <v>4978100</v>
       </c>
       <c r="E49" s="3">
-        <v>4387200</v>
+        <v>4868100</v>
       </c>
       <c r="F49" s="3">
-        <v>4419400</v>
+        <v>4653800</v>
       </c>
       <c r="G49" s="3">
-        <v>3785400</v>
+        <v>4460700</v>
       </c>
       <c r="H49" s="3">
-        <v>3239200</v>
+        <v>4493400</v>
       </c>
       <c r="I49" s="3">
+        <v>3848800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3293500</v>
+      </c>
+      <c r="K49" s="3">
         <v>3333000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3303300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3256200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3246200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3214100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3076700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2868200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2862900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3026700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3021300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2440200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2475700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2513800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2566700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2391700</v>
+        <v>3287100</v>
       </c>
       <c r="E52" s="3">
-        <v>2374500</v>
+        <v>2603900</v>
       </c>
       <c r="F52" s="3">
-        <v>2412300</v>
+        <v>2431800</v>
       </c>
       <c r="G52" s="3">
-        <v>1639300</v>
+        <v>2414300</v>
       </c>
       <c r="H52" s="3">
-        <v>1594600</v>
+        <v>2452800</v>
       </c>
       <c r="I52" s="3">
+        <v>1666800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1621300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1060400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1013300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1545900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2025800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1057800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1019700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1040600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>618800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>635500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>620000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>687900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>580500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1665500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63901500</v>
+        <v>75625800</v>
       </c>
       <c r="E54" s="3">
-        <v>65023900</v>
+        <v>74543200</v>
       </c>
       <c r="F54" s="3">
-        <v>57634700</v>
+        <v>64972200</v>
       </c>
       <c r="G54" s="3">
-        <v>54274900</v>
+        <v>66113400</v>
       </c>
       <c r="H54" s="3">
-        <v>40911800</v>
+        <v>58600400</v>
       </c>
       <c r="I54" s="3">
+        <v>55184300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>41597300</v>
+      </c>
+      <c r="K54" s="3">
         <v>39992300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>37853200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>37506100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>32745200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>30377000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>29887000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>31370400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>26588900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>27315600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>26777600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>26813400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>24830500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>23323100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>20972500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3663,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15006900</v>
+        <v>19862600</v>
       </c>
       <c r="E57" s="3">
-        <v>16538000</v>
+        <v>20092000</v>
       </c>
       <c r="F57" s="3">
-        <v>16269800</v>
+        <v>15258300</v>
       </c>
       <c r="G57" s="3">
-        <v>15611900</v>
+        <v>16815100</v>
       </c>
       <c r="H57" s="3">
-        <v>11972100</v>
+        <v>16542400</v>
       </c>
       <c r="I57" s="3">
+        <v>15873500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>12172700</v>
+      </c>
+      <c r="K57" s="3">
         <v>13973100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>13355500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>14326200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>10927000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>11647500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>10957000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>12582100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>8938300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>11032500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>10032000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>10014300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>6362200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>6695000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>6031800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>662500</v>
+        <v>1100300</v>
       </c>
       <c r="E58" s="3">
-        <v>502000</v>
+        <v>88000</v>
       </c>
       <c r="F58" s="3">
-        <v>976500</v>
+        <v>673600</v>
       </c>
       <c r="G58" s="3">
-        <v>1897200</v>
+        <v>510400</v>
       </c>
       <c r="H58" s="3">
-        <v>1324500</v>
+        <v>992900</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>1929000</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>1346700</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>21000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>285600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>660100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1340300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1701400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1939000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1912200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1825900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1807800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2944100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1615600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9311800</v>
+        <v>11001800</v>
       </c>
       <c r="E59" s="3">
-        <v>9755100</v>
+        <v>10649200</v>
       </c>
       <c r="F59" s="3">
-        <v>9329900</v>
+        <v>9467800</v>
       </c>
       <c r="G59" s="3">
-        <v>8967600</v>
+        <v>9918600</v>
       </c>
       <c r="H59" s="3">
-        <v>7736700</v>
+        <v>9486300</v>
       </c>
       <c r="I59" s="3">
+        <v>9117800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7866300</v>
+      </c>
+      <c r="K59" s="3">
         <v>7586700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7088800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7054300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6348400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5245200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4735000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4852800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4456200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4604900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4511800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4433200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>6832000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>6921700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24981200</v>
+        <v>31964700</v>
       </c>
       <c r="E60" s="3">
-        <v>26795100</v>
+        <v>30829200</v>
       </c>
       <c r="F60" s="3">
-        <v>26576300</v>
+        <v>25399700</v>
       </c>
       <c r="G60" s="3">
-        <v>26476600</v>
+        <v>27244000</v>
       </c>
       <c r="H60" s="3">
-        <v>21033300</v>
+        <v>27021600</v>
       </c>
       <c r="I60" s="3">
+        <v>26920300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>21385700</v>
+      </c>
+      <c r="K60" s="3">
         <v>21559800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>20444300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>21401500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>17561000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>17552800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>17032300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>19136300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15333500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>17549600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>16369700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>16255400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>16138300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>15232400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>12899100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1943600</v>
+        <v>1955800</v>
       </c>
       <c r="E61" s="3">
-        <v>1929500</v>
+        <v>1943200</v>
       </c>
       <c r="F61" s="3">
-        <v>2030600</v>
+        <v>1976200</v>
       </c>
       <c r="G61" s="3">
-        <v>2092600</v>
+        <v>1961800</v>
       </c>
       <c r="H61" s="3">
-        <v>2637900</v>
+        <v>2064600</v>
       </c>
       <c r="I61" s="3">
+        <v>2127700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2682100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1547800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1568600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1512300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1480700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1434100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1384800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1408600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1036900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1621000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2315500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2602100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1957100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1330600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1488500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2159900</v>
+        <v>2699000</v>
       </c>
       <c r="E62" s="3">
-        <v>2174400</v>
+        <v>2723900</v>
       </c>
       <c r="F62" s="3">
-        <v>2069600</v>
+        <v>2196100</v>
       </c>
       <c r="G62" s="3">
-        <v>1684300</v>
+        <v>2210800</v>
       </c>
       <c r="H62" s="3">
-        <v>1343100</v>
+        <v>2104200</v>
       </c>
       <c r="I62" s="3">
+        <v>1712500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1365600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1390500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1409600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1145200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>914000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>232400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>255700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>295100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>326300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>370000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>400900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>438400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>471400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>765600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34849800</v>
+        <v>41916200</v>
       </c>
       <c r="E66" s="3">
-        <v>36146000</v>
+        <v>40607400</v>
       </c>
       <c r="F66" s="3">
-        <v>34451800</v>
+        <v>35433700</v>
       </c>
       <c r="G66" s="3">
-        <v>33280400</v>
+        <v>36751600</v>
       </c>
       <c r="H66" s="3">
-        <v>27932900</v>
+        <v>35029000</v>
       </c>
       <c r="I66" s="3">
+        <v>33838000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>28400900</v>
+      </c>
+      <c r="K66" s="3">
         <v>27388100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>26166900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>26836400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22565900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>21696500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>20936000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>23011700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>18812300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>19592200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>19135000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>19340200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>19650900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>18394100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="3">
-        <v>5997800</v>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="3">
+        <v>6098300</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="3">
-        <v>-1444400</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1468600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1609600</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M72" s="3">
-        <v>-3287700</v>
+      <c r="M72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>10</v>
+      <c r="O72" s="3">
+        <v>-3287700</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q72" s="3">
-        <v>-3205500</v>
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="S72" s="3">
+        <v>-3205500</v>
+      </c>
+      <c r="T72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V72" s="3">
         <v>-3104800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3159800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2968300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29051700</v>
+        <v>33709600</v>
       </c>
       <c r="E76" s="3">
-        <v>28877900</v>
+        <v>33935800</v>
       </c>
       <c r="F76" s="3">
-        <v>23183000</v>
+        <v>29538500</v>
       </c>
       <c r="G76" s="3">
-        <v>20994500</v>
+        <v>29361800</v>
       </c>
       <c r="H76" s="3">
-        <v>12979000</v>
+        <v>23571400</v>
       </c>
       <c r="I76" s="3">
+        <v>21346300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>13196400</v>
+      </c>
+      <c r="K76" s="3">
         <v>12604200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11686300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10669800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>10179200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8680500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8951000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8358800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7776600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7723400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7642600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7473100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5179500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4929000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5128500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>557000</v>
+        <v>-439400</v>
       </c>
       <c r="E81" s="3">
-        <v>3745600</v>
+        <v>124400</v>
       </c>
       <c r="F81" s="3">
-        <v>1164100</v>
+        <v>566300</v>
       </c>
       <c r="G81" s="3">
-        <v>2532400</v>
+        <v>3808400</v>
       </c>
       <c r="H81" s="3">
-        <v>165200</v>
+        <v>1183600</v>
       </c>
       <c r="I81" s="3">
+        <v>2574900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>168000</v>
+      </c>
+      <c r="K81" s="3">
         <v>559600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>94300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>94500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1118200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-697800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>420000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-317400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>218800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-134900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>150500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-73700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>34800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-250600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1156200</v>
+        <v>2261900</v>
       </c>
       <c r="E89" s="3">
-        <v>802800</v>
+        <v>4523000</v>
       </c>
       <c r="F89" s="3">
-        <v>1887100</v>
+        <v>-1175600</v>
       </c>
       <c r="G89" s="3">
-        <v>4098600</v>
+        <v>816200</v>
       </c>
       <c r="H89" s="3">
-        <v>-237500</v>
+        <v>1918700</v>
       </c>
       <c r="I89" s="3">
+        <v>4167200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-241500</v>
+      </c>
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>194300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3085000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>507700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>875500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>309700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2355000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-541300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>200500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>52300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2767300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>650300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-433900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1047900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1175100</v>
+        <v>-4658800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2110400</v>
+        <v>-2829700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1927700</v>
+        <v>-1194800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3601600</v>
+        <v>-2145700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1262100</v>
+        <v>-1960000</v>
       </c>
       <c r="I94" s="3">
+        <v>-3661900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1283200</v>
+      </c>
+      <c r="K94" s="3">
         <v>377600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-873100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3212700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-168500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-317800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-364300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2919400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-135000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>624600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-620100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-4568600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-980900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2206600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3057800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-91100</v>
+        <v>951600</v>
       </c>
       <c r="E100" s="3">
-        <v>3605100</v>
+        <v>2730900</v>
       </c>
       <c r="F100" s="3">
-        <v>634100</v>
+        <v>-92600</v>
       </c>
       <c r="G100" s="3">
-        <v>4381400</v>
+        <v>3665500</v>
       </c>
       <c r="H100" s="3">
-        <v>2323000</v>
+        <v>644700</v>
       </c>
       <c r="I100" s="3">
+        <v>4454900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2361900</v>
+      </c>
+      <c r="K100" s="3">
         <v>475500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>383300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-68600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-390500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-569400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-419200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>692900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1909300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-564100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-229500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2462600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1161900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1772300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>91700</v>
+        <v>48600</v>
       </c>
       <c r="E101" s="3">
-        <v>-457600</v>
+        <v>-151400</v>
       </c>
       <c r="F101" s="3">
-        <v>-409600</v>
+        <v>93200</v>
       </c>
       <c r="G101" s="3">
-        <v>-9200</v>
+        <v>-465200</v>
       </c>
       <c r="H101" s="3">
-        <v>93800</v>
+        <v>-416500</v>
       </c>
       <c r="I101" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-60200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>123900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>63500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-64700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-19000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>150400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>171000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-65200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-31600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-44300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-13900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-5300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>42400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2330700</v>
+        <v>-1396600</v>
       </c>
       <c r="E102" s="3">
-        <v>1839900</v>
+        <v>4272800</v>
       </c>
       <c r="F102" s="3">
-        <v>184000</v>
+        <v>-2369800</v>
       </c>
       <c r="G102" s="3">
-        <v>4869200</v>
+        <v>1870700</v>
       </c>
       <c r="H102" s="3">
-        <v>917300</v>
+        <v>187100</v>
       </c>
       <c r="I102" s="3">
+        <v>4950800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>932600</v>
+      </c>
+      <c r="K102" s="3">
         <v>793500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-171600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-132900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-115900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-30700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-323400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>299400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1167700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>605200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1085000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>515000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>825900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-736300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1679300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34241000</v>
+        <v>34503400</v>
       </c>
       <c r="E8" s="3">
-        <v>39735000</v>
+        <v>40039600</v>
       </c>
       <c r="F8" s="3">
-        <v>31809300</v>
+        <v>32053100</v>
       </c>
       <c r="G8" s="3">
-        <v>35120800</v>
+        <v>35390000</v>
       </c>
       <c r="H8" s="3">
-        <v>27275000</v>
+        <v>27484100</v>
       </c>
       <c r="I8" s="3">
-        <v>31477000</v>
+        <v>31718300</v>
       </c>
       <c r="J8" s="3">
-        <v>22889900</v>
+        <v>23065300</v>
       </c>
       <c r="K8" s="3">
         <v>26281900</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29373100</v>
+        <v>29598200</v>
       </c>
       <c r="E9" s="3">
-        <v>34767400</v>
+        <v>35033900</v>
       </c>
       <c r="F9" s="3">
-        <v>27249900</v>
+        <v>27458800</v>
       </c>
       <c r="G9" s="3">
-        <v>30245200</v>
+        <v>30477000</v>
       </c>
       <c r="H9" s="3">
-        <v>23080000</v>
+        <v>23256900</v>
       </c>
       <c r="I9" s="3">
-        <v>26993900</v>
+        <v>27200800</v>
       </c>
       <c r="J9" s="3">
-        <v>19361700</v>
+        <v>19510100</v>
       </c>
       <c r="K9" s="3">
         <v>22586700</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4867900</v>
+        <v>4905200</v>
       </c>
       <c r="E10" s="3">
-        <v>4967600</v>
+        <v>5005700</v>
       </c>
       <c r="F10" s="3">
-        <v>4559300</v>
+        <v>4594300</v>
       </c>
       <c r="G10" s="3">
-        <v>4875600</v>
+        <v>4913000</v>
       </c>
       <c r="H10" s="3">
-        <v>4195000</v>
+        <v>4227200</v>
       </c>
       <c r="I10" s="3">
-        <v>4483200</v>
+        <v>4517500</v>
       </c>
       <c r="J10" s="3">
-        <v>3528200</v>
+        <v>3555200</v>
       </c>
       <c r="K10" s="3">
         <v>3695200</v>
@@ -997,25 +997,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>622800</v>
+        <v>627500</v>
       </c>
       <c r="E12" s="3">
-        <v>574100</v>
+        <v>578500</v>
       </c>
       <c r="F12" s="3">
-        <v>705200</v>
+        <v>710600</v>
       </c>
       <c r="G12" s="3">
-        <v>701200</v>
+        <v>706500</v>
       </c>
       <c r="H12" s="3">
-        <v>639100</v>
+        <v>644000</v>
       </c>
       <c r="I12" s="3">
-        <v>560300</v>
+        <v>564600</v>
       </c>
       <c r="J12" s="3">
-        <v>612200</v>
+        <v>616900</v>
       </c>
       <c r="K12" s="3">
         <v>549200</v>
@@ -1133,22 +1133,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-90600</v>
+        <v>-91300</v>
       </c>
       <c r="E14" s="3">
-        <v>-13700</v>
+        <v>-13800</v>
       </c>
       <c r="F14" s="3">
-        <v>-13000</v>
+        <v>-13100</v>
       </c>
       <c r="G14" s="3">
-        <v>-173700</v>
+        <v>-175000</v>
       </c>
       <c r="H14" s="3">
-        <v>-53900</v>
+        <v>-54300</v>
       </c>
       <c r="I14" s="3">
-        <v>-30600</v>
+        <v>-30900</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1201,25 +1201,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>58500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>57300</v>
+      </c>
+      <c r="G15" s="3">
         <v>58800</v>
       </c>
-      <c r="E15" s="3">
-        <v>58100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>56900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>58400</v>
-      </c>
       <c r="H15" s="3">
-        <v>53500</v>
+        <v>53900</v>
       </c>
       <c r="I15" s="3">
-        <v>46500</v>
+        <v>46800</v>
       </c>
       <c r="J15" s="3">
-        <v>44100</v>
+        <v>44500</v>
       </c>
       <c r="K15" s="3">
         <v>72600</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33838200</v>
+        <v>34097600</v>
       </c>
       <c r="E17" s="3">
-        <v>39687900</v>
+        <v>39992100</v>
       </c>
       <c r="F17" s="3">
-        <v>31549400</v>
+        <v>31791200</v>
       </c>
       <c r="G17" s="3">
-        <v>35027700</v>
+        <v>35296200</v>
       </c>
       <c r="H17" s="3">
-        <v>26588800</v>
+        <v>26792600</v>
       </c>
       <c r="I17" s="3">
-        <v>30687300</v>
+        <v>30922500</v>
       </c>
       <c r="J17" s="3">
-        <v>22526600</v>
+        <v>22699300</v>
       </c>
       <c r="K17" s="3">
         <v>26200400</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>402700</v>
+        <v>405800</v>
       </c>
       <c r="E18" s="3">
-        <v>47100</v>
+        <v>47500</v>
       </c>
       <c r="F18" s="3">
-        <v>259900</v>
+        <v>261800</v>
       </c>
       <c r="G18" s="3">
-        <v>93200</v>
+        <v>93900</v>
       </c>
       <c r="H18" s="3">
-        <v>686300</v>
+        <v>691500</v>
       </c>
       <c r="I18" s="3">
-        <v>789700</v>
+        <v>795800</v>
       </c>
       <c r="J18" s="3">
-        <v>363300</v>
+        <v>366100</v>
       </c>
       <c r="K18" s="3">
         <v>81500</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-769100</v>
+        <v>-775000</v>
       </c>
       <c r="E20" s="3">
-        <v>153200</v>
+        <v>154400</v>
       </c>
       <c r="F20" s="3">
-        <v>425800</v>
+        <v>429100</v>
       </c>
       <c r="G20" s="3">
-        <v>3702800</v>
+        <v>3731200</v>
       </c>
       <c r="H20" s="3">
-        <v>656000</v>
+        <v>661100</v>
       </c>
       <c r="I20" s="3">
-        <v>1955400</v>
+        <v>1970400</v>
       </c>
       <c r="J20" s="3">
-        <v>-114200</v>
+        <v>-115100</v>
       </c>
       <c r="K20" s="3">
         <v>573300</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-354500</v>
+        <v>-357200</v>
       </c>
       <c r="E21" s="3">
-        <v>167800</v>
+        <v>169100</v>
       </c>
       <c r="F21" s="3">
-        <v>946900</v>
+        <v>954100</v>
       </c>
       <c r="G21" s="3">
-        <v>3820800</v>
+        <v>3850100</v>
       </c>
       <c r="H21" s="3">
-        <v>1351700</v>
+        <v>1362000</v>
       </c>
       <c r="I21" s="3">
-        <v>2753800</v>
+        <v>2774900</v>
       </c>
       <c r="J21" s="3">
-        <v>469100</v>
+        <v>472700</v>
       </c>
       <c r="K21" s="3">
         <v>658500</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>43200</v>
+        <v>43600</v>
       </c>
       <c r="E22" s="3">
-        <v>36400</v>
+        <v>36700</v>
       </c>
       <c r="F22" s="3">
-        <v>40400</v>
+        <v>40700</v>
       </c>
       <c r="G22" s="3">
-        <v>46400</v>
+        <v>46700</v>
       </c>
       <c r="H22" s="3">
-        <v>46600</v>
+        <v>47000</v>
       </c>
       <c r="I22" s="3">
-        <v>50800</v>
+        <v>51100</v>
       </c>
       <c r="J22" s="3">
-        <v>32400</v>
+        <v>32700</v>
       </c>
       <c r="K22" s="3">
         <v>33800</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-409600</v>
+        <v>-412800</v>
       </c>
       <c r="E23" s="3">
-        <v>163900</v>
+        <v>165200</v>
       </c>
       <c r="F23" s="3">
-        <v>645300</v>
+        <v>650300</v>
       </c>
       <c r="G23" s="3">
-        <v>3749600</v>
+        <v>3778300</v>
       </c>
       <c r="H23" s="3">
-        <v>1295700</v>
+        <v>1305600</v>
       </c>
       <c r="I23" s="3">
-        <v>2694300</v>
+        <v>2715000</v>
       </c>
       <c r="J23" s="3">
-        <v>216600</v>
+        <v>218300</v>
       </c>
       <c r="K23" s="3">
         <v>621000</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>102100</v>
+        <v>102900</v>
       </c>
       <c r="E24" s="3">
-        <v>89200</v>
+        <v>89900</v>
       </c>
       <c r="F24" s="3">
-        <v>75100</v>
+        <v>75600</v>
       </c>
       <c r="G24" s="3">
-        <v>-51900</v>
+        <v>-52300</v>
       </c>
       <c r="H24" s="3">
-        <v>108100</v>
+        <v>108900</v>
       </c>
       <c r="I24" s="3">
-        <v>124700</v>
+        <v>125700</v>
       </c>
       <c r="J24" s="3">
-        <v>51100</v>
+        <v>51500</v>
       </c>
       <c r="K24" s="3">
         <v>73800</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-511700</v>
+        <v>-515700</v>
       </c>
       <c r="E26" s="3">
-        <v>74800</v>
+        <v>75300</v>
       </c>
       <c r="F26" s="3">
-        <v>570300</v>
+        <v>574600</v>
       </c>
       <c r="G26" s="3">
-        <v>3801500</v>
+        <v>3830700</v>
       </c>
       <c r="H26" s="3">
-        <v>1187600</v>
+        <v>1196700</v>
       </c>
       <c r="I26" s="3">
-        <v>2569600</v>
+        <v>2589300</v>
       </c>
       <c r="J26" s="3">
-        <v>165500</v>
+        <v>166800</v>
       </c>
       <c r="K26" s="3">
         <v>547200</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-439400</v>
+        <v>-442800</v>
       </c>
       <c r="E27" s="3">
-        <v>124400</v>
+        <v>125300</v>
       </c>
       <c r="F27" s="3">
-        <v>566300</v>
+        <v>570700</v>
       </c>
       <c r="G27" s="3">
-        <v>3808400</v>
+        <v>3837600</v>
       </c>
       <c r="H27" s="3">
-        <v>1183600</v>
+        <v>1192700</v>
       </c>
       <c r="I27" s="3">
-        <v>2574900</v>
+        <v>2594600</v>
       </c>
       <c r="J27" s="3">
-        <v>168000</v>
+        <v>169200</v>
       </c>
       <c r="K27" s="3">
         <v>559600</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>769100</v>
+        <v>775000</v>
       </c>
       <c r="E32" s="3">
-        <v>-153200</v>
+        <v>-154400</v>
       </c>
       <c r="F32" s="3">
-        <v>-425800</v>
+        <v>-429100</v>
       </c>
       <c r="G32" s="3">
-        <v>-3702800</v>
+        <v>-3731200</v>
       </c>
       <c r="H32" s="3">
-        <v>-656000</v>
+        <v>-661100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1955400</v>
+        <v>-1970400</v>
       </c>
       <c r="J32" s="3">
-        <v>114200</v>
+        <v>115100</v>
       </c>
       <c r="K32" s="3">
         <v>-573300</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-439400</v>
+        <v>-442800</v>
       </c>
       <c r="E33" s="3">
-        <v>124400</v>
+        <v>125300</v>
       </c>
       <c r="F33" s="3">
-        <v>566300</v>
+        <v>570700</v>
       </c>
       <c r="G33" s="3">
-        <v>3808400</v>
+        <v>3837600</v>
       </c>
       <c r="H33" s="3">
-        <v>1183600</v>
+        <v>1192700</v>
       </c>
       <c r="I33" s="3">
-        <v>2574900</v>
+        <v>2594600</v>
       </c>
       <c r="J33" s="3">
-        <v>168000</v>
+        <v>169200</v>
       </c>
       <c r="K33" s="3">
         <v>559600</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-439400</v>
+        <v>-442800</v>
       </c>
       <c r="E35" s="3">
-        <v>124400</v>
+        <v>125300</v>
       </c>
       <c r="F35" s="3">
-        <v>566300</v>
+        <v>570700</v>
       </c>
       <c r="G35" s="3">
-        <v>3808400</v>
+        <v>3837600</v>
       </c>
       <c r="H35" s="3">
-        <v>1183600</v>
+        <v>1192700</v>
       </c>
       <c r="I35" s="3">
-        <v>2574900</v>
+        <v>2594600</v>
       </c>
       <c r="J35" s="3">
-        <v>168000</v>
+        <v>169200</v>
       </c>
       <c r="K35" s="3">
         <v>559600</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13776900</v>
+        <v>13882500</v>
       </c>
       <c r="E41" s="3">
-        <v>15240700</v>
+        <v>15357500</v>
       </c>
       <c r="F41" s="3">
-        <v>11179700</v>
+        <v>11265400</v>
       </c>
       <c r="G41" s="3">
-        <v>13477400</v>
+        <v>13580700</v>
       </c>
       <c r="H41" s="3">
-        <v>11446600</v>
+        <v>11534300</v>
       </c>
       <c r="I41" s="3">
-        <v>11205300</v>
+        <v>11291200</v>
       </c>
       <c r="J41" s="3">
-        <v>6815000</v>
+        <v>6867200</v>
       </c>
       <c r="K41" s="3">
         <v>5692900</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16023400</v>
+        <v>16146200</v>
       </c>
       <c r="E42" s="3">
-        <v>11812800</v>
+        <v>11903400</v>
       </c>
       <c r="F42" s="3">
-        <v>9936900</v>
+        <v>10013100</v>
       </c>
       <c r="G42" s="3">
-        <v>9484000</v>
+        <v>9556600</v>
       </c>
       <c r="H42" s="3">
-        <v>7577900</v>
+        <v>7635900</v>
       </c>
       <c r="I42" s="3">
-        <v>7629200</v>
+        <v>7687700</v>
       </c>
       <c r="J42" s="3">
-        <v>4597300</v>
+        <v>4632500</v>
       </c>
       <c r="K42" s="3">
         <v>3788300</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2711300</v>
+        <v>2732100</v>
       </c>
       <c r="E43" s="3">
-        <v>4043200</v>
+        <v>4074200</v>
       </c>
       <c r="F43" s="3">
-        <v>2660400</v>
+        <v>2680800</v>
       </c>
       <c r="G43" s="3">
-        <v>2264200</v>
+        <v>2281600</v>
       </c>
       <c r="H43" s="3">
-        <v>2209700</v>
+        <v>2226600</v>
       </c>
       <c r="I43" s="3">
-        <v>2110200</v>
+        <v>2126400</v>
       </c>
       <c r="J43" s="3">
-        <v>1689700</v>
+        <v>1702600</v>
       </c>
       <c r="K43" s="3">
         <v>1844100</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9400500</v>
+        <v>9472500</v>
       </c>
       <c r="E44" s="3">
-        <v>10296700</v>
+        <v>10375600</v>
       </c>
       <c r="F44" s="3">
-        <v>9319100</v>
+        <v>9390600</v>
       </c>
       <c r="G44" s="3">
-        <v>9226500</v>
+        <v>9297200</v>
       </c>
       <c r="H44" s="3">
-        <v>8664900</v>
+        <v>8731300</v>
       </c>
       <c r="I44" s="3">
-        <v>8528900</v>
+        <v>8594300</v>
       </c>
       <c r="J44" s="3">
-        <v>7919500</v>
+        <v>7980200</v>
       </c>
       <c r="K44" s="3">
         <v>8920400</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3302600</v>
+        <v>3327900</v>
       </c>
       <c r="E45" s="3">
-        <v>3320500</v>
+        <v>3346000</v>
       </c>
       <c r="F45" s="3">
-        <v>2533800</v>
+        <v>2553200</v>
       </c>
       <c r="G45" s="3">
-        <v>2308400</v>
+        <v>2326100</v>
       </c>
       <c r="H45" s="3">
-        <v>2597700</v>
+        <v>2617600</v>
       </c>
       <c r="I45" s="3">
-        <v>2695800</v>
+        <v>2716500</v>
       </c>
       <c r="J45" s="3">
-        <v>1609600</v>
+        <v>1621900</v>
       </c>
       <c r="K45" s="3">
         <v>1172100</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>45214700</v>
+        <v>45561200</v>
       </c>
       <c r="E46" s="3">
-        <v>44713900</v>
+        <v>45056600</v>
       </c>
       <c r="F46" s="3">
-        <v>35629900</v>
+        <v>35903000</v>
       </c>
       <c r="G46" s="3">
-        <v>36760500</v>
+        <v>37042200</v>
       </c>
       <c r="H46" s="3">
-        <v>32496700</v>
+        <v>32745800</v>
       </c>
       <c r="I46" s="3">
-        <v>32169400</v>
+        <v>32416000</v>
       </c>
       <c r="J46" s="3">
-        <v>22631100</v>
+        <v>22804500</v>
       </c>
       <c r="K46" s="3">
         <v>21417800</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13938100</v>
+        <v>14045000</v>
       </c>
       <c r="E47" s="3">
-        <v>14523300</v>
+        <v>14634700</v>
       </c>
       <c r="F47" s="3">
-        <v>15100700</v>
+        <v>15216400</v>
       </c>
       <c r="G47" s="3">
-        <v>15278100</v>
+        <v>15395200</v>
       </c>
       <c r="H47" s="3">
-        <v>12486900</v>
+        <v>12582600</v>
       </c>
       <c r="I47" s="3">
-        <v>11682600</v>
+        <v>11772100</v>
       </c>
       <c r="J47" s="3">
-        <v>9010600</v>
+        <v>9079600</v>
       </c>
       <c r="K47" s="3">
         <v>8775800</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8207800</v>
+        <v>8270700</v>
       </c>
       <c r="E48" s="3">
-        <v>7833900</v>
+        <v>7893900</v>
       </c>
       <c r="F48" s="3">
-        <v>7156100</v>
+        <v>7210900</v>
       </c>
       <c r="G48" s="3">
-        <v>7199700</v>
+        <v>7254900</v>
       </c>
       <c r="H48" s="3">
-        <v>6670600</v>
+        <v>6721800</v>
       </c>
       <c r="I48" s="3">
-        <v>5816800</v>
+        <v>5861300</v>
       </c>
       <c r="J48" s="3">
-        <v>5040900</v>
+        <v>5079500</v>
       </c>
       <c r="K48" s="3">
         <v>5405300</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4978100</v>
+        <v>5016300</v>
       </c>
       <c r="E49" s="3">
-        <v>4868100</v>
+        <v>4905400</v>
       </c>
       <c r="F49" s="3">
-        <v>4653800</v>
+        <v>4689400</v>
       </c>
       <c r="G49" s="3">
-        <v>4460700</v>
+        <v>4494900</v>
       </c>
       <c r="H49" s="3">
-        <v>4493400</v>
+        <v>4527800</v>
       </c>
       <c r="I49" s="3">
-        <v>3848800</v>
+        <v>3878300</v>
       </c>
       <c r="J49" s="3">
-        <v>3293500</v>
+        <v>3318700</v>
       </c>
       <c r="K49" s="3">
         <v>3333000</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3287100</v>
+        <v>3312300</v>
       </c>
       <c r="E52" s="3">
-        <v>2603900</v>
+        <v>2623900</v>
       </c>
       <c r="F52" s="3">
-        <v>2431800</v>
+        <v>2450400</v>
       </c>
       <c r="G52" s="3">
-        <v>2414300</v>
+        <v>2432800</v>
       </c>
       <c r="H52" s="3">
-        <v>2452800</v>
+        <v>2471600</v>
       </c>
       <c r="I52" s="3">
-        <v>1666800</v>
+        <v>1679500</v>
       </c>
       <c r="J52" s="3">
-        <v>1621300</v>
+        <v>1633700</v>
       </c>
       <c r="K52" s="3">
         <v>1060400</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75625800</v>
+        <v>76205500</v>
       </c>
       <c r="E54" s="3">
-        <v>74543200</v>
+        <v>75114600</v>
       </c>
       <c r="F54" s="3">
-        <v>64972200</v>
+        <v>65470200</v>
       </c>
       <c r="G54" s="3">
-        <v>66113400</v>
+        <v>66620100</v>
       </c>
       <c r="H54" s="3">
-        <v>58600400</v>
+        <v>59049600</v>
       </c>
       <c r="I54" s="3">
-        <v>55184300</v>
+        <v>55607300</v>
       </c>
       <c r="J54" s="3">
-        <v>41597300</v>
+        <v>41916200</v>
       </c>
       <c r="K54" s="3">
         <v>39992300</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19862600</v>
+        <v>20014800</v>
       </c>
       <c r="E57" s="3">
-        <v>20092000</v>
+        <v>20246000</v>
       </c>
       <c r="F57" s="3">
-        <v>15258300</v>
+        <v>15375300</v>
       </c>
       <c r="G57" s="3">
-        <v>16815100</v>
+        <v>16944000</v>
       </c>
       <c r="H57" s="3">
-        <v>16542400</v>
+        <v>16669200</v>
       </c>
       <c r="I57" s="3">
-        <v>15873500</v>
+        <v>15995100</v>
       </c>
       <c r="J57" s="3">
-        <v>12172700</v>
+        <v>12266000</v>
       </c>
       <c r="K57" s="3">
         <v>13973100</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100300</v>
+        <v>1108700</v>
       </c>
       <c r="E58" s="3">
-        <v>88000</v>
+        <v>88700</v>
       </c>
       <c r="F58" s="3">
-        <v>673600</v>
+        <v>678800</v>
       </c>
       <c r="G58" s="3">
-        <v>510400</v>
+        <v>514300</v>
       </c>
       <c r="H58" s="3">
-        <v>992900</v>
+        <v>1000500</v>
       </c>
       <c r="I58" s="3">
-        <v>1929000</v>
+        <v>1943800</v>
       </c>
       <c r="J58" s="3">
-        <v>1346700</v>
+        <v>1357000</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11001800</v>
+        <v>11086200</v>
       </c>
       <c r="E59" s="3">
-        <v>10649200</v>
+        <v>10730800</v>
       </c>
       <c r="F59" s="3">
-        <v>9467800</v>
+        <v>9540300</v>
       </c>
       <c r="G59" s="3">
-        <v>9918600</v>
+        <v>9994600</v>
       </c>
       <c r="H59" s="3">
-        <v>9486300</v>
+        <v>9559000</v>
       </c>
       <c r="I59" s="3">
-        <v>9117800</v>
+        <v>9187700</v>
       </c>
       <c r="J59" s="3">
-        <v>7866300</v>
+        <v>7926600</v>
       </c>
       <c r="K59" s="3">
         <v>7586700</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31964700</v>
+        <v>32209700</v>
       </c>
       <c r="E60" s="3">
-        <v>30829200</v>
+        <v>31065500</v>
       </c>
       <c r="F60" s="3">
-        <v>25399700</v>
+        <v>25594400</v>
       </c>
       <c r="G60" s="3">
-        <v>27244000</v>
+        <v>27452900</v>
       </c>
       <c r="H60" s="3">
-        <v>27021600</v>
+        <v>27228700</v>
       </c>
       <c r="I60" s="3">
-        <v>26920300</v>
+        <v>27126600</v>
       </c>
       <c r="J60" s="3">
-        <v>21385700</v>
+        <v>21549600</v>
       </c>
       <c r="K60" s="3">
         <v>21559800</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1955800</v>
+        <v>1970800</v>
       </c>
       <c r="E61" s="3">
-        <v>1943200</v>
+        <v>1958100</v>
       </c>
       <c r="F61" s="3">
-        <v>1976200</v>
+        <v>1991300</v>
       </c>
       <c r="G61" s="3">
-        <v>1961800</v>
+        <v>1976900</v>
       </c>
       <c r="H61" s="3">
-        <v>2064600</v>
+        <v>2080400</v>
       </c>
       <c r="I61" s="3">
-        <v>2127700</v>
+        <v>2144000</v>
       </c>
       <c r="J61" s="3">
-        <v>2682100</v>
+        <v>2702700</v>
       </c>
       <c r="K61" s="3">
         <v>1547800</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2699000</v>
+        <v>2719700</v>
       </c>
       <c r="E62" s="3">
-        <v>2723900</v>
+        <v>2744700</v>
       </c>
       <c r="F62" s="3">
-        <v>2196100</v>
+        <v>2212900</v>
       </c>
       <c r="G62" s="3">
-        <v>2210800</v>
+        <v>2227800</v>
       </c>
       <c r="H62" s="3">
-        <v>2104200</v>
+        <v>2120400</v>
       </c>
       <c r="I62" s="3">
-        <v>1712500</v>
+        <v>1725600</v>
       </c>
       <c r="J62" s="3">
-        <v>1365600</v>
+        <v>1376100</v>
       </c>
       <c r="K62" s="3">
         <v>1390500</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41916200</v>
+        <v>42237500</v>
       </c>
       <c r="E66" s="3">
-        <v>40607400</v>
+        <v>40918700</v>
       </c>
       <c r="F66" s="3">
-        <v>35433700</v>
+        <v>35705300</v>
       </c>
       <c r="G66" s="3">
-        <v>36751600</v>
+        <v>37033300</v>
       </c>
       <c r="H66" s="3">
-        <v>35029000</v>
+        <v>35297500</v>
       </c>
       <c r="I66" s="3">
-        <v>33838000</v>
+        <v>34097400</v>
       </c>
       <c r="J66" s="3">
-        <v>28400900</v>
+        <v>28618600</v>
       </c>
       <c r="K66" s="3">
         <v>27388100</v>
@@ -4658,7 +4658,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="3">
-        <v>6098300</v>
+        <v>6145000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -4667,7 +4667,7 @@
         <v>10</v>
       </c>
       <c r="J72" s="3">
-        <v>-1468600</v>
+        <v>-1479900</v>
       </c>
       <c r="K72" s="3">
         <v>-1609600</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33709600</v>
+        <v>33968000</v>
       </c>
       <c r="E76" s="3">
-        <v>33935800</v>
+        <v>34195900</v>
       </c>
       <c r="F76" s="3">
-        <v>29538500</v>
+        <v>29764900</v>
       </c>
       <c r="G76" s="3">
-        <v>29361800</v>
+        <v>29586800</v>
       </c>
       <c r="H76" s="3">
-        <v>23571400</v>
+        <v>23752100</v>
       </c>
       <c r="I76" s="3">
-        <v>21346300</v>
+        <v>21509900</v>
       </c>
       <c r="J76" s="3">
-        <v>13196400</v>
+        <v>13297600</v>
       </c>
       <c r="K76" s="3">
         <v>12604200</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-439400</v>
+        <v>-442800</v>
       </c>
       <c r="E81" s="3">
-        <v>124400</v>
+        <v>125300</v>
       </c>
       <c r="F81" s="3">
-        <v>566300</v>
+        <v>570700</v>
       </c>
       <c r="G81" s="3">
-        <v>3808400</v>
+        <v>3837600</v>
       </c>
       <c r="H81" s="3">
-        <v>1183600</v>
+        <v>1192700</v>
       </c>
       <c r="I81" s="3">
-        <v>2574900</v>
+        <v>2594600</v>
       </c>
       <c r="J81" s="3">
-        <v>168000</v>
+        <v>169200</v>
       </c>
       <c r="K81" s="3">
         <v>559600</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2261900</v>
+        <v>2279300</v>
       </c>
       <c r="E89" s="3">
-        <v>4523000</v>
+        <v>4557700</v>
       </c>
       <c r="F89" s="3">
-        <v>-1175600</v>
+        <v>-1184600</v>
       </c>
       <c r="G89" s="3">
-        <v>816200</v>
+        <v>822500</v>
       </c>
       <c r="H89" s="3">
-        <v>1918700</v>
+        <v>1933500</v>
       </c>
       <c r="I89" s="3">
-        <v>4167200</v>
+        <v>4199200</v>
       </c>
       <c r="J89" s="3">
-        <v>-241500</v>
+        <v>-243300</v>
       </c>
       <c r="K89" s="3">
         <v>600</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4658800</v>
+        <v>-4694500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2829700</v>
+        <v>-2851400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1194800</v>
+        <v>-1203900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2145700</v>
+        <v>-2162200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1960000</v>
+        <v>-1975000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3661900</v>
+        <v>-3690000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1283200</v>
+        <v>-1293100</v>
       </c>
       <c r="K94" s="3">
         <v>377600</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>951600</v>
+        <v>958900</v>
       </c>
       <c r="E100" s="3">
-        <v>2730900</v>
+        <v>2751800</v>
       </c>
       <c r="F100" s="3">
-        <v>-92600</v>
+        <v>-93400</v>
       </c>
       <c r="G100" s="3">
-        <v>3665500</v>
+        <v>3693600</v>
       </c>
       <c r="H100" s="3">
-        <v>644700</v>
+        <v>649700</v>
       </c>
       <c r="I100" s="3">
-        <v>4454900</v>
+        <v>4489000</v>
       </c>
       <c r="J100" s="3">
-        <v>2361900</v>
+        <v>2380000</v>
       </c>
       <c r="K100" s="3">
         <v>475500</v>
@@ -6364,25 +6364,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>48600</v>
+        <v>49000</v>
       </c>
       <c r="E101" s="3">
-        <v>-151400</v>
+        <v>-152600</v>
       </c>
       <c r="F101" s="3">
-        <v>93200</v>
+        <v>93900</v>
       </c>
       <c r="G101" s="3">
-        <v>-465200</v>
+        <v>-468800</v>
       </c>
       <c r="H101" s="3">
-        <v>-416500</v>
+        <v>-419600</v>
       </c>
       <c r="I101" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="J101" s="3">
-        <v>95400</v>
+        <v>96100</v>
       </c>
       <c r="K101" s="3">
         <v>-60200</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1396600</v>
+        <v>-1407300</v>
       </c>
       <c r="E102" s="3">
-        <v>4272800</v>
+        <v>4305600</v>
       </c>
       <c r="F102" s="3">
-        <v>-2369800</v>
+        <v>-2388000</v>
       </c>
       <c r="G102" s="3">
-        <v>1870700</v>
+        <v>1885100</v>
       </c>
       <c r="H102" s="3">
-        <v>187100</v>
+        <v>188500</v>
       </c>
       <c r="I102" s="3">
-        <v>4950800</v>
+        <v>4988700</v>
       </c>
       <c r="J102" s="3">
-        <v>932600</v>
+        <v>939800</v>
       </c>
       <c r="K102" s="3">
         <v>793500</v>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34503400</v>
+        <v>40657700</v>
       </c>
       <c r="E8" s="3">
-        <v>40039600</v>
+        <v>32228900</v>
       </c>
       <c r="F8" s="3">
-        <v>32053100</v>
+        <v>37400000</v>
       </c>
       <c r="G8" s="3">
-        <v>35390000</v>
+        <v>29940000</v>
       </c>
       <c r="H8" s="3">
-        <v>27484100</v>
+        <v>33057000</v>
       </c>
       <c r="I8" s="3">
-        <v>31718300</v>
+        <v>25672200</v>
       </c>
       <c r="J8" s="3">
+        <v>29627300</v>
+      </c>
+      <c r="K8" s="3">
         <v>23065300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26281900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20763100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22959900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18498800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19581700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14663400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17546300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14366400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16349600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12428800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13832100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10939000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11548800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8751100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29598200</v>
+        <v>35187400</v>
       </c>
       <c r="E9" s="3">
-        <v>35033900</v>
+        <v>27647000</v>
       </c>
       <c r="F9" s="3">
-        <v>27458800</v>
+        <v>32724400</v>
       </c>
       <c r="G9" s="3">
-        <v>30477000</v>
+        <v>25648600</v>
       </c>
       <c r="H9" s="3">
-        <v>23256900</v>
+        <v>28467900</v>
       </c>
       <c r="I9" s="3">
-        <v>27200800</v>
+        <v>21723700</v>
       </c>
       <c r="J9" s="3">
+        <v>25407600</v>
+      </c>
+      <c r="K9" s="3">
         <v>19510100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22586700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17665900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19579600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15720700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16797400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12408700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15176900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12334900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14218500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10502000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11955000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>18670800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19852900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14923400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4905200</v>
+        <v>5470200</v>
       </c>
       <c r="E10" s="3">
-        <v>5005700</v>
+        <v>4581800</v>
       </c>
       <c r="F10" s="3">
-        <v>4594300</v>
+        <v>4675700</v>
       </c>
       <c r="G10" s="3">
-        <v>4913000</v>
+        <v>4291400</v>
       </c>
       <c r="H10" s="3">
-        <v>4227200</v>
+        <v>4589100</v>
       </c>
       <c r="I10" s="3">
-        <v>4517500</v>
+        <v>3948500</v>
       </c>
       <c r="J10" s="3">
+        <v>4219700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3555200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3695200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3097200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3380300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2778100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2784300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2254700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2369400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2031400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2131100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1926800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1877100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-7731900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-8304100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-6172300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>627500</v>
+        <v>601100</v>
       </c>
       <c r="E12" s="3">
-        <v>578500</v>
+        <v>586200</v>
       </c>
       <c r="F12" s="3">
-        <v>710600</v>
+        <v>540400</v>
       </c>
       <c r="G12" s="3">
-        <v>706500</v>
+        <v>663800</v>
       </c>
       <c r="H12" s="3">
-        <v>644000</v>
+        <v>660000</v>
       </c>
       <c r="I12" s="3">
-        <v>564600</v>
+        <v>601500</v>
       </c>
       <c r="J12" s="3">
+        <v>527400</v>
+      </c>
+      <c r="K12" s="3">
         <v>616900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>549200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>548200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>565400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>564000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>505400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>478900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>395500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>342700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>302600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>257500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>226400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>184500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>168700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>175700</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-91300</v>
+        <v>-2700</v>
       </c>
       <c r="E14" s="3">
-        <v>-13800</v>
+        <v>-85300</v>
       </c>
       <c r="F14" s="3">
-        <v>-13100</v>
+        <v>-12900</v>
       </c>
       <c r="G14" s="3">
-        <v>-175000</v>
+        <v>-12200</v>
       </c>
       <c r="H14" s="3">
-        <v>-54300</v>
+        <v>-163400</v>
       </c>
       <c r="I14" s="3">
-        <v>-30900</v>
+        <v>-50700</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-28800</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-598200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>59300</v>
+        <v>55600</v>
       </c>
       <c r="E15" s="3">
-        <v>58500</v>
+        <v>55400</v>
       </c>
       <c r="F15" s="3">
-        <v>57300</v>
+        <v>54700</v>
       </c>
       <c r="G15" s="3">
-        <v>58800</v>
+        <v>53500</v>
       </c>
       <c r="H15" s="3">
-        <v>53900</v>
+        <v>54900</v>
       </c>
       <c r="I15" s="3">
-        <v>46800</v>
+        <v>50300</v>
       </c>
       <c r="J15" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K15" s="3">
         <v>44500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>72600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>67800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>65800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>63900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>64600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>64000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>66700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>66300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>65700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>63900</v>
-      </c>
-      <c r="W15" s="3">
-        <v>65100</v>
       </c>
       <c r="X15" s="3">
         <v>65100</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>65100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34097600</v>
+        <v>40715400</v>
       </c>
       <c r="E17" s="3">
-        <v>39992100</v>
+        <v>31849800</v>
       </c>
       <c r="F17" s="3">
-        <v>31791200</v>
+        <v>37355700</v>
       </c>
       <c r="G17" s="3">
-        <v>35296200</v>
+        <v>29695500</v>
       </c>
       <c r="H17" s="3">
-        <v>26792600</v>
+        <v>32969300</v>
       </c>
       <c r="I17" s="3">
-        <v>30922500</v>
+        <v>25026300</v>
       </c>
       <c r="J17" s="3">
+        <v>28884000</v>
+      </c>
+      <c r="K17" s="3">
         <v>22699300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26200400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19997300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22613600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18311500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19718100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14754400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17694700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14365700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16586500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12354200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13891900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10842800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11598000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8785200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>405800</v>
+        <v>-57800</v>
       </c>
       <c r="E18" s="3">
-        <v>47500</v>
+        <v>379100</v>
       </c>
       <c r="F18" s="3">
-        <v>261800</v>
+        <v>44300</v>
       </c>
       <c r="G18" s="3">
-        <v>93900</v>
+        <v>244600</v>
       </c>
       <c r="H18" s="3">
-        <v>691500</v>
+        <v>87700</v>
       </c>
       <c r="I18" s="3">
-        <v>795800</v>
+        <v>645900</v>
       </c>
       <c r="J18" s="3">
+        <v>743300</v>
+      </c>
+      <c r="K18" s="3">
         <v>366100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>81500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>765800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>346300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>187200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-136400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-91100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-148400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-236900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>74600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-59800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>96200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-49200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-34100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-775000</v>
+        <v>-632800</v>
       </c>
       <c r="E20" s="3">
-        <v>154400</v>
+        <v>-723900</v>
       </c>
       <c r="F20" s="3">
-        <v>429100</v>
+        <v>144200</v>
       </c>
       <c r="G20" s="3">
-        <v>3731200</v>
+        <v>400800</v>
       </c>
       <c r="H20" s="3">
-        <v>661100</v>
+        <v>3485200</v>
       </c>
       <c r="I20" s="3">
-        <v>1970400</v>
+        <v>617500</v>
       </c>
       <c r="J20" s="3">
+        <v>1840500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-115100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>573300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-562800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-172200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>990200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-542100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>534700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-120500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>265800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>95700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>120500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>42100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-15000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-113100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-357200</v>
+        <v>-685900</v>
       </c>
       <c r="E21" s="3">
-        <v>169100</v>
+        <v>-333700</v>
       </c>
       <c r="F21" s="3">
-        <v>954100</v>
+        <v>157900</v>
       </c>
       <c r="G21" s="3">
-        <v>3850100</v>
+        <v>891200</v>
       </c>
       <c r="H21" s="3">
-        <v>1362000</v>
+        <v>3596300</v>
       </c>
       <c r="I21" s="3">
-        <v>2774900</v>
+        <v>1272200</v>
       </c>
       <c r="J21" s="3">
+        <v>2592000</v>
+      </c>
+      <c r="K21" s="3">
         <v>472700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>658500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>207000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>126300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1433100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-660600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>476100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-259600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>437800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-31900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>117300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-15000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>219700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-158100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>40700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>34200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="H22" s="3">
         <v>43600</v>
       </c>
-      <c r="E22" s="3">
-        <v>36700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>40700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>46700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>47000</v>
-      </c>
       <c r="I22" s="3">
-        <v>51100</v>
+        <v>43900</v>
       </c>
       <c r="J22" s="3">
+        <v>47800</v>
+      </c>
+      <c r="K22" s="3">
         <v>32700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>28600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>34400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>32800</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>42000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>30900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>27600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-412800</v>
+        <v>-756400</v>
       </c>
       <c r="E23" s="3">
-        <v>165200</v>
+        <v>-385600</v>
       </c>
       <c r="F23" s="3">
-        <v>650300</v>
+        <v>154300</v>
       </c>
       <c r="G23" s="3">
-        <v>3778300</v>
+        <v>607400</v>
       </c>
       <c r="H23" s="3">
-        <v>1305600</v>
+        <v>3529200</v>
       </c>
       <c r="I23" s="3">
-        <v>2715000</v>
+        <v>1219500</v>
       </c>
       <c r="J23" s="3">
+        <v>2536000</v>
+      </c>
+      <c r="K23" s="3">
         <v>218300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>621000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>177900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>150400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1148800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-699500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>409900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-303300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>233600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-141200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>153100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-48600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>53600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-171500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-70600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>102900</v>
+        <v>27400</v>
       </c>
       <c r="E24" s="3">
-        <v>89900</v>
+        <v>96100</v>
       </c>
       <c r="F24" s="3">
-        <v>75600</v>
+        <v>83900</v>
       </c>
       <c r="G24" s="3">
-        <v>-52300</v>
+        <v>70700</v>
       </c>
       <c r="H24" s="3">
-        <v>108900</v>
+        <v>-48900</v>
       </c>
       <c r="I24" s="3">
-        <v>125700</v>
+        <v>101700</v>
       </c>
       <c r="J24" s="3">
+        <v>117400</v>
+      </c>
+      <c r="K24" s="3">
         <v>51500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>73800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>93100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-515700</v>
+        <v>-783700</v>
       </c>
       <c r="E26" s="3">
-        <v>75300</v>
+        <v>-481700</v>
       </c>
       <c r="F26" s="3">
-        <v>574600</v>
+        <v>70400</v>
       </c>
       <c r="G26" s="3">
-        <v>3830700</v>
+        <v>536800</v>
       </c>
       <c r="H26" s="3">
-        <v>1196700</v>
+        <v>3578100</v>
       </c>
       <c r="I26" s="3">
-        <v>2589300</v>
+        <v>1117800</v>
       </c>
       <c r="J26" s="3">
+        <v>2418600</v>
+      </c>
+      <c r="K26" s="3">
         <v>166800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>547200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>84800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>83400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1106100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-708400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>402600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-326700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>212000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-143100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>145200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-46200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>40500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-186100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-70900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-442800</v>
+        <v>-761100</v>
       </c>
       <c r="E27" s="3">
-        <v>125300</v>
+        <v>-413600</v>
       </c>
       <c r="F27" s="3">
-        <v>570700</v>
+        <v>117000</v>
       </c>
       <c r="G27" s="3">
-        <v>3837600</v>
+        <v>533000</v>
       </c>
       <c r="H27" s="3">
-        <v>1192700</v>
+        <v>3584600</v>
       </c>
       <c r="I27" s="3">
-        <v>2594600</v>
+        <v>1114100</v>
       </c>
       <c r="J27" s="3">
+        <v>2423600</v>
+      </c>
+      <c r="K27" s="3">
         <v>169200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>559600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>94300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>94500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1118200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-697800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>420000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-317400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>218800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-134900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>150500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-42600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>43500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-183400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2117,19 +2177,22 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-31100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-8700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-67100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-66100</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>775000</v>
+        <v>632800</v>
       </c>
       <c r="E32" s="3">
-        <v>-154400</v>
+        <v>723900</v>
       </c>
       <c r="F32" s="3">
-        <v>-429100</v>
+        <v>-144200</v>
       </c>
       <c r="G32" s="3">
-        <v>-3731200</v>
+        <v>-400800</v>
       </c>
       <c r="H32" s="3">
-        <v>-661100</v>
+        <v>-3485200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1970400</v>
+        <v>-617500</v>
       </c>
       <c r="J32" s="3">
+        <v>-1840500</v>
+      </c>
+      <c r="K32" s="3">
         <v>115100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-573300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>562800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>172200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-990200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>542100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-534700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>120500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-265800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-95700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-120500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-42100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>15000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>113100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-442800</v>
+        <v>-761100</v>
       </c>
       <c r="E33" s="3">
-        <v>125300</v>
+        <v>-413600</v>
       </c>
       <c r="F33" s="3">
-        <v>570700</v>
+        <v>117000</v>
       </c>
       <c r="G33" s="3">
-        <v>3837600</v>
+        <v>533000</v>
       </c>
       <c r="H33" s="3">
-        <v>1192700</v>
+        <v>3584600</v>
       </c>
       <c r="I33" s="3">
-        <v>2594600</v>
+        <v>1114100</v>
       </c>
       <c r="J33" s="3">
+        <v>2423600</v>
+      </c>
+      <c r="K33" s="3">
         <v>169200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>559600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>94300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>94500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1118200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-697800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>420000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-317400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>218800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-134900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>150500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-73700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>34800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-250600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-442800</v>
+        <v>-761100</v>
       </c>
       <c r="E35" s="3">
-        <v>125300</v>
+        <v>-413600</v>
       </c>
       <c r="F35" s="3">
-        <v>570700</v>
+        <v>117000</v>
       </c>
       <c r="G35" s="3">
-        <v>3837600</v>
+        <v>533000</v>
       </c>
       <c r="H35" s="3">
-        <v>1192700</v>
+        <v>3584600</v>
       </c>
       <c r="I35" s="3">
-        <v>2594600</v>
+        <v>1114100</v>
       </c>
       <c r="J35" s="3">
+        <v>2423600</v>
+      </c>
+      <c r="K35" s="3">
         <v>169200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>559600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>94300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>94500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1118200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-697800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>420000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-317400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>218800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-134900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>150500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-73700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>34800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-250600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13882500</v>
+        <v>10428200</v>
       </c>
       <c r="E41" s="3">
-        <v>15357500</v>
+        <v>12967300</v>
       </c>
       <c r="F41" s="3">
-        <v>11265400</v>
+        <v>14345100</v>
       </c>
       <c r="G41" s="3">
-        <v>13580700</v>
+        <v>10522700</v>
       </c>
       <c r="H41" s="3">
-        <v>11534300</v>
+        <v>12685500</v>
       </c>
       <c r="I41" s="3">
-        <v>11291200</v>
+        <v>10773900</v>
       </c>
       <c r="J41" s="3">
+        <v>10546800</v>
+      </c>
+      <c r="K41" s="3">
         <v>6867200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5692900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4946600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5007900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5202700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4975900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4758300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5055400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5051100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3812400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3207200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4134000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3435700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2263900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3611700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16146200</v>
+        <v>16882200</v>
       </c>
       <c r="E42" s="3">
-        <v>11903400</v>
+        <v>15081800</v>
       </c>
       <c r="F42" s="3">
-        <v>10013100</v>
+        <v>11118700</v>
       </c>
       <c r="G42" s="3">
-        <v>9556600</v>
+        <v>9353000</v>
       </c>
       <c r="H42" s="3">
-        <v>7635900</v>
+        <v>8926600</v>
       </c>
       <c r="I42" s="3">
-        <v>7687700</v>
+        <v>7132600</v>
       </c>
       <c r="J42" s="3">
+        <v>7180900</v>
+      </c>
+      <c r="K42" s="3">
         <v>4632500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3788300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3767300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3752600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>644900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>295600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>723900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1829700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1713700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1274500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2383300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1890700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3089800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2623300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1793200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2732100</v>
+        <v>2564100</v>
       </c>
       <c r="E43" s="3">
-        <v>4074200</v>
+        <v>2552000</v>
       </c>
       <c r="F43" s="3">
-        <v>2680800</v>
+        <v>3805600</v>
       </c>
       <c r="G43" s="3">
-        <v>2281600</v>
+        <v>2504100</v>
       </c>
       <c r="H43" s="3">
-        <v>2226600</v>
+        <v>2131200</v>
       </c>
       <c r="I43" s="3">
-        <v>2126400</v>
+        <v>2079900</v>
       </c>
       <c r="J43" s="3">
+        <v>1986200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1702600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1844100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2499900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2102900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1622800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2463500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2348300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3701700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2819300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4850500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5597400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6769800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5409200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4288500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4025000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9472500</v>
+        <v>11140600</v>
       </c>
       <c r="E44" s="3">
-        <v>10375600</v>
+        <v>8848100</v>
       </c>
       <c r="F44" s="3">
-        <v>9390600</v>
+        <v>9691600</v>
       </c>
       <c r="G44" s="3">
-        <v>9297200</v>
+        <v>8771500</v>
       </c>
       <c r="H44" s="3">
-        <v>8731300</v>
+        <v>8684300</v>
       </c>
       <c r="I44" s="3">
-        <v>8594300</v>
+        <v>8155700</v>
       </c>
       <c r="J44" s="3">
+        <v>8027700</v>
+      </c>
+      <c r="K44" s="3">
         <v>7980200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8920400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7431900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6954700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5841700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6394500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5578100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6227400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5188800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6188800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5388800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4622900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3906300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4204300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3287100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3327900</v>
+        <v>3144700</v>
       </c>
       <c r="E45" s="3">
-        <v>3346000</v>
+        <v>3108500</v>
       </c>
       <c r="F45" s="3">
-        <v>2553200</v>
+        <v>3125400</v>
       </c>
       <c r="G45" s="3">
-        <v>2326100</v>
+        <v>2384900</v>
       </c>
       <c r="H45" s="3">
-        <v>2617600</v>
+        <v>2172700</v>
       </c>
       <c r="I45" s="3">
-        <v>2716500</v>
+        <v>2445100</v>
       </c>
       <c r="J45" s="3">
+        <v>2537400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1621900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1172100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1310600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1654700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1212300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1098700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1921800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2095000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1439700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>945200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1774000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2015800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1285200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3842100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>840300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>45561200</v>
+        <v>44159700</v>
       </c>
       <c r="E46" s="3">
-        <v>45056600</v>
+        <v>42557700</v>
       </c>
       <c r="F46" s="3">
-        <v>35903000</v>
+        <v>42086400</v>
       </c>
       <c r="G46" s="3">
-        <v>37042200</v>
+        <v>33536200</v>
       </c>
       <c r="H46" s="3">
-        <v>32745800</v>
+        <v>34600300</v>
       </c>
       <c r="I46" s="3">
-        <v>32416000</v>
+        <v>30587100</v>
       </c>
       <c r="J46" s="3">
+        <v>30279000</v>
+      </c>
+      <c r="K46" s="3">
         <v>22804500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21417800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19956300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19472800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14524500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15228200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15330400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18909200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16212600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17071400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18350700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19433200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17126200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15551100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>13557200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14045000</v>
+        <v>12129200</v>
       </c>
       <c r="E47" s="3">
-        <v>14634700</v>
+        <v>13119100</v>
       </c>
       <c r="F47" s="3">
-        <v>15216400</v>
+        <v>13669900</v>
       </c>
       <c r="G47" s="3">
-        <v>15395200</v>
+        <v>14213300</v>
       </c>
       <c r="H47" s="3">
-        <v>12582600</v>
+        <v>14380300</v>
       </c>
       <c r="I47" s="3">
-        <v>11772100</v>
+        <v>11753100</v>
       </c>
       <c r="J47" s="3">
+        <v>10996100</v>
+      </c>
+      <c r="K47" s="3">
         <v>9079600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8775800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8358600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8423900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8106100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6863300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7013800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5555200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4438500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4241400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2881600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2652400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3265500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3299200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3258900</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8270700</v>
+        <v>8657100</v>
       </c>
       <c r="E48" s="3">
-        <v>7893900</v>
+        <v>7725500</v>
       </c>
       <c r="F48" s="3">
-        <v>7210900</v>
+        <v>7373500</v>
       </c>
       <c r="G48" s="3">
-        <v>7254900</v>
+        <v>6735600</v>
       </c>
       <c r="H48" s="3">
-        <v>6721800</v>
+        <v>6776700</v>
       </c>
       <c r="I48" s="3">
-        <v>5861300</v>
+        <v>6278600</v>
       </c>
       <c r="J48" s="3">
+        <v>5475000</v>
+      </c>
+      <c r="K48" s="3">
         <v>5079500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5405300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5221700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4807300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4842500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4013700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3446300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2997300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2456000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2340500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1904000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1599700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1382600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1311100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1280900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5016300</v>
+        <v>4803600</v>
       </c>
       <c r="E49" s="3">
-        <v>4905400</v>
+        <v>4685600</v>
       </c>
       <c r="F49" s="3">
-        <v>4689400</v>
+        <v>4582100</v>
       </c>
       <c r="G49" s="3">
-        <v>4494900</v>
+        <v>4380300</v>
       </c>
       <c r="H49" s="3">
-        <v>4527800</v>
+        <v>4198600</v>
       </c>
       <c r="I49" s="3">
-        <v>3878300</v>
+        <v>4229400</v>
       </c>
       <c r="J49" s="3">
+        <v>3622600</v>
+      </c>
+      <c r="K49" s="3">
         <v>3318700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3333000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3303300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3256200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3246200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3214100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3076700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2868200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2862900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3026700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3021300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2440200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2475700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2513800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2566700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3312300</v>
+        <v>3415700</v>
       </c>
       <c r="E52" s="3">
-        <v>2623900</v>
+        <v>3093900</v>
       </c>
       <c r="F52" s="3">
-        <v>2450400</v>
+        <v>2450900</v>
       </c>
       <c r="G52" s="3">
-        <v>2432800</v>
+        <v>2288900</v>
       </c>
       <c r="H52" s="3">
-        <v>2471600</v>
+        <v>2272400</v>
       </c>
       <c r="I52" s="3">
-        <v>1679500</v>
+        <v>2308600</v>
       </c>
       <c r="J52" s="3">
+        <v>1568800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1633700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1060400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1013300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1545900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2025800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1057800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1019700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1040600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>618800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>635500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>620000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>687900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>580500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1665500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>76205500</v>
+        <v>73165300</v>
       </c>
       <c r="E54" s="3">
-        <v>75114600</v>
+        <v>71181800</v>
       </c>
       <c r="F54" s="3">
-        <v>65470200</v>
+        <v>70162800</v>
       </c>
       <c r="G54" s="3">
-        <v>66620100</v>
+        <v>61154200</v>
       </c>
       <c r="H54" s="3">
-        <v>59049600</v>
+        <v>62228300</v>
       </c>
       <c r="I54" s="3">
-        <v>55607300</v>
+        <v>55156900</v>
       </c>
       <c r="J54" s="3">
+        <v>51941500</v>
+      </c>
+      <c r="K54" s="3">
         <v>41916200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39992300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37853200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37506100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32745200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30377000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29887000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31370400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26588900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27315600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>26777600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>26813400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>24830500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>23323100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20972500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20014800</v>
+        <v>20778200</v>
       </c>
       <c r="E57" s="3">
-        <v>20246000</v>
+        <v>18695400</v>
       </c>
       <c r="F57" s="3">
-        <v>15375300</v>
+        <v>18911300</v>
       </c>
       <c r="G57" s="3">
-        <v>16944000</v>
+        <v>14361700</v>
       </c>
       <c r="H57" s="3">
-        <v>16669200</v>
+        <v>15827000</v>
       </c>
       <c r="I57" s="3">
-        <v>15995100</v>
+        <v>15570300</v>
       </c>
       <c r="J57" s="3">
+        <v>14940700</v>
+      </c>
+      <c r="K57" s="3">
         <v>12266000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13973100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13355500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14326200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10927000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11647500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10957000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12582100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8938300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11032500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10032000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10014300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6362200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6695000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6031800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1108700</v>
+        <v>643700</v>
       </c>
       <c r="E58" s="3">
-        <v>88700</v>
+        <v>1035600</v>
       </c>
       <c r="F58" s="3">
-        <v>678800</v>
+        <v>82900</v>
       </c>
       <c r="G58" s="3">
-        <v>514300</v>
+        <v>634000</v>
       </c>
       <c r="H58" s="3">
-        <v>1000500</v>
+        <v>480400</v>
       </c>
       <c r="I58" s="3">
-        <v>1943800</v>
+        <v>934600</v>
       </c>
       <c r="J58" s="3">
+        <v>1815600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1357000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>21000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>285600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>660100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1340300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1701400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1939000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1912200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1825900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1807800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2944100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1615600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11086200</v>
+        <v>11238400</v>
       </c>
       <c r="E59" s="3">
-        <v>10730800</v>
+        <v>10355300</v>
       </c>
       <c r="F59" s="3">
-        <v>9540300</v>
+        <v>10023400</v>
       </c>
       <c r="G59" s="3">
-        <v>9994600</v>
+        <v>8911400</v>
       </c>
       <c r="H59" s="3">
-        <v>9559000</v>
+        <v>9335700</v>
       </c>
       <c r="I59" s="3">
-        <v>9187700</v>
+        <v>8928800</v>
       </c>
       <c r="J59" s="3">
+        <v>8582000</v>
+      </c>
+      <c r="K59" s="3">
         <v>7926600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7586700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7088800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7054300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6348400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5245200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4735000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4852800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4456200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4604900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4511800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4433200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6832000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6921700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32209700</v>
+        <v>32660300</v>
       </c>
       <c r="E60" s="3">
-        <v>31065500</v>
+        <v>30086400</v>
       </c>
       <c r="F60" s="3">
-        <v>25594400</v>
+        <v>29017600</v>
       </c>
       <c r="G60" s="3">
-        <v>27452900</v>
+        <v>23907200</v>
       </c>
       <c r="H60" s="3">
-        <v>27228700</v>
+        <v>25643100</v>
       </c>
       <c r="I60" s="3">
-        <v>27126600</v>
+        <v>25433700</v>
       </c>
       <c r="J60" s="3">
+        <v>25338300</v>
+      </c>
+      <c r="K60" s="3">
         <v>21549600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21559800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20444300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21401500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17561000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17552800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17032300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19136300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15333500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17549600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16369700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16255400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16138300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15232400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12899100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1970800</v>
+        <v>1383100</v>
       </c>
       <c r="E61" s="3">
-        <v>1958100</v>
+        <v>1840900</v>
       </c>
       <c r="F61" s="3">
-        <v>1991300</v>
+        <v>1829000</v>
       </c>
       <c r="G61" s="3">
-        <v>1976900</v>
+        <v>1860100</v>
       </c>
       <c r="H61" s="3">
-        <v>2080400</v>
+        <v>1846500</v>
       </c>
       <c r="I61" s="3">
-        <v>2144000</v>
+        <v>1943300</v>
       </c>
       <c r="J61" s="3">
+        <v>2002600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2702700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1547800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1568600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1512300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1480700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1434100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1384800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1408600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1036900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1621000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2315500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2602100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1957100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1330600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1488500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2719700</v>
+        <v>2755800</v>
       </c>
       <c r="E62" s="3">
-        <v>2744700</v>
+        <v>2540400</v>
       </c>
       <c r="F62" s="3">
-        <v>2212900</v>
+        <v>2563800</v>
       </c>
       <c r="G62" s="3">
-        <v>2227800</v>
+        <v>2067000</v>
       </c>
       <c r="H62" s="3">
-        <v>2120400</v>
+        <v>2080900</v>
       </c>
       <c r="I62" s="3">
-        <v>1725600</v>
+        <v>1980600</v>
       </c>
       <c r="J62" s="3">
+        <v>1611900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1376100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1390500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1409600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1145200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>914000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>232400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>255700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>295100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>326300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>370000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>400900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>438400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>471400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>765600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42237500</v>
+        <v>42380100</v>
       </c>
       <c r="E66" s="3">
-        <v>40918700</v>
+        <v>39453100</v>
       </c>
       <c r="F66" s="3">
-        <v>35705300</v>
+        <v>38221200</v>
       </c>
       <c r="G66" s="3">
-        <v>37033300</v>
+        <v>33351500</v>
       </c>
       <c r="H66" s="3">
-        <v>35297500</v>
+        <v>34591900</v>
       </c>
       <c r="I66" s="3">
-        <v>34097400</v>
+        <v>32970600</v>
       </c>
       <c r="J66" s="3">
+        <v>31849600</v>
+      </c>
+      <c r="K66" s="3">
         <v>28618600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27388100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26166900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26836400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22565900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21696500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20936000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23011700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18812300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19592200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19135000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19340200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19650900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>18394100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,13 +4813,16 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
+      <c r="D72" s="3">
+        <v>5215200</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>10</v>
@@ -4657,23 +4830,23 @@
       <c r="F72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="3">
-        <v>6145000</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H72" s="3">
+        <v>5739900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1479900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1609600</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>10</v>
@@ -4681,11 +4854,11 @@
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P72" s="3">
         <v>-3287700</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>10</v>
@@ -4693,26 +4866,29 @@
       <c r="R72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T72" s="3">
         <v>-3205500</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W72" s="3">
         <v>-3104800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3159800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2968300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33968000</v>
+        <v>30785100</v>
       </c>
       <c r="E76" s="3">
-        <v>34195900</v>
+        <v>31728700</v>
       </c>
       <c r="F76" s="3">
-        <v>29764900</v>
+        <v>31941600</v>
       </c>
       <c r="G76" s="3">
-        <v>29586800</v>
+        <v>27802700</v>
       </c>
       <c r="H76" s="3">
-        <v>23752100</v>
+        <v>27636400</v>
       </c>
       <c r="I76" s="3">
-        <v>21509900</v>
+        <v>22186300</v>
       </c>
       <c r="J76" s="3">
+        <v>20091900</v>
+      </c>
+      <c r="K76" s="3">
         <v>13297600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12604200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11686300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10669800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10179200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8680500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8951000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8358800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7776600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7723400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7642600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7473100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5179500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4929000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5128500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-442800</v>
+        <v>-761100</v>
       </c>
       <c r="E81" s="3">
-        <v>125300</v>
+        <v>-413600</v>
       </c>
       <c r="F81" s="3">
-        <v>570700</v>
+        <v>117000</v>
       </c>
       <c r="G81" s="3">
-        <v>3837600</v>
+        <v>533000</v>
       </c>
       <c r="H81" s="3">
-        <v>1192700</v>
+        <v>3584600</v>
       </c>
       <c r="I81" s="3">
-        <v>2594600</v>
+        <v>1114100</v>
       </c>
       <c r="J81" s="3">
+        <v>2423600</v>
+      </c>
+      <c r="K81" s="3">
         <v>169200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>559600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>94300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>94500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1118200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-697800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>420000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-317400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>218800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-134900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>150500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-73700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>34800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-250600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2279300</v>
+        <v>953700</v>
       </c>
       <c r="E89" s="3">
-        <v>4557700</v>
+        <v>2129000</v>
       </c>
       <c r="F89" s="3">
-        <v>-1184600</v>
+        <v>4257300</v>
       </c>
       <c r="G89" s="3">
-        <v>822500</v>
+        <v>-1106500</v>
       </c>
       <c r="H89" s="3">
-        <v>1933500</v>
+        <v>768300</v>
       </c>
       <c r="I89" s="3">
-        <v>4199200</v>
+        <v>1806000</v>
       </c>
       <c r="J89" s="3">
+        <v>3922400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-243300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>194300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3085000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>507700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>875500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>309700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2355000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-541300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>52300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2767300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>650300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-433900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1047900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4694500</v>
+        <v>-2768200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2851400</v>
+        <v>-4385000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1203900</v>
+        <v>-2663400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2162200</v>
+        <v>-1124600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1975000</v>
+        <v>-2019600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3690000</v>
+        <v>-1844800</v>
       </c>
       <c r="J94" s="3">
+        <v>-3446700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1293100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>377600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-873100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3212700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-168500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-317800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-364300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2919400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-135000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>624600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-620100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4568600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-980900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2206600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3057800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>958900</v>
+        <v>-505000</v>
       </c>
       <c r="E100" s="3">
-        <v>2751800</v>
+        <v>895700</v>
       </c>
       <c r="F100" s="3">
-        <v>-93400</v>
+        <v>2570400</v>
       </c>
       <c r="G100" s="3">
-        <v>3693600</v>
+        <v>-87200</v>
       </c>
       <c r="H100" s="3">
-        <v>649700</v>
+        <v>3450100</v>
       </c>
       <c r="I100" s="3">
-        <v>4489000</v>
+        <v>606800</v>
       </c>
       <c r="J100" s="3">
+        <v>4193100</v>
+      </c>
+      <c r="K100" s="3">
         <v>2380000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>475500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>383300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-68600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-390500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-569400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-419200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>692900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1909300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-564100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-229500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2462600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1161900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1772300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>49000</v>
+        <v>-211700</v>
       </c>
       <c r="E101" s="3">
-        <v>-152600</v>
+        <v>45700</v>
       </c>
       <c r="F101" s="3">
-        <v>93900</v>
+        <v>-142500</v>
       </c>
       <c r="G101" s="3">
-        <v>-468800</v>
+        <v>87700</v>
       </c>
       <c r="H101" s="3">
-        <v>-419600</v>
+        <v>-437900</v>
       </c>
       <c r="I101" s="3">
-        <v>-9500</v>
+        <v>-392000</v>
       </c>
       <c r="J101" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K101" s="3">
         <v>96100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-60200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>123900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>63500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-64700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-19000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>150400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>171000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-65200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-31600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-44300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-13900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>42400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1407300</v>
+        <v>-2531100</v>
       </c>
       <c r="E102" s="3">
-        <v>4305600</v>
+        <v>-1314600</v>
       </c>
       <c r="F102" s="3">
-        <v>-2388000</v>
+        <v>4021700</v>
       </c>
       <c r="G102" s="3">
-        <v>1885100</v>
+        <v>-2230500</v>
       </c>
       <c r="H102" s="3">
-        <v>188500</v>
+        <v>1760800</v>
       </c>
       <c r="I102" s="3">
-        <v>4988700</v>
+        <v>176100</v>
       </c>
       <c r="J102" s="3">
+        <v>4659800</v>
+      </c>
+      <c r="K102" s="3">
         <v>939800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>793500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-171600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-132900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-115900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-30700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-323400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>299400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1167700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>605200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1085000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>515000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>825900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-736300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1679300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40657700</v>
+        <v>39077600</v>
       </c>
       <c r="E8" s="3">
-        <v>32228900</v>
+        <v>34996800</v>
       </c>
       <c r="F8" s="3">
-        <v>37400000</v>
+        <v>40290700</v>
       </c>
       <c r="G8" s="3">
-        <v>29940000</v>
+        <v>31938000</v>
       </c>
       <c r="H8" s="3">
-        <v>33057000</v>
+        <v>37062500</v>
       </c>
       <c r="I8" s="3">
+        <v>29669800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>32758600</v>
+      </c>
+      <c r="K8" s="3">
         <v>25672200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>29627300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>23065300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>26281900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>20763100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>22959900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>18498800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>19581700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>14663400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>17546300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>14366400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>16349600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>12428800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>13832100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>10939000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>11548800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>8751100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35187400</v>
+        <v>33836000</v>
       </c>
       <c r="E9" s="3">
-        <v>27647000</v>
+        <v>30112700</v>
       </c>
       <c r="F9" s="3">
-        <v>32724400</v>
+        <v>34869800</v>
       </c>
       <c r="G9" s="3">
-        <v>25648600</v>
+        <v>27397500</v>
       </c>
       <c r="H9" s="3">
-        <v>28467900</v>
+        <v>32429000</v>
       </c>
       <c r="I9" s="3">
+        <v>25417100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>28210900</v>
+      </c>
+      <c r="K9" s="3">
         <v>21723700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>25407600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>19510100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>22586700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>17665900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>19579600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>15720700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>16797400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>12408700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>15176900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>12334900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>14218500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>10502000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>11955000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>18670800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>19852900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>14923400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5470200</v>
+        <v>5241600</v>
       </c>
       <c r="E10" s="3">
-        <v>4581800</v>
+        <v>4884100</v>
       </c>
       <c r="F10" s="3">
-        <v>4675700</v>
+        <v>5420900</v>
       </c>
       <c r="G10" s="3">
-        <v>4291400</v>
+        <v>4540500</v>
       </c>
       <c r="H10" s="3">
-        <v>4589100</v>
+        <v>4633500</v>
       </c>
       <c r="I10" s="3">
+        <v>4252700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4547700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3948500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4219700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3555200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3695200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3097200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3380300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2778100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2784300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2254700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2369400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2031400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2131100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1926800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1877100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-7731900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-8304100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>-6172300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>601100</v>
+        <v>579300</v>
       </c>
       <c r="E12" s="3">
-        <v>586200</v>
+        <v>634600</v>
       </c>
       <c r="F12" s="3">
-        <v>540400</v>
+        <v>595600</v>
       </c>
       <c r="G12" s="3">
-        <v>663800</v>
+        <v>580900</v>
       </c>
       <c r="H12" s="3">
-        <v>660000</v>
+        <v>535500</v>
       </c>
       <c r="I12" s="3">
+        <v>657800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>654000</v>
+      </c>
+      <c r="K12" s="3">
         <v>601500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>527400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>616900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>549200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>548200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>565400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>564000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>505400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>478900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>395500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>342700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>302600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>257500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>226400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>184500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>168700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>175700</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,150 +1180,168 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>518300</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2700</v>
       </c>
-      <c r="E14" s="3">
-        <v>-85300</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-12900</v>
-      </c>
       <c r="G14" s="3">
-        <v>-12200</v>
+        <v>-84500</v>
       </c>
       <c r="H14" s="3">
-        <v>-163400</v>
+        <v>-12800</v>
       </c>
       <c r="I14" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-50700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-28800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-598200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3100</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>55600</v>
+        <v>61000</v>
       </c>
       <c r="E15" s="3">
-        <v>55400</v>
+        <v>57200</v>
       </c>
       <c r="F15" s="3">
-        <v>54700</v>
+        <v>55100</v>
       </c>
       <c r="G15" s="3">
-        <v>53500</v>
+        <v>54900</v>
       </c>
       <c r="H15" s="3">
-        <v>54900</v>
+        <v>54200</v>
       </c>
       <c r="I15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K15" s="3">
         <v>50300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>43800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>44500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>72600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>22500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>22600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>67800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>65800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>63900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>64600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>64000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>66700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>66300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>65700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>63900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>65100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40715400</v>
+        <v>38524300</v>
       </c>
       <c r="E17" s="3">
-        <v>31849800</v>
+        <v>35163300</v>
       </c>
       <c r="F17" s="3">
-        <v>37355700</v>
+        <v>40347900</v>
       </c>
       <c r="G17" s="3">
-        <v>29695500</v>
+        <v>31562300</v>
       </c>
       <c r="H17" s="3">
-        <v>32969300</v>
+        <v>37018600</v>
       </c>
       <c r="I17" s="3">
+        <v>29427400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>32671800</v>
+      </c>
+      <c r="K17" s="3">
         <v>25026300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>28884000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>22699300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>26200400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>19997300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>22613600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>18311500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>19718100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>14754400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>17694700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>14365700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>16586500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>12354200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>13891900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>10842800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>11598000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>8785200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-57800</v>
+        <v>553300</v>
       </c>
       <c r="E18" s="3">
-        <v>379100</v>
+        <v>-166500</v>
       </c>
       <c r="F18" s="3">
-        <v>44300</v>
+        <v>-57200</v>
       </c>
       <c r="G18" s="3">
-        <v>244600</v>
+        <v>375700</v>
       </c>
       <c r="H18" s="3">
-        <v>87700</v>
+        <v>43900</v>
       </c>
       <c r="I18" s="3">
+        <v>242400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>86900</v>
+      </c>
+      <c r="K18" s="3">
         <v>645900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>743300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>366100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>81500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>765800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>346300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>187200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-136400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-91100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-148400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-236900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>74600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-59800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>96200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-49200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-34100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1547,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-632800</v>
+        <v>284900</v>
       </c>
       <c r="E20" s="3">
-        <v>-723900</v>
+        <v>-208800</v>
       </c>
       <c r="F20" s="3">
-        <v>144200</v>
+        <v>-627100</v>
       </c>
       <c r="G20" s="3">
-        <v>400800</v>
+        <v>-717400</v>
       </c>
       <c r="H20" s="3">
-        <v>3485200</v>
+        <v>142900</v>
       </c>
       <c r="I20" s="3">
+        <v>397200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3453700</v>
+      </c>
+      <c r="K20" s="3">
         <v>617500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1840500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-115100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>573300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-562800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-172200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>990200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-542100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>534700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-120500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>265800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>95700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>120500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>42100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-15000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-113100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-685900</v>
+        <v>844200</v>
       </c>
       <c r="E21" s="3">
-        <v>-333700</v>
+        <v>-131100</v>
       </c>
       <c r="F21" s="3">
-        <v>157900</v>
+        <v>-679700</v>
       </c>
       <c r="G21" s="3">
-        <v>891200</v>
+        <v>-330700</v>
       </c>
       <c r="H21" s="3">
-        <v>3596300</v>
+        <v>156500</v>
       </c>
       <c r="I21" s="3">
+        <v>883200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3563800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1272200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2592000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>472700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>658500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>207000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>126300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1433100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-660600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>476100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-259600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>437800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-31900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>117300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-15000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>219700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-158100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65800</v>
+        <v>70700</v>
       </c>
       <c r="E22" s="3">
-        <v>40700</v>
+        <v>50400</v>
       </c>
       <c r="F22" s="3">
-        <v>34200</v>
+        <v>65200</v>
       </c>
       <c r="G22" s="3">
-        <v>38000</v>
+        <v>40300</v>
       </c>
       <c r="H22" s="3">
-        <v>43600</v>
+        <v>33900</v>
       </c>
       <c r="I22" s="3">
+        <v>37600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K22" s="3">
         <v>43900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>47800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>32700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>33800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>25100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>23700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>28600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>21000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>33700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>34400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>32800</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>42000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>30900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>27600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>9200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-756400</v>
+        <v>767500</v>
       </c>
       <c r="E23" s="3">
-        <v>-385600</v>
+        <v>-425700</v>
       </c>
       <c r="F23" s="3">
-        <v>154300</v>
+        <v>-749500</v>
       </c>
       <c r="G23" s="3">
-        <v>607400</v>
+        <v>-382100</v>
       </c>
       <c r="H23" s="3">
-        <v>3529200</v>
+        <v>152900</v>
       </c>
       <c r="I23" s="3">
+        <v>601900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3497400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1219500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2536000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>218300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>621000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>177900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>150400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1148800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-699500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>409900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-303300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>233600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-141200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>153100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-48600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>53600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-171500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-70600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27400</v>
+        <v>179200</v>
       </c>
       <c r="E24" s="3">
-        <v>96100</v>
+        <v>88100</v>
       </c>
       <c r="F24" s="3">
-        <v>83900</v>
+        <v>27100</v>
       </c>
       <c r="G24" s="3">
-        <v>70700</v>
+        <v>95200</v>
       </c>
       <c r="H24" s="3">
-        <v>-48900</v>
+        <v>83200</v>
       </c>
       <c r="I24" s="3">
+        <v>70000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="K24" s="3">
         <v>101700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>117400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>51500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>73800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>93100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>67000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>42700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>8900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>7200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>23400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>21700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>7900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-2400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>13000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>14600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-783700</v>
+        <v>588400</v>
       </c>
       <c r="E26" s="3">
-        <v>-481700</v>
+        <v>-513700</v>
       </c>
       <c r="F26" s="3">
-        <v>70400</v>
+        <v>-776700</v>
       </c>
       <c r="G26" s="3">
-        <v>536800</v>
+        <v>-477300</v>
       </c>
       <c r="H26" s="3">
-        <v>3578100</v>
+        <v>69700</v>
       </c>
       <c r="I26" s="3">
+        <v>531900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3545800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1117800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2418600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>166800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>547200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>84800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>83400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1106100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-708400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>402600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-326700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>212000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-143100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>145200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-46200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>40500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-186100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-70900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-761100</v>
+        <v>639000</v>
       </c>
       <c r="E27" s="3">
-        <v>-413600</v>
+        <v>-436800</v>
       </c>
       <c r="F27" s="3">
-        <v>117000</v>
+        <v>-754200</v>
       </c>
       <c r="G27" s="3">
-        <v>533000</v>
+        <v>-409800</v>
       </c>
       <c r="H27" s="3">
-        <v>3584600</v>
+        <v>116000</v>
       </c>
       <c r="I27" s="3">
+        <v>528200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3552200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1114100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2423600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>169200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>559600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>94300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>94500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1118200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-697800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>420000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-317400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>218800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-134900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>150500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-42600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>43500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-183400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2180,19 +2302,25 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-31100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-8700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-67100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>-66100</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>632800</v>
+        <v>-284900</v>
       </c>
       <c r="E32" s="3">
-        <v>723900</v>
+        <v>208800</v>
       </c>
       <c r="F32" s="3">
-        <v>-144200</v>
+        <v>627100</v>
       </c>
       <c r="G32" s="3">
-        <v>-400800</v>
+        <v>717400</v>
       </c>
       <c r="H32" s="3">
-        <v>-3485200</v>
+        <v>-142900</v>
       </c>
       <c r="I32" s="3">
+        <v>-397200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-3453700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-617500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1840500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>115100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-573300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>562800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>172200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-990200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>542100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-534700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>120500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-265800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-95700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-120500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-42100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>15000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>113100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-761100</v>
+        <v>639000</v>
       </c>
       <c r="E33" s="3">
-        <v>-413600</v>
+        <v>-436800</v>
       </c>
       <c r="F33" s="3">
-        <v>117000</v>
+        <v>-754200</v>
       </c>
       <c r="G33" s="3">
-        <v>533000</v>
+        <v>-409800</v>
       </c>
       <c r="H33" s="3">
-        <v>3584600</v>
+        <v>116000</v>
       </c>
       <c r="I33" s="3">
+        <v>528200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3552200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1114100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2423600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>169200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>559600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>94300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>94500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1118200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-697800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>420000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-317400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>218800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-134900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>150500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-73700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>34800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-250600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-761100</v>
+        <v>639000</v>
       </c>
       <c r="E35" s="3">
-        <v>-413600</v>
+        <v>-436800</v>
       </c>
       <c r="F35" s="3">
-        <v>117000</v>
+        <v>-754200</v>
       </c>
       <c r="G35" s="3">
-        <v>533000</v>
+        <v>-409800</v>
       </c>
       <c r="H35" s="3">
-        <v>3584600</v>
+        <v>116000</v>
       </c>
       <c r="I35" s="3">
+        <v>528200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3552200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1114100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2423600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>169200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>559600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>94300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>94500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1118200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-697800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>420000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-317400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>218800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-134900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>150500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-73700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>34800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-250600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2919,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10428200</v>
+        <v>11510200</v>
       </c>
       <c r="E41" s="3">
-        <v>12967300</v>
+        <v>12334100</v>
       </c>
       <c r="F41" s="3">
-        <v>14345100</v>
+        <v>10334100</v>
       </c>
       <c r="G41" s="3">
-        <v>10522700</v>
+        <v>12850300</v>
       </c>
       <c r="H41" s="3">
-        <v>12685500</v>
+        <v>14215600</v>
       </c>
       <c r="I41" s="3">
+        <v>10427800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>12571000</v>
+      </c>
+      <c r="K41" s="3">
         <v>10773900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>10546800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6867200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5692900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4946600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5007900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5202700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4975900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4758300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5055400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5051100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3812400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3207200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4134000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3435700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2263900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>3611700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16882200</v>
+        <v>17848200</v>
       </c>
       <c r="E42" s="3">
-        <v>15081800</v>
+        <v>14032900</v>
       </c>
       <c r="F42" s="3">
-        <v>11118700</v>
+        <v>16729800</v>
       </c>
       <c r="G42" s="3">
-        <v>9353000</v>
+        <v>14945700</v>
       </c>
       <c r="H42" s="3">
-        <v>8926600</v>
+        <v>11018300</v>
       </c>
       <c r="I42" s="3">
+        <v>9268600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>8846100</v>
+      </c>
+      <c r="K42" s="3">
         <v>7132600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7180900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4632500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3788300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3767300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3752600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>644900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>295600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>723900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1829700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1713700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1274500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>2383300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1890700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>3089800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>2623300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1793200</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2564100</v>
+        <v>2850500</v>
       </c>
       <c r="E43" s="3">
-        <v>2552000</v>
+        <v>2411700</v>
       </c>
       <c r="F43" s="3">
-        <v>3805600</v>
+        <v>2540900</v>
       </c>
       <c r="G43" s="3">
-        <v>2504100</v>
+        <v>2528900</v>
       </c>
       <c r="H43" s="3">
-        <v>2131200</v>
+        <v>3771300</v>
       </c>
       <c r="I43" s="3">
+        <v>2481500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2112000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2079900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1986200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1702600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1844100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2499900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2102900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1622800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2463500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2348300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3701700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2819300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>4850500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>5597400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>6769800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>5409200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>4288500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>4025000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11140600</v>
+        <v>11102500</v>
       </c>
       <c r="E44" s="3">
-        <v>8848100</v>
+        <v>10045400</v>
       </c>
       <c r="F44" s="3">
-        <v>9691600</v>
+        <v>11040000</v>
       </c>
       <c r="G44" s="3">
-        <v>8771500</v>
+        <v>8768200</v>
       </c>
       <c r="H44" s="3">
-        <v>8684300</v>
+        <v>9604100</v>
       </c>
       <c r="I44" s="3">
+        <v>8692300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>8605900</v>
+      </c>
+      <c r="K44" s="3">
         <v>8155700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8027700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7980200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>8920400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>7431900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>6954700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>5841700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>6394500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>5578100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>6227400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>5188800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>6188800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>5388800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>4622900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>3906300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>4204300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>3287100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3144700</v>
+        <v>4000900</v>
       </c>
       <c r="E45" s="3">
-        <v>3108500</v>
+        <v>3412000</v>
       </c>
       <c r="F45" s="3">
-        <v>3125400</v>
+        <v>3116300</v>
       </c>
       <c r="G45" s="3">
-        <v>2384900</v>
+        <v>3080400</v>
       </c>
       <c r="H45" s="3">
-        <v>2172700</v>
+        <v>3097200</v>
       </c>
       <c r="I45" s="3">
+        <v>2363400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2153100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2445100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2537400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1621900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1172100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1310600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1654700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1212300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1098700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1921800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2095000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1439700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>945200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1774000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>2015800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1285200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>3842100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>840300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44159700</v>
+        <v>47312400</v>
       </c>
       <c r="E46" s="3">
-        <v>42557700</v>
+        <v>42236100</v>
       </c>
       <c r="F46" s="3">
-        <v>42086400</v>
+        <v>43761100</v>
       </c>
       <c r="G46" s="3">
-        <v>33536200</v>
+        <v>42173600</v>
       </c>
       <c r="H46" s="3">
-        <v>34600300</v>
+        <v>41706500</v>
       </c>
       <c r="I46" s="3">
+        <v>33233500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>34288000</v>
+      </c>
+      <c r="K46" s="3">
         <v>30587100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>30279000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>22804500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>21417800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>19956300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>19472800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>14524500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>15228200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>15330400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>18909200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>16212600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>17071400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>18350700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>19433200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>17126200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>15551100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>13557200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12129200</v>
+        <v>10720200</v>
       </c>
       <c r="E47" s="3">
-        <v>13119100</v>
+        <v>10501700</v>
       </c>
       <c r="F47" s="3">
-        <v>13669900</v>
+        <v>12019700</v>
       </c>
       <c r="G47" s="3">
-        <v>14213300</v>
+        <v>13000700</v>
       </c>
       <c r="H47" s="3">
-        <v>14380300</v>
+        <v>13546500</v>
       </c>
       <c r="I47" s="3">
+        <v>14085000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>14250600</v>
+      </c>
+      <c r="K47" s="3">
         <v>11753100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>10996100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>9079600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>8775800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>8358600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>8423900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>8106100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>6863300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>7013800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>5555200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>4438500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>4241400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>2881600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>2652400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>3265500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>3299200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>3258900</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8657100</v>
+        <v>10626600</v>
       </c>
       <c r="E48" s="3">
-        <v>7725500</v>
+        <v>10197900</v>
       </c>
       <c r="F48" s="3">
-        <v>7373500</v>
+        <v>8579000</v>
       </c>
       <c r="G48" s="3">
-        <v>6735600</v>
+        <v>7655800</v>
       </c>
       <c r="H48" s="3">
-        <v>6776700</v>
+        <v>7307000</v>
       </c>
       <c r="I48" s="3">
+        <v>6674800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6715500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6278600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5475000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5079500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5405300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5221700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4807300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4842500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4013700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3446300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2997300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2456000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2340500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1904000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1599700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1382600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1311100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1280900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4803600</v>
+        <v>7878500</v>
       </c>
       <c r="E49" s="3">
-        <v>4685600</v>
+        <v>7850400</v>
       </c>
       <c r="F49" s="3">
-        <v>4582100</v>
+        <v>4760300</v>
       </c>
       <c r="G49" s="3">
-        <v>4380300</v>
+        <v>4643300</v>
       </c>
       <c r="H49" s="3">
-        <v>4198600</v>
+        <v>4540700</v>
       </c>
       <c r="I49" s="3">
+        <v>4340800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4160700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4229400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3622600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3318700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3333000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3303300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3256200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3246200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3214100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3076700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2868200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2862900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>3026700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>3021300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2440200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2475700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2513800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2566700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3415700</v>
+        <v>4320700</v>
       </c>
       <c r="E52" s="3">
-        <v>3093900</v>
+        <v>4008200</v>
       </c>
       <c r="F52" s="3">
-        <v>2450900</v>
+        <v>3384800</v>
       </c>
       <c r="G52" s="3">
-        <v>2288900</v>
+        <v>3066000</v>
       </c>
       <c r="H52" s="3">
-        <v>2272400</v>
+        <v>2428800</v>
       </c>
       <c r="I52" s="3">
+        <v>2268200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2251900</v>
+      </c>
+      <c r="K52" s="3">
         <v>2308600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1568800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1633700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1060400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1013300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1545900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2025800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1057800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1019700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1040600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>618800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>635500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>620000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>687900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>580500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1665500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73165300</v>
+        <v>80858400</v>
       </c>
       <c r="E54" s="3">
-        <v>71181800</v>
+        <v>74794400</v>
       </c>
       <c r="F54" s="3">
-        <v>70162800</v>
+        <v>72504900</v>
       </c>
       <c r="G54" s="3">
-        <v>61154200</v>
+        <v>70539300</v>
       </c>
       <c r="H54" s="3">
-        <v>62228300</v>
+        <v>69529500</v>
       </c>
       <c r="I54" s="3">
+        <v>60602300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>61666700</v>
+      </c>
+      <c r="K54" s="3">
         <v>55156900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>51941500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>41916200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>39992300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>37853200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>37506100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>32745200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>30377000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>29887000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>31370400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>26588900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>27315600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>26777600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>26813400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>24830500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>23323100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>20972500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +4055,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20778200</v>
+        <v>23400900</v>
       </c>
       <c r="E57" s="3">
-        <v>18695400</v>
+        <v>18319800</v>
       </c>
       <c r="F57" s="3">
-        <v>18911300</v>
+        <v>20590700</v>
       </c>
       <c r="G57" s="3">
-        <v>14361700</v>
+        <v>18526700</v>
       </c>
       <c r="H57" s="3">
-        <v>15827000</v>
+        <v>18740600</v>
       </c>
       <c r="I57" s="3">
+        <v>14232100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>15684200</v>
+      </c>
+      <c r="K57" s="3">
         <v>15570300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>14940700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>12266000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>13973100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>13355500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>14326200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>10927000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>11647500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>10957000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>12582100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>8938300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>11032500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>10032000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>10014300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>6362200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>6695000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>6031800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>643700</v>
+        <v>2008500</v>
       </c>
       <c r="E58" s="3">
-        <v>1035600</v>
+        <v>2504600</v>
       </c>
       <c r="F58" s="3">
-        <v>82900</v>
+        <v>637900</v>
       </c>
       <c r="G58" s="3">
-        <v>634000</v>
+        <v>1026300</v>
       </c>
       <c r="H58" s="3">
-        <v>480400</v>
+        <v>82100</v>
       </c>
       <c r="I58" s="3">
+        <v>628300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>476000</v>
+      </c>
+      <c r="K58" s="3">
         <v>934600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1815600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1357000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>21000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>285600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>660100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1340300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1701400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1939000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1912200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1825900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1807800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2944100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1615600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11238400</v>
+        <v>11899300</v>
       </c>
       <c r="E59" s="3">
-        <v>10355300</v>
+        <v>11157100</v>
       </c>
       <c r="F59" s="3">
-        <v>10023400</v>
+        <v>11137000</v>
       </c>
       <c r="G59" s="3">
-        <v>8911400</v>
+        <v>10261900</v>
       </c>
       <c r="H59" s="3">
-        <v>9335700</v>
+        <v>9932900</v>
       </c>
       <c r="I59" s="3">
+        <v>8831000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9251400</v>
+      </c>
+      <c r="K59" s="3">
         <v>8928800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8582000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7926600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7586700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7088800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7054300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6348400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5245200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4735000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4852800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4456200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4604900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4511800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4433200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>6832000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>6921700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32660300</v>
+        <v>37308600</v>
       </c>
       <c r="E60" s="3">
-        <v>30086400</v>
+        <v>31981400</v>
       </c>
       <c r="F60" s="3">
-        <v>29017600</v>
+        <v>32365500</v>
       </c>
       <c r="G60" s="3">
-        <v>23907200</v>
+        <v>29814800</v>
       </c>
       <c r="H60" s="3">
-        <v>25643100</v>
+        <v>28755700</v>
       </c>
       <c r="I60" s="3">
+        <v>23691400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>25411700</v>
+      </c>
+      <c r="K60" s="3">
         <v>25433700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>25338300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>21549600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>21559800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>20444300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>21401500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>17561000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>17552800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>17032300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>19136300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>15333500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>17549600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>16369700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>16255400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>16138300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>15232400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>12899100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1383100</v>
+        <v>3601000</v>
       </c>
       <c r="E61" s="3">
-        <v>1840900</v>
+        <v>2279400</v>
       </c>
       <c r="F61" s="3">
-        <v>1829000</v>
+        <v>1370600</v>
       </c>
       <c r="G61" s="3">
-        <v>1860100</v>
+        <v>1824300</v>
       </c>
       <c r="H61" s="3">
-        <v>1846500</v>
+        <v>1812500</v>
       </c>
       <c r="I61" s="3">
+        <v>1843300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1829900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1943300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2002600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2702700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1547800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1568600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1512300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1480700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1434100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1384800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1408600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1036900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1621000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2315500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2602100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1957100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1330600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1488500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2755800</v>
+        <v>3159800</v>
       </c>
       <c r="E62" s="3">
-        <v>2540400</v>
+        <v>3174000</v>
       </c>
       <c r="F62" s="3">
-        <v>2563800</v>
+        <v>2730900</v>
       </c>
       <c r="G62" s="3">
-        <v>2067000</v>
+        <v>2517400</v>
       </c>
       <c r="H62" s="3">
-        <v>2080900</v>
+        <v>2540700</v>
       </c>
       <c r="I62" s="3">
+        <v>2048400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2062100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1980600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1611900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1376100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1390500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1409600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1145200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>914000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>232400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>255700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>295100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>326300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>370000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>400900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>438400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>471400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>765600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42380100</v>
+        <v>51460200</v>
       </c>
       <c r="E66" s="3">
-        <v>39453100</v>
+        <v>44640600</v>
       </c>
       <c r="F66" s="3">
-        <v>38221200</v>
+        <v>41997600</v>
       </c>
       <c r="G66" s="3">
-        <v>33351500</v>
+        <v>39097000</v>
       </c>
       <c r="H66" s="3">
-        <v>34591900</v>
+        <v>37876200</v>
       </c>
       <c r="I66" s="3">
+        <v>33050500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>34279700</v>
+      </c>
+      <c r="K66" s="3">
         <v>32970600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>31849600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>28618600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>27388100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>26166900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>26836400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>22565900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>21696500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>20936000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>23011700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>18812300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>19592200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>19135000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>19340200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>19650900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>18394100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>5215200</v>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
+      <c r="F72" s="3">
+        <v>5168100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="3">
-        <v>5739900</v>
+      <c r="H72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="3">
+        <v>5688100</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1479900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1609600</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P72" s="3">
-        <v>-3287700</v>
+      <c r="P72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>10</v>
+      <c r="R72" s="3">
+        <v>-3287700</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T72" s="3">
-        <v>-3205500</v>
+      <c r="T72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="V72" s="3">
+        <v>-3205500</v>
+      </c>
+      <c r="W72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-3104800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-3159800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2968300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30785100</v>
+        <v>29398200</v>
       </c>
       <c r="E76" s="3">
-        <v>31728700</v>
+        <v>30153700</v>
       </c>
       <c r="F76" s="3">
-        <v>31941600</v>
+        <v>30507300</v>
       </c>
       <c r="G76" s="3">
-        <v>27802700</v>
+        <v>31442400</v>
       </c>
       <c r="H76" s="3">
-        <v>27636400</v>
+        <v>31653300</v>
       </c>
       <c r="I76" s="3">
+        <v>27551800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>27386900</v>
+      </c>
+      <c r="K76" s="3">
         <v>22186300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>20091900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13297600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12604200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11686300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10669800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10179200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8680500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8951000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>8358800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7776600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>7723400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>7642600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>7473100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5179500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>4929000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5128500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-761100</v>
+        <v>639000</v>
       </c>
       <c r="E81" s="3">
-        <v>-413600</v>
+        <v>-436800</v>
       </c>
       <c r="F81" s="3">
-        <v>117000</v>
+        <v>-754200</v>
       </c>
       <c r="G81" s="3">
-        <v>533000</v>
+        <v>-409800</v>
       </c>
       <c r="H81" s="3">
-        <v>3584600</v>
+        <v>116000</v>
       </c>
       <c r="I81" s="3">
+        <v>528200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3552200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1114100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2423600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>169200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>559600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>94300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>94500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1118200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-697800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>420000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-317400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>218800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-134900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>150500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-73700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>34800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-250600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>953700</v>
+        <v>4916400</v>
       </c>
       <c r="E89" s="3">
-        <v>2129000</v>
+        <v>-508900</v>
       </c>
       <c r="F89" s="3">
-        <v>4257300</v>
+        <v>945100</v>
       </c>
       <c r="G89" s="3">
-        <v>-1106500</v>
+        <v>2109800</v>
       </c>
       <c r="H89" s="3">
-        <v>768300</v>
+        <v>4218800</v>
       </c>
       <c r="I89" s="3">
+        <v>-1096500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>761300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1806000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3922400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-243300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>194300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3085000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>507700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>875500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>309700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2355000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-541300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>200500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>52300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>2767300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>650300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-433900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1047900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2768200</v>
+        <v>-4516100</v>
       </c>
       <c r="E94" s="3">
-        <v>-4385000</v>
+        <v>666200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2663400</v>
+        <v>-2743200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1124600</v>
+        <v>-4345400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2019600</v>
+        <v>-2639400</v>
       </c>
       <c r="I94" s="3">
+        <v>-1114400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2001400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1844800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3446700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1293100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>377600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-873100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3212700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-168500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-317800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-364300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2919400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-135000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>624600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-620100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-4568600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-980900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-2206600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-3057800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-505000</v>
+        <v>-1651500</v>
       </c>
       <c r="E100" s="3">
-        <v>895700</v>
+        <v>1853900</v>
       </c>
       <c r="F100" s="3">
-        <v>2570400</v>
+        <v>-500400</v>
       </c>
       <c r="G100" s="3">
-        <v>-87200</v>
+        <v>887600</v>
       </c>
       <c r="H100" s="3">
-        <v>3450100</v>
+        <v>2547200</v>
       </c>
       <c r="I100" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3418900</v>
+      </c>
+      <c r="K100" s="3">
         <v>606800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4193100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2380000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>475500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>383300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-68600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-390500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-569400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-419200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>692900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1909300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-564100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-229500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2462600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1161900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1772300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-211700</v>
+        <v>456600</v>
       </c>
       <c r="E101" s="3">
-        <v>45700</v>
+        <v>-67000</v>
       </c>
       <c r="F101" s="3">
-        <v>-142500</v>
+        <v>-209700</v>
       </c>
       <c r="G101" s="3">
-        <v>87700</v>
+        <v>45300</v>
       </c>
       <c r="H101" s="3">
-        <v>-437900</v>
+        <v>-141300</v>
       </c>
       <c r="I101" s="3">
+        <v>86900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-434000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-392000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-8800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>96100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-60200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>123900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>63500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-64700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>150400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>171000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-65200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-31600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-44300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-13900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-5300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>42400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2531100</v>
+        <v>-794500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1314600</v>
+        <v>1944100</v>
       </c>
       <c r="F102" s="3">
-        <v>4021700</v>
+        <v>-2508300</v>
       </c>
       <c r="G102" s="3">
-        <v>-2230500</v>
+        <v>-1302700</v>
       </c>
       <c r="H102" s="3">
-        <v>1760800</v>
+        <v>3985400</v>
       </c>
       <c r="I102" s="3">
+        <v>-2210400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1744900</v>
+      </c>
+      <c r="K102" s="3">
         <v>176100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4659800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>939800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>793500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-171600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-132900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-115900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-323400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>299400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1167700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>605200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1085000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>515000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>825900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-736300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1679300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39077600</v>
+        <v>37249900</v>
       </c>
       <c r="E8" s="3">
-        <v>34996800</v>
+        <v>33360000</v>
       </c>
       <c r="F8" s="3">
-        <v>40290700</v>
+        <v>38406300</v>
       </c>
       <c r="G8" s="3">
-        <v>31938000</v>
+        <v>30444200</v>
       </c>
       <c r="H8" s="3">
-        <v>37062500</v>
+        <v>35329000</v>
       </c>
       <c r="I8" s="3">
-        <v>29669800</v>
+        <v>28282100</v>
       </c>
       <c r="J8" s="3">
-        <v>32758600</v>
+        <v>31226500</v>
       </c>
       <c r="K8" s="3">
         <v>25672200</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>33836000</v>
+        <v>32253500</v>
       </c>
       <c r="E9" s="3">
-        <v>30112700</v>
+        <v>28704300</v>
       </c>
       <c r="F9" s="3">
-        <v>34869800</v>
+        <v>33238900</v>
       </c>
       <c r="G9" s="3">
-        <v>27397500</v>
+        <v>26116100</v>
       </c>
       <c r="H9" s="3">
-        <v>32429000</v>
+        <v>30912300</v>
       </c>
       <c r="I9" s="3">
-        <v>25417100</v>
+        <v>24228300</v>
       </c>
       <c r="J9" s="3">
-        <v>28210900</v>
+        <v>26891500</v>
       </c>
       <c r="K9" s="3">
         <v>21723700</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5241600</v>
+        <v>4996400</v>
       </c>
       <c r="E10" s="3">
-        <v>4884100</v>
+        <v>4655700</v>
       </c>
       <c r="F10" s="3">
-        <v>5420900</v>
+        <v>5167300</v>
       </c>
       <c r="G10" s="3">
-        <v>4540500</v>
+        <v>4328100</v>
       </c>
       <c r="H10" s="3">
-        <v>4633500</v>
+        <v>4416800</v>
       </c>
       <c r="I10" s="3">
-        <v>4252700</v>
+        <v>4053800</v>
       </c>
       <c r="J10" s="3">
-        <v>4547700</v>
+        <v>4335000</v>
       </c>
       <c r="K10" s="3">
         <v>3948500</v>
@@ -1038,25 +1038,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>579300</v>
+        <v>552200</v>
       </c>
       <c r="E12" s="3">
-        <v>634600</v>
+        <v>605000</v>
       </c>
       <c r="F12" s="3">
-        <v>595600</v>
+        <v>567800</v>
       </c>
       <c r="G12" s="3">
-        <v>580900</v>
+        <v>553700</v>
       </c>
       <c r="H12" s="3">
-        <v>535500</v>
+        <v>510500</v>
       </c>
       <c r="I12" s="3">
-        <v>657800</v>
+        <v>627000</v>
       </c>
       <c r="J12" s="3">
-        <v>654000</v>
+        <v>623400</v>
       </c>
       <c r="K12" s="3">
         <v>601500</v>
@@ -1192,25 +1192,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="E14" s="3">
-        <v>518300</v>
+        <v>494000</v>
       </c>
       <c r="F14" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="G14" s="3">
-        <v>-84500</v>
+        <v>-80600</v>
       </c>
       <c r="H14" s="3">
-        <v>-12800</v>
+        <v>-12200</v>
       </c>
       <c r="I14" s="3">
-        <v>-12100</v>
+        <v>-11500</v>
       </c>
       <c r="J14" s="3">
-        <v>-162000</v>
+        <v>-154400</v>
       </c>
       <c r="K14" s="3">
         <v>-50700</v>
@@ -1269,25 +1269,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>61000</v>
+        <v>58200</v>
       </c>
       <c r="E15" s="3">
-        <v>57200</v>
+        <v>54600</v>
       </c>
       <c r="F15" s="3">
-        <v>55100</v>
+        <v>52500</v>
       </c>
       <c r="G15" s="3">
-        <v>54900</v>
+        <v>52300</v>
       </c>
       <c r="H15" s="3">
-        <v>54200</v>
+        <v>51600</v>
       </c>
       <c r="I15" s="3">
-        <v>53000</v>
+        <v>50600</v>
       </c>
       <c r="J15" s="3">
-        <v>54400</v>
+        <v>51900</v>
       </c>
       <c r="K15" s="3">
         <v>50300</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>38524300</v>
+        <v>36722500</v>
       </c>
       <c r="E17" s="3">
-        <v>35163300</v>
+        <v>33518700</v>
       </c>
       <c r="F17" s="3">
-        <v>40347900</v>
+        <v>38460800</v>
       </c>
       <c r="G17" s="3">
-        <v>31562300</v>
+        <v>30086100</v>
       </c>
       <c r="H17" s="3">
-        <v>37018600</v>
+        <v>35287200</v>
       </c>
       <c r="I17" s="3">
-        <v>29427400</v>
+        <v>28051100</v>
       </c>
       <c r="J17" s="3">
-        <v>32671800</v>
+        <v>31143700</v>
       </c>
       <c r="K17" s="3">
         <v>25026300</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>553300</v>
+        <v>527400</v>
       </c>
       <c r="E18" s="3">
-        <v>-166500</v>
+        <v>-158700</v>
       </c>
       <c r="F18" s="3">
-        <v>-57200</v>
+        <v>-54600</v>
       </c>
       <c r="G18" s="3">
-        <v>375700</v>
+        <v>358100</v>
       </c>
       <c r="H18" s="3">
-        <v>43900</v>
+        <v>41900</v>
       </c>
       <c r="I18" s="3">
-        <v>242400</v>
+        <v>231000</v>
       </c>
       <c r="J18" s="3">
-        <v>86900</v>
+        <v>82800</v>
       </c>
       <c r="K18" s="3">
         <v>645900</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>284900</v>
+        <v>271600</v>
       </c>
       <c r="E20" s="3">
-        <v>-208800</v>
+        <v>-199100</v>
       </c>
       <c r="F20" s="3">
-        <v>-627100</v>
+        <v>-597700</v>
       </c>
       <c r="G20" s="3">
-        <v>-717400</v>
+        <v>-683900</v>
       </c>
       <c r="H20" s="3">
-        <v>142900</v>
+        <v>136200</v>
       </c>
       <c r="I20" s="3">
-        <v>397200</v>
+        <v>378600</v>
       </c>
       <c r="J20" s="3">
-        <v>3453700</v>
+        <v>3292200</v>
       </c>
       <c r="K20" s="3">
         <v>617500</v>
@@ -1632,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>844200</v>
+        <v>804700</v>
       </c>
       <c r="E21" s="3">
-        <v>-131100</v>
+        <v>-125000</v>
       </c>
       <c r="F21" s="3">
-        <v>-679700</v>
+        <v>-647900</v>
       </c>
       <c r="G21" s="3">
-        <v>-330700</v>
+        <v>-315200</v>
       </c>
       <c r="H21" s="3">
-        <v>156500</v>
+        <v>149200</v>
       </c>
       <c r="I21" s="3">
-        <v>883200</v>
+        <v>841900</v>
       </c>
       <c r="J21" s="3">
-        <v>3563800</v>
+        <v>3397100</v>
       </c>
       <c r="K21" s="3">
         <v>1272200</v>
@@ -1709,25 +1709,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>70700</v>
+        <v>67400</v>
       </c>
       <c r="E22" s="3">
-        <v>50400</v>
+        <v>48000</v>
       </c>
       <c r="F22" s="3">
-        <v>65200</v>
+        <v>62200</v>
       </c>
       <c r="G22" s="3">
-        <v>40300</v>
+        <v>38400</v>
       </c>
       <c r="H22" s="3">
-        <v>33900</v>
+        <v>32300</v>
       </c>
       <c r="I22" s="3">
-        <v>37600</v>
+        <v>35900</v>
       </c>
       <c r="J22" s="3">
-        <v>43200</v>
+        <v>41200</v>
       </c>
       <c r="K22" s="3">
         <v>43900</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>767500</v>
+        <v>731600</v>
       </c>
       <c r="E23" s="3">
-        <v>-425700</v>
+        <v>-405800</v>
       </c>
       <c r="F23" s="3">
-        <v>-749500</v>
+        <v>-714500</v>
       </c>
       <c r="G23" s="3">
-        <v>-382100</v>
+        <v>-364200</v>
       </c>
       <c r="H23" s="3">
-        <v>152900</v>
+        <v>145800</v>
       </c>
       <c r="I23" s="3">
-        <v>601900</v>
+        <v>573800</v>
       </c>
       <c r="J23" s="3">
-        <v>3497400</v>
+        <v>3333800</v>
       </c>
       <c r="K23" s="3">
         <v>1219500</v>
@@ -1863,25 +1863,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>179200</v>
+        <v>170800</v>
       </c>
       <c r="E24" s="3">
-        <v>88100</v>
+        <v>83900</v>
       </c>
       <c r="F24" s="3">
-        <v>27100</v>
+        <v>25800</v>
       </c>
       <c r="G24" s="3">
-        <v>95200</v>
+        <v>90800</v>
       </c>
       <c r="H24" s="3">
-        <v>83200</v>
+        <v>79300</v>
       </c>
       <c r="I24" s="3">
-        <v>70000</v>
+        <v>66700</v>
       </c>
       <c r="J24" s="3">
-        <v>-48400</v>
+        <v>-46200</v>
       </c>
       <c r="K24" s="3">
         <v>101700</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>588400</v>
+        <v>560800</v>
       </c>
       <c r="E26" s="3">
-        <v>-513700</v>
+        <v>-489700</v>
       </c>
       <c r="F26" s="3">
-        <v>-776700</v>
+        <v>-740300</v>
       </c>
       <c r="G26" s="3">
-        <v>-477300</v>
+        <v>-455000</v>
       </c>
       <c r="H26" s="3">
-        <v>69700</v>
+        <v>66500</v>
       </c>
       <c r="I26" s="3">
-        <v>531900</v>
+        <v>507000</v>
       </c>
       <c r="J26" s="3">
-        <v>3545800</v>
+        <v>3380000</v>
       </c>
       <c r="K26" s="3">
         <v>1117800</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>639000</v>
+        <v>609100</v>
       </c>
       <c r="E27" s="3">
-        <v>-436800</v>
+        <v>-416300</v>
       </c>
       <c r="F27" s="3">
-        <v>-754200</v>
+        <v>-719000</v>
       </c>
       <c r="G27" s="3">
-        <v>-409800</v>
+        <v>-390700</v>
       </c>
       <c r="H27" s="3">
-        <v>116000</v>
+        <v>110600</v>
       </c>
       <c r="I27" s="3">
-        <v>528200</v>
+        <v>503500</v>
       </c>
       <c r="J27" s="3">
-        <v>3552200</v>
+        <v>3386100</v>
       </c>
       <c r="K27" s="3">
         <v>1114100</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-284900</v>
+        <v>-271600</v>
       </c>
       <c r="E32" s="3">
-        <v>208800</v>
+        <v>199100</v>
       </c>
       <c r="F32" s="3">
-        <v>627100</v>
+        <v>597700</v>
       </c>
       <c r="G32" s="3">
-        <v>717400</v>
+        <v>683900</v>
       </c>
       <c r="H32" s="3">
-        <v>-142900</v>
+        <v>-136200</v>
       </c>
       <c r="I32" s="3">
-        <v>-397200</v>
+        <v>-378600</v>
       </c>
       <c r="J32" s="3">
-        <v>-3453700</v>
+        <v>-3292200</v>
       </c>
       <c r="K32" s="3">
         <v>-617500</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>639000</v>
+        <v>609100</v>
       </c>
       <c r="E33" s="3">
-        <v>-436800</v>
+        <v>-416300</v>
       </c>
       <c r="F33" s="3">
-        <v>-754200</v>
+        <v>-719000</v>
       </c>
       <c r="G33" s="3">
-        <v>-409800</v>
+        <v>-390700</v>
       </c>
       <c r="H33" s="3">
-        <v>116000</v>
+        <v>110600</v>
       </c>
       <c r="I33" s="3">
-        <v>528200</v>
+        <v>503500</v>
       </c>
       <c r="J33" s="3">
-        <v>3552200</v>
+        <v>3386100</v>
       </c>
       <c r="K33" s="3">
         <v>1114100</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>639000</v>
+        <v>609100</v>
       </c>
       <c r="E35" s="3">
-        <v>-436800</v>
+        <v>-416300</v>
       </c>
       <c r="F35" s="3">
-        <v>-754200</v>
+        <v>-719000</v>
       </c>
       <c r="G35" s="3">
-        <v>-409800</v>
+        <v>-390700</v>
       </c>
       <c r="H35" s="3">
-        <v>116000</v>
+        <v>110600</v>
       </c>
       <c r="I35" s="3">
-        <v>528200</v>
+        <v>503500</v>
       </c>
       <c r="J35" s="3">
-        <v>3552200</v>
+        <v>3386100</v>
       </c>
       <c r="K35" s="3">
         <v>1114100</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11510200</v>
+        <v>10971900</v>
       </c>
       <c r="E41" s="3">
-        <v>12334100</v>
+        <v>11757200</v>
       </c>
       <c r="F41" s="3">
-        <v>10334100</v>
+        <v>9850800</v>
       </c>
       <c r="G41" s="3">
-        <v>12850300</v>
+        <v>12249300</v>
       </c>
       <c r="H41" s="3">
-        <v>14215600</v>
+        <v>13550700</v>
       </c>
       <c r="I41" s="3">
-        <v>10427800</v>
+        <v>9940000</v>
       </c>
       <c r="J41" s="3">
-        <v>12571000</v>
+        <v>11983000</v>
       </c>
       <c r="K41" s="3">
         <v>10773900</v>
@@ -3004,25 +3004,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17848200</v>
+        <v>17013400</v>
       </c>
       <c r="E42" s="3">
-        <v>14032900</v>
+        <v>13376600</v>
       </c>
       <c r="F42" s="3">
-        <v>16729800</v>
+        <v>15947300</v>
       </c>
       <c r="G42" s="3">
-        <v>14945700</v>
+        <v>14246700</v>
       </c>
       <c r="H42" s="3">
-        <v>11018300</v>
+        <v>10503000</v>
       </c>
       <c r="I42" s="3">
-        <v>9268600</v>
+        <v>8835100</v>
       </c>
       <c r="J42" s="3">
-        <v>8846100</v>
+        <v>8432300</v>
       </c>
       <c r="K42" s="3">
         <v>7132600</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2850500</v>
+        <v>2717200</v>
       </c>
       <c r="E43" s="3">
-        <v>2411700</v>
+        <v>2298900</v>
       </c>
       <c r="F43" s="3">
-        <v>2540900</v>
+        <v>2422100</v>
       </c>
       <c r="G43" s="3">
-        <v>2528900</v>
+        <v>2410600</v>
       </c>
       <c r="H43" s="3">
-        <v>3771300</v>
+        <v>3594900</v>
       </c>
       <c r="I43" s="3">
-        <v>2481500</v>
+        <v>2365400</v>
       </c>
       <c r="J43" s="3">
-        <v>2112000</v>
+        <v>2013200</v>
       </c>
       <c r="K43" s="3">
         <v>2079900</v>
@@ -3158,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11102500</v>
+        <v>10583200</v>
       </c>
       <c r="E44" s="3">
-        <v>10045400</v>
+        <v>9575600</v>
       </c>
       <c r="F44" s="3">
-        <v>11040000</v>
+        <v>10523700</v>
       </c>
       <c r="G44" s="3">
-        <v>8768200</v>
+        <v>8358100</v>
       </c>
       <c r="H44" s="3">
-        <v>9604100</v>
+        <v>9154900</v>
       </c>
       <c r="I44" s="3">
-        <v>8692300</v>
+        <v>8285800</v>
       </c>
       <c r="J44" s="3">
-        <v>8605900</v>
+        <v>8203400</v>
       </c>
       <c r="K44" s="3">
         <v>8155700</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4000900</v>
+        <v>3813800</v>
       </c>
       <c r="E45" s="3">
-        <v>3412000</v>
+        <v>3252400</v>
       </c>
       <c r="F45" s="3">
-        <v>3116300</v>
+        <v>2970500</v>
       </c>
       <c r="G45" s="3">
-        <v>3080400</v>
+        <v>2936400</v>
       </c>
       <c r="H45" s="3">
-        <v>3097200</v>
+        <v>2952300</v>
       </c>
       <c r="I45" s="3">
-        <v>2363400</v>
+        <v>2252800</v>
       </c>
       <c r="J45" s="3">
-        <v>2153100</v>
+        <v>2052400</v>
       </c>
       <c r="K45" s="3">
         <v>2445100</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47312400</v>
+        <v>45099500</v>
       </c>
       <c r="E46" s="3">
-        <v>42236100</v>
+        <v>40260700</v>
       </c>
       <c r="F46" s="3">
-        <v>43761100</v>
+        <v>41714300</v>
       </c>
       <c r="G46" s="3">
-        <v>42173600</v>
+        <v>40201100</v>
       </c>
       <c r="H46" s="3">
-        <v>41706500</v>
+        <v>39755900</v>
       </c>
       <c r="I46" s="3">
-        <v>33233500</v>
+        <v>31679100</v>
       </c>
       <c r="J46" s="3">
-        <v>34288000</v>
+        <v>32684300</v>
       </c>
       <c r="K46" s="3">
         <v>30587100</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10720200</v>
+        <v>10218800</v>
       </c>
       <c r="E47" s="3">
-        <v>10501700</v>
+        <v>10010600</v>
       </c>
       <c r="F47" s="3">
-        <v>12019700</v>
+        <v>11457600</v>
       </c>
       <c r="G47" s="3">
-        <v>13000700</v>
+        <v>12392600</v>
       </c>
       <c r="H47" s="3">
-        <v>13546500</v>
+        <v>12912900</v>
       </c>
       <c r="I47" s="3">
-        <v>14085000</v>
+        <v>13426300</v>
       </c>
       <c r="J47" s="3">
-        <v>14250600</v>
+        <v>13584000</v>
       </c>
       <c r="K47" s="3">
         <v>11753100</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10626600</v>
+        <v>10129600</v>
       </c>
       <c r="E48" s="3">
-        <v>10197900</v>
+        <v>9720900</v>
       </c>
       <c r="F48" s="3">
-        <v>8579000</v>
+        <v>8177700</v>
       </c>
       <c r="G48" s="3">
-        <v>7655800</v>
+        <v>7297700</v>
       </c>
       <c r="H48" s="3">
-        <v>7307000</v>
+        <v>6965200</v>
       </c>
       <c r="I48" s="3">
-        <v>6674800</v>
+        <v>6362600</v>
       </c>
       <c r="J48" s="3">
-        <v>6715500</v>
+        <v>6401400</v>
       </c>
       <c r="K48" s="3">
         <v>6278600</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7878500</v>
+        <v>7510000</v>
       </c>
       <c r="E49" s="3">
-        <v>7850400</v>
+        <v>7483300</v>
       </c>
       <c r="F49" s="3">
-        <v>4760300</v>
+        <v>4537600</v>
       </c>
       <c r="G49" s="3">
-        <v>4643300</v>
+        <v>4426100</v>
       </c>
       <c r="H49" s="3">
-        <v>4540700</v>
+        <v>4328300</v>
       </c>
       <c r="I49" s="3">
-        <v>4340800</v>
+        <v>4137700</v>
       </c>
       <c r="J49" s="3">
-        <v>4160700</v>
+        <v>3966100</v>
       </c>
       <c r="K49" s="3">
         <v>4229400</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4320700</v>
+        <v>4118600</v>
       </c>
       <c r="E52" s="3">
-        <v>4008200</v>
+        <v>3820800</v>
       </c>
       <c r="F52" s="3">
-        <v>3384800</v>
+        <v>3226500</v>
       </c>
       <c r="G52" s="3">
-        <v>3066000</v>
+        <v>2922600</v>
       </c>
       <c r="H52" s="3">
-        <v>2428800</v>
+        <v>2315200</v>
       </c>
       <c r="I52" s="3">
-        <v>2268200</v>
+        <v>2162100</v>
       </c>
       <c r="J52" s="3">
-        <v>2251900</v>
+        <v>2146600</v>
       </c>
       <c r="K52" s="3">
         <v>2308600</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>80858400</v>
+        <v>77076600</v>
       </c>
       <c r="E54" s="3">
-        <v>74794400</v>
+        <v>71296200</v>
       </c>
       <c r="F54" s="3">
-        <v>72504900</v>
+        <v>69113800</v>
       </c>
       <c r="G54" s="3">
-        <v>70539300</v>
+        <v>67240100</v>
       </c>
       <c r="H54" s="3">
-        <v>69529500</v>
+        <v>66277500</v>
       </c>
       <c r="I54" s="3">
-        <v>60602300</v>
+        <v>57767800</v>
       </c>
       <c r="J54" s="3">
-        <v>61666700</v>
+        <v>58782500</v>
       </c>
       <c r="K54" s="3">
         <v>55156900</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23400900</v>
+        <v>22306400</v>
       </c>
       <c r="E57" s="3">
-        <v>18319800</v>
+        <v>17462900</v>
       </c>
       <c r="F57" s="3">
-        <v>20590700</v>
+        <v>19627600</v>
       </c>
       <c r="G57" s="3">
-        <v>18526700</v>
+        <v>17660100</v>
       </c>
       <c r="H57" s="3">
-        <v>18740600</v>
+        <v>17864100</v>
       </c>
       <c r="I57" s="3">
-        <v>14232100</v>
+        <v>13566400</v>
       </c>
       <c r="J57" s="3">
-        <v>15684200</v>
+        <v>14950600</v>
       </c>
       <c r="K57" s="3">
         <v>15570300</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2008500</v>
+        <v>1914600</v>
       </c>
       <c r="E58" s="3">
-        <v>2504600</v>
+        <v>2387400</v>
       </c>
       <c r="F58" s="3">
-        <v>637900</v>
+        <v>608000</v>
       </c>
       <c r="G58" s="3">
-        <v>1026300</v>
+        <v>978300</v>
       </c>
       <c r="H58" s="3">
-        <v>82100</v>
+        <v>78300</v>
       </c>
       <c r="I58" s="3">
-        <v>628300</v>
+        <v>598900</v>
       </c>
       <c r="J58" s="3">
-        <v>476000</v>
+        <v>453800</v>
       </c>
       <c r="K58" s="3">
         <v>934600</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11899300</v>
+        <v>11342700</v>
       </c>
       <c r="E59" s="3">
-        <v>11157100</v>
+        <v>10635300</v>
       </c>
       <c r="F59" s="3">
-        <v>11137000</v>
+        <v>10616100</v>
       </c>
       <c r="G59" s="3">
-        <v>10261900</v>
+        <v>9781900</v>
       </c>
       <c r="H59" s="3">
-        <v>9932900</v>
+        <v>9468300</v>
       </c>
       <c r="I59" s="3">
-        <v>8831000</v>
+        <v>8417900</v>
       </c>
       <c r="J59" s="3">
-        <v>9251400</v>
+        <v>8818700</v>
       </c>
       <c r="K59" s="3">
         <v>8928800</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37308600</v>
+        <v>35563700</v>
       </c>
       <c r="E60" s="3">
-        <v>31981400</v>
+        <v>30485600</v>
       </c>
       <c r="F60" s="3">
-        <v>32365500</v>
+        <v>30851700</v>
       </c>
       <c r="G60" s="3">
-        <v>29814800</v>
+        <v>28420300</v>
       </c>
       <c r="H60" s="3">
-        <v>28755700</v>
+        <v>27410700</v>
       </c>
       <c r="I60" s="3">
-        <v>23691400</v>
+        <v>22583300</v>
       </c>
       <c r="J60" s="3">
-        <v>25411700</v>
+        <v>24223100</v>
       </c>
       <c r="K60" s="3">
         <v>25433700</v>
@@ -4371,25 +4371,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3601000</v>
+        <v>3432500</v>
       </c>
       <c r="E61" s="3">
-        <v>2279400</v>
+        <v>2172800</v>
       </c>
       <c r="F61" s="3">
-        <v>1370600</v>
+        <v>1306500</v>
       </c>
       <c r="G61" s="3">
-        <v>1824300</v>
+        <v>1739000</v>
       </c>
       <c r="H61" s="3">
-        <v>1812500</v>
+        <v>1727700</v>
       </c>
       <c r="I61" s="3">
-        <v>1843300</v>
+        <v>1757100</v>
       </c>
       <c r="J61" s="3">
-        <v>1829900</v>
+        <v>1744300</v>
       </c>
       <c r="K61" s="3">
         <v>1943300</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3159800</v>
+        <v>3012000</v>
       </c>
       <c r="E62" s="3">
-        <v>3174000</v>
+        <v>3025500</v>
       </c>
       <c r="F62" s="3">
-        <v>2730900</v>
+        <v>2603200</v>
       </c>
       <c r="G62" s="3">
-        <v>2517400</v>
+        <v>2399700</v>
       </c>
       <c r="H62" s="3">
-        <v>2540700</v>
+        <v>2421800</v>
       </c>
       <c r="I62" s="3">
-        <v>2048400</v>
+        <v>1952600</v>
       </c>
       <c r="J62" s="3">
-        <v>2062100</v>
+        <v>1965700</v>
       </c>
       <c r="K62" s="3">
         <v>1980600</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51460200</v>
+        <v>49053400</v>
       </c>
       <c r="E66" s="3">
-        <v>44640600</v>
+        <v>42552700</v>
       </c>
       <c r="F66" s="3">
-        <v>41997600</v>
+        <v>40033400</v>
       </c>
       <c r="G66" s="3">
-        <v>39097000</v>
+        <v>37268400</v>
       </c>
       <c r="H66" s="3">
-        <v>37876200</v>
+        <v>36104700</v>
       </c>
       <c r="I66" s="3">
-        <v>33050500</v>
+        <v>31504700</v>
       </c>
       <c r="J66" s="3">
-        <v>34279700</v>
+        <v>32676400</v>
       </c>
       <c r="K66" s="3">
         <v>32970600</v>
@@ -5176,7 +5176,7 @@
         <v>10</v>
       </c>
       <c r="F72" s="3">
-        <v>5168100</v>
+        <v>4926400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
@@ -5188,7 +5188,7 @@
         <v>10</v>
       </c>
       <c r="J72" s="3">
-        <v>5688100</v>
+        <v>5422100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29398200</v>
+        <v>28023200</v>
       </c>
       <c r="E76" s="3">
-        <v>30153700</v>
+        <v>28743400</v>
       </c>
       <c r="F76" s="3">
-        <v>30507300</v>
+        <v>29080400</v>
       </c>
       <c r="G76" s="3">
-        <v>31442400</v>
+        <v>29971800</v>
       </c>
       <c r="H76" s="3">
-        <v>31653300</v>
+        <v>30172800</v>
       </c>
       <c r="I76" s="3">
-        <v>27551800</v>
+        <v>26263200</v>
       </c>
       <c r="J76" s="3">
-        <v>27386900</v>
+        <v>26106000</v>
       </c>
       <c r="K76" s="3">
         <v>22186300</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>639000</v>
+        <v>609100</v>
       </c>
       <c r="E81" s="3">
-        <v>-436800</v>
+        <v>-416300</v>
       </c>
       <c r="F81" s="3">
-        <v>-754200</v>
+        <v>-719000</v>
       </c>
       <c r="G81" s="3">
-        <v>-409800</v>
+        <v>-390700</v>
       </c>
       <c r="H81" s="3">
-        <v>116000</v>
+        <v>110600</v>
       </c>
       <c r="I81" s="3">
-        <v>528200</v>
+        <v>503500</v>
       </c>
       <c r="J81" s="3">
-        <v>3552200</v>
+        <v>3386100</v>
       </c>
       <c r="K81" s="3">
         <v>1114100</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4916400</v>
+        <v>4686400</v>
       </c>
       <c r="E89" s="3">
-        <v>-508900</v>
+        <v>-485100</v>
       </c>
       <c r="F89" s="3">
-        <v>945100</v>
+        <v>900900</v>
       </c>
       <c r="G89" s="3">
-        <v>2109800</v>
+        <v>2011100</v>
       </c>
       <c r="H89" s="3">
-        <v>4218800</v>
+        <v>4021500</v>
       </c>
       <c r="I89" s="3">
-        <v>-1096500</v>
+        <v>-1045200</v>
       </c>
       <c r="J89" s="3">
-        <v>761300</v>
+        <v>725700</v>
       </c>
       <c r="K89" s="3">
         <v>1806000</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4516100</v>
+        <v>-4304900</v>
       </c>
       <c r="E94" s="3">
-        <v>666200</v>
+        <v>635000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2743200</v>
+        <v>-2614900</v>
       </c>
       <c r="G94" s="3">
-        <v>-4345400</v>
+        <v>-4142200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2639400</v>
+        <v>-2515900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1114400</v>
+        <v>-1062300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2001400</v>
+        <v>-1907800</v>
       </c>
       <c r="K94" s="3">
         <v>-1844800</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1651500</v>
+        <v>-1574200</v>
       </c>
       <c r="E100" s="3">
-        <v>1853900</v>
+        <v>1767100</v>
       </c>
       <c r="F100" s="3">
-        <v>-500400</v>
+        <v>-477000</v>
       </c>
       <c r="G100" s="3">
-        <v>887600</v>
+        <v>846100</v>
       </c>
       <c r="H100" s="3">
-        <v>2547200</v>
+        <v>2428100</v>
       </c>
       <c r="I100" s="3">
-        <v>-86400</v>
+        <v>-82400</v>
       </c>
       <c r="J100" s="3">
-        <v>3418900</v>
+        <v>3259000</v>
       </c>
       <c r="K100" s="3">
         <v>606800</v>
@@ -7110,25 +7110,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>456600</v>
+        <v>435300</v>
       </c>
       <c r="E101" s="3">
-        <v>-67000</v>
+        <v>-63900</v>
       </c>
       <c r="F101" s="3">
-        <v>-209700</v>
+        <v>-199900</v>
       </c>
       <c r="G101" s="3">
-        <v>45300</v>
+        <v>43200</v>
       </c>
       <c r="H101" s="3">
-        <v>-141300</v>
+        <v>-134700</v>
       </c>
       <c r="I101" s="3">
-        <v>86900</v>
+        <v>82900</v>
       </c>
       <c r="J101" s="3">
-        <v>-434000</v>
+        <v>-413700</v>
       </c>
       <c r="K101" s="3">
         <v>-392000</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-794500</v>
+        <v>-757400</v>
       </c>
       <c r="E102" s="3">
-        <v>1944100</v>
+        <v>1853200</v>
       </c>
       <c r="F102" s="3">
-        <v>-2508300</v>
+        <v>-2391000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1302700</v>
+        <v>-1241800</v>
       </c>
       <c r="H102" s="3">
-        <v>3985400</v>
+        <v>3799000</v>
       </c>
       <c r="I102" s="3">
-        <v>-2210400</v>
+        <v>-2107000</v>
       </c>
       <c r="J102" s="3">
-        <v>1744900</v>
+        <v>1663300</v>
       </c>
       <c r="K102" s="3">
         <v>176100</v>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>37249900</v>
+        <v>42432000</v>
       </c>
       <c r="E8" s="3">
-        <v>33360000</v>
+        <v>34976500</v>
       </c>
       <c r="F8" s="3">
-        <v>38406300</v>
+        <v>38432700</v>
       </c>
       <c r="G8" s="3">
-        <v>30444200</v>
+        <v>34419300</v>
       </c>
       <c r="H8" s="3">
-        <v>35329000</v>
+        <v>39625800</v>
       </c>
       <c r="I8" s="3">
+        <v>31410900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>36450800</v>
+      </c>
+      <c r="K8" s="3">
         <v>28282100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>31226500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>25672200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>29627300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>23065300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>26281900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>20763100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>22959900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>18498800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>19581700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>14663400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>17546300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>14366400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>16349600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>12428800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>13832100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>10939000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>11548800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>8751100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32253500</v>
+        <v>36466400</v>
       </c>
       <c r="E9" s="3">
-        <v>28704300</v>
+        <v>29778000</v>
       </c>
       <c r="F9" s="3">
-        <v>33238900</v>
+        <v>33277600</v>
       </c>
       <c r="G9" s="3">
-        <v>26116100</v>
+        <v>29615700</v>
       </c>
       <c r="H9" s="3">
-        <v>30912300</v>
+        <v>34294400</v>
       </c>
       <c r="I9" s="3">
+        <v>26945400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>31893800</v>
+      </c>
+      <c r="K9" s="3">
         <v>24228300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>26891500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>21723700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>25407600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>19510100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>22586700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>17665900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>19579600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>15720700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>16797400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>12408700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>15176900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>12334900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>14218500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>10502000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>11955000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>18670800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>19852900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>14923400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4996400</v>
+        <v>5965500</v>
       </c>
       <c r="E10" s="3">
-        <v>4655700</v>
+        <v>5198500</v>
       </c>
       <c r="F10" s="3">
-        <v>5167300</v>
+        <v>5155100</v>
       </c>
       <c r="G10" s="3">
-        <v>4328100</v>
+        <v>4803500</v>
       </c>
       <c r="H10" s="3">
-        <v>4416800</v>
+        <v>5331400</v>
       </c>
       <c r="I10" s="3">
+        <v>4465500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4557000</v>
+      </c>
+      <c r="K10" s="3">
         <v>4053800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4335000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3948500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4219700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3555200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3695200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3097200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3380300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2778100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2784300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2254700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2369400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2031400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2131100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1926800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1877100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>-7731900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>-8304100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-6172300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1057,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>552200</v>
+        <v>614100</v>
       </c>
       <c r="E12" s="3">
-        <v>605000</v>
+        <v>579200</v>
       </c>
       <c r="F12" s="3">
-        <v>567800</v>
+        <v>569700</v>
       </c>
       <c r="G12" s="3">
-        <v>553700</v>
+        <v>624200</v>
       </c>
       <c r="H12" s="3">
-        <v>510500</v>
+        <v>585800</v>
       </c>
       <c r="I12" s="3">
+        <v>571300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>526700</v>
+      </c>
+      <c r="K12" s="3">
         <v>627000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>623400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>601500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>527400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>616900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>549200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>548200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>565400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>564000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>505400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>478900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>395500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>342700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>302600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>257500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>226400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>184500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>168700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>175700</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,162 +1219,180 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-4300</v>
+        <v>-25400</v>
       </c>
       <c r="E14" s="3">
-        <v>494000</v>
+        <v>-180400</v>
       </c>
       <c r="F14" s="3">
-        <v>-2500</v>
+        <v>-4500</v>
       </c>
       <c r="G14" s="3">
-        <v>-80600</v>
+        <v>509700</v>
       </c>
       <c r="H14" s="3">
-        <v>-12200</v>
+        <v>-2600</v>
       </c>
       <c r="I14" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-11500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-154400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-50700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-28800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-598200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>3100</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>58200</v>
+        <v>62900</v>
       </c>
       <c r="E15" s="3">
-        <v>54600</v>
+        <v>63600</v>
       </c>
       <c r="F15" s="3">
-        <v>52500</v>
+        <v>60000</v>
       </c>
       <c r="G15" s="3">
-        <v>52300</v>
+        <v>56300</v>
       </c>
       <c r="H15" s="3">
-        <v>51600</v>
+        <v>54100</v>
       </c>
       <c r="I15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>53300</v>
+      </c>
+      <c r="K15" s="3">
         <v>50600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>51900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>50300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>43800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>44500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>72600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>22500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>22600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>67800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>65800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>63900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>64600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>64000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>66700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>66300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>65700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>63900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>65100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36722500</v>
+        <v>41734700</v>
       </c>
       <c r="E17" s="3">
-        <v>33518700</v>
+        <v>33719100</v>
       </c>
       <c r="F17" s="3">
-        <v>38460800</v>
+        <v>37888500</v>
       </c>
       <c r="G17" s="3">
-        <v>30086100</v>
+        <v>34583000</v>
       </c>
       <c r="H17" s="3">
-        <v>35287200</v>
+        <v>39682100</v>
       </c>
       <c r="I17" s="3">
+        <v>31041400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>36407600</v>
+      </c>
+      <c r="K17" s="3">
         <v>28051100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>31143700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>25026300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>28884000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>22699300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>26200400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>19997300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>22613600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>18311500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>19718100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>14754400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>17694700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>14365700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>16586500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>12354200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>13891900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>10842800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>11598000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>8785200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>527400</v>
+        <v>697300</v>
       </c>
       <c r="E18" s="3">
-        <v>-158700</v>
+        <v>1257400</v>
       </c>
       <c r="F18" s="3">
-        <v>-54600</v>
+        <v>544200</v>
       </c>
       <c r="G18" s="3">
-        <v>358100</v>
+        <v>-163700</v>
       </c>
       <c r="H18" s="3">
-        <v>41900</v>
+        <v>-56300</v>
       </c>
       <c r="I18" s="3">
+        <v>369500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K18" s="3">
         <v>231000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>82800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>645900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>743300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>366100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>81500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>765800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>346300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>187200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-136400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-91100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-148400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-236900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>74600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-59800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>96200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-49200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-34100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1614,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>271600</v>
+        <v>-49000</v>
       </c>
       <c r="E20" s="3">
-        <v>-199100</v>
+        <v>-66900</v>
       </c>
       <c r="F20" s="3">
-        <v>-597700</v>
+        <v>280200</v>
       </c>
       <c r="G20" s="3">
-        <v>-683900</v>
+        <v>-205400</v>
       </c>
       <c r="H20" s="3">
-        <v>136200</v>
+        <v>-616700</v>
       </c>
       <c r="I20" s="3">
+        <v>-705600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>140600</v>
+      </c>
+      <c r="K20" s="3">
         <v>378600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3292200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>617500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1840500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-115100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>573300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-562800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-172200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>990200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-542100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>534700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-120500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>265800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>95700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>120500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>42100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-113100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>804700</v>
+        <v>443100</v>
       </c>
       <c r="E21" s="3">
-        <v>-125000</v>
+        <v>1212600</v>
       </c>
       <c r="F21" s="3">
-        <v>-647900</v>
+        <v>830300</v>
       </c>
       <c r="G21" s="3">
-        <v>-315200</v>
+        <v>-129000</v>
       </c>
       <c r="H21" s="3">
-        <v>149200</v>
+        <v>-668500</v>
       </c>
       <c r="I21" s="3">
+        <v>-325200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>153900</v>
+      </c>
+      <c r="K21" s="3">
         <v>841900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3397100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1272200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2592000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>472700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>658500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>207000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>126300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1433100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-660600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>476100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-259600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>437800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-31900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>117300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>219700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-158100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>67400</v>
+        <v>100200</v>
       </c>
       <c r="E22" s="3">
-        <v>48000</v>
+        <v>83200</v>
       </c>
       <c r="F22" s="3">
-        <v>62200</v>
+        <v>69500</v>
       </c>
       <c r="G22" s="3">
-        <v>38400</v>
+        <v>49500</v>
       </c>
       <c r="H22" s="3">
-        <v>32300</v>
+        <v>64200</v>
       </c>
       <c r="I22" s="3">
+        <v>39700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K22" s="3">
         <v>35900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>41200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>43900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>47800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>32700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>33800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>25100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>23700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>28600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>21000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>33700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>34400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>32800</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>42000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>30900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>27600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>9200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>731600</v>
+        <v>548100</v>
       </c>
       <c r="E23" s="3">
-        <v>-405800</v>
+        <v>1107300</v>
       </c>
       <c r="F23" s="3">
-        <v>-714500</v>
+        <v>754900</v>
       </c>
       <c r="G23" s="3">
-        <v>-364200</v>
+        <v>-418700</v>
       </c>
       <c r="H23" s="3">
-        <v>145800</v>
+        <v>-737200</v>
       </c>
       <c r="I23" s="3">
+        <v>-375800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K23" s="3">
         <v>573800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3333800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1219500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2536000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>218300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>621000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>177900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>150400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1148800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-699500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>409900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-303300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>233600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-141200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>153100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-48600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>53600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-171500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-70600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>170800</v>
+        <v>85500</v>
       </c>
       <c r="E24" s="3">
-        <v>83900</v>
+        <v>251500</v>
       </c>
       <c r="F24" s="3">
-        <v>25800</v>
+        <v>176200</v>
       </c>
       <c r="G24" s="3">
-        <v>90800</v>
+        <v>86600</v>
       </c>
       <c r="H24" s="3">
-        <v>79300</v>
+        <v>26700</v>
       </c>
       <c r="I24" s="3">
+        <v>93700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K24" s="3">
         <v>66700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-46200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>101700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>117400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>51500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>73800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>93100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>67000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>42700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>8900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>7200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>23400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>21700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>7900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>13000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>14600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>560800</v>
+        <v>462600</v>
       </c>
       <c r="E26" s="3">
-        <v>-489700</v>
+        <v>855800</v>
       </c>
       <c r="F26" s="3">
-        <v>-740300</v>
+        <v>578600</v>
       </c>
       <c r="G26" s="3">
-        <v>-455000</v>
+        <v>-505300</v>
       </c>
       <c r="H26" s="3">
-        <v>66500</v>
+        <v>-763800</v>
       </c>
       <c r="I26" s="3">
+        <v>-469400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>68600</v>
+      </c>
+      <c r="K26" s="3">
         <v>507000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3380000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1117800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2418600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>166800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>547200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>84800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>83400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1106100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-708400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>402600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-326700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>212000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-143100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>145200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-46200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>40500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-186100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-70900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>609100</v>
+        <v>435500</v>
       </c>
       <c r="E27" s="3">
-        <v>-416300</v>
+        <v>856400</v>
       </c>
       <c r="F27" s="3">
-        <v>-719000</v>
+        <v>628500</v>
       </c>
       <c r="G27" s="3">
-        <v>-390700</v>
+        <v>-429600</v>
       </c>
       <c r="H27" s="3">
-        <v>110600</v>
+        <v>-741800</v>
       </c>
       <c r="I27" s="3">
+        <v>-403100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K27" s="3">
         <v>503500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3386100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1114100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2423600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>169200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>559600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>94300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>94500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1118200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-697800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>420000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-317400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>218800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-134900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>150500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-42600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>43500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-183400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2308,19 +2429,25 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-31100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>-67100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>-66100</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-271600</v>
+        <v>49000</v>
       </c>
       <c r="E32" s="3">
-        <v>199100</v>
+        <v>66900</v>
       </c>
       <c r="F32" s="3">
-        <v>597700</v>
+        <v>-280200</v>
       </c>
       <c r="G32" s="3">
-        <v>683900</v>
+        <v>205400</v>
       </c>
       <c r="H32" s="3">
-        <v>-136200</v>
+        <v>616700</v>
       </c>
       <c r="I32" s="3">
+        <v>705600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-378600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3292200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-617500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1840500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>115100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-573300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>562800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>172200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-990200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>542100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-534700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>120500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-265800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-95700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-120500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-42100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>15000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>113100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>609100</v>
+        <v>435500</v>
       </c>
       <c r="E33" s="3">
-        <v>-416300</v>
+        <v>856400</v>
       </c>
       <c r="F33" s="3">
-        <v>-719000</v>
+        <v>628500</v>
       </c>
       <c r="G33" s="3">
-        <v>-390700</v>
+        <v>-429600</v>
       </c>
       <c r="H33" s="3">
-        <v>110600</v>
+        <v>-741800</v>
       </c>
       <c r="I33" s="3">
+        <v>-403100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K33" s="3">
         <v>503500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3386100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1114100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2423600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>169200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>559600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>94300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>94500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1118200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-697800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>420000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-317400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>218800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-134900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>150500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-73700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>34800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-250600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>609100</v>
+        <v>435500</v>
       </c>
       <c r="E35" s="3">
-        <v>-416300</v>
+        <v>856400</v>
       </c>
       <c r="F35" s="3">
-        <v>-719000</v>
+        <v>628500</v>
       </c>
       <c r="G35" s="3">
-        <v>-390700</v>
+        <v>-429600</v>
       </c>
       <c r="H35" s="3">
-        <v>110600</v>
+        <v>-741800</v>
       </c>
       <c r="I35" s="3">
+        <v>-403100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K35" s="3">
         <v>503500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3386100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1114100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2423600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>169200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>559600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>94300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>94500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1118200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-697800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>420000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-317400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>218800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-134900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>150500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-73700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>34800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-250600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3092,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10971900</v>
+        <v>11326000</v>
       </c>
       <c r="E41" s="3">
-        <v>11757200</v>
+        <v>11971600</v>
       </c>
       <c r="F41" s="3">
-        <v>9850800</v>
+        <v>11320300</v>
       </c>
       <c r="G41" s="3">
-        <v>12249300</v>
+        <v>12130600</v>
       </c>
       <c r="H41" s="3">
-        <v>13550700</v>
+        <v>10163600</v>
       </c>
       <c r="I41" s="3">
+        <v>12638200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>13981000</v>
+      </c>
+      <c r="K41" s="3">
         <v>9940000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11983000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10773900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10546800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6867200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5692900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4946600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5007900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5202700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4975900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4758300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5055400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5051100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3812400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3207200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>4134000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>3435700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>2263900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>3611700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17013400</v>
+        <v>20264100</v>
       </c>
       <c r="E42" s="3">
-        <v>13376600</v>
+        <v>18447800</v>
       </c>
       <c r="F42" s="3">
-        <v>15947300</v>
+        <v>17553700</v>
       </c>
       <c r="G42" s="3">
-        <v>14246700</v>
+        <v>13801300</v>
       </c>
       <c r="H42" s="3">
-        <v>10503000</v>
+        <v>16453700</v>
       </c>
       <c r="I42" s="3">
+        <v>14699100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>10836500</v>
+      </c>
+      <c r="K42" s="3">
         <v>8835100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>8432300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>7132600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>7180900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>4632500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3788300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3767300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3752600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>644900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>295600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>723900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1829700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1713700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1274500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>2383300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1890700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>3089800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>2623300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>1793200</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2717200</v>
+        <v>3837200</v>
       </c>
       <c r="E43" s="3">
-        <v>2298900</v>
+        <v>3478800</v>
       </c>
       <c r="F43" s="3">
-        <v>2422100</v>
+        <v>2803500</v>
       </c>
       <c r="G43" s="3">
-        <v>2410600</v>
+        <v>2371900</v>
       </c>
       <c r="H43" s="3">
-        <v>3594900</v>
+        <v>2499000</v>
       </c>
       <c r="I43" s="3">
+        <v>2487200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3709000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2365400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2013200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2079900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1986200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1702600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1844100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2499900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2102900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1622800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2463500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2348300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3701700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2819300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>4850500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>5597400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>6769800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>5409200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>4288500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>4025000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10583200</v>
+        <v>11195000</v>
       </c>
       <c r="E44" s="3">
-        <v>9575600</v>
+        <v>10305700</v>
       </c>
       <c r="F44" s="3">
-        <v>10523700</v>
+        <v>10919300</v>
       </c>
       <c r="G44" s="3">
-        <v>8358100</v>
+        <v>9879600</v>
       </c>
       <c r="H44" s="3">
-        <v>9154900</v>
+        <v>10857800</v>
       </c>
       <c r="I44" s="3">
+        <v>8623500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>9445600</v>
+      </c>
+      <c r="K44" s="3">
         <v>8285800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8203400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>8155700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>8027700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>7980200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>8920400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>7431900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>6954700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>5841700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>6394500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>5578100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>6227400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>5188800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>6188800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>5388800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>4622900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>3906300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>4204300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>3287100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3813800</v>
+        <v>3798900</v>
       </c>
       <c r="E45" s="3">
-        <v>3252400</v>
+        <v>3822200</v>
       </c>
       <c r="F45" s="3">
-        <v>2970500</v>
+        <v>3934900</v>
       </c>
       <c r="G45" s="3">
-        <v>2936400</v>
+        <v>3355700</v>
       </c>
       <c r="H45" s="3">
-        <v>2952300</v>
+        <v>3064900</v>
       </c>
       <c r="I45" s="3">
+        <v>3029600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3046100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2252800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2052400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2445100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2537400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1621900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1172100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1310600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1654700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1212300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1098700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1921800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2095000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1439700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>945200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1774000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>2015800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1285200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>3842100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>840300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>45099500</v>
+        <v>50421200</v>
       </c>
       <c r="E46" s="3">
-        <v>40260700</v>
+        <v>48026100</v>
       </c>
       <c r="F46" s="3">
-        <v>41714300</v>
+        <v>46531600</v>
       </c>
       <c r="G46" s="3">
-        <v>40201100</v>
+        <v>41539100</v>
       </c>
       <c r="H46" s="3">
-        <v>39755900</v>
+        <v>43038900</v>
       </c>
       <c r="I46" s="3">
+        <v>41477600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>41018200</v>
+      </c>
+      <c r="K46" s="3">
         <v>31679100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>32684300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>30587100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>30279000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>22804500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>21417800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>19956300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>19472800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>14524500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>15228200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>15330400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>18909200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>16212600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>17071400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>18350700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>19433200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>17126200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>15551100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>13557200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10218800</v>
+        <v>9946000</v>
       </c>
       <c r="E47" s="3">
-        <v>10010600</v>
+        <v>10622300</v>
       </c>
       <c r="F47" s="3">
-        <v>11457600</v>
+        <v>10543300</v>
       </c>
       <c r="G47" s="3">
-        <v>12392600</v>
+        <v>10328400</v>
       </c>
       <c r="H47" s="3">
-        <v>12912900</v>
+        <v>11821400</v>
       </c>
       <c r="I47" s="3">
+        <v>12786100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>13323000</v>
+      </c>
+      <c r="K47" s="3">
         <v>13426300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>13584000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>11753100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>10996100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>9079600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>8775800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>8358600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>8423900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>8106100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>6863300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>7013800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>5555200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>4438500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>4241400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>2881600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>2652400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>3265500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>3299200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>3258900</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10129600</v>
+        <v>12711500</v>
       </c>
       <c r="E48" s="3">
-        <v>9720900</v>
+        <v>12085600</v>
       </c>
       <c r="F48" s="3">
-        <v>8177700</v>
+        <v>10451200</v>
       </c>
       <c r="G48" s="3">
-        <v>7297700</v>
+        <v>10029600</v>
       </c>
       <c r="H48" s="3">
-        <v>6965200</v>
+        <v>8437400</v>
       </c>
       <c r="I48" s="3">
+        <v>7529400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7186400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6362600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6401400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6278600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5475000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5079500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5405300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5221700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4807300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4842500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4013700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3446300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2997300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2456000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2340500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1904000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1599700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1382600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1311100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1280900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7510000</v>
+        <v>9494700</v>
       </c>
       <c r="E49" s="3">
-        <v>7483300</v>
+        <v>9489700</v>
       </c>
       <c r="F49" s="3">
-        <v>4537600</v>
+        <v>7748400</v>
       </c>
       <c r="G49" s="3">
-        <v>4426100</v>
+        <v>7720900</v>
       </c>
       <c r="H49" s="3">
-        <v>4328300</v>
+        <v>4681700</v>
       </c>
       <c r="I49" s="3">
+        <v>4566700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4465800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4137700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3966100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4229400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3622600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3318700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3333000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3303300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3256200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3246200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3214100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3076700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2868200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2862900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>3026700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>3021300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2440200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2475700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>2513800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>2566700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4118600</v>
+        <v>2916300</v>
       </c>
       <c r="E52" s="3">
-        <v>3820800</v>
+        <v>3012900</v>
       </c>
       <c r="F52" s="3">
-        <v>3226500</v>
+        <v>4249400</v>
       </c>
       <c r="G52" s="3">
-        <v>2922600</v>
+        <v>3942100</v>
       </c>
       <c r="H52" s="3">
-        <v>2315200</v>
+        <v>3329000</v>
       </c>
       <c r="I52" s="3">
+        <v>3015400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2388700</v>
+      </c>
+      <c r="K52" s="3">
         <v>2162100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2146600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2308600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1568800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1633700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1060400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1013300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1545900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2025800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1057800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1019700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1040600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>618800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>635500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>620000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>687900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>580500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1665500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77076600</v>
+        <v>85489800</v>
       </c>
       <c r="E54" s="3">
-        <v>71296200</v>
+        <v>83236600</v>
       </c>
       <c r="F54" s="3">
-        <v>69113800</v>
+        <v>79524000</v>
       </c>
       <c r="G54" s="3">
-        <v>67240100</v>
+        <v>73560000</v>
       </c>
       <c r="H54" s="3">
-        <v>66277500</v>
+        <v>71308300</v>
       </c>
       <c r="I54" s="3">
+        <v>69375200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>68382000</v>
+      </c>
+      <c r="K54" s="3">
         <v>57767800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>58782500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>55156900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>51941500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>41916200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>39992300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>37853200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>37506100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>32745200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>30377000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>29887000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>31370400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>26588900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>27315600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>26777600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>26813400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>24830500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>23323100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>20972500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4316,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22306400</v>
+        <v>23136500</v>
       </c>
       <c r="E57" s="3">
-        <v>17462900</v>
+        <v>21669400</v>
       </c>
       <c r="F57" s="3">
-        <v>19627600</v>
+        <v>23014700</v>
       </c>
       <c r="G57" s="3">
-        <v>17660100</v>
+        <v>18017400</v>
       </c>
       <c r="H57" s="3">
-        <v>17864100</v>
+        <v>20250900</v>
       </c>
       <c r="I57" s="3">
+        <v>18220900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>18431300</v>
+      </c>
+      <c r="K57" s="3">
         <v>13566400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>14950600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>15570300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>14940700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>12266000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>13973100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>13355500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>14326200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>10927000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>11647500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>10957000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>12582100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>8938300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>11032500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>10032000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>10014300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>6362200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>6695000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>6031800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1914600</v>
+        <v>1744400</v>
       </c>
       <c r="E58" s="3">
-        <v>2387400</v>
+        <v>2584600</v>
       </c>
       <c r="F58" s="3">
-        <v>608000</v>
+        <v>1975300</v>
       </c>
       <c r="G58" s="3">
-        <v>978300</v>
+        <v>2463200</v>
       </c>
       <c r="H58" s="3">
-        <v>78300</v>
+        <v>627300</v>
       </c>
       <c r="I58" s="3">
+        <v>1009300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>80800</v>
+      </c>
+      <c r="K58" s="3">
         <v>598900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>453800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>934600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1815600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1357000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>21000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>285600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>660100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1340300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1701400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1939000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1912200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1825900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1807800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2944100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1615600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11342700</v>
+        <v>13402600</v>
       </c>
       <c r="E59" s="3">
-        <v>10635300</v>
+        <v>12560400</v>
       </c>
       <c r="F59" s="3">
-        <v>10616100</v>
+        <v>11702900</v>
       </c>
       <c r="G59" s="3">
-        <v>9781900</v>
+        <v>10973000</v>
       </c>
       <c r="H59" s="3">
-        <v>9468300</v>
+        <v>10953200</v>
       </c>
       <c r="I59" s="3">
+        <v>10092500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9769000</v>
+      </c>
+      <c r="K59" s="3">
         <v>8417900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8818700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8928800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8582000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7926600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7586700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7088800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>7054300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6348400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5245200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4735000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4852800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4456200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4604900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4511800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>4433200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>6832000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>6921700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35563700</v>
+        <v>38283500</v>
       </c>
       <c r="E60" s="3">
-        <v>30485600</v>
+        <v>36814400</v>
       </c>
       <c r="F60" s="3">
-        <v>30851700</v>
+        <v>36692900</v>
       </c>
       <c r="G60" s="3">
-        <v>28420300</v>
+        <v>31453600</v>
       </c>
       <c r="H60" s="3">
-        <v>27410700</v>
+        <v>31831400</v>
       </c>
       <c r="I60" s="3">
+        <v>29322800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>28281100</v>
+      </c>
+      <c r="K60" s="3">
         <v>22583300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>24223100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>25433700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>25338300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>21549600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>21559800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>20444300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>21401500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>17561000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>17552800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>17032300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>19136300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>15333500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>17549600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>16369700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>16255400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>16138300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>15232400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>12899100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3432500</v>
+        <v>4342100</v>
       </c>
       <c r="E61" s="3">
-        <v>2172800</v>
+        <v>4109400</v>
       </c>
       <c r="F61" s="3">
-        <v>1306500</v>
+        <v>3541500</v>
       </c>
       <c r="G61" s="3">
-        <v>1739000</v>
+        <v>2241800</v>
       </c>
       <c r="H61" s="3">
-        <v>1727700</v>
+        <v>1348000</v>
       </c>
       <c r="I61" s="3">
+        <v>1794200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1782600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1757100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1744300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1943300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2002600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2702700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1547800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1568600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1512300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1480700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1434100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1384800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1408600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1036900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1621000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2315500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2602100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1957100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>1330600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1488500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3012000</v>
+        <v>3494700</v>
       </c>
       <c r="E62" s="3">
-        <v>3025500</v>
+        <v>3372200</v>
       </c>
       <c r="F62" s="3">
-        <v>2603200</v>
+        <v>3107600</v>
       </c>
       <c r="G62" s="3">
-        <v>2399700</v>
+        <v>3121600</v>
       </c>
       <c r="H62" s="3">
-        <v>2421800</v>
+        <v>2685800</v>
       </c>
       <c r="I62" s="3">
+        <v>2475900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2498700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1952600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1965700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1980600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1611900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1376100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1390500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1409600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1145200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>914000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>232400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>255700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>295100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>326300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>370000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>400900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>438400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>471400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>765600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>49053400</v>
+        <v>54846200</v>
       </c>
       <c r="E66" s="3">
-        <v>42552700</v>
+        <v>52765700</v>
       </c>
       <c r="F66" s="3">
-        <v>40033400</v>
+        <v>50611000</v>
       </c>
       <c r="G66" s="3">
-        <v>37268400</v>
+        <v>43903900</v>
       </c>
       <c r="H66" s="3">
-        <v>36104700</v>
+        <v>41304500</v>
       </c>
       <c r="I66" s="3">
+        <v>38451800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>37251100</v>
+      </c>
+      <c r="K66" s="3">
         <v>31504700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>32676400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>32970600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>31849600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>28618600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>27388100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>26166900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>26836400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>22565900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>21696500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>20936000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>23011700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>18812300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>19592200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>19135000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>19340200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>19650900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>18394100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5505,14 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5175,74 +5522,80 @@
       <c r="E72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="3">
-        <v>4926400</v>
+      <c r="F72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>10</v>
+      <c r="H72" s="3">
+        <v>5082900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="3">
-        <v>5422100</v>
+      <c r="J72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="L72" s="3">
+        <v>5422100</v>
+      </c>
+      <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1479900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1609600</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R72" s="3">
-        <v>-3287700</v>
+      <c r="R72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>10</v>
+      <c r="T72" s="3">
+        <v>-3287700</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V72" s="3">
-        <v>-3205500</v>
+      <c r="V72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X72" s="3" t="s">
+      <c r="X72" s="3">
+        <v>-3205500</v>
+      </c>
+      <c r="Y72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-3104800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-3159800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-2968300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28023200</v>
+        <v>30643600</v>
       </c>
       <c r="E76" s="3">
-        <v>28743400</v>
+        <v>30470900</v>
       </c>
       <c r="F76" s="3">
-        <v>29080400</v>
+        <v>28913000</v>
       </c>
       <c r="G76" s="3">
-        <v>29971800</v>
+        <v>29656100</v>
       </c>
       <c r="H76" s="3">
-        <v>30172800</v>
+        <v>30003800</v>
       </c>
       <c r="I76" s="3">
+        <v>30923400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>31130900</v>
+      </c>
+      <c r="K76" s="3">
         <v>26263200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>26106000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>22186300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>20091900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13297600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>12604200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11686300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10669800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>10179200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>8680500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>8951000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>8358800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>7776600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>7723400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>7642600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>7473100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5179500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>4929000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>5128500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>609100</v>
+        <v>435500</v>
       </c>
       <c r="E81" s="3">
-        <v>-416300</v>
+        <v>856400</v>
       </c>
       <c r="F81" s="3">
-        <v>-719000</v>
+        <v>628500</v>
       </c>
       <c r="G81" s="3">
-        <v>-390700</v>
+        <v>-429600</v>
       </c>
       <c r="H81" s="3">
-        <v>110600</v>
+        <v>-741800</v>
       </c>
       <c r="I81" s="3">
+        <v>-403100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K81" s="3">
         <v>503500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3386100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1114100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2423600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>169200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>559600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>94300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>94500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1118200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-697800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>420000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-317400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>218800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-134900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>150500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-73700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>34800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-250600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4686400</v>
+        <v>2655000</v>
       </c>
       <c r="E89" s="3">
-        <v>-485100</v>
+        <v>1314300</v>
       </c>
       <c r="F89" s="3">
-        <v>900900</v>
+        <v>4835300</v>
       </c>
       <c r="G89" s="3">
-        <v>2011100</v>
+        <v>-500500</v>
       </c>
       <c r="H89" s="3">
-        <v>4021500</v>
+        <v>929500</v>
       </c>
       <c r="I89" s="3">
+        <v>2075000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4149200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1045200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>725700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1806000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3922400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-243300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>194300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3085000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>507700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>875500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>309700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2355000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-541300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>200500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>52300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>2767300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>650300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-433900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>1047900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4304900</v>
+        <v>-2571900</v>
       </c>
       <c r="E94" s="3">
-        <v>635000</v>
+        <v>-1400900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2614900</v>
+        <v>-4441600</v>
       </c>
       <c r="G94" s="3">
-        <v>-4142200</v>
+        <v>655200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2515900</v>
+        <v>-2698000</v>
       </c>
       <c r="I94" s="3">
+        <v>-4273700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2595800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1062300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1907800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1844800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3446700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1293100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>377600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-873100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3212700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-168500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-317800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-364300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2919400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-135000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>624600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-620100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-4568600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-980900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-2206600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-3057800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1574200</v>
+        <v>-608200</v>
       </c>
       <c r="E100" s="3">
-        <v>1767100</v>
+        <v>578600</v>
       </c>
       <c r="F100" s="3">
-        <v>-477000</v>
+        <v>-1624200</v>
       </c>
       <c r="G100" s="3">
-        <v>846100</v>
+        <v>1823300</v>
       </c>
       <c r="H100" s="3">
-        <v>2428100</v>
+        <v>-492100</v>
       </c>
       <c r="I100" s="3">
+        <v>873000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2505200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-82400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3259000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>606800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4193100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2380000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>475500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>383300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-68600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-390500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-569400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-419200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>692900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1909300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-564100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-229500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>2462600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1161900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>1772300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>435300</v>
+        <v>-140200</v>
       </c>
       <c r="E101" s="3">
-        <v>-63900</v>
+        <v>258200</v>
       </c>
       <c r="F101" s="3">
-        <v>-199900</v>
+        <v>449100</v>
       </c>
       <c r="G101" s="3">
-        <v>43200</v>
+        <v>-65900</v>
       </c>
       <c r="H101" s="3">
-        <v>-134700</v>
+        <v>-206300</v>
       </c>
       <c r="I101" s="3">
+        <v>44600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="K101" s="3">
         <v>82900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-413700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-392000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-8800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>96100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-60200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>123900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>63500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-64700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-19000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>150400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>171000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-65200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-31600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-44300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-13900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>42400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-757400</v>
+        <v>-665400</v>
       </c>
       <c r="E102" s="3">
-        <v>1853200</v>
+        <v>750300</v>
       </c>
       <c r="F102" s="3">
-        <v>-2391000</v>
+        <v>-781400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1241800</v>
+        <v>1912000</v>
       </c>
       <c r="H102" s="3">
-        <v>3799000</v>
+        <v>-2466900</v>
       </c>
       <c r="I102" s="3">
+        <v>-1281200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3919700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2107000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1663300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>176100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4659800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>939800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>793500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-171600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-132900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-115900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-30700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-323400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>299400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1167700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>605200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1085000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>515000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>825900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-736300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-1679300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>42432000</v>
+        <v>34536200</v>
       </c>
       <c r="E8" s="3">
-        <v>34976500</v>
+        <v>41997600</v>
       </c>
       <c r="F8" s="3">
-        <v>38432700</v>
+        <v>34618500</v>
       </c>
       <c r="G8" s="3">
-        <v>34419300</v>
+        <v>38039300</v>
       </c>
       <c r="H8" s="3">
-        <v>39625800</v>
+        <v>34067000</v>
       </c>
       <c r="I8" s="3">
-        <v>31410900</v>
+        <v>39220200</v>
       </c>
       <c r="J8" s="3">
+        <v>31089400</v>
+      </c>
+      <c r="K8" s="3">
         <v>36450800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28282100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31226500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25672200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29627300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23065300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26281900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20763100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22959900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18498800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19581700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14663400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>17546300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14366400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16349600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12428800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>13832100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10939000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11548800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8751100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36466400</v>
+        <v>29416200</v>
       </c>
       <c r="E9" s="3">
-        <v>29778000</v>
+        <v>36093200</v>
       </c>
       <c r="F9" s="3">
-        <v>33277600</v>
+        <v>29473200</v>
       </c>
       <c r="G9" s="3">
-        <v>29615700</v>
+        <v>32937000</v>
       </c>
       <c r="H9" s="3">
-        <v>34294400</v>
+        <v>29312600</v>
       </c>
       <c r="I9" s="3">
-        <v>26945400</v>
+        <v>33943300</v>
       </c>
       <c r="J9" s="3">
+        <v>26669600</v>
+      </c>
+      <c r="K9" s="3">
         <v>31893800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24228300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26891500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21723700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>25407600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19510100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22586700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17665900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19579600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15720700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16797400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12408700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15176900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12334900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14218500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>10502000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11955000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>18670800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>19852900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>14923400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5965500</v>
+        <v>5120000</v>
       </c>
       <c r="E10" s="3">
-        <v>5198500</v>
+        <v>5904500</v>
       </c>
       <c r="F10" s="3">
-        <v>5155100</v>
+        <v>5145300</v>
       </c>
       <c r="G10" s="3">
-        <v>4803500</v>
+        <v>5102300</v>
       </c>
       <c r="H10" s="3">
-        <v>5331400</v>
+        <v>4754300</v>
       </c>
       <c r="I10" s="3">
-        <v>4465500</v>
+        <v>5276800</v>
       </c>
       <c r="J10" s="3">
+        <v>4419800</v>
+      </c>
+      <c r="K10" s="3">
         <v>4557000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4053800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4335000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3948500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4219700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3555200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3695200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3097200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3380300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2778100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2784300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2254700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2369400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2031400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2131100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1926800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1877100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-7731900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-8304100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-6172300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>614100</v>
+        <v>582200</v>
       </c>
       <c r="E12" s="3">
-        <v>579200</v>
+        <v>607800</v>
       </c>
       <c r="F12" s="3">
-        <v>569700</v>
+        <v>573300</v>
       </c>
       <c r="G12" s="3">
-        <v>624200</v>
+        <v>563900</v>
       </c>
       <c r="H12" s="3">
-        <v>585800</v>
+        <v>617800</v>
       </c>
       <c r="I12" s="3">
-        <v>571300</v>
+        <v>579800</v>
       </c>
       <c r="J12" s="3">
+        <v>565400</v>
+      </c>
+      <c r="K12" s="3">
         <v>526700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>627000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>623400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>601500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>527400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>616900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>549200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>548200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>565400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>564000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>505400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>478900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>395500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>342700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>302600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>257500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>226400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>184500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>168700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>175700</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,174 +1242,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-25400</v>
+        <v>-70100</v>
       </c>
       <c r="E14" s="3">
-        <v>-180400</v>
+        <v>-11800</v>
       </c>
       <c r="F14" s="3">
-        <v>-4500</v>
+        <v>-178500</v>
       </c>
       <c r="G14" s="3">
-        <v>509700</v>
+        <v>-4400</v>
       </c>
       <c r="H14" s="3">
+        <v>504500</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2600</v>
       </c>
-      <c r="I14" s="3">
-        <v>-83100</v>
-      </c>
       <c r="J14" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-12500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-11500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-154400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-50700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-28800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-598200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>3100</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>62900</v>
+        <v>63400</v>
       </c>
       <c r="E15" s="3">
-        <v>63600</v>
+        <v>62400</v>
       </c>
       <c r="F15" s="3">
-        <v>60000</v>
+        <v>63000</v>
       </c>
       <c r="G15" s="3">
-        <v>56300</v>
+        <v>59400</v>
       </c>
       <c r="H15" s="3">
-        <v>54100</v>
+        <v>55700</v>
       </c>
       <c r="I15" s="3">
-        <v>54000</v>
+        <v>53600</v>
       </c>
       <c r="J15" s="3">
+        <v>53400</v>
+      </c>
+      <c r="K15" s="3">
         <v>53300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>50600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>51900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>50300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>43800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>44500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>72600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>22600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>67800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>65800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>63900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>64600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>64000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>66700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>66300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>65700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>63900</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>65100</v>
       </c>
       <c r="AC15" s="3">
         <v>65100</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>65100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41734700</v>
+        <v>33619600</v>
       </c>
       <c r="E17" s="3">
-        <v>33719100</v>
+        <v>41320900</v>
       </c>
       <c r="F17" s="3">
-        <v>37888500</v>
+        <v>33374000</v>
       </c>
       <c r="G17" s="3">
-        <v>34583000</v>
+        <v>37500700</v>
       </c>
       <c r="H17" s="3">
-        <v>39682100</v>
+        <v>34229000</v>
       </c>
       <c r="I17" s="3">
-        <v>31041400</v>
+        <v>39275900</v>
       </c>
       <c r="J17" s="3">
+        <v>30723700</v>
+      </c>
+      <c r="K17" s="3">
         <v>36407600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28051100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31143700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25026300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28884000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22699300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26200400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19997300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22613600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18311500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19718100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14754400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17694700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14365700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16586500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>12354200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>13891900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10842800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11598000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8785200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>697300</v>
+        <v>916600</v>
       </c>
       <c r="E18" s="3">
-        <v>1257400</v>
+        <v>676800</v>
       </c>
       <c r="F18" s="3">
-        <v>544200</v>
+        <v>1244500</v>
       </c>
       <c r="G18" s="3">
-        <v>-163700</v>
+        <v>538600</v>
       </c>
       <c r="H18" s="3">
-        <v>-56300</v>
+        <v>-162100</v>
       </c>
       <c r="I18" s="3">
-        <v>369500</v>
+        <v>-55700</v>
       </c>
       <c r="J18" s="3">
+        <v>365700</v>
+      </c>
+      <c r="K18" s="3">
         <v>43200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>231000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>82800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>645900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>743300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>366100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>765800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>346300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>187200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-136400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-91100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-148400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-236900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>74600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-59800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>96200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-49200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-34100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1649,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-49000</v>
+        <v>277200</v>
       </c>
       <c r="E20" s="3">
-        <v>-66900</v>
+        <v>-35100</v>
       </c>
       <c r="F20" s="3">
-        <v>280200</v>
+        <v>-66200</v>
       </c>
       <c r="G20" s="3">
-        <v>-205400</v>
+        <v>277300</v>
       </c>
       <c r="H20" s="3">
-        <v>-616700</v>
+        <v>-203300</v>
       </c>
       <c r="I20" s="3">
-        <v>-705600</v>
+        <v>-610400</v>
       </c>
       <c r="J20" s="3">
+        <v>-698300</v>
+      </c>
+      <c r="K20" s="3">
         <v>140600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>378600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3292200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>617500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1840500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-115100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>573300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-562800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-172200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>990200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-542100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>534700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-120500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>265800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>95700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>120500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>42100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-15000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-113100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>443100</v>
+        <v>1472400</v>
       </c>
       <c r="E21" s="3">
-        <v>1212600</v>
+        <v>658300</v>
       </c>
       <c r="F21" s="3">
-        <v>830300</v>
+        <v>1200200</v>
       </c>
       <c r="G21" s="3">
-        <v>-129000</v>
+        <v>821800</v>
       </c>
       <c r="H21" s="3">
-        <v>-668500</v>
+        <v>-127700</v>
       </c>
       <c r="I21" s="3">
-        <v>-325200</v>
+        <v>-661700</v>
       </c>
       <c r="J21" s="3">
+        <v>-321900</v>
+      </c>
+      <c r="K21" s="3">
         <v>153900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>841900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3397100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1272200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2592000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>472700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>658500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>207000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>126300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1433100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-660600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>476100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-259600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>437800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-31900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>117300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-15000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>219700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-158100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100200</v>
+        <v>83900</v>
       </c>
       <c r="E22" s="3">
-        <v>83200</v>
+        <v>99200</v>
       </c>
       <c r="F22" s="3">
-        <v>69500</v>
+        <v>82300</v>
       </c>
       <c r="G22" s="3">
-        <v>49500</v>
+        <v>68800</v>
       </c>
       <c r="H22" s="3">
-        <v>64200</v>
+        <v>49000</v>
       </c>
       <c r="I22" s="3">
-        <v>39700</v>
+        <v>63500</v>
       </c>
       <c r="J22" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K22" s="3">
         <v>33400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>41200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>43900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>32700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>25100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>28600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>33700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>34400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>32800</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>42000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>30900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>27600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>9200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>548100</v>
+        <v>1109900</v>
       </c>
       <c r="E23" s="3">
-        <v>1107300</v>
+        <v>542400</v>
       </c>
       <c r="F23" s="3">
-        <v>754900</v>
+        <v>1096000</v>
       </c>
       <c r="G23" s="3">
-        <v>-418700</v>
+        <v>747100</v>
       </c>
       <c r="H23" s="3">
-        <v>-737200</v>
+        <v>-414400</v>
       </c>
       <c r="I23" s="3">
-        <v>-375800</v>
+        <v>-729600</v>
       </c>
       <c r="J23" s="3">
+        <v>-371900</v>
+      </c>
+      <c r="K23" s="3">
         <v>150400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>573800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3333800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1219500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2536000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>218300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>621000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>177900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>150400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1148800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-699500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>409900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-303300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>233600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-141200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>153100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-48600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>53600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-171500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-70600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>85500</v>
+        <v>228700</v>
       </c>
       <c r="E24" s="3">
-        <v>251500</v>
+        <v>84600</v>
       </c>
       <c r="F24" s="3">
-        <v>176200</v>
+        <v>248900</v>
       </c>
       <c r="G24" s="3">
-        <v>86600</v>
+        <v>174400</v>
       </c>
       <c r="H24" s="3">
-        <v>26700</v>
+        <v>85700</v>
       </c>
       <c r="I24" s="3">
-        <v>93700</v>
+        <v>26400</v>
       </c>
       <c r="J24" s="3">
+        <v>92700</v>
+      </c>
+      <c r="K24" s="3">
         <v>81800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-46200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>101700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>117400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>51500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>73800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>93100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>67000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>42700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>14600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>462600</v>
+        <v>881200</v>
       </c>
       <c r="E26" s="3">
-        <v>855800</v>
+        <v>457900</v>
       </c>
       <c r="F26" s="3">
-        <v>578600</v>
+        <v>847100</v>
       </c>
       <c r="G26" s="3">
-        <v>-505300</v>
+        <v>572700</v>
       </c>
       <c r="H26" s="3">
-        <v>-763800</v>
+        <v>-500100</v>
       </c>
       <c r="I26" s="3">
-        <v>-469400</v>
+        <v>-756000</v>
       </c>
       <c r="J26" s="3">
+        <v>-464600</v>
+      </c>
+      <c r="K26" s="3">
         <v>68600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>507000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3380000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1117800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2418600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>166800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>547200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>84800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>83400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1106100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-708400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>402600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-326700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>212000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-143100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>145200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-46200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>40500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-186100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-70900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>435500</v>
+        <v>890000</v>
       </c>
       <c r="E27" s="3">
-        <v>856400</v>
+        <v>431000</v>
       </c>
       <c r="F27" s="3">
-        <v>628500</v>
+        <v>847600</v>
       </c>
       <c r="G27" s="3">
-        <v>-429600</v>
+        <v>622000</v>
       </c>
       <c r="H27" s="3">
-        <v>-741800</v>
+        <v>-425200</v>
       </c>
       <c r="I27" s="3">
-        <v>-403100</v>
+        <v>-734200</v>
       </c>
       <c r="J27" s="3">
+        <v>-398900</v>
+      </c>
+      <c r="K27" s="3">
         <v>114100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>503500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3386100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1114100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2423600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>169200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>559600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>94300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>94500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1118200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-697800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>420000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-317400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>218800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-134900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>150500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-42600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>43500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-183400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2435,19 +2496,22 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-31100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-8700</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-67100</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-66100</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>49000</v>
+        <v>-277200</v>
       </c>
       <c r="E32" s="3">
-        <v>66900</v>
+        <v>35100</v>
       </c>
       <c r="F32" s="3">
-        <v>-280200</v>
+        <v>66200</v>
       </c>
       <c r="G32" s="3">
-        <v>205400</v>
+        <v>-277300</v>
       </c>
       <c r="H32" s="3">
-        <v>616700</v>
+        <v>203300</v>
       </c>
       <c r="I32" s="3">
-        <v>705600</v>
+        <v>610400</v>
       </c>
       <c r="J32" s="3">
+        <v>698300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-140600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-378600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3292200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-617500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1840500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>115100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-573300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>562800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>172200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-990200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>542100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-534700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>120500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-265800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-95700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-120500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-42100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>15000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>113100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>435500</v>
+        <v>890000</v>
       </c>
       <c r="E33" s="3">
-        <v>856400</v>
+        <v>431000</v>
       </c>
       <c r="F33" s="3">
-        <v>628500</v>
+        <v>847600</v>
       </c>
       <c r="G33" s="3">
-        <v>-429600</v>
+        <v>622000</v>
       </c>
       <c r="H33" s="3">
-        <v>-741800</v>
+        <v>-425200</v>
       </c>
       <c r="I33" s="3">
-        <v>-403100</v>
+        <v>-734200</v>
       </c>
       <c r="J33" s="3">
+        <v>-398900</v>
+      </c>
+      <c r="K33" s="3">
         <v>114100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>503500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3386100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1114100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2423600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>169200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>559600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>94300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>94500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1118200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-697800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>420000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-317400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>218800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-134900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>150500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-73700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>34800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-250600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>435500</v>
+        <v>890000</v>
       </c>
       <c r="E35" s="3">
-        <v>856400</v>
+        <v>431000</v>
       </c>
       <c r="F35" s="3">
-        <v>628500</v>
+        <v>847600</v>
       </c>
       <c r="G35" s="3">
-        <v>-429600</v>
+        <v>622000</v>
       </c>
       <c r="H35" s="3">
-        <v>-741800</v>
+        <v>-425200</v>
       </c>
       <c r="I35" s="3">
-        <v>-403100</v>
+        <v>-734200</v>
       </c>
       <c r="J35" s="3">
+        <v>-398900</v>
+      </c>
+      <c r="K35" s="3">
         <v>114100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>503500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3386100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1114100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2423600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>169200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>559600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>94300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>94500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1118200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-697800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>420000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-317400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>218800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-134900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>150500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-73700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>34800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-250600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,755 +3180,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11326000</v>
+        <v>10572100</v>
       </c>
       <c r="E41" s="3">
-        <v>11971600</v>
+        <v>11210100</v>
       </c>
       <c r="F41" s="3">
-        <v>11320300</v>
+        <v>11849100</v>
       </c>
       <c r="G41" s="3">
-        <v>12130600</v>
+        <v>11204400</v>
       </c>
       <c r="H41" s="3">
-        <v>10163600</v>
+        <v>12006400</v>
       </c>
       <c r="I41" s="3">
-        <v>12638200</v>
+        <v>10059500</v>
       </c>
       <c r="J41" s="3">
+        <v>12508900</v>
+      </c>
+      <c r="K41" s="3">
         <v>13981000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9940000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11983000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10773900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10546800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6867200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5692900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4946600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5007900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5202700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4975900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4758300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5055400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5051100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3812400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3207200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4134000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3435700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2263900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3611700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20264100</v>
+        <v>17404800</v>
       </c>
       <c r="E42" s="3">
-        <v>18447800</v>
+        <v>20056700</v>
       </c>
       <c r="F42" s="3">
-        <v>17553700</v>
+        <v>18259000</v>
       </c>
       <c r="G42" s="3">
-        <v>13801300</v>
+        <v>17374000</v>
       </c>
       <c r="H42" s="3">
-        <v>16453700</v>
+        <v>13660000</v>
       </c>
       <c r="I42" s="3">
-        <v>14699100</v>
+        <v>16285300</v>
       </c>
       <c r="J42" s="3">
+        <v>14548600</v>
+      </c>
+      <c r="K42" s="3">
         <v>10836500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8835100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8432300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7132600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7180900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4632500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3788300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3767300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3752600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>644900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>295600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>723900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1829700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1713700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1274500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2383300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1890700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3089800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2623300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1793200</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3837200</v>
+        <v>2975200</v>
       </c>
       <c r="E43" s="3">
-        <v>3478800</v>
+        <v>3798000</v>
       </c>
       <c r="F43" s="3">
-        <v>2803500</v>
+        <v>3443200</v>
       </c>
       <c r="G43" s="3">
-        <v>2371900</v>
+        <v>2774800</v>
       </c>
       <c r="H43" s="3">
-        <v>2499000</v>
+        <v>2347600</v>
       </c>
       <c r="I43" s="3">
-        <v>2487200</v>
+        <v>2473400</v>
       </c>
       <c r="J43" s="3">
+        <v>2461700</v>
+      </c>
+      <c r="K43" s="3">
         <v>3709000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2365400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2013200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2079900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1986200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1702600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1844100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2499900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2102900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1622800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2463500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2348300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3701700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2819300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4850500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5597400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6769800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5409200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4288500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4025000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11195000</v>
+        <v>8998000</v>
       </c>
       <c r="E44" s="3">
-        <v>10305700</v>
+        <v>11080500</v>
       </c>
       <c r="F44" s="3">
-        <v>10919300</v>
+        <v>10200300</v>
       </c>
       <c r="G44" s="3">
-        <v>9879600</v>
+        <v>10807500</v>
       </c>
       <c r="H44" s="3">
-        <v>10857800</v>
+        <v>9778500</v>
       </c>
       <c r="I44" s="3">
-        <v>8623500</v>
+        <v>10746700</v>
       </c>
       <c r="J44" s="3">
+        <v>8535300</v>
+      </c>
+      <c r="K44" s="3">
         <v>9445600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8285800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8203400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8155700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8027700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7980200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8920400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7431900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6954700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5841700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6394500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5578100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6227400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5188800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6188800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5388800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4622900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3906300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4204300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3287100</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3798900</v>
+        <v>3422000</v>
       </c>
       <c r="E45" s="3">
-        <v>3822200</v>
+        <v>3760000</v>
       </c>
       <c r="F45" s="3">
-        <v>3934900</v>
+        <v>3783000</v>
       </c>
       <c r="G45" s="3">
-        <v>3355700</v>
+        <v>3894600</v>
       </c>
       <c r="H45" s="3">
-        <v>3064900</v>
+        <v>3321300</v>
       </c>
       <c r="I45" s="3">
-        <v>3029600</v>
+        <v>3033500</v>
       </c>
       <c r="J45" s="3">
+        <v>2998600</v>
+      </c>
+      <c r="K45" s="3">
         <v>3046100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2252800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2052400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2445100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2537400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1621900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1172100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1310600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1654700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1212300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1098700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1921800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2095000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1439700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>945200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1774000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2015800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1285200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3842100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>840300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>50421200</v>
+        <v>43372100</v>
       </c>
       <c r="E46" s="3">
-        <v>48026100</v>
+        <v>49905200</v>
       </c>
       <c r="F46" s="3">
-        <v>46531600</v>
+        <v>47534500</v>
       </c>
       <c r="G46" s="3">
-        <v>41539100</v>
+        <v>46055300</v>
       </c>
       <c r="H46" s="3">
-        <v>43038900</v>
+        <v>41113900</v>
       </c>
       <c r="I46" s="3">
-        <v>41477600</v>
+        <v>42598400</v>
       </c>
       <c r="J46" s="3">
+        <v>41053100</v>
+      </c>
+      <c r="K46" s="3">
         <v>41018200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31679100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32684300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30587100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30279000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22804500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21417800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19956300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19472800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14524500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15228200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15330400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18909200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16212600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17071400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18350700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>19433200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17126200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>15551100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>13557200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9946000</v>
+        <v>9608900</v>
       </c>
       <c r="E47" s="3">
-        <v>10622300</v>
+        <v>9844200</v>
       </c>
       <c r="F47" s="3">
-        <v>10543300</v>
+        <v>10513600</v>
       </c>
       <c r="G47" s="3">
-        <v>10328400</v>
+        <v>10435400</v>
       </c>
       <c r="H47" s="3">
-        <v>11821400</v>
+        <v>10222700</v>
       </c>
       <c r="I47" s="3">
-        <v>12786100</v>
+        <v>11700400</v>
       </c>
       <c r="J47" s="3">
+        <v>12655200</v>
+      </c>
+      <c r="K47" s="3">
         <v>13323000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13426300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13584000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11753100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10996100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9079600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8775800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8358600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8423900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8106100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6863300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7013800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5555200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4438500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4241400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2881600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2652400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3265500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3299200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>3258900</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12711500</v>
+        <v>12663300</v>
       </c>
       <c r="E48" s="3">
-        <v>12085600</v>
+        <v>12581400</v>
       </c>
       <c r="F48" s="3">
-        <v>10451200</v>
+        <v>11961900</v>
       </c>
       <c r="G48" s="3">
-        <v>10029600</v>
+        <v>10344300</v>
       </c>
       <c r="H48" s="3">
-        <v>8437400</v>
+        <v>9926900</v>
       </c>
       <c r="I48" s="3">
-        <v>7529400</v>
+        <v>8351000</v>
       </c>
       <c r="J48" s="3">
+        <v>7452400</v>
+      </c>
+      <c r="K48" s="3">
         <v>7186400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6362600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6401400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6278600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5475000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5079500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5405300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5221700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4807300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4842500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4013700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3446300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2997300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2456000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2340500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1904000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1599700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1382600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1311100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1280900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9494700</v>
+        <v>9362000</v>
       </c>
       <c r="E49" s="3">
-        <v>9489700</v>
+        <v>9397500</v>
       </c>
       <c r="F49" s="3">
-        <v>7748400</v>
+        <v>9392600</v>
       </c>
       <c r="G49" s="3">
-        <v>7720900</v>
+        <v>7669100</v>
       </c>
       <c r="H49" s="3">
-        <v>4681700</v>
+        <v>7641800</v>
       </c>
       <c r="I49" s="3">
-        <v>4566700</v>
+        <v>4633800</v>
       </c>
       <c r="J49" s="3">
+        <v>4519900</v>
+      </c>
+      <c r="K49" s="3">
         <v>4465800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4137700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3966100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4229400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3622600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3318700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3333000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3303300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3256200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3246200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3214100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3076700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2868200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2862900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3026700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3021300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2440200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2475700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2513800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2566700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2916300</v>
+        <v>3323500</v>
       </c>
       <c r="E52" s="3">
-        <v>3012900</v>
+        <v>2886500</v>
       </c>
       <c r="F52" s="3">
-        <v>4249400</v>
+        <v>2982000</v>
       </c>
       <c r="G52" s="3">
-        <v>3942100</v>
+        <v>4205900</v>
       </c>
       <c r="H52" s="3">
-        <v>3329000</v>
+        <v>3901700</v>
       </c>
       <c r="I52" s="3">
-        <v>3015400</v>
+        <v>3294900</v>
       </c>
       <c r="J52" s="3">
+        <v>2984600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2388700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2162100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2146600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2308600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1568800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1633700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1060400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1013300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1545900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2025800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1057800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1019700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1040600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>618800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>635500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>620000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>687900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>580500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1665500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>85489800</v>
+        <v>78329800</v>
       </c>
       <c r="E54" s="3">
-        <v>83236600</v>
+        <v>84614800</v>
       </c>
       <c r="F54" s="3">
-        <v>79524000</v>
+        <v>82384600</v>
       </c>
       <c r="G54" s="3">
-        <v>73560000</v>
+        <v>78710000</v>
       </c>
       <c r="H54" s="3">
-        <v>71308300</v>
+        <v>72807100</v>
       </c>
       <c r="I54" s="3">
-        <v>69375200</v>
+        <v>70578500</v>
       </c>
       <c r="J54" s="3">
+        <v>68665100</v>
+      </c>
+      <c r="K54" s="3">
         <v>68382000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57767800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58782500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55156900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>51941500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41916200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39992300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37853200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37506100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32745200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30377000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>29887000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31370400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>26588900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>27315600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>26777600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>26813400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>24830500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>23323100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>20972500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23136500</v>
+        <v>17298400</v>
       </c>
       <c r="E57" s="3">
-        <v>21669400</v>
+        <v>22899700</v>
       </c>
       <c r="F57" s="3">
-        <v>23014700</v>
+        <v>21447600</v>
       </c>
       <c r="G57" s="3">
-        <v>18017400</v>
+        <v>22779100</v>
       </c>
       <c r="H57" s="3">
-        <v>20250900</v>
+        <v>17833000</v>
       </c>
       <c r="I57" s="3">
-        <v>18220900</v>
+        <v>20043600</v>
       </c>
       <c r="J57" s="3">
+        <v>18034400</v>
+      </c>
+      <c r="K57" s="3">
         <v>18431300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13566400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14950600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15570300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14940700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12266000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13973100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13355500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14326200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10927000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11647500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10957000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12582100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8938300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11032500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10032000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10014300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6362200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>6695000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6031800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1744400</v>
+        <v>2029900</v>
       </c>
       <c r="E58" s="3">
-        <v>2584600</v>
+        <v>1726600</v>
       </c>
       <c r="F58" s="3">
-        <v>1975300</v>
+        <v>2558100</v>
       </c>
       <c r="G58" s="3">
-        <v>2463200</v>
+        <v>1955100</v>
       </c>
       <c r="H58" s="3">
-        <v>627300</v>
+        <v>2438000</v>
       </c>
       <c r="I58" s="3">
-        <v>1009300</v>
+        <v>620900</v>
       </c>
       <c r="J58" s="3">
+        <v>999000</v>
+      </c>
+      <c r="K58" s="3">
         <v>80800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>598900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>453800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>934600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1815600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1357000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>21000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>285600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>660100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1340300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1701400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1939000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1912200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1825900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1807800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2944100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1615600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13402600</v>
+        <v>12539100</v>
       </c>
       <c r="E59" s="3">
-        <v>12560400</v>
+        <v>13265400</v>
       </c>
       <c r="F59" s="3">
-        <v>11702900</v>
+        <v>12431900</v>
       </c>
       <c r="G59" s="3">
-        <v>10973000</v>
+        <v>11583100</v>
       </c>
       <c r="H59" s="3">
-        <v>10953200</v>
+        <v>10860700</v>
       </c>
       <c r="I59" s="3">
-        <v>10092500</v>
+        <v>10841100</v>
       </c>
       <c r="J59" s="3">
+        <v>9989200</v>
+      </c>
+      <c r="K59" s="3">
         <v>9769000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8417900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8818700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8928800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8582000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7926600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7586700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7088800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7054300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6348400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5245200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4735000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4852800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4456200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4604900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4511800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4433200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6832000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>6921700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38283500</v>
+        <v>31867300</v>
       </c>
       <c r="E60" s="3">
-        <v>36814400</v>
+        <v>37891600</v>
       </c>
       <c r="F60" s="3">
-        <v>36692900</v>
+        <v>36437600</v>
       </c>
       <c r="G60" s="3">
-        <v>31453600</v>
+        <v>36317300</v>
       </c>
       <c r="H60" s="3">
-        <v>31831400</v>
+        <v>31131700</v>
       </c>
       <c r="I60" s="3">
-        <v>29322800</v>
+        <v>31505600</v>
       </c>
       <c r="J60" s="3">
+        <v>29022600</v>
+      </c>
+      <c r="K60" s="3">
         <v>28281100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22583300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24223100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25433700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25338300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21549600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21559800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20444300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21401500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17561000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17552800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17032300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19136300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15333500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>17549600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>16369700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>16255400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>16138300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>15232400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>12899100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4342100</v>
+        <v>4170100</v>
       </c>
       <c r="E61" s="3">
-        <v>4109400</v>
+        <v>4297600</v>
       </c>
       <c r="F61" s="3">
-        <v>3541500</v>
+        <v>4067300</v>
       </c>
       <c r="G61" s="3">
-        <v>2241800</v>
+        <v>3505300</v>
       </c>
       <c r="H61" s="3">
-        <v>1348000</v>
+        <v>2218800</v>
       </c>
       <c r="I61" s="3">
-        <v>1794200</v>
+        <v>1334200</v>
       </c>
       <c r="J61" s="3">
+        <v>1775800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1782600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1757100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1744300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1943300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2002600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2702700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1547800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1568600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1512300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1480700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1434100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1384800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1408600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1036900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1621000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2315500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2602100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1957100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1330600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1488500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3494700</v>
+        <v>3342500</v>
       </c>
       <c r="E62" s="3">
-        <v>3372200</v>
+        <v>3458900</v>
       </c>
       <c r="F62" s="3">
-        <v>3107600</v>
+        <v>3337700</v>
       </c>
       <c r="G62" s="3">
-        <v>3121600</v>
+        <v>3075800</v>
       </c>
       <c r="H62" s="3">
-        <v>2685800</v>
+        <v>3089600</v>
       </c>
       <c r="I62" s="3">
-        <v>2475900</v>
+        <v>2658300</v>
       </c>
       <c r="J62" s="3">
+        <v>2450600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2498700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1952600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1965700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1980600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1611900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1376100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1390500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1409600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1145200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>914000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>232400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>255700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>295100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>326300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>370000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>400900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>438400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>471400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>765600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54846200</v>
+        <v>48264200</v>
       </c>
       <c r="E66" s="3">
-        <v>52765700</v>
+        <v>54284800</v>
       </c>
       <c r="F66" s="3">
-        <v>50611000</v>
+        <v>52225600</v>
       </c>
       <c r="G66" s="3">
-        <v>43903900</v>
+        <v>50092900</v>
       </c>
       <c r="H66" s="3">
-        <v>41304500</v>
+        <v>43454500</v>
       </c>
       <c r="I66" s="3">
-        <v>38451800</v>
+        <v>40881800</v>
       </c>
       <c r="J66" s="3">
+        <v>38058200</v>
+      </c>
+      <c r="K66" s="3">
         <v>37251100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31504700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32676400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32970600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31849600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28618600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27388100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26166900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26836400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22565900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21696500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20936000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23011700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>18812300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19592200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19135000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19340200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>19650900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>18394100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,16 +5682,19 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>10</v>
+      <c r="E72" s="3">
+        <v>4659300</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
@@ -5528,11 +5702,11 @@
       <c r="G72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="3">
-        <v>5082900</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I72" s="3">
+        <v>5030800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
@@ -5540,23 +5714,23 @@
       <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M72" s="3">
         <v>5422100</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1479900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1609600</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>10</v>
@@ -5564,11 +5738,11 @@
       <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U72" s="3">
         <v>-3287700</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>10</v>
@@ -5576,26 +5750,29 @@
       <c r="W72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-3205500</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-3104800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-3159800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-2968300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30643600</v>
+        <v>30065600</v>
       </c>
       <c r="E76" s="3">
-        <v>30470900</v>
+        <v>30330000</v>
       </c>
       <c r="F76" s="3">
-        <v>28913000</v>
+        <v>30159000</v>
       </c>
       <c r="G76" s="3">
-        <v>29656100</v>
+        <v>28617100</v>
       </c>
       <c r="H76" s="3">
-        <v>30003800</v>
+        <v>29352600</v>
       </c>
       <c r="I76" s="3">
-        <v>30923400</v>
+        <v>29696700</v>
       </c>
       <c r="J76" s="3">
+        <v>30606900</v>
+      </c>
+      <c r="K76" s="3">
         <v>31130900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26263200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26106000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22186300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20091900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13297600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12604200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11686300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10669800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10179200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8680500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8951000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8358800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7776600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7723400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7642600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7473100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5179500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>4929000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>5128500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>435500</v>
+        <v>890000</v>
       </c>
       <c r="E81" s="3">
-        <v>856400</v>
+        <v>431000</v>
       </c>
       <c r="F81" s="3">
-        <v>628500</v>
+        <v>847600</v>
       </c>
       <c r="G81" s="3">
-        <v>-429600</v>
+        <v>622000</v>
       </c>
       <c r="H81" s="3">
-        <v>-741800</v>
+        <v>-425200</v>
       </c>
       <c r="I81" s="3">
-        <v>-403100</v>
+        <v>-734200</v>
       </c>
       <c r="J81" s="3">
+        <v>-398900</v>
+      </c>
+      <c r="K81" s="3">
         <v>114100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>503500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3386100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1114100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2423600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>169200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>559600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>94300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>94500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1118200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-697800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>420000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-317400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>218800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-134900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>150500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-73700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>34800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-250600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2655000</v>
+        <v>-3071400</v>
       </c>
       <c r="E89" s="3">
-        <v>1314300</v>
+        <v>2627800</v>
       </c>
       <c r="F89" s="3">
-        <v>4835300</v>
+        <v>1300800</v>
       </c>
       <c r="G89" s="3">
-        <v>-500500</v>
+        <v>4785800</v>
       </c>
       <c r="H89" s="3">
-        <v>929500</v>
+        <v>-495400</v>
       </c>
       <c r="I89" s="3">
-        <v>2075000</v>
+        <v>920000</v>
       </c>
       <c r="J89" s="3">
+        <v>2053700</v>
+      </c>
+      <c r="K89" s="3">
         <v>4149200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1045200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>725700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1806000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3922400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-243300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>194300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3085000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>507700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>875500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>309700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2355000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-541300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>52300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2767300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>650300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-433900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1047900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2571900</v>
+        <v>2372800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1400900</v>
+        <v>-2545600</v>
       </c>
       <c r="F94" s="3">
-        <v>-4441600</v>
+        <v>-1386500</v>
       </c>
       <c r="G94" s="3">
-        <v>655200</v>
+        <v>-4396100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2698000</v>
+        <v>648500</v>
       </c>
       <c r="I94" s="3">
-        <v>-4273700</v>
+        <v>-2670300</v>
       </c>
       <c r="J94" s="3">
+        <v>-4230000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2595800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1062300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1907800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1844800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3446700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1293100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>377600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-873100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3212700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-168500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-317800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-364300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2919400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-135000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>624600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-620100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4568600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-980900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2206600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3057800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-608200</v>
+        <v>178400</v>
       </c>
       <c r="E100" s="3">
-        <v>578600</v>
+        <v>-602000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1624200</v>
+        <v>572700</v>
       </c>
       <c r="G100" s="3">
-        <v>1823300</v>
+        <v>-1607600</v>
       </c>
       <c r="H100" s="3">
-        <v>-492100</v>
+        <v>1804600</v>
       </c>
       <c r="I100" s="3">
-        <v>873000</v>
+        <v>-487100</v>
       </c>
       <c r="J100" s="3">
+        <v>864000</v>
+      </c>
+      <c r="K100" s="3">
         <v>2505200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-82400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3259000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>606800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4193100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2380000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>475500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>383300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-68600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-390500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-569400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-419200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>692900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1909300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-564100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-229500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2462600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1161900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1772300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-140200</v>
+        <v>-103200</v>
       </c>
       <c r="E101" s="3">
-        <v>258200</v>
+        <v>-138700</v>
       </c>
       <c r="F101" s="3">
-        <v>449100</v>
+        <v>255600</v>
       </c>
       <c r="G101" s="3">
-        <v>-65900</v>
+        <v>444500</v>
       </c>
       <c r="H101" s="3">
-        <v>-206300</v>
+        <v>-65200</v>
       </c>
       <c r="I101" s="3">
-        <v>44600</v>
+        <v>-204200</v>
       </c>
       <c r="J101" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-138900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>82900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-413700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-392000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>96100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-60200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>123900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>63500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-64700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-19000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>150400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>171000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-65200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-31600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-44300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-13900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>42400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-665400</v>
+        <v>-623500</v>
       </c>
       <c r="E102" s="3">
-        <v>750300</v>
+        <v>-658600</v>
       </c>
       <c r="F102" s="3">
-        <v>-781400</v>
+        <v>742600</v>
       </c>
       <c r="G102" s="3">
-        <v>1912000</v>
+        <v>-773400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2466900</v>
+        <v>1892400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1281200</v>
+        <v>-2441600</v>
       </c>
       <c r="J102" s="3">
+        <v>-1268100</v>
+      </c>
+      <c r="K102" s="3">
         <v>3919700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2107000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1663300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>176100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4659800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>939800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>793500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-171600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-132900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-115900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-30700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-323400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>299400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1167700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>605200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1085000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>515000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>825900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-736300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1679300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34536200</v>
+        <v>39671100</v>
       </c>
       <c r="E8" s="3">
-        <v>41997600</v>
+        <v>33474500</v>
       </c>
       <c r="F8" s="3">
-        <v>34618500</v>
+        <v>40706500</v>
       </c>
       <c r="G8" s="3">
-        <v>38039300</v>
+        <v>33554300</v>
       </c>
       <c r="H8" s="3">
-        <v>34067000</v>
+        <v>36869900</v>
       </c>
       <c r="I8" s="3">
-        <v>39220200</v>
+        <v>33019700</v>
       </c>
       <c r="J8" s="3">
+        <v>38014500</v>
+      </c>
+      <c r="K8" s="3">
         <v>31089400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36450800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28282100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31226500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25672200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29627300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23065300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26281900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20763100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22959900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18498800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19581700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14663400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>17546300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>14366400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>16349600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12428800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>13832100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10939000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11548800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>8751100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29416200</v>
+        <v>33962500</v>
       </c>
       <c r="E9" s="3">
-        <v>36093200</v>
+        <v>28511900</v>
       </c>
       <c r="F9" s="3">
-        <v>29473200</v>
+        <v>34983600</v>
       </c>
       <c r="G9" s="3">
-        <v>32937000</v>
+        <v>28567200</v>
       </c>
       <c r="H9" s="3">
-        <v>29312600</v>
+        <v>31924500</v>
       </c>
       <c r="I9" s="3">
-        <v>33943300</v>
+        <v>28411500</v>
       </c>
       <c r="J9" s="3">
+        <v>32899800</v>
+      </c>
+      <c r="K9" s="3">
         <v>26669600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31893800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>24228300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>26891500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>21723700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>25407600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19510100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22586700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17665900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19579600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15720700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16797400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12408700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>15176900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12334900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>14218500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>10502000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11955000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>18670800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>19852900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>14923400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5120000</v>
+        <v>5708600</v>
       </c>
       <c r="E10" s="3">
-        <v>5904500</v>
+        <v>4962600</v>
       </c>
       <c r="F10" s="3">
-        <v>5145300</v>
+        <v>5723000</v>
       </c>
       <c r="G10" s="3">
-        <v>5102300</v>
+        <v>4987100</v>
       </c>
       <c r="H10" s="3">
-        <v>4754300</v>
+        <v>4945500</v>
       </c>
       <c r="I10" s="3">
-        <v>5276800</v>
+        <v>4608200</v>
       </c>
       <c r="J10" s="3">
+        <v>5114600</v>
+      </c>
+      <c r="K10" s="3">
         <v>4419800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4557000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4053800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4335000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3948500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4219700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3555200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3695200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3097200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3380300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2778100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2784300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2254700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2369400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2031400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2131100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1926800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1877100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-7731900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-8304100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>-6172300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>582200</v>
+        <v>549600</v>
       </c>
       <c r="E12" s="3">
-        <v>607800</v>
+        <v>564300</v>
       </c>
       <c r="F12" s="3">
-        <v>573300</v>
+        <v>589100</v>
       </c>
       <c r="G12" s="3">
-        <v>563900</v>
+        <v>555700</v>
       </c>
       <c r="H12" s="3">
-        <v>617800</v>
+        <v>546600</v>
       </c>
       <c r="I12" s="3">
-        <v>579800</v>
+        <v>598800</v>
       </c>
       <c r="J12" s="3">
+        <v>562000</v>
+      </c>
+      <c r="K12" s="3">
         <v>565400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>526700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>627000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>623400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>601500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>527400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>616900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>549200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>548200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>565400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>564000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>505400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>478900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>395500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>342700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>302600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>257500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>226400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>184500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>168700</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>175700</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,180 +1262,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-70100</v>
+        <v>-143000</v>
       </c>
       <c r="E14" s="3">
-        <v>-11800</v>
+        <v>-67900</v>
       </c>
       <c r="F14" s="3">
-        <v>-178500</v>
+        <v>-11400</v>
       </c>
       <c r="G14" s="3">
-        <v>-4400</v>
+        <v>-173100</v>
       </c>
       <c r="H14" s="3">
-        <v>504500</v>
+        <v>-4300</v>
       </c>
       <c r="I14" s="3">
-        <v>-2600</v>
+        <v>489000</v>
       </c>
       <c r="J14" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-82300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-12500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-11500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-154400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-50700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-28800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-598200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>3100</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>63400</v>
+        <v>60300</v>
       </c>
       <c r="E15" s="3">
-        <v>62400</v>
+        <v>61400</v>
       </c>
       <c r="F15" s="3">
-        <v>63000</v>
+        <v>60500</v>
       </c>
       <c r="G15" s="3">
-        <v>59400</v>
+        <v>61000</v>
       </c>
       <c r="H15" s="3">
-        <v>55700</v>
+        <v>57600</v>
       </c>
       <c r="I15" s="3">
-        <v>53600</v>
+        <v>54000</v>
       </c>
       <c r="J15" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K15" s="3">
         <v>53400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>53300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>50600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>51900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>50300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>43800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>44500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>72600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>22500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>67800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>65800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>63900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>64600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>64000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>66700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>66300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>65700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>63900</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>65100</v>
       </c>
       <c r="AD15" s="3">
         <v>65100</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>65100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33619600</v>
+        <v>38527700</v>
       </c>
       <c r="E17" s="3">
-        <v>41320900</v>
+        <v>32586100</v>
       </c>
       <c r="F17" s="3">
-        <v>33374000</v>
+        <v>40050600</v>
       </c>
       <c r="G17" s="3">
-        <v>37500700</v>
+        <v>32348000</v>
       </c>
       <c r="H17" s="3">
-        <v>34229000</v>
+        <v>36347900</v>
       </c>
       <c r="I17" s="3">
-        <v>39275900</v>
+        <v>33176700</v>
       </c>
       <c r="J17" s="3">
+        <v>38068500</v>
+      </c>
+      <c r="K17" s="3">
         <v>30723700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36407600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28051100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31143700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25026300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28884000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22699300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26200400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19997300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22613600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18311500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19718100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14754400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17694700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14365700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>16586500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>12354200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>13891900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10842800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>11598000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8785200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>916600</v>
+        <v>1143400</v>
       </c>
       <c r="E18" s="3">
-        <v>676800</v>
+        <v>888400</v>
       </c>
       <c r="F18" s="3">
-        <v>1244500</v>
+        <v>656000</v>
       </c>
       <c r="G18" s="3">
-        <v>538600</v>
+        <v>1206300</v>
       </c>
       <c r="H18" s="3">
-        <v>-162100</v>
+        <v>522000</v>
       </c>
       <c r="I18" s="3">
-        <v>-55700</v>
+        <v>-157100</v>
       </c>
       <c r="J18" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="K18" s="3">
         <v>365700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>231000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>82800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>645900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>743300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>366100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>81500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>765800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>346300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>187200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-136400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-91100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-148400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-236900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>74600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-59800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>96200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-49200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-34100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>277200</v>
+        <v>287800</v>
       </c>
       <c r="E20" s="3">
-        <v>-35100</v>
+        <v>268700</v>
       </c>
       <c r="F20" s="3">
-        <v>-66200</v>
+        <v>-34000</v>
       </c>
       <c r="G20" s="3">
-        <v>277300</v>
+        <v>-64200</v>
       </c>
       <c r="H20" s="3">
-        <v>-203300</v>
+        <v>268800</v>
       </c>
       <c r="I20" s="3">
-        <v>-610400</v>
+        <v>-197000</v>
       </c>
       <c r="J20" s="3">
+        <v>-591600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-698300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>140600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>378600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3292200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>617500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1840500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-115100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>573300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-562800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-172200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>990200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-542100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>534700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-120500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>265800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>95700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>120500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>42100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-15000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-113100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1472400</v>
+        <v>1444200</v>
       </c>
       <c r="E21" s="3">
-        <v>658300</v>
+        <v>1427100</v>
       </c>
       <c r="F21" s="3">
-        <v>1200200</v>
+        <v>638100</v>
       </c>
       <c r="G21" s="3">
-        <v>821800</v>
+        <v>1163300</v>
       </c>
       <c r="H21" s="3">
-        <v>-127700</v>
+        <v>796500</v>
       </c>
       <c r="I21" s="3">
-        <v>-661700</v>
+        <v>-123700</v>
       </c>
       <c r="J21" s="3">
+        <v>-641300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-321900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>153900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>841900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3397100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1272200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2592000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>472700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>658500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>207000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>126300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1433100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-660600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>476100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-259600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>437800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-31900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>117300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-15000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>219700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-158100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>83900</v>
+        <v>90100</v>
       </c>
       <c r="E22" s="3">
-        <v>99200</v>
+        <v>81300</v>
       </c>
       <c r="F22" s="3">
-        <v>82300</v>
+        <v>96200</v>
       </c>
       <c r="G22" s="3">
-        <v>68800</v>
+        <v>79800</v>
       </c>
       <c r="H22" s="3">
-        <v>49000</v>
+        <v>66700</v>
       </c>
       <c r="I22" s="3">
-        <v>63500</v>
+        <v>47500</v>
       </c>
       <c r="J22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K22" s="3">
         <v>39300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>41200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>43900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>47800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>32700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>33800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>25100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>28600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>21000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>33700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>34400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>32800</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>42000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>30900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>27600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>9200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1109900</v>
+        <v>1341200</v>
       </c>
       <c r="E23" s="3">
-        <v>542400</v>
+        <v>1075800</v>
       </c>
       <c r="F23" s="3">
-        <v>1096000</v>
+        <v>525800</v>
       </c>
       <c r="G23" s="3">
-        <v>747100</v>
+        <v>1062300</v>
       </c>
       <c r="H23" s="3">
-        <v>-414400</v>
+        <v>724200</v>
       </c>
       <c r="I23" s="3">
-        <v>-729600</v>
+        <v>-401600</v>
       </c>
       <c r="J23" s="3">
+        <v>-707200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-371900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>150400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>573800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3333800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1219500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2536000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>218300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>621000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>177900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>150400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1148800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-699500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>409900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-303300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>233600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-141200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>153100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-48600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>53600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-171500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-70600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>228700</v>
+        <v>387300</v>
       </c>
       <c r="E24" s="3">
-        <v>84600</v>
+        <v>221700</v>
       </c>
       <c r="F24" s="3">
-        <v>248900</v>
+        <v>82000</v>
       </c>
       <c r="G24" s="3">
-        <v>174400</v>
+        <v>241300</v>
       </c>
       <c r="H24" s="3">
-        <v>85700</v>
+        <v>169100</v>
       </c>
       <c r="I24" s="3">
-        <v>26400</v>
+        <v>83100</v>
       </c>
       <c r="J24" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K24" s="3">
         <v>92700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>81800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>66700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-46200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>101700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>117400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>51500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>73800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>93100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>67000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>42700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>23400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>21700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>13000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>14600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>881200</v>
+        <v>953900</v>
       </c>
       <c r="E26" s="3">
-        <v>457900</v>
+        <v>854100</v>
       </c>
       <c r="F26" s="3">
-        <v>847100</v>
+        <v>443800</v>
       </c>
       <c r="G26" s="3">
-        <v>572700</v>
+        <v>821000</v>
       </c>
       <c r="H26" s="3">
-        <v>-500100</v>
+        <v>555100</v>
       </c>
       <c r="I26" s="3">
-        <v>-756000</v>
+        <v>-484700</v>
       </c>
       <c r="J26" s="3">
+        <v>-732800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-464600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>68600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>507000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3380000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1117800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2418600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>166800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>547200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>84800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>83400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1106100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-708400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>402600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-326700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>212000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-143100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>145200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-46200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>40500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-186100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-70900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>890000</v>
+        <v>906700</v>
       </c>
       <c r="E27" s="3">
-        <v>431000</v>
+        <v>862600</v>
       </c>
       <c r="F27" s="3">
-        <v>847600</v>
+        <v>417700</v>
       </c>
       <c r="G27" s="3">
-        <v>622000</v>
+        <v>821600</v>
       </c>
       <c r="H27" s="3">
-        <v>-425200</v>
+        <v>602900</v>
       </c>
       <c r="I27" s="3">
-        <v>-734200</v>
+        <v>-412100</v>
       </c>
       <c r="J27" s="3">
+        <v>-711600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-398900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>114100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>503500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3386100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1114100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2423600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>169200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>559600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>94300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>94500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1118200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-697800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>420000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-317400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>218800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-134900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>150500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-42600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>43500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-183400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2499,19 +2560,22 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-31100</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-8700</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-67100</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-66100</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-277200</v>
+        <v>-287800</v>
       </c>
       <c r="E32" s="3">
-        <v>35100</v>
+        <v>-268700</v>
       </c>
       <c r="F32" s="3">
-        <v>66200</v>
+        <v>34000</v>
       </c>
       <c r="G32" s="3">
-        <v>-277300</v>
+        <v>64200</v>
       </c>
       <c r="H32" s="3">
-        <v>203300</v>
+        <v>-268800</v>
       </c>
       <c r="I32" s="3">
-        <v>610400</v>
+        <v>197000</v>
       </c>
       <c r="J32" s="3">
+        <v>591600</v>
+      </c>
+      <c r="K32" s="3">
         <v>698300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-140600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-378600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3292200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-617500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1840500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>115100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-573300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>562800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>172200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-990200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>542100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-534700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>120500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-265800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-95700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-120500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-42100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>15000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>113100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>890000</v>
+        <v>906700</v>
       </c>
       <c r="E33" s="3">
-        <v>431000</v>
+        <v>862600</v>
       </c>
       <c r="F33" s="3">
-        <v>847600</v>
+        <v>417700</v>
       </c>
       <c r="G33" s="3">
-        <v>622000</v>
+        <v>821600</v>
       </c>
       <c r="H33" s="3">
-        <v>-425200</v>
+        <v>602900</v>
       </c>
       <c r="I33" s="3">
-        <v>-734200</v>
+        <v>-412100</v>
       </c>
       <c r="J33" s="3">
+        <v>-711600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-398900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>114100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>503500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3386100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1114100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2423600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>169200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>559600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>94300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>94500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1118200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-697800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>420000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-317400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>218800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-134900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>150500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-73700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>34800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-250600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>890000</v>
+        <v>906700</v>
       </c>
       <c r="E35" s="3">
-        <v>431000</v>
+        <v>862600</v>
       </c>
       <c r="F35" s="3">
-        <v>847600</v>
+        <v>417700</v>
       </c>
       <c r="G35" s="3">
-        <v>622000</v>
+        <v>821600</v>
       </c>
       <c r="H35" s="3">
-        <v>-425200</v>
+        <v>602900</v>
       </c>
       <c r="I35" s="3">
-        <v>-734200</v>
+        <v>-412100</v>
       </c>
       <c r="J35" s="3">
+        <v>-711600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-398900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>114100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>503500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3386100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1114100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2423600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>169200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>559600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>94300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>94500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1118200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-697800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>420000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-317400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>218800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-134900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>150500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-73700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>34800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-250600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,782 +3267,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10572100</v>
+        <v>12540700</v>
       </c>
       <c r="E41" s="3">
-        <v>11210100</v>
+        <v>10247100</v>
       </c>
       <c r="F41" s="3">
-        <v>11849100</v>
+        <v>10865500</v>
       </c>
       <c r="G41" s="3">
-        <v>11204400</v>
+        <v>11484800</v>
       </c>
       <c r="H41" s="3">
-        <v>12006400</v>
+        <v>10860000</v>
       </c>
       <c r="I41" s="3">
-        <v>10059500</v>
+        <v>11637300</v>
       </c>
       <c r="J41" s="3">
+        <v>9750300</v>
+      </c>
+      <c r="K41" s="3">
         <v>12508900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13981000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9940000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11983000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10773900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10546800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6867200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5692900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4946600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5007900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5202700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4975900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4758300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5055400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5051100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3812400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3207200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4134000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3435700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2263900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3611700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17404800</v>
+        <v>19854200</v>
       </c>
       <c r="E42" s="3">
-        <v>20056700</v>
+        <v>16869800</v>
       </c>
       <c r="F42" s="3">
-        <v>18259000</v>
+        <v>19440100</v>
       </c>
       <c r="G42" s="3">
-        <v>17374000</v>
+        <v>17697700</v>
       </c>
       <c r="H42" s="3">
-        <v>13660000</v>
+        <v>16839900</v>
       </c>
       <c r="I42" s="3">
-        <v>16285300</v>
+        <v>13240100</v>
       </c>
       <c r="J42" s="3">
+        <v>15784600</v>
+      </c>
+      <c r="K42" s="3">
         <v>14548600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10836500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8835100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8432300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7132600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7180900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4632500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3788300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3767300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3752600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>644900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>295600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>723900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1829700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1713700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1274500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2383300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1890700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3089800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>2623300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1793200</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2975200</v>
+        <v>3358800</v>
       </c>
       <c r="E43" s="3">
-        <v>3798000</v>
+        <v>2883700</v>
       </c>
       <c r="F43" s="3">
-        <v>3443200</v>
+        <v>3681200</v>
       </c>
       <c r="G43" s="3">
-        <v>2774800</v>
+        <v>3337300</v>
       </c>
       <c r="H43" s="3">
-        <v>2347600</v>
+        <v>2689500</v>
       </c>
       <c r="I43" s="3">
-        <v>2473400</v>
+        <v>2275400</v>
       </c>
       <c r="J43" s="3">
+        <v>2397400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2461700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3709000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2365400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2013200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2079900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1986200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1702600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1844100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2499900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2102900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1622800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2463500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2348300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3701700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2819300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4850500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5597400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6769800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5409200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4288500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>4025000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8998000</v>
+        <v>8757600</v>
       </c>
       <c r="E44" s="3">
-        <v>11080500</v>
+        <v>8721300</v>
       </c>
       <c r="F44" s="3">
-        <v>10200300</v>
+        <v>10739800</v>
       </c>
       <c r="G44" s="3">
-        <v>10807500</v>
+        <v>9886700</v>
       </c>
       <c r="H44" s="3">
-        <v>9778500</v>
+        <v>10475300</v>
       </c>
       <c r="I44" s="3">
-        <v>10746700</v>
+        <v>9477900</v>
       </c>
       <c r="J44" s="3">
+        <v>10416300</v>
+      </c>
+      <c r="K44" s="3">
         <v>8535300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9445600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8285800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8203400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8155700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8027700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7980200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8920400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7431900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6954700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5841700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6394500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5578100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6227400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5188800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6188800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5388800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4622900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3906300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4204300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3287100</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3422000</v>
+        <v>3599200</v>
       </c>
       <c r="E45" s="3">
-        <v>3760000</v>
+        <v>3316800</v>
       </c>
       <c r="F45" s="3">
-        <v>3783000</v>
+        <v>3644400</v>
       </c>
       <c r="G45" s="3">
-        <v>3894600</v>
+        <v>3666700</v>
       </c>
       <c r="H45" s="3">
-        <v>3321300</v>
+        <v>3774900</v>
       </c>
       <c r="I45" s="3">
-        <v>3033500</v>
+        <v>3219200</v>
       </c>
       <c r="J45" s="3">
+        <v>2940200</v>
+      </c>
+      <c r="K45" s="3">
         <v>2998600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3046100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2252800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2052400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2445100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2537400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1621900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1172100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1310600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1654700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1212300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1098700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1921800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2095000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1439700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>945200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1774000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2015800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1285200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3842100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>840300</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>43372100</v>
+        <v>48110600</v>
       </c>
       <c r="E46" s="3">
-        <v>49905200</v>
+        <v>42038700</v>
       </c>
       <c r="F46" s="3">
-        <v>47534500</v>
+        <v>48371000</v>
       </c>
       <c r="G46" s="3">
-        <v>46055300</v>
+        <v>46073200</v>
       </c>
       <c r="H46" s="3">
-        <v>41113900</v>
+        <v>44639500</v>
       </c>
       <c r="I46" s="3">
-        <v>42598400</v>
+        <v>39850000</v>
       </c>
       <c r="J46" s="3">
+        <v>41288800</v>
+      </c>
+      <c r="K46" s="3">
         <v>41053100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41018200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31679100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32684300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30587100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30279000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22804500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21417800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19956300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19472800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14524500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15228200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15330400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18909200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16212600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17071400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>18350700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>19433200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>17126200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>15551100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>13557200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9608900</v>
+        <v>8907100</v>
       </c>
       <c r="E47" s="3">
-        <v>9844200</v>
+        <v>9313500</v>
       </c>
       <c r="F47" s="3">
-        <v>10513600</v>
+        <v>9541500</v>
       </c>
       <c r="G47" s="3">
-        <v>10435400</v>
+        <v>10190300</v>
       </c>
       <c r="H47" s="3">
-        <v>10222700</v>
+        <v>10114600</v>
       </c>
       <c r="I47" s="3">
-        <v>11700400</v>
+        <v>9908400</v>
       </c>
       <c r="J47" s="3">
+        <v>11340700</v>
+      </c>
+      <c r="K47" s="3">
         <v>12655200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13323000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13426300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13584000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11753100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10996100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9079600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8775800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8358600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8423900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8106100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6863300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7013800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5555200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4438500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4241400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2881600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2652400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3265500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>3299200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>3258900</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12663300</v>
+        <v>12691600</v>
       </c>
       <c r="E48" s="3">
-        <v>12581400</v>
+        <v>12274000</v>
       </c>
       <c r="F48" s="3">
-        <v>11961900</v>
+        <v>12194600</v>
       </c>
       <c r="G48" s="3">
-        <v>10344300</v>
+        <v>11594200</v>
       </c>
       <c r="H48" s="3">
-        <v>9926900</v>
+        <v>10026300</v>
       </c>
       <c r="I48" s="3">
-        <v>8351000</v>
+        <v>9621700</v>
       </c>
       <c r="J48" s="3">
+        <v>8094300</v>
+      </c>
+      <c r="K48" s="3">
         <v>7452400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7186400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6362600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6401400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6278600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5475000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5079500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5405300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5221700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4807300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4842500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4013700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3446300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2997300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2456000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2340500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1904000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1599700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1382600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1311100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1280900</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9362000</v>
+        <v>9550400</v>
       </c>
       <c r="E49" s="3">
-        <v>9397500</v>
+        <v>9074200</v>
       </c>
       <c r="F49" s="3">
-        <v>9392600</v>
+        <v>9108600</v>
       </c>
       <c r="G49" s="3">
-        <v>7669100</v>
+        <v>9103800</v>
       </c>
       <c r="H49" s="3">
-        <v>7641800</v>
+        <v>7433400</v>
       </c>
       <c r="I49" s="3">
-        <v>4633800</v>
+        <v>7406900</v>
       </c>
       <c r="J49" s="3">
+        <v>4491400</v>
+      </c>
+      <c r="K49" s="3">
         <v>4519900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4465800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4137700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3966100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4229400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3622600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3318700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3333000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3303300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3256200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3246200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3214100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3076700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2868200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2862900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3026700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3021300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2440200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2475700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2513800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2566700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3323500</v>
+        <v>3949100</v>
       </c>
       <c r="E52" s="3">
-        <v>2886500</v>
+        <v>3221300</v>
       </c>
       <c r="F52" s="3">
-        <v>2982000</v>
+        <v>2797800</v>
       </c>
       <c r="G52" s="3">
-        <v>4205900</v>
+        <v>2890300</v>
       </c>
       <c r="H52" s="3">
-        <v>3901700</v>
+        <v>4076600</v>
       </c>
       <c r="I52" s="3">
-        <v>3294900</v>
+        <v>3781800</v>
       </c>
       <c r="J52" s="3">
+        <v>3193600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2984600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2388700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2162100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2146600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2308600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1568800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1633700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1060400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1013300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1545900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2025800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1057800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1019700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1040600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>618800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>635500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>620000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>687900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>580500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1665500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78329800</v>
+        <v>83208600</v>
       </c>
       <c r="E54" s="3">
-        <v>84614800</v>
+        <v>75921700</v>
       </c>
       <c r="F54" s="3">
-        <v>82384600</v>
+        <v>82013500</v>
       </c>
       <c r="G54" s="3">
-        <v>78710000</v>
+        <v>79851900</v>
       </c>
       <c r="H54" s="3">
-        <v>72807100</v>
+        <v>76290300</v>
       </c>
       <c r="I54" s="3">
-        <v>70578500</v>
+        <v>70568800</v>
       </c>
       <c r="J54" s="3">
+        <v>68408700</v>
+      </c>
+      <c r="K54" s="3">
         <v>68665100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68382000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57767800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58782500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55156900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>51941500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41916200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39992300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37853200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37506100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32745200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30377000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>29887000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>31370400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>26588900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>27315600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>26777600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>26813400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>24830500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>23323100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>20972500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17298400</v>
+        <v>20968900</v>
       </c>
       <c r="E57" s="3">
-        <v>22899700</v>
+        <v>16766600</v>
       </c>
       <c r="F57" s="3">
-        <v>21447600</v>
+        <v>22195700</v>
       </c>
       <c r="G57" s="3">
-        <v>22779100</v>
+        <v>20788200</v>
       </c>
       <c r="H57" s="3">
-        <v>17833000</v>
+        <v>22078800</v>
       </c>
       <c r="I57" s="3">
-        <v>20043600</v>
+        <v>17284800</v>
       </c>
       <c r="J57" s="3">
+        <v>19427400</v>
+      </c>
+      <c r="K57" s="3">
         <v>18034400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18431300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13566400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14950600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15570300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14940700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12266000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13973100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13355500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14326200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10927000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11647500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10957000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12582100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8938300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11032500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10032000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10014300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>6362200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6695000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>6031800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2029900</v>
+        <v>2473300</v>
       </c>
       <c r="E58" s="3">
-        <v>1726600</v>
+        <v>1967500</v>
       </c>
       <c r="F58" s="3">
-        <v>2558100</v>
+        <v>1673500</v>
       </c>
       <c r="G58" s="3">
-        <v>1955100</v>
+        <v>2479500</v>
       </c>
       <c r="H58" s="3">
-        <v>2438000</v>
+        <v>1895000</v>
       </c>
       <c r="I58" s="3">
-        <v>620900</v>
+        <v>2363100</v>
       </c>
       <c r="J58" s="3">
+        <v>601800</v>
+      </c>
+      <c r="K58" s="3">
         <v>999000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>80800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>598900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>453800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>934600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1815600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1357000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>21000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>285600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>660100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1340300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1701400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1939000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1912200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1825900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1807800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2944100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1615600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12539100</v>
+        <v>12339000</v>
       </c>
       <c r="E59" s="3">
-        <v>13265400</v>
+        <v>12153600</v>
       </c>
       <c r="F59" s="3">
-        <v>12431900</v>
+        <v>12857600</v>
       </c>
       <c r="G59" s="3">
-        <v>11583100</v>
+        <v>12049700</v>
       </c>
       <c r="H59" s="3">
-        <v>10860700</v>
+        <v>11227000</v>
       </c>
       <c r="I59" s="3">
-        <v>10841100</v>
+        <v>10526800</v>
       </c>
       <c r="J59" s="3">
+        <v>10507800</v>
+      </c>
+      <c r="K59" s="3">
         <v>9989200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9769000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8417900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8818700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8928800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8582000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7926600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7586700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7088800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7054300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6348400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5245200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4735000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4852800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4456200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4604900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4511800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4433200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>6832000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>6921700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31867300</v>
+        <v>35781200</v>
       </c>
       <c r="E60" s="3">
-        <v>37891600</v>
+        <v>30887700</v>
       </c>
       <c r="F60" s="3">
-        <v>36437600</v>
+        <v>36726800</v>
       </c>
       <c r="G60" s="3">
-        <v>36317300</v>
+        <v>35317400</v>
       </c>
       <c r="H60" s="3">
-        <v>31131700</v>
+        <v>35200900</v>
       </c>
       <c r="I60" s="3">
-        <v>31505600</v>
+        <v>30174600</v>
       </c>
       <c r="J60" s="3">
+        <v>30537000</v>
+      </c>
+      <c r="K60" s="3">
         <v>29022600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28281100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22583300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24223100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25433700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25338300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21549600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21559800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20444300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21401500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17561000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17552800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17032300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19136300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15333500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>17549600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>16369700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>16255400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>16138300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>15232400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>12899100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4170100</v>
+        <v>4417800</v>
       </c>
       <c r="E61" s="3">
-        <v>4297600</v>
+        <v>4041900</v>
       </c>
       <c r="F61" s="3">
-        <v>4067300</v>
+        <v>4165500</v>
       </c>
       <c r="G61" s="3">
-        <v>3505300</v>
+        <v>3942300</v>
       </c>
       <c r="H61" s="3">
-        <v>2218800</v>
+        <v>3397500</v>
       </c>
       <c r="I61" s="3">
-        <v>1334200</v>
+        <v>2150600</v>
       </c>
       <c r="J61" s="3">
+        <v>1293200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1775800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1782600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1757100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1744300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1943300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2002600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2702700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1547800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1568600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1512300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1480700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1434100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1384800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1408600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1036900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1621000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2315500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2602100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1957100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1330600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1488500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3342500</v>
+        <v>3426900</v>
       </c>
       <c r="E62" s="3">
-        <v>3458900</v>
+        <v>3239800</v>
       </c>
       <c r="F62" s="3">
-        <v>3337700</v>
+        <v>3352600</v>
       </c>
       <c r="G62" s="3">
-        <v>3075800</v>
+        <v>3235100</v>
       </c>
       <c r="H62" s="3">
-        <v>3089600</v>
+        <v>2981300</v>
       </c>
       <c r="I62" s="3">
-        <v>2658300</v>
+        <v>2994600</v>
       </c>
       <c r="J62" s="3">
+        <v>2576600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2450600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2498700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1952600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1965700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1980600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1611900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1376100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1390500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1409600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1145200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>914000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>232400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>255700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>295100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>326300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>370000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>400900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>438400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>471400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>765600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48264200</v>
+        <v>52651000</v>
       </c>
       <c r="E66" s="3">
-        <v>54284800</v>
+        <v>46780400</v>
       </c>
       <c r="F66" s="3">
-        <v>52225600</v>
+        <v>52616000</v>
       </c>
       <c r="G66" s="3">
-        <v>50092900</v>
+        <v>50620100</v>
       </c>
       <c r="H66" s="3">
-        <v>43454500</v>
+        <v>48553000</v>
       </c>
       <c r="I66" s="3">
-        <v>40881800</v>
+        <v>42118700</v>
       </c>
       <c r="J66" s="3">
+        <v>39625000</v>
+      </c>
+      <c r="K66" s="3">
         <v>38058200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37251100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31504700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32676400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32970600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31849600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28618600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27388100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26166900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26836400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22565900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21696500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20936000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23011700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>18812300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19592200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19135000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>19340200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>19650900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>18394100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,19 +5856,22 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="3">
-        <v>4659300</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4516000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
@@ -5705,11 +5879,11 @@
       <c r="H72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I72" s="3">
-        <v>5030800</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4876200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -5717,23 +5891,23 @@
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N72" s="3">
         <v>5422100</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1479900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1609600</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>10</v>
@@ -5741,11 +5915,11 @@
       <c r="T72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V72" s="3">
         <v>-3287700</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>10</v>
@@ -5753,26 +5927,29 @@
       <c r="X72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-3205500</v>
-      </c>
-      <c r="Z72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-3104800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-3159800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-2968300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30065600</v>
+        <v>30557700</v>
       </c>
       <c r="E76" s="3">
-        <v>30330000</v>
+        <v>29141300</v>
       </c>
       <c r="F76" s="3">
-        <v>30159000</v>
+        <v>29397600</v>
       </c>
       <c r="G76" s="3">
-        <v>28617100</v>
+        <v>29231800</v>
       </c>
       <c r="H76" s="3">
-        <v>29352600</v>
+        <v>27737300</v>
       </c>
       <c r="I76" s="3">
-        <v>29696700</v>
+        <v>28450200</v>
       </c>
       <c r="J76" s="3">
+        <v>28783800</v>
+      </c>
+      <c r="K76" s="3">
         <v>30606900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31130900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26263200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26106000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22186300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20091900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13297600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12604200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11686300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10669800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10179200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8680500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8951000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8358800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7776600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7723400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7642600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7473100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>5179500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>4929000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>5128500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>890000</v>
+        <v>906700</v>
       </c>
       <c r="E81" s="3">
-        <v>431000</v>
+        <v>862600</v>
       </c>
       <c r="F81" s="3">
-        <v>847600</v>
+        <v>417700</v>
       </c>
       <c r="G81" s="3">
-        <v>622000</v>
+        <v>821600</v>
       </c>
       <c r="H81" s="3">
-        <v>-425200</v>
+        <v>602900</v>
       </c>
       <c r="I81" s="3">
-        <v>-734200</v>
+        <v>-412100</v>
       </c>
       <c r="J81" s="3">
+        <v>-711600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-398900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>114100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>503500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3386100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1114100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2423600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>169200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>559600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>94300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>94500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1118200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-697800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>420000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-317400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>218800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-134900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>150500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-73700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>34800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-250600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3071400</v>
+        <v>6408300</v>
       </c>
       <c r="E89" s="3">
-        <v>2627800</v>
+        <v>-2977000</v>
       </c>
       <c r="F89" s="3">
-        <v>1300800</v>
+        <v>2547000</v>
       </c>
       <c r="G89" s="3">
-        <v>4785800</v>
+        <v>1260800</v>
       </c>
       <c r="H89" s="3">
-        <v>-495400</v>
+        <v>4638600</v>
       </c>
       <c r="I89" s="3">
-        <v>920000</v>
+        <v>-480200</v>
       </c>
       <c r="J89" s="3">
+        <v>891700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2053700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4149200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1045200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>725700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1806000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3922400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-243300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>194300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3085000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>507700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>875500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>309700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2355000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-541300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>200500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>52300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2767300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>650300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-433900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1047900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2372800</v>
+        <v>-3875300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2545600</v>
+        <v>2299800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1386500</v>
+        <v>-2467400</v>
       </c>
       <c r="G94" s="3">
-        <v>-4396100</v>
+        <v>-1343900</v>
       </c>
       <c r="H94" s="3">
-        <v>648500</v>
+        <v>-4261000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2670300</v>
+        <v>628600</v>
       </c>
       <c r="J94" s="3">
+        <v>-2588300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4230000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2595800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1062300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1907800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1844800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3446700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1293100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>377600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-873100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3212700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-168500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-317800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-364300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2919400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-135000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>624600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-620100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4568600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-980900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2206600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3057800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>178400</v>
+        <v>-252400</v>
       </c>
       <c r="E100" s="3">
-        <v>-602000</v>
+        <v>172900</v>
       </c>
       <c r="F100" s="3">
-        <v>572700</v>
+        <v>-583500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1607600</v>
+        <v>555100</v>
       </c>
       <c r="H100" s="3">
-        <v>1804600</v>
+        <v>-1558200</v>
       </c>
       <c r="I100" s="3">
-        <v>-487100</v>
+        <v>1749100</v>
       </c>
       <c r="J100" s="3">
+        <v>-472100</v>
+      </c>
+      <c r="K100" s="3">
         <v>864000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2505200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-82400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3259000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>606800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4193100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2380000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>475500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>383300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-68600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-390500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-569400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-419200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>692900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1909300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-564100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-229500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2462600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1161900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1772300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-103200</v>
+        <v>251700</v>
       </c>
       <c r="E101" s="3">
-        <v>-138700</v>
+        <v>-100000</v>
       </c>
       <c r="F101" s="3">
-        <v>255600</v>
+        <v>-134500</v>
       </c>
       <c r="G101" s="3">
-        <v>444500</v>
+        <v>247700</v>
       </c>
       <c r="H101" s="3">
+        <v>430800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-197900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>44100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="M101" s="3">
+        <v>82900</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-413700</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-392000</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>96100</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="S101" s="3">
+        <v>123900</v>
+      </c>
+      <c r="T101" s="3">
+        <v>63500</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="W101" s="3">
+        <v>150400</v>
+      </c>
+      <c r="X101" s="3">
+        <v>171000</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-65200</v>
       </c>
-      <c r="I101" s="3">
-        <v>-204200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>44100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-138900</v>
-      </c>
-      <c r="L101" s="3">
-        <v>82900</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-413700</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-392000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="P101" s="3">
-        <v>96100</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-60200</v>
-      </c>
-      <c r="R101" s="3">
-        <v>123900</v>
-      </c>
-      <c r="S101" s="3">
-        <v>63500</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-64700</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>150400</v>
-      </c>
-      <c r="W101" s="3">
-        <v>171000</v>
-      </c>
-      <c r="X101" s="3">
-        <v>-65200</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-31600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-44300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-13900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-5300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>42400</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-623500</v>
+        <v>2532300</v>
       </c>
       <c r="E102" s="3">
-        <v>-658600</v>
+        <v>-604300</v>
       </c>
       <c r="F102" s="3">
-        <v>742600</v>
+        <v>-638300</v>
       </c>
       <c r="G102" s="3">
-        <v>-773400</v>
+        <v>719800</v>
       </c>
       <c r="H102" s="3">
-        <v>1892400</v>
+        <v>-749700</v>
       </c>
       <c r="I102" s="3">
-        <v>-2441600</v>
+        <v>1834300</v>
       </c>
       <c r="J102" s="3">
+        <v>-2366600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1268100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3919700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2107000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1663300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>176100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4659800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>939800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>793500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-171600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-132900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-115900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-30700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-323400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>299400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1167700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>605200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1085000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>515000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>825900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-736300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1679300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39671100</v>
+        <v>34202100</v>
       </c>
       <c r="E8" s="3">
-        <v>33474500</v>
+        <v>39757500</v>
       </c>
       <c r="F8" s="3">
-        <v>40706500</v>
+        <v>33547400</v>
       </c>
       <c r="G8" s="3">
-        <v>33554300</v>
+        <v>40795200</v>
       </c>
       <c r="H8" s="3">
-        <v>36869900</v>
+        <v>33627300</v>
       </c>
       <c r="I8" s="3">
-        <v>33019700</v>
+        <v>36950200</v>
       </c>
       <c r="J8" s="3">
+        <v>33091600</v>
+      </c>
+      <c r="K8" s="3">
         <v>38014500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31089400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>36450800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28282100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31226500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25672200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29627300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23065300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26281900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20763100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22959900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18498800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19581700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14663400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>17546300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>14366400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>16349600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12428800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>13832100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>10939000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>11548800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>8751100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>33962500</v>
+        <v>28851400</v>
       </c>
       <c r="E9" s="3">
-        <v>28511900</v>
+        <v>34036400</v>
       </c>
       <c r="F9" s="3">
-        <v>34983600</v>
+        <v>28574000</v>
       </c>
       <c r="G9" s="3">
-        <v>28567200</v>
+        <v>35059800</v>
       </c>
       <c r="H9" s="3">
-        <v>31924500</v>
+        <v>28629400</v>
       </c>
       <c r="I9" s="3">
-        <v>28411500</v>
+        <v>31994000</v>
       </c>
       <c r="J9" s="3">
+        <v>28473300</v>
+      </c>
+      <c r="K9" s="3">
         <v>32899800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26669600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31893800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>24228300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>26891500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>21723700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>25407600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19510100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22586700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>17665900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19579600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15720700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>16797400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12408700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>15176900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>12334900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>14218500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>10502000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>11955000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>18670800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>19852900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>14923400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5708600</v>
+        <v>5350700</v>
       </c>
       <c r="E10" s="3">
-        <v>4962600</v>
+        <v>5721100</v>
       </c>
       <c r="F10" s="3">
-        <v>5723000</v>
+        <v>4973400</v>
       </c>
       <c r="G10" s="3">
-        <v>4987100</v>
+        <v>5735400</v>
       </c>
       <c r="H10" s="3">
-        <v>4945500</v>
+        <v>4997900</v>
       </c>
       <c r="I10" s="3">
-        <v>4608200</v>
+        <v>4956200</v>
       </c>
       <c r="J10" s="3">
+        <v>4618200</v>
+      </c>
+      <c r="K10" s="3">
         <v>5114600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4419800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4557000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4053800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4335000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3948500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4219700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3555200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3695200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3097200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3380300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2778100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2784300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2254700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2369400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2031400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2131100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1926800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1877100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-7731900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>-8304100</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>-6172300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>549600</v>
+        <v>514800</v>
       </c>
       <c r="E12" s="3">
-        <v>564300</v>
+        <v>550800</v>
       </c>
       <c r="F12" s="3">
-        <v>589100</v>
+        <v>565600</v>
       </c>
       <c r="G12" s="3">
-        <v>555700</v>
+        <v>590400</v>
       </c>
       <c r="H12" s="3">
-        <v>546600</v>
+        <v>556900</v>
       </c>
       <c r="I12" s="3">
-        <v>598800</v>
+        <v>547800</v>
       </c>
       <c r="J12" s="3">
+        <v>600100</v>
+      </c>
+      <c r="K12" s="3">
         <v>562000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>565400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>526700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>627000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>623400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>601500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>527400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>616900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>549200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>548200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>565400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>564000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>505400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>478900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>395500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>342700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>302600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>257500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>226400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>184500</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>168700</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>175700</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,186 +1282,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-143000</v>
+        <v>-700</v>
       </c>
       <c r="E14" s="3">
-        <v>-67900</v>
+        <v>-143300</v>
       </c>
       <c r="F14" s="3">
-        <v>-11400</v>
+        <v>-68100</v>
       </c>
       <c r="G14" s="3">
-        <v>-173100</v>
+        <v>-11500</v>
       </c>
       <c r="H14" s="3">
+        <v>-173400</v>
+      </c>
+      <c r="I14" s="3">
         <v>-4300</v>
       </c>
-      <c r="I14" s="3">
-        <v>489000</v>
-      </c>
       <c r="J14" s="3">
+        <v>490000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-82300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-12500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-11500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-154400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-50700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-598200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>3100</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>10</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>60300</v>
+        <v>58100</v>
       </c>
       <c r="E15" s="3">
-        <v>61400</v>
+        <v>60500</v>
       </c>
       <c r="F15" s="3">
-        <v>60500</v>
+        <v>61600</v>
       </c>
       <c r="G15" s="3">
-        <v>61000</v>
+        <v>60600</v>
       </c>
       <c r="H15" s="3">
-        <v>57600</v>
+        <v>61200</v>
       </c>
       <c r="I15" s="3">
-        <v>54000</v>
+        <v>57700</v>
       </c>
       <c r="J15" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K15" s="3">
         <v>51900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>53400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>53300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>50600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>51900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>50300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>43800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>44500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>72600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>22600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>67800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>65800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>63900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>64600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>64000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>66700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>66300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>65700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>63900</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>65100</v>
       </c>
       <c r="AE15" s="3">
         <v>65100</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>65100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>38527700</v>
+        <v>32916900</v>
       </c>
       <c r="E17" s="3">
-        <v>32586100</v>
+        <v>38611600</v>
       </c>
       <c r="F17" s="3">
-        <v>40050600</v>
+        <v>32657000</v>
       </c>
       <c r="G17" s="3">
-        <v>32348000</v>
+        <v>40137800</v>
       </c>
       <c r="H17" s="3">
-        <v>36347900</v>
+        <v>32418400</v>
       </c>
       <c r="I17" s="3">
-        <v>33176700</v>
+        <v>36427000</v>
       </c>
       <c r="J17" s="3">
+        <v>33249000</v>
+      </c>
+      <c r="K17" s="3">
         <v>38068500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30723700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36407600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28051100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>31143700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25026300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28884000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22699300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26200400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19997300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22613600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18311500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19718100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14754400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17694700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>14365700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>16586500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>12354200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>13891900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>10842800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>11598000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>8785200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1143400</v>
+        <v>1285200</v>
       </c>
       <c r="E18" s="3">
-        <v>888400</v>
+        <v>1145900</v>
       </c>
       <c r="F18" s="3">
-        <v>656000</v>
+        <v>890300</v>
       </c>
       <c r="G18" s="3">
-        <v>1206300</v>
+        <v>657400</v>
       </c>
       <c r="H18" s="3">
-        <v>522000</v>
+        <v>1208900</v>
       </c>
       <c r="I18" s="3">
-        <v>-157100</v>
+        <v>523200</v>
       </c>
       <c r="J18" s="3">
+        <v>-157400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-54000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>365700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>231000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>82800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>645900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>743300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>366100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>81500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>765800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>346300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>187200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-136400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-91100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-148400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-236900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>74600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-59800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>96200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-49200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-34100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>287800</v>
+        <v>304300</v>
       </c>
       <c r="E20" s="3">
-        <v>268700</v>
+        <v>288400</v>
       </c>
       <c r="F20" s="3">
-        <v>-34000</v>
+        <v>269300</v>
       </c>
       <c r="G20" s="3">
-        <v>-64200</v>
+        <v>-34100</v>
       </c>
       <c r="H20" s="3">
-        <v>268800</v>
+        <v>-64300</v>
       </c>
       <c r="I20" s="3">
-        <v>-197000</v>
+        <v>269400</v>
       </c>
       <c r="J20" s="3">
+        <v>-197500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-591600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-698300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>140600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>378600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3292200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>617500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1840500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-115100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>573300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-562800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-172200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>990200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-542100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>534700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-120500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>265800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>95700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>120500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>42100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-15000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-113100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1444200</v>
+        <v>1596100</v>
       </c>
       <c r="E21" s="3">
-        <v>1427100</v>
+        <v>1447400</v>
       </c>
       <c r="F21" s="3">
-        <v>638100</v>
+        <v>1430200</v>
       </c>
       <c r="G21" s="3">
-        <v>1163300</v>
+        <v>639400</v>
       </c>
       <c r="H21" s="3">
-        <v>796500</v>
+        <v>1165800</v>
       </c>
       <c r="I21" s="3">
-        <v>-123700</v>
+        <v>798200</v>
       </c>
       <c r="J21" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-641300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-321900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>153900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>841900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3397100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1272200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2592000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>472700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>658500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>207000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>126300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1433100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-660600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>476100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-259600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>437800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-31900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>117300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-15000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>219700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-158100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>90100</v>
+        <v>98000</v>
       </c>
       <c r="E22" s="3">
-        <v>81300</v>
+        <v>90300</v>
       </c>
       <c r="F22" s="3">
-        <v>96200</v>
+        <v>81500</v>
       </c>
       <c r="G22" s="3">
-        <v>79800</v>
+        <v>96400</v>
       </c>
       <c r="H22" s="3">
-        <v>66700</v>
+        <v>79900</v>
       </c>
       <c r="I22" s="3">
-        <v>47500</v>
+        <v>66800</v>
       </c>
       <c r="J22" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K22" s="3">
         <v>61500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>39300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>41200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>43900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>32700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>33800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>25100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>28600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>21000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>33700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>34400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>32800</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>42000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>30900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>27600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>9200</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1341200</v>
+        <v>1491500</v>
       </c>
       <c r="E23" s="3">
-        <v>1075800</v>
+        <v>1344100</v>
       </c>
       <c r="F23" s="3">
-        <v>525800</v>
+        <v>1078100</v>
       </c>
       <c r="G23" s="3">
-        <v>1062300</v>
+        <v>526900</v>
       </c>
       <c r="H23" s="3">
-        <v>724200</v>
+        <v>1064600</v>
       </c>
       <c r="I23" s="3">
-        <v>-401600</v>
+        <v>725700</v>
       </c>
       <c r="J23" s="3">
+        <v>-402500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-707200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-371900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>150400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>573800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3333800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1219500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2536000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>218300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>621000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>177900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>150400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1148800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-699500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>409900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-303300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>233600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-141200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>153100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-48600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>53600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-171500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-70600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>387300</v>
+        <v>356100</v>
       </c>
       <c r="E24" s="3">
-        <v>221700</v>
+        <v>388100</v>
       </c>
       <c r="F24" s="3">
-        <v>82000</v>
+        <v>222200</v>
       </c>
       <c r="G24" s="3">
-        <v>241300</v>
+        <v>82200</v>
       </c>
       <c r="H24" s="3">
-        <v>169100</v>
+        <v>241800</v>
       </c>
       <c r="I24" s="3">
-        <v>83100</v>
+        <v>169400</v>
       </c>
       <c r="J24" s="3">
+        <v>83300</v>
+      </c>
+      <c r="K24" s="3">
         <v>25600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>92700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>81800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>66700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-46200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>101700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>117400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>51500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>73800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>93100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>67000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>42700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>23400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>13000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>14600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>953900</v>
+        <v>1135400</v>
       </c>
       <c r="E26" s="3">
-        <v>854100</v>
+        <v>955900</v>
       </c>
       <c r="F26" s="3">
-        <v>443800</v>
+        <v>856000</v>
       </c>
       <c r="G26" s="3">
-        <v>821000</v>
+        <v>444800</v>
       </c>
       <c r="H26" s="3">
-        <v>555100</v>
+        <v>822800</v>
       </c>
       <c r="I26" s="3">
-        <v>-484700</v>
+        <v>556300</v>
       </c>
       <c r="J26" s="3">
+        <v>-485800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-732800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-464600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>68600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>507000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3380000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1117800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2418600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>166800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>547200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>84800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>83400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1106100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-708400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>402600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-326700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>212000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-143100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>145200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-46200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>40500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-186100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-70900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>906700</v>
+        <v>1095800</v>
       </c>
       <c r="E27" s="3">
-        <v>862600</v>
+        <v>908700</v>
       </c>
       <c r="F27" s="3">
-        <v>417700</v>
+        <v>864500</v>
       </c>
       <c r="G27" s="3">
-        <v>821600</v>
+        <v>418700</v>
       </c>
       <c r="H27" s="3">
-        <v>602900</v>
+        <v>823400</v>
       </c>
       <c r="I27" s="3">
-        <v>-412100</v>
+        <v>604200</v>
       </c>
       <c r="J27" s="3">
+        <v>-413000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-711600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-398900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>114100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>503500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3386100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1114100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2423600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>169200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>559600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>94300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>94500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1118200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-697800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>420000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-317400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>218800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-134900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>150500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-42600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>43500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-183400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2563,19 +2624,22 @@
         <v>0</v>
       </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-31100</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-8700</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-67100</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>-66100</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-287800</v>
+        <v>-304300</v>
       </c>
       <c r="E32" s="3">
-        <v>-268700</v>
+        <v>-288400</v>
       </c>
       <c r="F32" s="3">
-        <v>34000</v>
+        <v>-269300</v>
       </c>
       <c r="G32" s="3">
-        <v>64200</v>
+        <v>34100</v>
       </c>
       <c r="H32" s="3">
-        <v>-268800</v>
+        <v>64300</v>
       </c>
       <c r="I32" s="3">
-        <v>197000</v>
+        <v>-269400</v>
       </c>
       <c r="J32" s="3">
+        <v>197500</v>
+      </c>
+      <c r="K32" s="3">
         <v>591600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>698300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-140600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-378600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3292200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-617500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1840500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>115100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-573300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>562800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>172200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-990200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>542100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-534700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>120500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-265800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-95700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-120500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-42100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>15000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>113100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>906700</v>
+        <v>1095800</v>
       </c>
       <c r="E33" s="3">
-        <v>862600</v>
+        <v>908700</v>
       </c>
       <c r="F33" s="3">
-        <v>417700</v>
+        <v>864500</v>
       </c>
       <c r="G33" s="3">
-        <v>821600</v>
+        <v>418700</v>
       </c>
       <c r="H33" s="3">
-        <v>602900</v>
+        <v>823400</v>
       </c>
       <c r="I33" s="3">
-        <v>-412100</v>
+        <v>604200</v>
       </c>
       <c r="J33" s="3">
+        <v>-413000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-711600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-398900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>114100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>503500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3386100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1114100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2423600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>169200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>559600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>94300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>94500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1118200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-697800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>420000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-317400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>218800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-134900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>150500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-73700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>34800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-250600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>906700</v>
+        <v>1095800</v>
       </c>
       <c r="E35" s="3">
-        <v>862600</v>
+        <v>908700</v>
       </c>
       <c r="F35" s="3">
-        <v>417700</v>
+        <v>864500</v>
       </c>
       <c r="G35" s="3">
-        <v>821600</v>
+        <v>418700</v>
       </c>
       <c r="H35" s="3">
-        <v>602900</v>
+        <v>823400</v>
       </c>
       <c r="I35" s="3">
-        <v>-412100</v>
+        <v>604200</v>
       </c>
       <c r="J35" s="3">
+        <v>-413000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-711600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-398900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>114100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>503500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3386100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1114100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2423600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>169200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>559600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>94300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>94500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1118200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-697800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>420000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-317400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>218800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-134900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>150500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-73700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>34800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-250600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,809 +3354,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12540700</v>
+        <v>16013300</v>
       </c>
       <c r="E41" s="3">
-        <v>10247100</v>
+        <v>12568000</v>
       </c>
       <c r="F41" s="3">
-        <v>10865500</v>
+        <v>10269400</v>
       </c>
       <c r="G41" s="3">
-        <v>11484800</v>
+        <v>10889100</v>
       </c>
       <c r="H41" s="3">
-        <v>10860000</v>
+        <v>11509800</v>
       </c>
       <c r="I41" s="3">
-        <v>11637300</v>
+        <v>10883600</v>
       </c>
       <c r="J41" s="3">
+        <v>11662700</v>
+      </c>
+      <c r="K41" s="3">
         <v>9750300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12508900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13981000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9940000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11983000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10773900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10546800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6867200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5692900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4946600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5007900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5202700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4975900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4758300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5055400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5051100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3812400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3207200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4134000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3435700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2263900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>3611700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19854200</v>
+        <v>17450800</v>
       </c>
       <c r="E42" s="3">
-        <v>16869800</v>
+        <v>19897500</v>
       </c>
       <c r="F42" s="3">
-        <v>19440100</v>
+        <v>16906500</v>
       </c>
       <c r="G42" s="3">
-        <v>17697700</v>
+        <v>19482400</v>
       </c>
       <c r="H42" s="3">
-        <v>16839900</v>
+        <v>17736200</v>
       </c>
       <c r="I42" s="3">
-        <v>13240100</v>
+        <v>16876600</v>
       </c>
       <c r="J42" s="3">
+        <v>13268900</v>
+      </c>
+      <c r="K42" s="3">
         <v>15784600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14548600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10836500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8835100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8432300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7132600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7180900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4632500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3788300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3767300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3752600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>644900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>295600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>723900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1829700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1713700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1274500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2383300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1890700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3089800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>2623300</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>1793200</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3358800</v>
+        <v>3498500</v>
       </c>
       <c r="E43" s="3">
-        <v>2883700</v>
+        <v>3366100</v>
       </c>
       <c r="F43" s="3">
-        <v>3681200</v>
+        <v>2890000</v>
       </c>
       <c r="G43" s="3">
-        <v>3337300</v>
+        <v>3689200</v>
       </c>
       <c r="H43" s="3">
-        <v>2689500</v>
+        <v>3344600</v>
       </c>
       <c r="I43" s="3">
-        <v>2275400</v>
+        <v>2695300</v>
       </c>
       <c r="J43" s="3">
+        <v>2280400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2397400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2461700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3709000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2365400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2013200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2079900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1986200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1702600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1844100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2499900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2102900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1622800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2463500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2348300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3701700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2819300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4850500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5597400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6769800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5409200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>4288500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>4025000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8757600</v>
+        <v>8925200</v>
       </c>
       <c r="E44" s="3">
-        <v>8721300</v>
+        <v>8776600</v>
       </c>
       <c r="F44" s="3">
-        <v>10739800</v>
+        <v>8740300</v>
       </c>
       <c r="G44" s="3">
-        <v>9886700</v>
+        <v>10763200</v>
       </c>
       <c r="H44" s="3">
-        <v>10475300</v>
+        <v>9908200</v>
       </c>
       <c r="I44" s="3">
-        <v>9477900</v>
+        <v>10498100</v>
       </c>
       <c r="J44" s="3">
+        <v>9498500</v>
+      </c>
+      <c r="K44" s="3">
         <v>10416300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8535300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9445600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8285800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8203400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8155700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8027700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7980200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8920400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7431900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6954700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5841700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6394500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5578100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6227400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5188800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6188800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5388800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4622900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3906300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4204300</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>3287100</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3599200</v>
+        <v>3490700</v>
       </c>
       <c r="E45" s="3">
-        <v>3316800</v>
+        <v>3607100</v>
       </c>
       <c r="F45" s="3">
-        <v>3644400</v>
+        <v>3324000</v>
       </c>
       <c r="G45" s="3">
-        <v>3666700</v>
+        <v>3652400</v>
       </c>
       <c r="H45" s="3">
-        <v>3774900</v>
+        <v>3674700</v>
       </c>
       <c r="I45" s="3">
-        <v>3219200</v>
+        <v>3783100</v>
       </c>
       <c r="J45" s="3">
+        <v>3226200</v>
+      </c>
+      <c r="K45" s="3">
         <v>2940200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2998600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3046100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2252800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2052400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2445100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2537400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1621900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1172100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1310600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1654700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1212300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1098700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1921800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2095000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1439700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>945200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1774000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2015800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1285200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3842100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>840300</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>48110600</v>
+        <v>49378500</v>
       </c>
       <c r="E46" s="3">
-        <v>42038700</v>
+        <v>48215300</v>
       </c>
       <c r="F46" s="3">
-        <v>48371000</v>
+        <v>42130300</v>
       </c>
       <c r="G46" s="3">
-        <v>46073200</v>
+        <v>48476300</v>
       </c>
       <c r="H46" s="3">
-        <v>44639500</v>
+        <v>46173500</v>
       </c>
       <c r="I46" s="3">
-        <v>39850000</v>
+        <v>44736700</v>
       </c>
       <c r="J46" s="3">
+        <v>39936700</v>
+      </c>
+      <c r="K46" s="3">
         <v>41288800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41053100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41018200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31679100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32684300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30587100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30279000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22804500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21417800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19956300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19472800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14524500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15228200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15330400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18909200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16212600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17071400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>18350700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>19433200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>17126200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>15551100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>13557200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8907100</v>
+        <v>8655700</v>
       </c>
       <c r="E47" s="3">
-        <v>9313500</v>
+        <v>8926500</v>
       </c>
       <c r="F47" s="3">
-        <v>9541500</v>
+        <v>9333800</v>
       </c>
       <c r="G47" s="3">
-        <v>10190300</v>
+        <v>9562300</v>
       </c>
       <c r="H47" s="3">
-        <v>10114600</v>
+        <v>10212500</v>
       </c>
       <c r="I47" s="3">
-        <v>9908400</v>
+        <v>10136600</v>
       </c>
       <c r="J47" s="3">
+        <v>9930000</v>
+      </c>
+      <c r="K47" s="3">
         <v>11340700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12655200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13323000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13426300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13584000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11753100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10996100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9079600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8775800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8358600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8423900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8106100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6863300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7013800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5555200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4438500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4241400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2881600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2652400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>3265500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>3299200</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>3258900</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12691600</v>
+        <v>13693800</v>
       </c>
       <c r="E48" s="3">
-        <v>12274000</v>
+        <v>12719200</v>
       </c>
       <c r="F48" s="3">
-        <v>12194600</v>
+        <v>12300700</v>
       </c>
       <c r="G48" s="3">
-        <v>11594200</v>
+        <v>12221200</v>
       </c>
       <c r="H48" s="3">
-        <v>10026300</v>
+        <v>11619400</v>
       </c>
       <c r="I48" s="3">
-        <v>9621700</v>
+        <v>10048100</v>
       </c>
       <c r="J48" s="3">
+        <v>9642700</v>
+      </c>
+      <c r="K48" s="3">
         <v>8094300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7452400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7186400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6362600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6401400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6278600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5475000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5079500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5405300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5221700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4807300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4842500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4013700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3446300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2997300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2456000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2340500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1904000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1599700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1382600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1311100</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1280900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9550400</v>
+        <v>9562600</v>
       </c>
       <c r="E49" s="3">
-        <v>9074200</v>
+        <v>9571200</v>
       </c>
       <c r="F49" s="3">
-        <v>9108600</v>
+        <v>9093900</v>
       </c>
       <c r="G49" s="3">
-        <v>9103800</v>
+        <v>9128500</v>
       </c>
       <c r="H49" s="3">
-        <v>7433400</v>
+        <v>9123600</v>
       </c>
       <c r="I49" s="3">
-        <v>7406900</v>
+        <v>7449600</v>
       </c>
       <c r="J49" s="3">
+        <v>7423000</v>
+      </c>
+      <c r="K49" s="3">
         <v>4491400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4519900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4465800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4137700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3966100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4229400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3622600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3318700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3333000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3303300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3256200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3246200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3214100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3076700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2868200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2862900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3026700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>3021300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2440200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2475700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2513800</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2566700</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3949100</v>
+        <v>3959000</v>
       </c>
       <c r="E52" s="3">
-        <v>3221300</v>
+        <v>3957600</v>
       </c>
       <c r="F52" s="3">
-        <v>2797800</v>
+        <v>3228300</v>
       </c>
       <c r="G52" s="3">
-        <v>2890300</v>
+        <v>2803900</v>
       </c>
       <c r="H52" s="3">
-        <v>4076600</v>
+        <v>2896600</v>
       </c>
       <c r="I52" s="3">
-        <v>3781800</v>
+        <v>4085500</v>
       </c>
       <c r="J52" s="3">
+        <v>3790000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3193600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2984600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2388700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2162100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2146600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2308600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1568800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1633700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1060400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1013300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1545900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2025800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1057800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1019700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1040600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>618800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>635500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>620000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>687900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>580500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1665500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>83208600</v>
+        <v>85249600</v>
       </c>
       <c r="E54" s="3">
-        <v>75921700</v>
+        <v>83389800</v>
       </c>
       <c r="F54" s="3">
-        <v>82013500</v>
+        <v>76087100</v>
       </c>
       <c r="G54" s="3">
-        <v>79851900</v>
+        <v>82192100</v>
       </c>
       <c r="H54" s="3">
-        <v>76290300</v>
+        <v>80025800</v>
       </c>
       <c r="I54" s="3">
-        <v>70568800</v>
+        <v>76456400</v>
       </c>
       <c r="J54" s="3">
+        <v>70722500</v>
+      </c>
+      <c r="K54" s="3">
         <v>68408700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68665100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>68382000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57767800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58782500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55156900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>51941500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41916200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39992300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37853200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37506100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32745200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>30377000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>29887000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>31370400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>26588900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>27315600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>26777600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>26813400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>24830500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>23323100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>20972500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20968900</v>
+        <v>21225900</v>
       </c>
       <c r="E57" s="3">
-        <v>16766600</v>
+        <v>21014500</v>
       </c>
       <c r="F57" s="3">
-        <v>22195700</v>
+        <v>16803100</v>
       </c>
       <c r="G57" s="3">
-        <v>20788200</v>
+        <v>22244000</v>
       </c>
       <c r="H57" s="3">
-        <v>22078800</v>
+        <v>20833500</v>
       </c>
       <c r="I57" s="3">
-        <v>17284800</v>
+        <v>22126900</v>
       </c>
       <c r="J57" s="3">
+        <v>17322400</v>
+      </c>
+      <c r="K57" s="3">
         <v>19427400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18034400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18431300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13566400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14950600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15570300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14940700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12266000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13973100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13355500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14326200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10927000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11647500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10957000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12582100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8938300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>11032500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10032000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>10014300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6362200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>6695000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>6031800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2473300</v>
+        <v>1897200</v>
       </c>
       <c r="E58" s="3">
-        <v>1967500</v>
+        <v>2478700</v>
       </c>
       <c r="F58" s="3">
-        <v>1673500</v>
+        <v>1971800</v>
       </c>
       <c r="G58" s="3">
-        <v>2479500</v>
+        <v>1677100</v>
       </c>
       <c r="H58" s="3">
-        <v>1895000</v>
+        <v>2484900</v>
       </c>
       <c r="I58" s="3">
-        <v>2363100</v>
+        <v>1899200</v>
       </c>
       <c r="J58" s="3">
+        <v>2368200</v>
+      </c>
+      <c r="K58" s="3">
         <v>601800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>999000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>80800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>598900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>453800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>934600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1815600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1357000</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>21000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>285600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>660100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1340300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1701400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1939000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1912200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1825900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1807800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2944100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1615600</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12339000</v>
+        <v>13114300</v>
       </c>
       <c r="E59" s="3">
-        <v>12153600</v>
+        <v>12365900</v>
       </c>
       <c r="F59" s="3">
-        <v>12857600</v>
+        <v>12180000</v>
       </c>
       <c r="G59" s="3">
-        <v>12049700</v>
+        <v>12885600</v>
       </c>
       <c r="H59" s="3">
-        <v>11227000</v>
+        <v>12075900</v>
       </c>
       <c r="I59" s="3">
-        <v>10526800</v>
+        <v>11251400</v>
       </c>
       <c r="J59" s="3">
+        <v>10549700</v>
+      </c>
+      <c r="K59" s="3">
         <v>10507800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9989200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9769000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8417900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8818700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8928800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8582000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7926600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7586700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7088800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7054300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6348400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5245200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4735000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4852800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4456200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4604900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4511800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4433200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>6832000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>6921700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35781200</v>
+        <v>36237400</v>
       </c>
       <c r="E60" s="3">
-        <v>30887700</v>
+        <v>35859100</v>
       </c>
       <c r="F60" s="3">
-        <v>36726800</v>
+        <v>30954900</v>
       </c>
       <c r="G60" s="3">
-        <v>35317400</v>
+        <v>36806700</v>
       </c>
       <c r="H60" s="3">
-        <v>35200900</v>
+        <v>35394300</v>
       </c>
       <c r="I60" s="3">
-        <v>30174600</v>
+        <v>35277500</v>
       </c>
       <c r="J60" s="3">
+        <v>30240300</v>
+      </c>
+      <c r="K60" s="3">
         <v>30537000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29022600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28281100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22583300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24223100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25433700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25338300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21549600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21559800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20444300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21401500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17561000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17552800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>17032300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19136300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15333500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>17549600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>16369700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>16255400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>16138300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>15232400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>12899100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4417800</v>
+        <v>4520900</v>
       </c>
       <c r="E61" s="3">
-        <v>4041900</v>
+        <v>4427400</v>
       </c>
       <c r="F61" s="3">
-        <v>4165500</v>
+        <v>4050700</v>
       </c>
       <c r="G61" s="3">
-        <v>3942300</v>
+        <v>4174600</v>
       </c>
       <c r="H61" s="3">
-        <v>3397500</v>
+        <v>3950900</v>
       </c>
       <c r="I61" s="3">
-        <v>2150600</v>
+        <v>3404900</v>
       </c>
       <c r="J61" s="3">
+        <v>2155300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1293200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1775800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1782600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1757100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1744300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1943300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2002600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2702700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1547800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1568600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1512300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1480700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1434100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1384800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1408600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1036900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1621000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2315500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2602100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1957100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1330600</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1488500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3426900</v>
+        <v>3580400</v>
       </c>
       <c r="E62" s="3">
-        <v>3239800</v>
+        <v>3434300</v>
       </c>
       <c r="F62" s="3">
-        <v>3352600</v>
+        <v>3246800</v>
       </c>
       <c r="G62" s="3">
-        <v>3235100</v>
+        <v>3359900</v>
       </c>
       <c r="H62" s="3">
-        <v>2981300</v>
+        <v>3242100</v>
       </c>
       <c r="I62" s="3">
-        <v>2994600</v>
+        <v>2987800</v>
       </c>
       <c r="J62" s="3">
+        <v>3001200</v>
+      </c>
+      <c r="K62" s="3">
         <v>2576600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2450600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2498700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1952600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1965700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1980600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1611900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1376100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1390500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1409600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1145200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>914000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>232400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>255700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>295100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>326300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>370000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>400900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>438400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>471400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>765600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52651000</v>
+        <v>53478200</v>
       </c>
       <c r="E66" s="3">
-        <v>46780400</v>
+        <v>52765600</v>
       </c>
       <c r="F66" s="3">
-        <v>52616000</v>
+        <v>46882300</v>
       </c>
       <c r="G66" s="3">
-        <v>50620100</v>
+        <v>52730500</v>
       </c>
       <c r="H66" s="3">
-        <v>48553000</v>
+        <v>50730300</v>
       </c>
       <c r="I66" s="3">
-        <v>42118700</v>
+        <v>48658700</v>
       </c>
       <c r="J66" s="3">
+        <v>42210400</v>
+      </c>
+      <c r="K66" s="3">
         <v>39625000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38058200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37251100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31504700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32676400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32970600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31849600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28618600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27388100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26166900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26836400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22565900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21696500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20936000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>23011700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>18812300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19592200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>19135000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>19340200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>19650900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>18394100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5870,11 +6044,11 @@
       <c r="E72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="3">
-        <v>4516000</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4525800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -5882,11 +6056,11 @@
       <c r="I72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3">
         <v>4876200</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>10</v>
@@ -5894,23 +6068,23 @@
       <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" s="3">
         <v>5422100</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1479900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1609600</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>10</v>
@@ -5918,11 +6092,11 @@
       <c r="U72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W72" s="3">
         <v>-3287700</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>10</v>
@@ -5930,26 +6104,29 @@
       <c r="Y72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-3205500</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-3104800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-3159800</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-2968300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30557700</v>
+        <v>31771400</v>
       </c>
       <c r="E76" s="3">
-        <v>29141300</v>
+        <v>30624200</v>
       </c>
       <c r="F76" s="3">
-        <v>29397600</v>
+        <v>29204700</v>
       </c>
       <c r="G76" s="3">
-        <v>29231800</v>
+        <v>29461600</v>
       </c>
       <c r="H76" s="3">
-        <v>27737300</v>
+        <v>29295500</v>
       </c>
       <c r="I76" s="3">
-        <v>28450200</v>
+        <v>27797700</v>
       </c>
       <c r="J76" s="3">
+        <v>28512100</v>
+      </c>
+      <c r="K76" s="3">
         <v>28783800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30606900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31130900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26263200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26106000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22186300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20091900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13297600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12604200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11686300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10669800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10179200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8680500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8951000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8358800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7776600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7723400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7642600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7473100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>5179500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>4929000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>5128500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>906700</v>
+        <v>1095800</v>
       </c>
       <c r="E81" s="3">
-        <v>862600</v>
+        <v>908700</v>
       </c>
       <c r="F81" s="3">
-        <v>417700</v>
+        <v>864500</v>
       </c>
       <c r="G81" s="3">
-        <v>821600</v>
+        <v>418700</v>
       </c>
       <c r="H81" s="3">
-        <v>602900</v>
+        <v>823400</v>
       </c>
       <c r="I81" s="3">
-        <v>-412100</v>
+        <v>604200</v>
       </c>
       <c r="J81" s="3">
+        <v>-413000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-711600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-398900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>114100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>503500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3386100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1114100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2423600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>169200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>559600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>94300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>94500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1118200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-697800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>420000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-317400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>218800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-134900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>150500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-73700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>34800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-250600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6408300</v>
+        <v>2071800</v>
       </c>
       <c r="E89" s="3">
-        <v>-2977000</v>
+        <v>6422200</v>
       </c>
       <c r="F89" s="3">
-        <v>2547000</v>
+        <v>-2983500</v>
       </c>
       <c r="G89" s="3">
-        <v>1260800</v>
+        <v>2552500</v>
       </c>
       <c r="H89" s="3">
-        <v>4638600</v>
+        <v>1263600</v>
       </c>
       <c r="I89" s="3">
-        <v>-480200</v>
+        <v>4648700</v>
       </c>
       <c r="J89" s="3">
+        <v>-481200</v>
+      </c>
+      <c r="K89" s="3">
         <v>891700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2053700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4149200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1045200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>725700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1806000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3922400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-243300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>194300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3085000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>507700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>875500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>309700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2355000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-541300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>200500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>52300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2767300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>650300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-433900</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1047900</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3875300</v>
+        <v>2066200</v>
       </c>
       <c r="E94" s="3">
-        <v>2299800</v>
+        <v>-3883800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2467400</v>
+        <v>2304800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1343900</v>
+        <v>-2472700</v>
       </c>
       <c r="H94" s="3">
-        <v>-4261000</v>
+        <v>-1346800</v>
       </c>
       <c r="I94" s="3">
-        <v>628600</v>
+        <v>-4270300</v>
       </c>
       <c r="J94" s="3">
+        <v>629900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2588300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4230000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2595800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1062300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1907800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1844800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3446700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1293100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>377600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-873100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3212700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-168500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-317800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-364300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2919400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-135000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>624600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-620100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4568600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-980900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2206600</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-3057800</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-252400</v>
+        <v>-619400</v>
       </c>
       <c r="E100" s="3">
-        <v>172900</v>
+        <v>-253000</v>
       </c>
       <c r="F100" s="3">
-        <v>-583500</v>
+        <v>173300</v>
       </c>
       <c r="G100" s="3">
-        <v>555100</v>
+        <v>-584800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1558200</v>
+        <v>556300</v>
       </c>
       <c r="I100" s="3">
-        <v>1749100</v>
+        <v>-1561500</v>
       </c>
       <c r="J100" s="3">
+        <v>1752900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-472100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>864000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2505200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-82400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3259000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>606800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4193100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2380000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>475500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>383300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-68600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-390500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-569400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-419200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>692900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1909300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-564100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-229500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2462600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1161900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1772300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>251700</v>
+        <v>-105400</v>
       </c>
       <c r="E101" s="3">
-        <v>-100000</v>
+        <v>252300</v>
       </c>
       <c r="F101" s="3">
-        <v>-134500</v>
+        <v>-100200</v>
       </c>
       <c r="G101" s="3">
-        <v>247700</v>
+        <v>-134800</v>
       </c>
       <c r="H101" s="3">
-        <v>430800</v>
+        <v>248300</v>
       </c>
       <c r="I101" s="3">
-        <v>-63200</v>
+        <v>431800</v>
       </c>
       <c r="J101" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-197900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>44100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-138900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>82900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-413700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-392000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>96100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-60200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>123900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>63500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-64700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-19000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>150400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>171000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-65200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-31600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-44300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-13900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-5300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>42400</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2532300</v>
+        <v>3413200</v>
       </c>
       <c r="E102" s="3">
-        <v>-604300</v>
+        <v>2537800</v>
       </c>
       <c r="F102" s="3">
-        <v>-638300</v>
+        <v>-605600</v>
       </c>
       <c r="G102" s="3">
-        <v>719800</v>
+        <v>-639700</v>
       </c>
       <c r="H102" s="3">
-        <v>-749700</v>
+        <v>721300</v>
       </c>
       <c r="I102" s="3">
-        <v>1834300</v>
+        <v>-751300</v>
       </c>
       <c r="J102" s="3">
+        <v>1838300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2366600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1268100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3919700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2107000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1663300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>176100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4659800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>939800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>793500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-171600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-132900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-115900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-30700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-323400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>299400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1167700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>605200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1085000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>515000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>825900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-736300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-1679300</v>
       </c>
     </row>
